--- a/MT.xlsx
+++ b/MT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CABF1DB-0515-456F-B4E7-58BBC4F62A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4351B9-FD31-444E-8668-030C7FB8C68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="1000" activeTab="1" xr2:uid="{556EC7CD-A7EC-924A-86C6-FEF6C985B965}"/>
   </bookViews>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="342">
   <si>
     <t>Component</t>
   </si>
@@ -2579,6 +2579,21 @@
   </si>
   <si>
     <t>NEED</t>
+  </si>
+  <si>
+    <t>ntar tanya so</t>
+  </si>
+  <si>
+    <t>seharusnya 0,3 dia buat 0,125</t>
+  </si>
+  <si>
+    <t>ini udah smua directory tar bilang SO</t>
+  </si>
+  <si>
+    <t>TAR BUAT SAVED SAMA SETTINGS</t>
+  </si>
+  <si>
+    <t>masih user</t>
   </si>
 </sst>
 </file>
@@ -2589,7 +2604,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2700,6 +2715,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2740,12 +2775,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2765,6 +2794,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3229,7 +3264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3423,10 +3458,52 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3613,16 +3690,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3795,31 +3868,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>4.1000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1500000000000004</c:v>
+                  <c:v>4.9249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.2500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6500000000000004</c:v>
+                  <c:v>4.7750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6000000000000005</c:v>
+                  <c:v>5.7250000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5500000000000003</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3500000000000005</c:v>
+                  <c:v>7.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.25</c:v>
+                  <c:v>1.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.4500000000000002</c:v>
@@ -3828,10 +3901,10 @@
                   <c:v>2.1999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.15</c:v>
+                  <c:v>4.2749999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.55</c:v>
+                  <c:v>4.2750000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3912,31 +3985,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>6.2000000000000011</c:v>
+                  <c:v>4.5000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7250000000000014</c:v>
+                  <c:v>2.950000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.29999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42499999999999982</c:v>
+                  <c:v>0.29999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42499999999999982</c:v>
+                  <c:v>0.29999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5999999999999992</c:v>
+                  <c:v>0.29999999999999938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.774999999999999</c:v>
+                  <c:v>15.175000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.9250000000000025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.725000000000001</c:v>
+                  <c:v>10.525000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.6249999999999996</c:v>
@@ -3945,10 +4018,10 @@
                   <c:v>2.774999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4249999999999989</c:v>
+                  <c:v>2.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6250000000000009</c:v>
+                  <c:v>2.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5016,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B167C5-1ED2-9D41-A960-D58FFC16A91F}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5056,7 +5129,7 @@
       <c r="C4" s="44">
         <v>0.4</v>
       </c>
-      <c r="D4" s="157"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" thickBot="1">
       <c r="B5" s="58" t="s">
@@ -5101,7 +5174,9 @@
       <c r="C9" s="44">
         <v>0.7</v>
       </c>
-      <c r="D9" s="157"/>
+      <c r="D9" s="106">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="16.2" thickBot="1">
       <c r="B10" s="11" t="s">
@@ -5110,7 +5185,7 @@
       <c r="C10" s="36">
         <v>0.4</v>
       </c>
-      <c r="D10" s="158"/>
+      <c r="D10" s="95"/>
     </row>
     <row r="11" spans="2:4" ht="16.2" thickBot="1">
       <c r="B11" s="58" t="s">
@@ -5126,7 +5201,7 @@
       <c r="C12" s="44">
         <v>1</v>
       </c>
-      <c r="D12" s="157"/>
+      <c r="D12" s="94"/>
     </row>
     <row r="13" spans="2:4" ht="16.2" thickBot="1">
       <c r="B13" s="11" t="s">
@@ -5135,7 +5210,7 @@
       <c r="C13" s="36">
         <v>0.4</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="2:4" ht="16.2" thickBot="1">
       <c r="B14" s="58" t="s">
@@ -5162,7 +5237,7 @@
       <c r="C16" s="34">
         <v>0.4</v>
       </c>
-      <c r="D16" s="159"/>
+      <c r="D16" s="96"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
@@ -5193,7 +5268,9 @@
       <c r="C19" s="36">
         <v>1</v>
       </c>
-      <c r="D19" s="158"/>
+      <c r="D19" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:4" ht="16.2" thickBot="1">
       <c r="B20" s="58" t="s">
@@ -5220,7 +5297,7 @@
       <c r="C22" s="57">
         <v>0.4</v>
       </c>
-      <c r="D22" s="160"/>
+      <c r="D22" s="97"/>
     </row>
     <row r="23" spans="2:4" ht="16.2" thickBot="1">
       <c r="B23" s="58" t="s">
@@ -5241,13 +5318,13 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="16.2" thickBot="1">
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="96"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="62">
         <f>SUM(D4:D24)</f>
-        <v>2.4</v>
+        <v>4.1000000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -5263,8 +5340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626DDC4-C184-3148-8754-559C01A088BC}">
   <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5278,10 +5355,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="150"/>
+      <c r="C2" s="164"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -5293,7 +5370,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="168" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -5304,7 +5381,7 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="133"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="7" t="s">
         <v>191</v>
       </c>
@@ -5314,13 +5391,13 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="147">
+      <c r="F4" s="161">
         <f>SUM(E4:E11)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="133"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="1" t="s">
         <v>192</v>
       </c>
@@ -5330,10 +5407,10 @@
       <c r="E5" s="84">
         <v>0.15</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="162"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="133"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="1" t="s">
         <v>193</v>
       </c>
@@ -5343,10 +5420,10 @@
       <c r="E6" s="84">
         <v>0.15</v>
       </c>
-      <c r="F6" s="148"/>
+      <c r="F6" s="162"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="133"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="28" t="s">
         <v>194</v>
       </c>
@@ -5354,10 +5431,10 @@
         <v>0.3</v>
       </c>
       <c r="E7" s="44"/>
-      <c r="F7" s="148"/>
+      <c r="F7" s="162"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="133"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="1" t="s">
         <v>115</v>
       </c>
@@ -5367,10 +5444,10 @@
       <c r="E8" s="84">
         <v>0.15</v>
       </c>
-      <c r="F8" s="148"/>
+      <c r="F8" s="162"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="133"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="1" t="s">
         <v>195</v>
       </c>
@@ -5378,10 +5455,10 @@
         <v>0.15</v>
       </c>
       <c r="E9" s="44"/>
-      <c r="F9" s="148"/>
+      <c r="F9" s="162"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="133"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="1" t="s">
         <v>207</v>
       </c>
@@ -5391,10 +5468,10 @@
       <c r="E10" s="84">
         <v>0.15</v>
       </c>
-      <c r="F10" s="148"/>
+      <c r="F10" s="162"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="133"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="29" t="s">
         <v>214</v>
       </c>
@@ -5402,10 +5479,10 @@
         <v>0.3</v>
       </c>
       <c r="E11" s="44"/>
-      <c r="F11" s="149"/>
+      <c r="F11" s="163"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="133"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="58" t="s">
         <v>30</v>
       </c>
@@ -5414,7 +5491,7 @@
       <c r="F12" s="51"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="133"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
@@ -5424,13 +5501,13 @@
       <c r="E13" s="84">
         <v>0.2</v>
       </c>
-      <c r="F13" s="151">
+      <c r="F13" s="165">
         <f>SUM(E13:E15)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="133"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
@@ -5440,10 +5517,10 @@
       <c r="E14" s="85">
         <v>0.2</v>
       </c>
-      <c r="F14" s="152"/>
+      <c r="F14" s="166"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="133"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -5453,10 +5530,10 @@
       <c r="E15" s="86">
         <v>0.2</v>
       </c>
-      <c r="F15" s="153"/>
+      <c r="F15" s="167"/>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="133"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="64" t="s">
         <v>34</v>
       </c>
@@ -5465,7 +5542,7 @@
       <c r="F16" s="51"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="133"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="7" t="s">
         <v>62</v>
       </c>
@@ -5475,13 +5552,13 @@
       <c r="E17" s="84">
         <v>0.2</v>
       </c>
-      <c r="F17" s="151">
+      <c r="F17" s="165">
         <f>SUM(E17:E18)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="135"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="11" t="s">
         <v>46</v>
       </c>
@@ -5491,10 +5568,10 @@
       <c r="E18" s="86">
         <v>0.2</v>
       </c>
-      <c r="F18" s="153"/>
+      <c r="F18" s="167"/>
     </row>
     <row r="19" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="144" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -5505,7 +5582,7 @@
       <c r="F19" s="51"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="133"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="30" t="s">
         <v>300</v>
       </c>
@@ -5513,13 +5590,13 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="44"/>
-      <c r="F20" s="147">
+      <c r="F20" s="161">
         <f>SUM(E20:E36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="133"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="28" t="s">
         <v>196</v>
       </c>
@@ -5527,10 +5604,10 @@
         <v>0.25</v>
       </c>
       <c r="E21" s="34"/>
-      <c r="F21" s="148"/>
+      <c r="F21" s="162"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="133"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="28" t="s">
         <v>197</v>
       </c>
@@ -5538,10 +5615,10 @@
         <v>0.25</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="148"/>
+      <c r="F22" s="162"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="133"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="28" t="s">
         <v>301</v>
       </c>
@@ -5549,10 +5626,10 @@
         <v>0.4</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="148"/>
+      <c r="F23" s="162"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="133"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="28" t="s">
         <v>302</v>
       </c>
@@ -5560,10 +5637,10 @@
         <v>0.4</v>
       </c>
       <c r="E24" s="34"/>
-      <c r="F24" s="148"/>
+      <c r="F24" s="162"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="133"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="28" t="s">
         <v>303</v>
       </c>
@@ -5571,10 +5648,10 @@
         <v>0.5</v>
       </c>
       <c r="E25" s="34"/>
-      <c r="F25" s="148"/>
+      <c r="F25" s="162"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="133"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="28" t="s">
         <v>304</v>
       </c>
@@ -5582,10 +5659,10 @@
         <v>0.5</v>
       </c>
       <c r="E26" s="34"/>
-      <c r="F26" s="148"/>
+      <c r="F26" s="162"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="133"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="28" t="s">
         <v>198</v>
       </c>
@@ -5593,10 +5670,10 @@
         <v>0.4</v>
       </c>
       <c r="E27" s="34"/>
-      <c r="F27" s="148"/>
+      <c r="F27" s="162"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="133"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="28" t="s">
         <v>199</v>
       </c>
@@ -5604,10 +5681,10 @@
         <v>0.4</v>
       </c>
       <c r="E28" s="34"/>
-      <c r="F28" s="148"/>
+      <c r="F28" s="162"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="133"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="28" t="s">
         <v>203</v>
       </c>
@@ -5615,10 +5692,10 @@
         <v>0.3</v>
       </c>
       <c r="E29" s="34"/>
-      <c r="F29" s="148"/>
+      <c r="F29" s="162"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="133"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="28" t="s">
         <v>204</v>
       </c>
@@ -5626,10 +5703,10 @@
         <v>0.3</v>
       </c>
       <c r="E30" s="34"/>
-      <c r="F30" s="148"/>
+      <c r="F30" s="162"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="133"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="28" t="s">
         <v>205</v>
       </c>
@@ -5637,10 +5714,10 @@
         <v>0.25</v>
       </c>
       <c r="E31" s="34"/>
-      <c r="F31" s="148"/>
+      <c r="F31" s="162"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="133"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="28" t="s">
         <v>206</v>
       </c>
@@ -5648,10 +5725,10 @@
         <v>0.5</v>
       </c>
       <c r="E32" s="34"/>
-      <c r="F32" s="148"/>
+      <c r="F32" s="162"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="133"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="28" t="s">
         <v>208</v>
       </c>
@@ -5659,10 +5736,10 @@
         <v>0.3</v>
       </c>
       <c r="E33" s="34"/>
-      <c r="F33" s="148"/>
+      <c r="F33" s="162"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="133"/>
+      <c r="B34" s="147"/>
       <c r="C34" s="28" t="s">
         <v>209</v>
       </c>
@@ -5670,10 +5747,10 @@
         <v>0.4</v>
       </c>
       <c r="E34" s="34"/>
-      <c r="F34" s="148"/>
+      <c r="F34" s="162"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="133"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="28" t="s">
         <v>210</v>
       </c>
@@ -5681,10 +5758,10 @@
         <v>0.4</v>
       </c>
       <c r="E35" s="34"/>
-      <c r="F35" s="148"/>
+      <c r="F35" s="162"/>
     </row>
     <row r="36" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B36" s="133"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="29" t="s">
         <v>211</v>
       </c>
@@ -5692,10 +5769,10 @@
         <v>0.3</v>
       </c>
       <c r="E36" s="36"/>
-      <c r="F36" s="149"/>
+      <c r="F36" s="163"/>
     </row>
     <row r="37" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B37" s="133"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="64" t="s">
         <v>200</v>
       </c>
@@ -5704,7 +5781,7 @@
       <c r="F37" s="51"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="133"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="30" t="s">
         <v>201</v>
       </c>
@@ -5712,13 +5789,13 @@
         <v>0.25</v>
       </c>
       <c r="E38" s="44"/>
-      <c r="F38" s="147">
+      <c r="F38" s="161">
         <f>SUM(E38:E39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B39" s="133"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="29" t="s">
         <v>202</v>
       </c>
@@ -5726,10 +5803,10 @@
         <v>0.25</v>
       </c>
       <c r="E39" s="36"/>
-      <c r="F39" s="149"/>
+      <c r="F39" s="163"/>
     </row>
     <row r="40" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B40" s="133"/>
+      <c r="B40" s="147"/>
       <c r="C40" s="58" t="s">
         <v>61</v>
       </c>
@@ -5738,7 +5815,7 @@
       <c r="F40" s="51"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="133"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="30" t="s">
         <v>212</v>
       </c>
@@ -5746,13 +5823,13 @@
         <v>0.1</v>
       </c>
       <c r="E41" s="44"/>
-      <c r="F41" s="147">
+      <c r="F41" s="161">
         <f>SUM(E41:E42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B42" s="133"/>
+      <c r="B42" s="147"/>
       <c r="C42" s="29" t="s">
         <v>213</v>
       </c>
@@ -5760,10 +5837,10 @@
         <v>0.1</v>
       </c>
       <c r="E42" s="36"/>
-      <c r="F42" s="148"/>
+      <c r="F42" s="162"/>
     </row>
     <row r="43" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B43" s="133"/>
+      <c r="B43" s="147"/>
       <c r="C43" s="58" t="s">
         <v>34</v>
       </c>
@@ -5772,7 +5849,7 @@
       <c r="F43" s="51"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="133"/>
+      <c r="B44" s="147"/>
       <c r="C44" s="7" t="s">
         <v>35</v>
       </c>
@@ -5780,13 +5857,13 @@
         <v>0.125</v>
       </c>
       <c r="E44" s="44"/>
-      <c r="F44" s="151">
+      <c r="F44" s="165">
         <f>SUM(E44:E46)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="133"/>
+      <c r="B45" s="147"/>
       <c r="C45" s="1" t="s">
         <v>188</v>
       </c>
@@ -5796,10 +5873,10 @@
       <c r="E45" s="85">
         <v>0.15</v>
       </c>
-      <c r="F45" s="152"/>
+      <c r="F45" s="166"/>
     </row>
     <row r="46" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B46" s="134"/>
+      <c r="B46" s="148"/>
       <c r="C46" s="4" t="s">
         <v>52</v>
       </c>
@@ -5807,15 +5884,15 @@
         <v>0.3</v>
       </c>
       <c r="E46" s="35"/>
-      <c r="F46" s="153"/>
+      <c r="F46" s="167"/>
     </row>
     <row r="47" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B47" s="146" t="s">
+      <c r="B47" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="140"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="154"/>
       <c r="F47" s="58">
         <f>SUM(F4:F46)</f>
         <v>1.9</v>
@@ -5844,8 +5921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F8C43A-DECD-594C-BC3F-270A5E6C60A9}">
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5859,10 +5936,10 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="156"/>
+      <c r="C2" s="170"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -5874,7 +5951,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="144" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="68" t="s">
@@ -5885,7 +5962,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="154"/>
+      <c r="B4" s="168"/>
       <c r="C4" s="38" t="s">
         <v>305</v>
       </c>
@@ -5895,13 +5972,13 @@
       <c r="E4" s="47">
         <v>0.15</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="131">
         <f>SUM(E4:E5)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B5" s="154"/>
+      <c r="B5" s="168"/>
       <c r="C5" t="s">
         <v>306</v>
       </c>
@@ -5911,10 +5988,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="120"/>
+      <c r="F5" s="134"/>
     </row>
     <row r="6" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B6" s="154"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="58" t="s">
         <v>30</v>
       </c>
@@ -5923,7 +6000,7 @@
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="133"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
@@ -5933,13 +6010,13 @@
       <c r="E7" s="44">
         <v>0.2</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="135">
         <f>SUM(E7:E9)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="133"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -5949,10 +6026,10 @@
       <c r="E8" s="34">
         <v>0.2</v>
       </c>
-      <c r="F8" s="122"/>
+      <c r="F8" s="136"/>
     </row>
     <row r="9" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B9" s="133"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -5962,10 +6039,10 @@
       <c r="E9" s="36">
         <v>0.2</v>
       </c>
-      <c r="F9" s="123"/>
+      <c r="F9" s="137"/>
     </row>
     <row r="10" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B10" s="133"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="64" t="s">
         <v>34</v>
       </c>
@@ -5974,7 +6051,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="133"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
@@ -5984,7 +6061,7 @@
       <c r="E11" s="84">
         <v>0.2</v>
       </c>
-      <c r="F11" s="121">
+      <c r="F11" s="135">
         <f>SUM(E11:E12)</f>
         <v>0.4</v>
       </c>
@@ -5993,7 +6070,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B12" s="135"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -6003,10 +6080,10 @@
       <c r="E12" s="36">
         <v>0.2</v>
       </c>
-      <c r="F12" s="123"/>
+      <c r="F12" s="137"/>
     </row>
     <row r="13" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="144" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -6017,7 +6094,7 @@
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B14" s="133"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="19" t="s">
         <v>238</v>
       </c>
@@ -6033,7 +6110,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B15" s="133"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="64" t="s">
         <v>61</v>
       </c>
@@ -6042,7 +6119,7 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B16" s="133"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="19" t="s">
         <v>307</v>
       </c>
@@ -6058,7 +6135,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="133"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="58" t="s">
         <v>34</v>
       </c>
@@ -6067,7 +6144,7 @@
       <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="133"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
@@ -6077,13 +6154,13 @@
       <c r="E18" s="44">
         <v>0</v>
       </c>
-      <c r="F18" s="121">
+      <c r="F18" s="135">
         <f>SUM(E18:E21)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="133"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="1" t="s">
         <v>188</v>
       </c>
@@ -6093,10 +6170,10 @@
       <c r="E19" s="85">
         <v>0.15</v>
       </c>
-      <c r="F19" s="122"/>
+      <c r="F19" s="136"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="133"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
@@ -6106,10 +6183,10 @@
       <c r="E20" s="34">
         <v>0</v>
       </c>
-      <c r="F20" s="122"/>
+      <c r="F20" s="136"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="134"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="75" t="s">
         <v>179</v>
       </c>
@@ -6119,15 +6196,15 @@
       <c r="E21" s="35">
         <v>0</v>
       </c>
-      <c r="F21" s="138"/>
+      <c r="F21" s="152"/>
     </row>
     <row r="22" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="96"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="110"/>
       <c r="F22" s="63">
         <f>SUM(F4:F21)</f>
         <v>1.4500000000000002</v>
@@ -6153,8 +6230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA2FF9E-EF1B-764A-B143-1E2142586A6D}">
   <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6168,10 +6245,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -6183,7 +6260,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="168" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -6194,7 +6271,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="133"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="7" t="s">
         <v>240</v>
       </c>
@@ -6204,13 +6281,13 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="131">
         <f>SUM(E4:E6)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="133"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="1" t="s">
         <v>244</v>
       </c>
@@ -6220,10 +6297,10 @@
       <c r="E5" s="84">
         <v>0.3</v>
       </c>
-      <c r="F5" s="118"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B6" s="133"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="11" t="s">
         <v>241</v>
       </c>
@@ -6233,10 +6310,10 @@
       <c r="E6" s="84">
         <v>0.15</v>
       </c>
-      <c r="F6" s="120"/>
+      <c r="F6" s="134"/>
     </row>
     <row r="7" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B7" s="133"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="58" t="s">
         <v>242</v>
       </c>
@@ -6245,7 +6322,7 @@
       <c r="F7" s="32"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="133"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="7" t="s">
         <v>243</v>
       </c>
@@ -6255,13 +6332,13 @@
       <c r="E8" s="84">
         <v>0.15</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="131">
         <f>SUM(E8:E9)</f>
         <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="133"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="11" t="s">
         <v>244</v>
       </c>
@@ -6271,10 +6348,10 @@
       <c r="E9" s="84">
         <v>0.3</v>
       </c>
-      <c r="F9" s="120"/>
+      <c r="F9" s="134"/>
     </row>
     <row r="10" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B10" s="133"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="58" t="s">
         <v>30</v>
       </c>
@@ -6283,7 +6360,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="133"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
@@ -6293,13 +6370,13 @@
       <c r="E11" s="84">
         <v>0.2</v>
       </c>
-      <c r="F11" s="121">
+      <c r="F11" s="135">
         <f>SUM(E11:E13)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="133"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -6309,10 +6386,10 @@
       <c r="E12" s="85">
         <v>0.2</v>
       </c>
-      <c r="F12" s="122"/>
+      <c r="F12" s="136"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="133"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
@@ -6322,10 +6399,10 @@
       <c r="E13" s="86">
         <v>0.2</v>
       </c>
-      <c r="F13" s="123"/>
+      <c r="F13" s="137"/>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="133"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="64" t="s">
         <v>34</v>
       </c>
@@ -6334,7 +6411,7 @@
       <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="133"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="7" t="s">
         <v>62</v>
       </c>
@@ -6344,13 +6421,13 @@
       <c r="E15" s="84">
         <v>0.2</v>
       </c>
-      <c r="F15" s="121">
+      <c r="F15" s="135">
         <f>SUM(E15:E16)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="135"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
@@ -6360,10 +6437,10 @@
       <c r="E16" s="86">
         <v>0.2</v>
       </c>
-      <c r="F16" s="123"/>
+      <c r="F16" s="137"/>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="144" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -6374,7 +6451,7 @@
       <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="133"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="30" t="s">
         <v>246</v>
       </c>
@@ -6382,24 +6459,24 @@
         <v>1.5</v>
       </c>
       <c r="E18" s="44"/>
-      <c r="F18" s="117">
+      <c r="F18" s="131">
         <f>SUM(E18:E20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="133"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="19" t="s">
         <v>332</v>
       </c>
       <c r="D19" s="76">
         <v>0.3</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="118"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="132"/>
     </row>
     <row r="20" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B20" s="133"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="29" t="s">
         <v>247</v>
       </c>
@@ -6407,10 +6484,10 @@
         <v>0.25</v>
       </c>
       <c r="E20" s="36"/>
-      <c r="F20" s="120"/>
+      <c r="F20" s="134"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="133"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="58" t="s">
         <v>61</v>
       </c>
@@ -6419,7 +6496,7 @@
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="133"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="30" t="s">
         <v>248</v>
       </c>
@@ -6427,13 +6504,13 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="44"/>
-      <c r="F22" s="117">
+      <c r="F22" s="131">
         <f>SUM(E22:E24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="133"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="28" t="s">
         <v>249</v>
       </c>
@@ -6441,10 +6518,10 @@
         <v>0.1</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="118"/>
+      <c r="F23" s="132"/>
     </row>
     <row r="24" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B24" s="133"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="29" t="s">
         <v>325</v>
       </c>
@@ -6452,10 +6529,10 @@
         <v>0.1</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="120"/>
+      <c r="F24" s="134"/>
     </row>
     <row r="25" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B25" s="133"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="58" t="s">
         <v>34</v>
       </c>
@@ -6464,7 +6541,7 @@
       <c r="F25" s="32"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="133"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
@@ -6472,13 +6549,13 @@
         <v>0.125</v>
       </c>
       <c r="E26" s="44"/>
-      <c r="F26" s="121">
+      <c r="F26" s="135">
         <f>SUM(E26:E28)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="133"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="1" t="s">
         <v>188</v>
       </c>
@@ -6488,10 +6565,10 @@
       <c r="E27" s="85">
         <v>0.15</v>
       </c>
-      <c r="F27" s="122"/>
+      <c r="F27" s="136"/>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="134"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="4" t="s">
         <v>52</v>
       </c>
@@ -6499,15 +6576,15 @@
         <v>0.3</v>
       </c>
       <c r="E28" s="35"/>
-      <c r="F28" s="138"/>
+      <c r="F28" s="152"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="99"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
       <c r="F29" s="62">
         <f>SUM(F4:F28)</f>
         <v>2.1999999999999997</v>
@@ -6536,8 +6613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D71FAE6-B451-6848-BDAA-C37A96D72161}">
   <dimension ref="B1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6551,10 +6628,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="150"/>
+      <c r="C2" s="164"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -6566,7 +6643,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="144" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -6577,7 +6654,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="131"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="7" t="s">
         <v>138</v>
       </c>
@@ -6587,13 +6664,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="131">
         <f>SUM(E4:E17)</f>
-        <v>0.9</v>
+        <v>1.8499999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="131"/>
+      <c r="B5" s="145"/>
       <c r="C5" s="1" t="s">
         <v>250</v>
       </c>
@@ -6603,10 +6680,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="118"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="131"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="1" t="s">
         <v>251</v>
       </c>
@@ -6616,10 +6693,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="118"/>
+      <c r="F6" s="132"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="131"/>
+      <c r="B7" s="145"/>
       <c r="C7" s="1" t="s">
         <v>137</v>
       </c>
@@ -6629,10 +6706,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="118"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="131"/>
+      <c r="B8" s="145"/>
       <c r="C8" s="1" t="s">
         <v>252</v>
       </c>
@@ -6642,89 +6719,97 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="118"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="131"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D9" s="44">
         <v>0.15</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="118"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="132"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="131"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="28" t="s">
         <v>254</v>
       </c>
       <c r="D10" s="44">
         <v>0.2</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="118"/>
+      <c r="E10" s="98">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="132"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="131"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="28" t="s">
         <v>255</v>
       </c>
       <c r="D11" s="44">
         <v>0.2</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="118"/>
+      <c r="E11" s="98">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="132"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="131"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="28" t="s">
         <v>256</v>
       </c>
       <c r="D12" s="44">
         <v>0.2</v>
       </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="118"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="132"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="131"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D13" s="44">
         <v>0.2</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="118"/>
+      <c r="E13" s="102">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="132"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="131"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="28" t="s">
         <v>258</v>
       </c>
       <c r="D14" s="44">
         <v>0.2</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="118"/>
+      <c r="E14" s="102">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="132"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="131"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D15" s="44">
         <v>0.15</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="106">
         <v>0</v>
       </c>
-      <c r="F15" s="118"/>
+      <c r="F15" s="132"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="131"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="1" t="s">
         <v>260</v>
       </c>
@@ -6734,21 +6819,23 @@
       <c r="E16" s="44">
         <v>0.15</v>
       </c>
-      <c r="F16" s="118"/>
+      <c r="F16" s="132"/>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="131"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="11" t="s">
         <v>261</v>
       </c>
       <c r="D17" s="44">
         <v>0.15</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="118"/>
+      <c r="E17" s="102">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="132"/>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="131"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="58" t="s">
         <v>30</v>
       </c>
@@ -6757,7 +6844,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="131"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
@@ -6767,13 +6854,13 @@
       <c r="E19" s="44">
         <v>0.2</v>
       </c>
-      <c r="F19" s="121">
+      <c r="F19" s="135">
         <f>SUM(E19:E21)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="131"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -6783,10 +6870,10 @@
       <c r="E20" s="34">
         <v>0.2</v>
       </c>
-      <c r="F20" s="122"/>
+      <c r="F20" s="136"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="131"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="11" t="s">
         <v>33</v>
       </c>
@@ -6796,10 +6883,10 @@
       <c r="E21" s="86">
         <v>0.2</v>
       </c>
-      <c r="F21" s="123"/>
+      <c r="F21" s="137"/>
     </row>
     <row r="22" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B22" s="131"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="64" t="s">
         <v>34</v>
       </c>
@@ -6808,7 +6895,7 @@
       <c r="F22" s="32"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="131"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="7" t="s">
         <v>62</v>
       </c>
@@ -6818,13 +6905,13 @@
       <c r="E23" s="44">
         <v>0.2</v>
       </c>
-      <c r="F23" s="121">
+      <c r="F23" s="135">
         <f>SUM(E23:E24)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B24" s="132"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="11" t="s">
         <v>46</v>
       </c>
@@ -6834,10 +6921,10 @@
       <c r="E24" s="36">
         <v>0.2</v>
       </c>
-      <c r="F24" s="123"/>
+      <c r="F24" s="137"/>
     </row>
     <row r="25" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="144" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="58" t="s">
@@ -6848,7 +6935,7 @@
       <c r="F25" s="32"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="133"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="30" t="s">
         <v>262</v>
       </c>
@@ -6858,52 +6945,52 @@
       <c r="E26" s="44">
         <v>0.25</v>
       </c>
-      <c r="F26" s="118">
+      <c r="F26" s="132">
         <f>SUM(E26:E33)</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="133"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="28" t="s">
         <v>263</v>
       </c>
       <c r="D27" s="34">
         <v>0.25</v>
       </c>
-      <c r="E27" s="34">
-        <v>0</v>
-      </c>
-      <c r="F27" s="118"/>
+      <c r="E27" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="132"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="133"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="28" t="s">
         <v>264</v>
       </c>
       <c r="D28" s="34">
         <v>0.25</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="108">
         <v>0</v>
       </c>
-      <c r="F28" s="118"/>
+      <c r="F28" s="132"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="133"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="28" t="s">
         <v>265</v>
       </c>
       <c r="D29" s="34">
         <v>0.25</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="82">
         <v>0</v>
       </c>
-      <c r="F29" s="118"/>
+      <c r="F29" s="132"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="133"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="28" t="s">
         <v>266</v>
       </c>
@@ -6913,36 +7000,36 @@
       <c r="E30" s="34">
         <v>0</v>
       </c>
-      <c r="F30" s="118"/>
+      <c r="F30" s="132"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="133"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="28" t="s">
         <v>267</v>
       </c>
       <c r="D31" s="34">
         <v>0.25</v>
       </c>
-      <c r="E31" s="34">
-        <v>0</v>
-      </c>
-      <c r="F31" s="118"/>
+      <c r="E31" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="132"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="133"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="28" t="s">
         <v>268</v>
       </c>
       <c r="D32" s="34">
         <v>0.25</v>
       </c>
-      <c r="E32" s="34">
-        <v>0</v>
-      </c>
-      <c r="F32" s="118"/>
+      <c r="E32" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="132"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="133"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="28" t="s">
         <v>269</v>
       </c>
@@ -6952,10 +7039,10 @@
       <c r="E33" s="34">
         <v>0</v>
       </c>
-      <c r="F33" s="118"/>
+      <c r="F33" s="132"/>
     </row>
     <row r="34" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B34" s="133"/>
+      <c r="B34" s="147"/>
       <c r="C34" s="58" t="s">
         <v>61</v>
       </c>
@@ -6964,88 +7051,88 @@
       <c r="F34" s="32"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="133"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="30" t="s">
         <v>270</v>
       </c>
       <c r="D35" s="44">
         <v>0.1</v>
       </c>
-      <c r="E35" s="44">
-        <v>0</v>
-      </c>
-      <c r="F35" s="118">
+      <c r="E35" s="102">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="132">
         <f>SUM(E35:E40)</f>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="133"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="28" t="s">
         <v>271</v>
       </c>
       <c r="D36" s="44">
         <v>0.1</v>
       </c>
-      <c r="E36" s="44">
-        <v>0</v>
-      </c>
-      <c r="F36" s="118"/>
+      <c r="E36" s="102">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="132"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="133"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="28" t="s">
         <v>272</v>
       </c>
       <c r="D37" s="44">
         <v>0.1</v>
       </c>
-      <c r="E37" s="44">
-        <v>0</v>
-      </c>
-      <c r="F37" s="118"/>
+      <c r="E37" s="102">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="132"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="133"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="28" t="s">
         <v>273</v>
       </c>
       <c r="D38" s="44">
         <v>0.1</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="106">
         <v>0</v>
       </c>
-      <c r="F38" s="118"/>
+      <c r="F38" s="132"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="133"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="28" t="s">
         <v>274</v>
       </c>
       <c r="D39" s="44">
         <v>0.1</v>
       </c>
-      <c r="E39" s="44">
+      <c r="E39" s="106">
         <v>0</v>
       </c>
-      <c r="F39" s="118"/>
+      <c r="F39" s="132"/>
     </row>
     <row r="40" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B40" s="133"/>
+      <c r="B40" s="147"/>
       <c r="C40" s="29" t="s">
         <v>275</v>
       </c>
       <c r="D40" s="44">
         <v>0.1</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="106">
         <v>0</v>
       </c>
-      <c r="F40" s="118"/>
+      <c r="F40" s="132"/>
     </row>
     <row r="41" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B41" s="133"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="58" t="s">
         <v>34</v>
       </c>
@@ -7054,23 +7141,23 @@
       <c r="F41" s="32"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="133"/>
+      <c r="B42" s="147"/>
       <c r="C42" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="44">
         <v>0.125</v>
       </c>
-      <c r="E42" s="44">
-        <v>0</v>
-      </c>
-      <c r="F42" s="121">
+      <c r="E42" s="102">
+        <v>0.125</v>
+      </c>
+      <c r="F42" s="135">
         <f>SUM(E42:E43)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B43" s="135"/>
+      <c r="B43" s="149"/>
       <c r="C43" s="4" t="s">
         <v>52</v>
       </c>
@@ -7080,18 +7167,18 @@
       <c r="E43" s="35">
         <v>0</v>
       </c>
-      <c r="F43" s="138"/>
+      <c r="F43" s="152"/>
     </row>
     <row r="44" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="99"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="113"/>
       <c r="F44" s="70">
         <f>SUM(F4:F43)</f>
-        <v>2.15</v>
+        <v>4.2749999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -7116,8 +7203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A679EA6-8CB7-A24A-BA70-3CC01102E2D7}">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A16" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7131,10 +7218,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
+      <c r="C2" s="110"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -7146,7 +7233,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="144" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -7158,13 +7245,13 @@
       <c r="E3" s="44">
         <v>0.15</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="131">
         <f>SUM(E3:E8)</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="133"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="1" t="s">
         <v>277</v>
       </c>
@@ -7174,10 +7261,10 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="118"/>
+      <c r="F4" s="132"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="133"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="1" t="s">
         <v>278</v>
       </c>
@@ -7187,34 +7274,36 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="118"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="133"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="1" t="s">
         <v>279</v>
       </c>
       <c r="D6" s="44">
         <v>0.15</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="118"/>
+      <c r="E6" s="98">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="132"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="133"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D7" s="44">
         <v>0.15</v>
       </c>
-      <c r="E7" s="44">
-        <v>0</v>
-      </c>
-      <c r="F7" s="118"/>
+      <c r="E7" s="102">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B8" s="133"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="29" t="s">
         <v>66</v>
       </c>
@@ -7224,10 +7313,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="120"/>
+      <c r="F8" s="134"/>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="133"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="58" t="s">
         <v>30</v>
       </c>
@@ -7236,7 +7325,7 @@
       <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="133"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
@@ -7246,13 +7335,13 @@
       <c r="E10" s="44">
         <v>0.2</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="135">
         <f>SUM(E10:E12)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="133"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
@@ -7262,10 +7351,10 @@
       <c r="E11" s="34">
         <v>0.2</v>
       </c>
-      <c r="F11" s="122"/>
+      <c r="F11" s="136"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="133"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
@@ -7275,10 +7364,10 @@
       <c r="E12" s="36">
         <v>0.2</v>
       </c>
-      <c r="F12" s="123"/>
+      <c r="F12" s="137"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="133"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="64" t="s">
         <v>34</v>
       </c>
@@ -7287,23 +7376,23 @@
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="133"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="44">
         <v>0.2</v>
       </c>
-      <c r="E14" s="44">
-        <v>0</v>
-      </c>
-      <c r="F14" s="121">
+      <c r="E14" s="98">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="135">
         <f>SUM(E14:E15)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="135"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="11" t="s">
         <v>46</v>
       </c>
@@ -7313,10 +7402,10 @@
       <c r="E15" s="36">
         <v>0.2</v>
       </c>
-      <c r="F15" s="123"/>
+      <c r="F15" s="137"/>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="144" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -7327,140 +7416,140 @@
       <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="133"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D17" s="44">
         <v>1</v>
       </c>
-      <c r="E17" s="44">
-        <v>0</v>
-      </c>
-      <c r="F17" s="117">
+      <c r="E17" s="102">
+        <v>1</v>
+      </c>
+      <c r="F17" s="131">
         <f>SUM(E17:E26)</f>
-        <v>0</v>
+        <v>1.8499999999999999</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="133"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="1" t="s">
         <v>283</v>
       </c>
       <c r="D18" s="34">
         <v>0.25</v>
       </c>
-      <c r="E18" s="34">
-        <v>0</v>
-      </c>
-      <c r="F18" s="118"/>
+      <c r="E18" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="132"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="133"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="1" t="s">
         <v>284</v>
       </c>
       <c r="D19" s="34">
         <v>0.4</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="82">
         <v>0</v>
       </c>
-      <c r="F19" s="118"/>
+      <c r="F19" s="132"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="133"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D20" s="34">
         <v>0.4</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="82">
         <v>0</v>
       </c>
-      <c r="F20" s="118"/>
+      <c r="F20" s="132"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="133"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D21" s="34">
         <v>0.6</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="82">
         <v>0</v>
       </c>
-      <c r="F21" s="118"/>
+      <c r="F21" s="132"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="133"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="1" t="s">
         <v>287</v>
       </c>
       <c r="D22" s="34">
         <v>0.45</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="82">
         <v>0</v>
       </c>
-      <c r="F22" s="118"/>
+      <c r="F22" s="132"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="133"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D23" s="34">
         <v>0.25</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="82">
         <v>0</v>
       </c>
-      <c r="F23" s="118"/>
+      <c r="F23" s="132"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="133"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="1" t="s">
         <v>289</v>
       </c>
       <c r="D24" s="34">
         <v>0.4</v>
       </c>
-      <c r="E24" s="34">
-        <v>0</v>
-      </c>
-      <c r="F24" s="118"/>
+      <c r="E24" s="101">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="132"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="133"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D25" s="34">
         <v>0.2</v>
       </c>
-      <c r="E25" s="34">
-        <v>0</v>
-      </c>
-      <c r="F25" s="118"/>
+      <c r="E25" s="101">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="132"/>
     </row>
     <row r="26" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B26" s="133"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="11" t="s">
         <v>331</v>
       </c>
       <c r="D26" s="36">
         <v>0.5</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="105">
         <v>0</v>
       </c>
-      <c r="F26" s="120"/>
+      <c r="F26" s="134"/>
     </row>
     <row r="27" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B27" s="133"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="58" t="s">
         <v>291</v>
       </c>
@@ -7469,36 +7558,36 @@
       <c r="F27" s="32"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="133"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="7" t="s">
         <v>292</v>
       </c>
       <c r="D28" s="44">
         <v>0.125</v>
       </c>
-      <c r="E28" s="44">
-        <v>0</v>
-      </c>
-      <c r="F28" s="117">
+      <c r="E28" s="102">
+        <v>0.125</v>
+      </c>
+      <c r="F28" s="131">
         <f>SUM(E28:E29)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="133"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="11" t="s">
         <v>293</v>
       </c>
       <c r="D29" s="36">
         <v>0.125</v>
       </c>
-      <c r="E29" s="36">
-        <v>0</v>
-      </c>
-      <c r="F29" s="120"/>
+      <c r="E29" s="103">
+        <v>0.125</v>
+      </c>
+      <c r="F29" s="134"/>
     </row>
     <row r="30" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B30" s="133"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="58" t="s">
         <v>34</v>
       </c>
@@ -7507,23 +7596,23 @@
       <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="133"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="44">
         <v>0.125</v>
       </c>
-      <c r="E31" s="44">
-        <v>0</v>
-      </c>
-      <c r="F31" s="121">
+      <c r="E31" s="102">
+        <v>0.125</v>
+      </c>
+      <c r="F31" s="135">
         <f>SUM(E31:E33)</f>
-        <v>0.15</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="133"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="1" t="s">
         <v>188</v>
       </c>
@@ -7533,10 +7622,10 @@
       <c r="E32" s="85">
         <v>0.15</v>
       </c>
-      <c r="F32" s="122"/>
+      <c r="F32" s="136"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="135"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="4" t="s">
         <v>52</v>
       </c>
@@ -7546,18 +7635,18 @@
       <c r="E33" s="35">
         <v>0</v>
       </c>
-      <c r="F33" s="138"/>
+      <c r="F33" s="152"/>
     </row>
     <row r="34" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="99"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
       <c r="F34" s="63">
         <f>SUM(F3:F33)</f>
-        <v>1.55</v>
+        <v>4.2750000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -7582,7 +7671,7 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7619,11 +7708,11 @@
       </c>
       <c r="D3" s="81">
         <f>C3-E3</f>
-        <v>6.2000000000000011</v>
+        <v>4.5000000000000009</v>
       </c>
       <c r="E3" s="81">
         <f>Miscellaneous!D25</f>
-        <v>2.4</v>
+        <v>4.1000000000000005</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -7636,11 +7725,11 @@
       </c>
       <c r="D4" s="81">
         <f t="shared" ref="D4:D15" si="0">C4-E4</f>
-        <v>4.7250000000000014</v>
+        <v>2.950000000000002</v>
       </c>
       <c r="E4" s="82">
         <f>Header!F42</f>
-        <v>3.1500000000000004</v>
+        <v>4.9249999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -7670,11 +7759,11 @@
       </c>
       <c r="D6" s="81">
         <f t="shared" si="0"/>
-        <v>0.42499999999999982</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="E6" s="82">
         <f>'Login Page'!F33</f>
-        <v>4.6500000000000004</v>
+        <v>4.7750000000000004</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -7687,11 +7776,11 @@
       </c>
       <c r="D7" s="81">
         <f t="shared" si="0"/>
-        <v>0.42499999999999982</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="E7" s="82">
         <f>'Sign Up Page'!F39</f>
-        <v>5.6000000000000005</v>
+        <v>5.7250000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -7704,11 +7793,11 @@
       </c>
       <c r="D8" s="81">
         <f t="shared" si="0"/>
-        <v>0.5999999999999992</v>
+        <v>0.29999999999999938</v>
       </c>
       <c r="E8" s="82">
         <f>'Forgot Password Page'!F27</f>
-        <v>3.5500000000000003</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -7721,11 +7810,11 @@
       </c>
       <c r="D9" s="81">
         <f t="shared" si="0"/>
-        <v>15.774999999999999</v>
+        <v>15.175000000000001</v>
       </c>
       <c r="E9" s="82">
         <f>'Home Page'!F125</f>
-        <v>7.3500000000000005</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -7755,11 +7844,11 @@
       </c>
       <c r="D11" s="81">
         <f t="shared" si="0"/>
-        <v>10.725000000000001</v>
+        <v>10.525000000000002</v>
       </c>
       <c r="E11" s="82">
         <f>'Direct Message Page'!F38</f>
-        <v>1.25</v>
+        <v>1.4500000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -7806,11 +7895,11 @@
       </c>
       <c r="D14" s="81">
         <f t="shared" si="0"/>
-        <v>4.4249999999999989</v>
+        <v>2.2999999999999989</v>
       </c>
       <c r="E14" s="82">
         <f>'User Page'!F44</f>
-        <v>2.15</v>
+        <v>4.2749999999999995</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="16.2" thickBot="1">
@@ -7823,22 +7912,22 @@
       </c>
       <c r="D15" s="81">
         <f t="shared" si="0"/>
-        <v>5.6250000000000009</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="E15" s="83">
         <f>'Add Post Page'!F34</f>
-        <v>1.55</v>
+        <v>4.2750000000000004</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="16.2" thickBot="1">
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="77">
         <f>SUM(E3:E15)</f>
-        <v>38.450000000000003</v>
+        <v>48.125000000000007</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -7847,11 +7936,10 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>30.2</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="F17">
-        <f>E16-E17</f>
-        <v>8.2500000000000036</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -7859,33 +7947,55 @@
       <c r="D18">
         <v>11</v>
       </c>
+      <c r="E18">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="F18">
+        <f>E18-E17</f>
+        <v>2.0999999999999943</v>
+      </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="89"/>
+      <c r="C19" s="100"/>
       <c r="D19">
         <v>12</v>
       </c>
+      <c r="E19">
+        <v>45.85</v>
+      </c>
+      <c r="F19">
+        <f>E19-E18</f>
+        <v>5.3000000000000043</v>
+      </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="90"/>
+      <c r="C20" s="89"/>
       <c r="D20">
         <v>13</v>
       </c>
+      <c r="E20">
+        <f>E16</f>
+        <v>48.125000000000007</v>
+      </c>
+      <c r="F20">
+        <f>E16-E19</f>
+        <v>2.2750000000000057</v>
+      </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="91"/>
+      <c r="C21" s="90"/>
       <c r="D21">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="93"/>
+      <c r="C22" s="92"/>
       <c r="D22">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="92"/>
+      <c r="C23" s="91"/>
       <c r="D23">
         <v>16</v>
       </c>
@@ -7899,7 +8009,7 @@
       </c>
       <c r="F24">
         <f>65-E16</f>
-        <v>26.549999999999997</v>
+        <v>16.874999999999993</v>
       </c>
     </row>
     <row r="25" spans="3:6">
@@ -7918,10 +8028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE670F-6E02-7D4A-BE09-F54A0BBCCA86}">
-  <dimension ref="B1:F42"/>
+  <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7935,10 +8045,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -7950,7 +8060,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="119" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -7961,7 +8071,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B4" s="106"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
@@ -7971,13 +8081,13 @@
       <c r="E4" s="54">
         <v>0.15</v>
       </c>
-      <c r="F4" s="112">
+      <c r="F4" s="126">
         <f>SUM(E4:E8)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B5" s="106"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
@@ -7987,10 +8097,10 @@
       <c r="E5" s="54">
         <v>0.15</v>
       </c>
-      <c r="F5" s="100"/>
+      <c r="F5" s="114"/>
     </row>
     <row r="6" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B6" s="106"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
@@ -8000,10 +8110,10 @@
       <c r="E6" s="54">
         <v>0.15</v>
       </c>
-      <c r="F6" s="100"/>
+      <c r="F6" s="114"/>
     </row>
     <row r="7" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B7" s="106"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
@@ -8013,10 +8123,10 @@
       <c r="E7" s="54">
         <v>0.15</v>
       </c>
-      <c r="F7" s="100"/>
+      <c r="F7" s="114"/>
     </row>
     <row r="8" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B8" s="106"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
@@ -8026,10 +8136,10 @@
       <c r="E8" s="54">
         <v>0.15</v>
       </c>
-      <c r="F8" s="100"/>
+      <c r="F8" s="114"/>
     </row>
     <row r="9" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B9" s="106"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="58" t="s">
         <v>29</v>
       </c>
@@ -8038,7 +8148,7 @@
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B10" s="106"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
@@ -8048,13 +8158,13 @@
       <c r="E10" s="54">
         <v>0.15</v>
       </c>
-      <c r="F10" s="100">
+      <c r="F10" s="114">
         <f>SUM(E10:E18)</f>
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B11" s="106"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -8064,23 +8174,23 @@
       <c r="E11" s="54">
         <v>0.15</v>
       </c>
-      <c r="F11" s="100"/>
+      <c r="F11" s="114"/>
     </row>
     <row r="12" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B12" s="106"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="54">
         <v>0.15</v>
       </c>
-      <c r="E12" s="54">
-        <v>0</v>
-      </c>
-      <c r="F12" s="100"/>
+      <c r="E12" s="174">
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B13" s="106"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -8090,10 +8200,10 @@
       <c r="E13" s="54">
         <v>0</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="114"/>
     </row>
     <row r="14" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B14" s="106"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
@@ -8103,10 +8213,10 @@
       <c r="E14" s="54">
         <v>0.15</v>
       </c>
-      <c r="F14" s="100"/>
+      <c r="F14" s="114"/>
     </row>
     <row r="15" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B15" s="106"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="28" t="s">
         <v>295</v>
       </c>
@@ -8116,10 +8226,10 @@
       <c r="E15" s="54">
         <v>0</v>
       </c>
-      <c r="F15" s="100"/>
+      <c r="F15" s="114"/>
     </row>
     <row r="16" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B16" s="106"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
@@ -8129,10 +8239,10 @@
       <c r="E16" s="54">
         <v>0</v>
       </c>
-      <c r="F16" s="100"/>
-    </row>
-    <row r="17" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B17" s="106"/>
+      <c r="F16" s="114"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.05" customHeight="1">
+      <c r="B17" s="120"/>
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
@@ -8142,10 +8252,10 @@
       <c r="E17" s="54">
         <v>0.15</v>
       </c>
-      <c r="F17" s="100"/>
-    </row>
-    <row r="18" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B18" s="106"/>
+      <c r="F17" s="114"/>
+    </row>
+    <row r="18" spans="2:7" ht="16.05" customHeight="1" thickBot="1">
+      <c r="B18" s="120"/>
       <c r="C18" s="11" t="s">
         <v>26</v>
       </c>
@@ -8155,10 +8265,10 @@
       <c r="E18" s="54">
         <v>0.15</v>
       </c>
-      <c r="F18" s="100"/>
-    </row>
-    <row r="19" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B19" s="106"/>
+      <c r="F18" s="114"/>
+    </row>
+    <row r="19" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B19" s="120"/>
       <c r="C19" s="58" t="s">
         <v>30</v>
       </c>
@@ -8166,8 +8276,8 @@
       <c r="E19" s="32"/>
       <c r="F19" s="43"/>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="106"/>
+    <row r="20" spans="2:7">
+      <c r="B20" s="120"/>
       <c r="C20" s="7" t="s">
         <v>31</v>
       </c>
@@ -8177,13 +8287,13 @@
       <c r="E20" s="44">
         <v>0.2</v>
       </c>
-      <c r="F20" s="100">
+      <c r="F20" s="114">
         <f>SUM(E20:E22)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="106"/>
+    <row r="21" spans="2:7">
+      <c r="B21" s="120"/>
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
@@ -8193,10 +8303,10 @@
       <c r="E21" s="34">
         <v>0.2</v>
       </c>
-      <c r="F21" s="100"/>
-    </row>
-    <row r="22" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B22" s="106"/>
+      <c r="F21" s="114"/>
+    </row>
+    <row r="22" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B22" s="120"/>
       <c r="C22" s="11" t="s">
         <v>33</v>
       </c>
@@ -8207,10 +8317,10 @@
         <f>0.2/2</f>
         <v>0.1</v>
       </c>
-      <c r="F22" s="100"/>
-    </row>
-    <row r="23" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B23" s="106"/>
+      <c r="F22" s="114"/>
+    </row>
+    <row r="23" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B23" s="120"/>
       <c r="C23" s="64" t="s">
         <v>34</v>
       </c>
@@ -8218,8 +8328,8 @@
       <c r="E23" s="32"/>
       <c r="F23" s="43"/>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="107"/>
+    <row r="24" spans="2:7">
+      <c r="B24" s="121"/>
       <c r="C24" s="17" t="s">
         <v>62</v>
       </c>
@@ -8229,13 +8339,13 @@
       <c r="E24" s="45">
         <v>0.2</v>
       </c>
-      <c r="F24" s="101">
+      <c r="F24" s="115">
         <f>SUM(E24:E25)</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B25" s="108"/>
+    <row r="25" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B25" s="122"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -8245,10 +8355,10 @@
       <c r="E25" s="46">
         <v>0.2</v>
       </c>
-      <c r="F25" s="102"/>
-    </row>
-    <row r="26" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B26" s="109" t="s">
+      <c r="F25" s="116"/>
+    </row>
+    <row r="26" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B26" s="123" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="58" t="s">
@@ -8258,24 +8368,24 @@
       <c r="E26" s="32"/>
       <c r="F26" s="43"/>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="110"/>
+    <row r="27" spans="2:7">
+      <c r="B27" s="124"/>
       <c r="C27" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="44">
         <v>0.4</v>
       </c>
-      <c r="E27" s="44">
-        <v>0</v>
-      </c>
-      <c r="F27" s="100">
+      <c r="E27" s="106">
+        <v>0.4</v>
+      </c>
+      <c r="F27" s="114">
         <f>SUM(E27:E30)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="110"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="124"/>
       <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
@@ -8285,10 +8395,10 @@
       <c r="E28" s="34">
         <v>0.1</v>
       </c>
-      <c r="F28" s="100"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="110"/>
+      <c r="F28" s="114"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="124"/>
       <c r="C29" s="5" t="s">
         <v>39</v>
       </c>
@@ -8298,23 +8408,26 @@
       <c r="E29" s="34">
         <v>0.1</v>
       </c>
-      <c r="F29" s="100"/>
-    </row>
-    <row r="30" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B30" s="110"/>
+      <c r="F29" s="114"/>
+    </row>
+    <row r="30" spans="2:7" ht="31.8" thickBot="1">
+      <c r="B30" s="124"/>
       <c r="C30" s="72" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="36">
         <v>0.5</v>
       </c>
-      <c r="E30" s="36">
-        <v>0</v>
-      </c>
-      <c r="F30" s="100"/>
-    </row>
-    <row r="31" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B31" s="110"/>
+      <c r="E30" s="171">
+        <v>0.25</v>
+      </c>
+      <c r="F30" s="114"/>
+      <c r="G30" s="173" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B31" s="124"/>
       <c r="C31" s="58" t="s">
         <v>40</v>
       </c>
@@ -8322,24 +8435,24 @@
       <c r="E31" s="32"/>
       <c r="F31" s="43"/>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="110"/>
+    <row r="32" spans="2:7">
+      <c r="B32" s="124"/>
       <c r="C32" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="44">
         <v>0.4</v>
       </c>
-      <c r="E32" s="44">
-        <v>0</v>
-      </c>
-      <c r="F32" s="100">
+      <c r="E32" s="106">
+        <v>0.4</v>
+      </c>
+      <c r="F32" s="114">
         <f>SUM(E32:E38)</f>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="110"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="124"/>
       <c r="C33" s="5" t="s">
         <v>37</v>
       </c>
@@ -8349,37 +8462,43 @@
       <c r="E33" s="34">
         <v>0</v>
       </c>
-      <c r="F33" s="100"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="110"/>
+      <c r="F33" s="114"/>
+    </row>
+    <row r="34" spans="2:7" ht="28.8">
+      <c r="B34" s="124"/>
       <c r="C34" s="73" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="34">
         <v>0.5</v>
       </c>
-      <c r="E34" s="34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="100"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="110"/>
+      <c r="E34" s="108">
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="114"/>
+      <c r="G34" s="172" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="124"/>
       <c r="C35" s="73" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="34">
         <v>0.3</v>
       </c>
-      <c r="E35" s="34">
-        <f>0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="100"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="110"/>
+      <c r="E35" s="85">
+        <f>0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="114"/>
+      <c r="G35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="124"/>
       <c r="C36" s="5" t="s">
         <v>43</v>
       </c>
@@ -8389,10 +8508,10 @@
       <c r="E36" s="34">
         <v>0</v>
       </c>
-      <c r="F36" s="100"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="110"/>
+      <c r="F36" s="114"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="124"/>
       <c r="C37" s="5" t="s">
         <v>97</v>
       </c>
@@ -8402,23 +8521,26 @@
       <c r="E37" s="85">
         <v>0.25</v>
       </c>
-      <c r="F37" s="100"/>
-    </row>
-    <row r="38" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B38" s="110"/>
+      <c r="F37" s="114"/>
+    </row>
+    <row r="38" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B38" s="124"/>
       <c r="C38" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="36">
         <v>0.4</v>
       </c>
-      <c r="E38" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="F38" s="100"/>
-    </row>
-    <row r="39" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B39" s="110"/>
+      <c r="E38" s="103">
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="114"/>
+      <c r="G38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B39" s="124"/>
       <c r="C39" s="58" t="s">
         <v>34</v>
       </c>
@@ -8426,24 +8548,24 @@
       <c r="E39" s="32"/>
       <c r="F39" s="43"/>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="110"/>
+    <row r="40" spans="2:7">
+      <c r="B40" s="124"/>
       <c r="C40" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D40" s="44">
         <v>0.125</v>
       </c>
-      <c r="E40" s="44">
-        <v>0</v>
-      </c>
-      <c r="F40" s="113">
+      <c r="E40" s="106">
+        <v>0.125</v>
+      </c>
+      <c r="F40" s="127">
         <f>SUM(E40:E41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B41" s="111"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B41" s="125"/>
       <c r="C41" s="6" t="s">
         <v>52</v>
       </c>
@@ -8453,18 +8575,18 @@
       <c r="E41" s="35">
         <v>0</v>
       </c>
-      <c r="F41" s="114"/>
-    </row>
-    <row r="42" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B42" s="97" t="s">
+      <c r="F41" s="128"/>
+    </row>
+    <row r="42" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B42" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="99"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="113"/>
       <c r="F42" s="65">
         <f>SUM(F4:F41)</f>
-        <v>3.1500000000000004</v>
+        <v>4.9249999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8482,7 +8604,8 @@
     <mergeCell ref="F40:F41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8505,10 +8628,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -8520,7 +8643,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="129" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -8531,7 +8654,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B4" s="116"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="13" t="s">
         <v>47</v>
       </c>
@@ -8547,7 +8670,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B5" s="116"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="58" t="s">
         <v>30</v>
       </c>
@@ -8556,7 +8679,7 @@
       <c r="F5" s="32"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="116"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
@@ -8566,13 +8689,13 @@
       <c r="E6" s="44">
         <v>0.2</v>
       </c>
-      <c r="F6" s="117">
+      <c r="F6" s="131">
         <f>SUM(E6:E8)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="116"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
@@ -8582,10 +8705,10 @@
       <c r="E7" s="34">
         <v>0.2</v>
       </c>
-      <c r="F7" s="118"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B8" s="116"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
@@ -8595,10 +8718,10 @@
       <c r="E8" s="36">
         <v>0.2</v>
       </c>
-      <c r="F8" s="118"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="116"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="58" t="s">
         <v>34</v>
       </c>
@@ -8607,7 +8730,7 @@
       <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="116"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="18" t="s">
         <v>62</v>
       </c>
@@ -8617,13 +8740,13 @@
       <c r="E10" s="47">
         <v>0.2</v>
       </c>
-      <c r="F10" s="117">
+      <c r="F10" s="131">
         <f>SUM(E10:E11)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="19" t="s">
         <v>46</v>
       </c>
@@ -8633,10 +8756,10 @@
       <c r="E11" s="48">
         <v>0.2</v>
       </c>
-      <c r="F11" s="120"/>
+      <c r="F11" s="134"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="129" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="58" t="s">
@@ -8647,7 +8770,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="116"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="15" t="s">
         <v>48</v>
       </c>
@@ -8663,7 +8786,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="116"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="66" t="s">
         <v>34</v>
       </c>
@@ -8672,7 +8795,7 @@
       <c r="F14" s="51"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="116"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="15" t="s">
         <v>52</v>
       </c>
@@ -8688,12 +8811,12 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="99"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="62">
         <f>SUM(F4:F15)</f>
         <v>1.2500000000000002</v>
@@ -8717,8 +8840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51390118-501D-994C-B11B-72660FCE399A}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8732,10 +8855,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
+      <c r="C2" s="110"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -8747,7 +8870,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="129" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="64" t="s">
@@ -8758,7 +8881,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="116"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="7" t="s">
         <v>56</v>
       </c>
@@ -8768,13 +8891,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="131">
         <f>SUM(E4:E10)</f>
         <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="116"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
@@ -8784,10 +8907,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="118"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="116"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
@@ -8797,10 +8920,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="118"/>
+      <c r="F6" s="132"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="116"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
@@ -8810,10 +8933,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="118"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="116"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
@@ -8823,10 +8946,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="118"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="116"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
@@ -8836,10 +8959,10 @@
       <c r="E9" s="44">
         <v>0.15</v>
       </c>
-      <c r="F9" s="118"/>
+      <c r="F9" s="132"/>
     </row>
     <row r="10" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B10" s="116"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="29" t="s">
         <v>66</v>
       </c>
@@ -8849,10 +8972,10 @@
       <c r="E10" s="44">
         <v>0.15</v>
       </c>
-      <c r="F10" s="120"/>
+      <c r="F10" s="134"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="116"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="58" t="s">
         <v>30</v>
       </c>
@@ -8861,7 +8984,7 @@
       <c r="F11" s="32"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="116"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
@@ -8871,13 +8994,13 @@
       <c r="E12" s="44">
         <v>0.2</v>
       </c>
-      <c r="F12" s="121">
+      <c r="F12" s="135">
         <f>SUM(E12:E14)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="116"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
@@ -8887,10 +9010,10 @@
       <c r="E13" s="34">
         <v>0.2</v>
       </c>
-      <c r="F13" s="122"/>
+      <c r="F13" s="136"/>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="116"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="11" t="s">
         <v>33</v>
       </c>
@@ -8900,10 +9023,10 @@
       <c r="E14" s="36">
         <v>0.2</v>
       </c>
-      <c r="F14" s="123"/>
+      <c r="F14" s="137"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="116"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="64" t="s">
         <v>34</v>
       </c>
@@ -8912,7 +9035,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="116"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="7" t="s">
         <v>62</v>
       </c>
@@ -8922,13 +9045,13 @@
       <c r="E16" s="44">
         <v>0.2</v>
       </c>
-      <c r="F16" s="117">
+      <c r="F16" s="131">
         <f>SUM(E16:E17)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="11" t="s">
         <v>46</v>
       </c>
@@ -8938,10 +9061,10 @@
       <c r="E17" s="36">
         <v>0.2</v>
       </c>
-      <c r="F17" s="120"/>
+      <c r="F17" s="134"/>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="129" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="58" t="s">
@@ -8952,7 +9075,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="116"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="7" t="s">
         <v>64</v>
       </c>
@@ -8962,13 +9085,13 @@
       <c r="E19" s="44">
         <v>0.125</v>
       </c>
-      <c r="F19" s="117">
+      <c r="F19" s="131">
         <f>SUM(E19:E21)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="116"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
@@ -8978,10 +9101,10 @@
       <c r="E20" s="34">
         <v>0.125</v>
       </c>
-      <c r="F20" s="118"/>
+      <c r="F20" s="132"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="116"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="11" t="s">
         <v>67</v>
       </c>
@@ -8991,10 +9114,10 @@
       <c r="E21" s="36">
         <v>0.5</v>
       </c>
-      <c r="F21" s="120"/>
+      <c r="F21" s="134"/>
     </row>
     <row r="22" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B22" s="116"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="58" t="s">
         <v>61</v>
       </c>
@@ -9003,7 +9126,7 @@
       <c r="F22" s="32"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="116"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="7" t="s">
         <v>39</v>
       </c>
@@ -9013,13 +9136,13 @@
       <c r="E23" s="44">
         <v>0.1</v>
       </c>
-      <c r="F23" s="117">
+      <c r="F23" s="131">
         <f>SUM(E23:E25)</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="116"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
@@ -9029,10 +9152,10 @@
       <c r="E24" s="34">
         <v>0.1</v>
       </c>
-      <c r="F24" s="118"/>
+      <c r="F24" s="132"/>
     </row>
     <row r="25" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B25" s="116"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="11" t="s">
         <v>71</v>
       </c>
@@ -9042,10 +9165,10 @@
       <c r="E25" s="36">
         <v>0.1</v>
       </c>
-      <c r="F25" s="120"/>
+      <c r="F25" s="134"/>
     </row>
     <row r="26" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B26" s="116"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="64" t="s">
         <v>69</v>
       </c>
@@ -9054,7 +9177,7 @@
       <c r="F26" s="32"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="116"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="37" t="s">
         <v>296</v>
       </c>
@@ -9064,13 +9187,13 @@
       <c r="E27" s="45">
         <v>1</v>
       </c>
-      <c r="F27" s="124">
+      <c r="F27" s="138">
         <f>SUM(E27:E28)</f>
         <v>1.4</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="116"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="16" t="s">
         <v>70</v>
       </c>
@@ -9080,10 +9203,10 @@
       <c r="E28" s="48">
         <v>0.4</v>
       </c>
-      <c r="F28" s="125"/>
+      <c r="F28" s="139"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="116"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="58" t="s">
         <v>34</v>
       </c>
@@ -9092,23 +9215,23 @@
       <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="116"/>
+      <c r="B30" s="130"/>
       <c r="C30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="44">
         <v>0.125</v>
       </c>
-      <c r="E30" s="44">
-        <v>0</v>
-      </c>
-      <c r="F30" s="117">
+      <c r="E30" s="98">
+        <v>0.125</v>
+      </c>
+      <c r="F30" s="131">
         <f>SUM(E30:E32)</f>
-        <v>0.15</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="116"/>
+      <c r="B31" s="130"/>
       <c r="C31" s="16" t="s">
         <v>75</v>
       </c>
@@ -9118,10 +9241,10 @@
       <c r="E31" s="48">
         <v>0.15</v>
       </c>
-      <c r="F31" s="118"/>
+      <c r="F31" s="132"/>
     </row>
     <row r="32" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B32" s="119"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="4" t="s">
         <v>52</v>
       </c>
@@ -9131,18 +9254,18 @@
       <c r="E32" s="35">
         <v>0</v>
       </c>
-      <c r="F32" s="120"/>
+      <c r="F32" s="134"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="99"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
       <c r="F33" s="63">
         <f>SUM(F4:F32)</f>
-        <v>4.6500000000000004</v>
+        <v>4.7750000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -9169,7 +9292,7 @@
   <dimension ref="B1:L39"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9183,10 +9306,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="129"/>
+      <c r="C2" s="143"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -9198,7 +9321,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="144" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="67" t="s">
@@ -9209,7 +9332,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="131"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="22" t="s">
         <v>54</v>
       </c>
@@ -9219,13 +9342,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="131">
         <f>SUM(E4:E13)</f>
         <v>1.4999999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="131"/>
+      <c r="B5" s="145"/>
       <c r="C5" s="3" t="s">
         <v>73</v>
       </c>
@@ -9235,10 +9358,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="118"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="131"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
@@ -9248,10 +9371,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="118"/>
+      <c r="F6" s="132"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="131"/>
+      <c r="B7" s="145"/>
       <c r="C7" s="3" t="s">
         <v>74</v>
       </c>
@@ -9261,10 +9384,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="118"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="131"/>
+      <c r="B8" s="145"/>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
@@ -9274,10 +9397,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="118"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="131"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="3" t="s">
         <v>76</v>
       </c>
@@ -9287,10 +9410,10 @@
       <c r="E9" s="44">
         <v>0.15</v>
       </c>
-      <c r="F9" s="118"/>
+      <c r="F9" s="132"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="131"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="3" t="s">
         <v>57</v>
       </c>
@@ -9300,10 +9423,10 @@
       <c r="E10" s="44">
         <v>0.15</v>
       </c>
-      <c r="F10" s="118"/>
+      <c r="F10" s="132"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="131"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="20" t="s">
         <v>66</v>
       </c>
@@ -9313,10 +9436,10 @@
       <c r="E11" s="44">
         <v>0.15</v>
       </c>
-      <c r="F11" s="118"/>
+      <c r="F11" s="132"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="131"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="3" t="s">
         <v>77</v>
       </c>
@@ -9326,10 +9449,10 @@
       <c r="E12" s="44">
         <v>0.15</v>
       </c>
-      <c r="F12" s="118"/>
+      <c r="F12" s="132"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="131"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="23" t="s">
         <v>78</v>
       </c>
@@ -9339,10 +9462,10 @@
       <c r="E13" s="44">
         <v>0.15</v>
       </c>
-      <c r="F13" s="120"/>
+      <c r="F13" s="134"/>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="131"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="67" t="s">
         <v>30</v>
       </c>
@@ -9351,7 +9474,7 @@
       <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="131"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="22" t="s">
         <v>31</v>
       </c>
@@ -9361,13 +9484,13 @@
       <c r="E15" s="44">
         <v>0.2</v>
       </c>
-      <c r="F15" s="121">
+      <c r="F15" s="135">
         <f>SUM(E15:E17)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="131"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
@@ -9377,10 +9500,10 @@
       <c r="E16" s="44">
         <v>0.2</v>
       </c>
-      <c r="F16" s="122"/>
+      <c r="F16" s="136"/>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="131"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="23" t="s">
         <v>33</v>
       </c>
@@ -9390,10 +9513,10 @@
       <c r="E17" s="44">
         <v>0.2</v>
       </c>
-      <c r="F17" s="123"/>
+      <c r="F17" s="137"/>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="131"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="68" t="s">
         <v>34</v>
       </c>
@@ -9402,7 +9525,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="131"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="22" t="s">
         <v>62</v>
       </c>
@@ -9412,13 +9535,13 @@
       <c r="E19" s="44">
         <v>0.2</v>
       </c>
-      <c r="F19" s="121">
+      <c r="F19" s="135">
         <f>SUM(E19:E20)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B20" s="132"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="23" t="s">
         <v>46</v>
       </c>
@@ -9428,10 +9551,10 @@
       <c r="E20" s="44">
         <v>0.2</v>
       </c>
-      <c r="F20" s="123"/>
+      <c r="F20" s="137"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="144" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="67" t="s">
@@ -9442,7 +9565,7 @@
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="133"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="24" t="s">
         <v>64</v>
       </c>
@@ -9452,13 +9575,13 @@
       <c r="E22" s="44">
         <v>0.125</v>
       </c>
-      <c r="F22" s="117">
+      <c r="F22" s="131">
         <f>SUM(E22:E27)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="133"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="20" t="s">
         <v>79</v>
       </c>
@@ -9468,10 +9591,10 @@
       <c r="E23" s="34">
         <v>0.125</v>
       </c>
-      <c r="F23" s="118"/>
+      <c r="F23" s="132"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="133"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="20" t="s">
         <v>80</v>
       </c>
@@ -9481,10 +9604,10 @@
       <c r="E24" s="34">
         <v>0.125</v>
       </c>
-      <c r="F24" s="118"/>
+      <c r="F24" s="132"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="133"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="20" t="s">
         <v>65</v>
       </c>
@@ -9494,10 +9617,10 @@
       <c r="E25" s="34">
         <v>0.125</v>
       </c>
-      <c r="F25" s="118"/>
+      <c r="F25" s="132"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="133"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="20" t="s">
         <v>81</v>
       </c>
@@ -9507,10 +9630,10 @@
       <c r="E26" s="34">
         <v>0.4</v>
       </c>
-      <c r="F26" s="118"/>
+      <c r="F26" s="132"/>
     </row>
     <row r="27" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B27" s="133"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="25" t="s">
         <v>82</v>
       </c>
@@ -9520,10 +9643,10 @@
       <c r="E27" s="36">
         <v>0.4</v>
       </c>
-      <c r="F27" s="120"/>
+      <c r="F27" s="134"/>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="133"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="67" t="s">
         <v>61</v>
       </c>
@@ -9532,7 +9655,7 @@
       <c r="F28" s="32"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="133"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="26" t="s">
         <v>38</v>
       </c>
@@ -9548,7 +9671,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B30" s="133"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="67" t="s">
         <v>83</v>
       </c>
@@ -9557,7 +9680,7 @@
       <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="133"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="24" t="s">
         <v>84</v>
       </c>
@@ -9567,13 +9690,13 @@
       <c r="E31" s="44">
         <v>0.25</v>
       </c>
-      <c r="F31" s="117">
+      <c r="F31" s="131">
         <f>SUM(E31:E34)</f>
         <v>1.55</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="133"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="21" t="s">
         <v>85</v>
       </c>
@@ -9583,10 +9706,10 @@
       <c r="E32" s="34">
         <v>0.5</v>
       </c>
-      <c r="F32" s="118"/>
+      <c r="F32" s="132"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="133"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="21" t="s">
         <v>86</v>
       </c>
@@ -9596,10 +9719,10 @@
       <c r="E33" s="34">
         <v>0.3</v>
       </c>
-      <c r="F33" s="118"/>
+      <c r="F33" s="132"/>
     </row>
     <row r="34" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B34" s="134"/>
+      <c r="B34" s="148"/>
       <c r="C34" s="74" t="s">
         <v>87</v>
       </c>
@@ -9609,10 +9732,10 @@
       <c r="E34" s="36">
         <v>0.5</v>
       </c>
-      <c r="F34" s="120"/>
+      <c r="F34" s="134"/>
     </row>
     <row r="35" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B35" s="134"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="67" t="s">
         <v>34</v>
       </c>
@@ -9621,40 +9744,40 @@
       <c r="F35" s="32"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="134"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="44">
         <v>0.125</v>
       </c>
-      <c r="E36" s="44">
-        <v>0</v>
-      </c>
-      <c r="F36" s="118">
+      <c r="E36" s="98">
+        <v>0.125</v>
+      </c>
+      <c r="F36" s="132">
         <f>SUM(E36:E38)</f>
-        <v>0.15</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="134"/>
+      <c r="B37" s="148"/>
       <c r="C37" s="16" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="48">
         <v>0.15</v>
       </c>
-      <c r="E37" s="94">
-        <v>0.15</v>
-      </c>
-      <c r="F37" s="118"/>
+      <c r="E37" s="93">
+        <v>0.15</v>
+      </c>
+      <c r="F37" s="132"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="27"/>
     </row>
     <row r="38" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B38" s="135"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="4" t="s">
         <v>52</v>
       </c>
@@ -9664,22 +9787,22 @@
       <c r="E38" s="35">
         <v>0</v>
       </c>
-      <c r="F38" s="120"/>
+      <c r="F38" s="134"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="27"/>
     </row>
     <row r="39" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B39" s="126" t="s">
+      <c r="B39" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="128"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="142"/>
       <c r="F39" s="58">
         <f>SUM(F4:F38)</f>
-        <v>5.6000000000000005</v>
+        <v>5.7250000000000005</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -9706,10 +9829,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA6770-F854-A643-8029-F212B5CE736F}">
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9723,10 +9846,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -9738,7 +9861,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="144" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -9749,7 +9872,7 @@
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="133"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="7" t="s">
         <v>54</v>
       </c>
@@ -9759,13 +9882,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="118">
+      <c r="F4" s="132">
         <f>SUM(E4:E7)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="133"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="1" t="s">
         <v>88</v>
       </c>
@@ -9775,10 +9898,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="118"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="133"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="1" t="s">
         <v>66</v>
       </c>
@@ -9788,10 +9911,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="118"/>
+      <c r="F6" s="132"/>
     </row>
     <row r="7" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B7" s="133"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="11" t="s">
         <v>89</v>
       </c>
@@ -9801,10 +9924,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="118"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B8" s="133"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="58" t="s">
         <v>30</v>
       </c>
@@ -9813,7 +9936,7 @@
       <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="133"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
@@ -9823,13 +9946,13 @@
       <c r="E9" s="44">
         <v>0.2</v>
       </c>
-      <c r="F9" s="121">
+      <c r="F9" s="135">
         <f>SUM(E9:E11)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="133"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
@@ -9839,10 +9962,10 @@
       <c r="E10" s="84">
         <v>0.2</v>
       </c>
-      <c r="F10" s="122"/>
+      <c r="F10" s="136"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="133"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
@@ -9852,10 +9975,10 @@
       <c r="E11" s="44">
         <v>0.2</v>
       </c>
-      <c r="F11" s="123"/>
+      <c r="F11" s="137"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="133"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="64" t="s">
         <v>34</v>
       </c>
@@ -9864,7 +9987,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="133"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="7" t="s">
         <v>62</v>
       </c>
@@ -9874,13 +9997,13 @@
       <c r="E13" s="44">
         <v>0.2</v>
       </c>
-      <c r="F13" s="121">
+      <c r="F13" s="135">
         <f>SUM(E13:E14)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="135"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="11" t="s">
         <v>46</v>
       </c>
@@ -9890,10 +10013,10 @@
       <c r="E14" s="44">
         <v>0.2</v>
       </c>
-      <c r="F14" s="123"/>
+      <c r="F14" s="137"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="144" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -9904,7 +10027,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="133"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="30" t="s">
         <v>64</v>
       </c>
@@ -9914,26 +10037,32 @@
       <c r="E16" s="44">
         <v>0.125</v>
       </c>
-      <c r="F16" s="118">
+      <c r="F16" s="132">
         <f>SUM(E16:E17)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="133"/>
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B17" s="147"/>
       <c r="C17" s="29" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="36">
         <v>0.3</v>
       </c>
-      <c r="E17" s="36">
-        <v>0.125</v>
-      </c>
-      <c r="F17" s="118"/>
-    </row>
-    <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="133"/>
+      <c r="E17" s="99">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="132"/>
+      <c r="G17" t="s">
+        <v>337</v>
+      </c>
+      <c r="H17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B18" s="147"/>
       <c r="C18" s="58" t="s">
         <v>91</v>
       </c>
@@ -9941,8 +10070,8 @@
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="133"/>
+    <row r="19" spans="2:8">
+      <c r="B19" s="147"/>
       <c r="C19" s="30" t="s">
         <v>94</v>
       </c>
@@ -9952,13 +10081,13 @@
       <c r="E19" s="44">
         <v>0.5</v>
       </c>
-      <c r="F19" s="118">
+      <c r="F19" s="132">
         <f>SUM(E19:E22)</f>
         <v>1.55</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="133"/>
+    <row r="20" spans="2:8">
+      <c r="B20" s="147"/>
       <c r="C20" s="28" t="s">
         <v>92</v>
       </c>
@@ -9968,10 +10097,10 @@
       <c r="E20" s="34">
         <v>0.3</v>
       </c>
-      <c r="F20" s="118"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="133"/>
+      <c r="F20" s="132"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="147"/>
       <c r="C21" s="28" t="s">
         <v>93</v>
       </c>
@@ -9981,10 +10110,10 @@
       <c r="E21" s="34">
         <v>0.5</v>
       </c>
-      <c r="F21" s="118"/>
-    </row>
-    <row r="22" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B22" s="133"/>
+      <c r="F21" s="132"/>
+    </row>
+    <row r="22" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B22" s="147"/>
       <c r="C22" s="29" t="s">
         <v>95</v>
       </c>
@@ -9994,10 +10123,10 @@
       <c r="E22" s="36">
         <v>0.25</v>
       </c>
-      <c r="F22" s="118"/>
-    </row>
-    <row r="23" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B23" s="133"/>
+      <c r="F22" s="132"/>
+    </row>
+    <row r="23" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B23" s="147"/>
       <c r="C23" s="58" t="s">
         <v>34</v>
       </c>
@@ -10005,24 +10134,24 @@
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="133"/>
+    <row r="24" spans="2:8">
+      <c r="B24" s="147"/>
       <c r="C24" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="44">
         <v>0.125</v>
       </c>
-      <c r="E24" s="44">
-        <v>0</v>
-      </c>
-      <c r="F24" s="121">
+      <c r="E24" s="98">
+        <v>0.125</v>
+      </c>
+      <c r="F24" s="135">
         <f>SUM(E24:E26)</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="133"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="147"/>
       <c r="C25" s="1" t="s">
         <v>75</v>
       </c>
@@ -10032,10 +10161,10 @@
       <c r="E25" s="34">
         <v>0.15</v>
       </c>
-      <c r="F25" s="122"/>
-    </row>
-    <row r="26" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B26" s="135"/>
+      <c r="F25" s="136"/>
+    </row>
+    <row r="26" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B26" s="149"/>
       <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
@@ -10045,18 +10174,18 @@
       <c r="E26" s="35">
         <v>0</v>
       </c>
-      <c r="F26" s="138"/>
-    </row>
-    <row r="27" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B27" s="136" t="s">
+      <c r="F26" s="152"/>
+    </row>
+    <row r="27" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B27" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
       <c r="F27" s="58">
         <f>SUM(F4:F26)</f>
-        <v>3.5500000000000003</v>
+        <v>3.85</v>
       </c>
     </row>
   </sheetData>
@@ -10081,8 +10210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA52E4B4-063C-1347-8F70-DFE829911404}">
   <dimension ref="B1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A52" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -10096,10 +10225,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
+      <c r="C2" s="110"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -10111,7 +10240,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="119" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -10122,7 +10251,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="106"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="7" t="s">
         <v>96</v>
       </c>
@@ -10132,13 +10261,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="131">
         <f>SUM(E4:E11)</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="106"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
@@ -10148,10 +10277,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="118"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="106"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="1" t="s">
         <v>137</v>
       </c>
@@ -10161,10 +10290,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="118"/>
+      <c r="F6" s="132"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="106"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="1" t="s">
         <v>138</v>
       </c>
@@ -10174,10 +10303,10 @@
       <c r="E7" s="71">
         <v>0.15</v>
       </c>
-      <c r="F7" s="118"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="106"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="1" t="s">
         <v>139</v>
       </c>
@@ -10187,10 +10316,10 @@
       <c r="E8" s="71">
         <v>0.15</v>
       </c>
-      <c r="F8" s="118"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="106"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="1" t="s">
         <v>140</v>
       </c>
@@ -10200,10 +10329,10 @@
       <c r="E9" s="71">
         <v>0.15</v>
       </c>
-      <c r="F9" s="118"/>
+      <c r="F9" s="132"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="106"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="1" t="s">
         <v>141</v>
       </c>
@@ -10213,10 +10342,10 @@
       <c r="E10" s="71">
         <v>0.15</v>
       </c>
-      <c r="F10" s="118"/>
+      <c r="F10" s="132"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="106"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="11" t="s">
         <v>142</v>
       </c>
@@ -10226,10 +10355,10 @@
       <c r="E11" s="71">
         <v>0.15</v>
       </c>
-      <c r="F11" s="120"/>
+      <c r="F11" s="134"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="106"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="58" t="s">
         <v>100</v>
       </c>
@@ -10238,7 +10367,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="106"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="7" t="s">
         <v>101</v>
       </c>
@@ -10248,13 +10377,13 @@
       <c r="E13" s="71">
         <v>0.15</v>
       </c>
-      <c r="F13" s="117">
+      <c r="F13" s="131">
         <f>SUM(E13:E14)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="106"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="29" t="s">
         <v>297</v>
       </c>
@@ -10264,10 +10393,10 @@
       <c r="E14" s="71">
         <v>0.15</v>
       </c>
-      <c r="F14" s="120"/>
+      <c r="F14" s="134"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="106"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="58" t="s">
         <v>102</v>
       </c>
@@ -10276,7 +10405,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="106"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="7" t="s">
         <v>103</v>
       </c>
@@ -10286,13 +10415,13 @@
       <c r="E16" s="71">
         <v>0.15</v>
       </c>
-      <c r="F16" s="117">
+      <c r="F16" s="131">
         <f>SUM(E16:E38)</f>
         <v>3.3</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="106"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="30" t="s">
         <v>189</v>
       </c>
@@ -10302,10 +10431,10 @@
       <c r="E17" s="44">
         <v>0</v>
       </c>
-      <c r="F17" s="118"/>
+      <c r="F17" s="132"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="106"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="28" t="s">
         <v>104</v>
       </c>
@@ -10315,10 +10444,10 @@
       <c r="E18" s="44">
         <v>0</v>
       </c>
-      <c r="F18" s="118"/>
+      <c r="F18" s="132"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="106"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="1" t="s">
         <v>105</v>
       </c>
@@ -10328,10 +10457,10 @@
       <c r="E19" s="44">
         <v>0.15</v>
       </c>
-      <c r="F19" s="118"/>
+      <c r="F19" s="132"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="106"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="1" t="s">
         <v>106</v>
       </c>
@@ -10341,10 +10470,10 @@
       <c r="E20" s="44">
         <v>0.15</v>
       </c>
-      <c r="F20" s="118"/>
+      <c r="F20" s="132"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="106"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="1" t="s">
         <v>107</v>
       </c>
@@ -10354,10 +10483,10 @@
       <c r="E21" s="44">
         <v>0.15</v>
       </c>
-      <c r="F21" s="118"/>
+      <c r="F21" s="132"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="106"/>
+      <c r="B22" s="120"/>
       <c r="C22" s="28" t="s">
         <v>108</v>
       </c>
@@ -10367,10 +10496,10 @@
       <c r="E22" s="44">
         <v>0</v>
       </c>
-      <c r="F22" s="118"/>
+      <c r="F22" s="132"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="106"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
@@ -10380,10 +10509,10 @@
       <c r="E23" s="84">
         <v>0.15</v>
       </c>
-      <c r="F23" s="118"/>
+      <c r="F23" s="132"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="106"/>
+      <c r="B24" s="120"/>
       <c r="C24" s="1" t="s">
         <v>110</v>
       </c>
@@ -10393,10 +10522,10 @@
       <c r="E24" s="71">
         <v>0.15</v>
       </c>
-      <c r="F24" s="118"/>
+      <c r="F24" s="132"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="106"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="28" t="s">
         <v>298</v>
       </c>
@@ -10406,10 +10535,10 @@
       <c r="E25" s="84">
         <v>0.15</v>
       </c>
-      <c r="F25" s="118"/>
+      <c r="F25" s="132"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="106"/>
+      <c r="B26" s="120"/>
       <c r="C26" s="1" t="s">
         <v>111</v>
       </c>
@@ -10419,10 +10548,10 @@
       <c r="E26" s="71">
         <v>0.15</v>
       </c>
-      <c r="F26" s="118"/>
+      <c r="F26" s="132"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="106"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="1" t="s">
         <v>112</v>
       </c>
@@ -10432,10 +10561,10 @@
       <c r="E27" s="71">
         <v>0.15</v>
       </c>
-      <c r="F27" s="118"/>
+      <c r="F27" s="132"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="106"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="1" t="s">
         <v>113</v>
       </c>
@@ -10445,10 +10574,10 @@
       <c r="E28" s="71">
         <v>0.15</v>
       </c>
-      <c r="F28" s="118"/>
+      <c r="F28" s="132"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="106"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="1" t="s">
         <v>114</v>
       </c>
@@ -10458,10 +10587,10 @@
       <c r="E29" s="84">
         <v>0.15</v>
       </c>
-      <c r="F29" s="118"/>
+      <c r="F29" s="132"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="106"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="1" t="s">
         <v>115</v>
       </c>
@@ -10471,10 +10600,10 @@
       <c r="E30" s="78">
         <v>0.15</v>
       </c>
-      <c r="F30" s="118"/>
+      <c r="F30" s="132"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="106"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="28" t="s">
         <v>116</v>
       </c>
@@ -10484,10 +10613,10 @@
       <c r="E31" s="84">
         <v>0.3</v>
       </c>
-      <c r="F31" s="118"/>
+      <c r="F31" s="132"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="106"/>
+      <c r="B32" s="120"/>
       <c r="C32" s="28" t="s">
         <v>117</v>
       </c>
@@ -10497,10 +10626,10 @@
       <c r="E32" s="44">
         <v>0.15</v>
       </c>
-      <c r="F32" s="118"/>
+      <c r="F32" s="132"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="106"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="28" t="s">
         <v>118</v>
       </c>
@@ -10510,10 +10639,10 @@
       <c r="E33" s="84">
         <v>0.15</v>
       </c>
-      <c r="F33" s="118"/>
+      <c r="F33" s="132"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="106"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="28" t="s">
         <v>119</v>
       </c>
@@ -10523,10 +10652,10 @@
       <c r="E34" s="84">
         <v>0.2</v>
       </c>
-      <c r="F34" s="118"/>
+      <c r="F34" s="132"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="106"/>
+      <c r="B35" s="120"/>
       <c r="C35" s="28" t="s">
         <v>120</v>
       </c>
@@ -10536,10 +10665,10 @@
       <c r="E35" s="84">
         <v>0.2</v>
       </c>
-      <c r="F35" s="118"/>
+      <c r="F35" s="132"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="106"/>
+      <c r="B36" s="120"/>
       <c r="C36" s="28" t="s">
         <v>135</v>
       </c>
@@ -10549,13 +10678,13 @@
       <c r="E36" s="84">
         <v>0.1</v>
       </c>
-      <c r="F36" s="118"/>
-      <c r="G36" t="s">
+      <c r="F36" s="132"/>
+      <c r="G36" s="91" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="106"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="28" t="s">
         <v>136</v>
       </c>
@@ -10565,13 +10694,13 @@
       <c r="E37" s="84">
         <v>0.1</v>
       </c>
-      <c r="F37" s="118"/>
-      <c r="G37" t="s">
+      <c r="F37" s="132"/>
+      <c r="G37" s="91" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B38" s="106"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="29" t="s">
         <v>176</v>
       </c>
@@ -10581,10 +10710,10 @@
       <c r="E38" s="84">
         <v>0.3</v>
       </c>
-      <c r="F38" s="120"/>
+      <c r="F38" s="134"/>
     </row>
     <row r="39" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B39" s="106"/>
+      <c r="B39" s="120"/>
       <c r="C39" s="58" t="s">
         <v>121</v>
       </c>
@@ -10593,7 +10722,7 @@
       <c r="F39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="106"/>
+      <c r="B40" s="120"/>
       <c r="C40" s="7" t="s">
         <v>122</v>
       </c>
@@ -10603,13 +10732,13 @@
       <c r="E40" s="44">
         <v>0.15</v>
       </c>
-      <c r="F40" s="117">
+      <c r="F40" s="131">
         <f>SUM(E40:E47)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="106"/>
+      <c r="B41" s="120"/>
       <c r="C41" s="28" t="s">
         <v>123</v>
       </c>
@@ -10619,10 +10748,10 @@
       <c r="E41" s="44">
         <v>0</v>
       </c>
-      <c r="F41" s="118"/>
+      <c r="F41" s="132"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="106"/>
+      <c r="B42" s="120"/>
       <c r="C42" s="1" t="s">
         <v>124</v>
       </c>
@@ -10632,10 +10761,10 @@
       <c r="E42" s="44">
         <v>0.15</v>
       </c>
-      <c r="F42" s="118"/>
+      <c r="F42" s="132"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="106"/>
+      <c r="B43" s="120"/>
       <c r="C43" s="28" t="s">
         <v>117</v>
       </c>
@@ -10645,10 +10774,10 @@
       <c r="E43" s="44">
         <v>0.15</v>
       </c>
-      <c r="F43" s="118"/>
+      <c r="F43" s="132"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="106"/>
+      <c r="B44" s="120"/>
       <c r="C44" s="28" t="s">
         <v>118</v>
       </c>
@@ -10658,49 +10787,49 @@
       <c r="E44" s="44">
         <v>0.15</v>
       </c>
-      <c r="F44" s="118"/>
+      <c r="F44" s="132"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="106"/>
+      <c r="B45" s="120"/>
       <c r="C45" s="28" t="s">
         <v>119</v>
       </c>
       <c r="D45" s="44">
         <v>0.2</v>
       </c>
-      <c r="E45" s="44">
+      <c r="E45" s="106">
         <v>0</v>
       </c>
-      <c r="F45" s="118"/>
+      <c r="F45" s="132"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="106"/>
+      <c r="B46" s="120"/>
       <c r="C46" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D46" s="44">
         <v>0.15</v>
       </c>
-      <c r="E46" s="44">
+      <c r="E46" s="102">
         <v>0</v>
       </c>
-      <c r="F46" s="118"/>
+      <c r="F46" s="132"/>
     </row>
     <row r="47" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B47" s="106"/>
+      <c r="B47" s="120"/>
       <c r="C47" s="29" t="s">
         <v>125</v>
       </c>
       <c r="D47" s="44">
         <v>0.2</v>
       </c>
-      <c r="E47" s="44">
+      <c r="E47" s="106">
         <v>0</v>
       </c>
-      <c r="F47" s="120"/>
+      <c r="F47" s="134"/>
     </row>
     <row r="48" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B48" s="106"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="58" t="s">
         <v>127</v>
       </c>
@@ -10709,101 +10838,101 @@
       <c r="F48" s="32"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="106"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D49" s="44">
         <v>0.15</v>
       </c>
-      <c r="E49" s="44">
+      <c r="E49" s="106">
         <v>0</v>
       </c>
-      <c r="F49" s="117">
+      <c r="F49" s="131">
         <f>SUM(E49:E58)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="106"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D50" s="44">
         <v>0.15</v>
       </c>
-      <c r="E50" s="44">
+      <c r="E50" s="106">
         <v>0</v>
       </c>
-      <c r="F50" s="118"/>
+      <c r="F50" s="132"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="106"/>
+      <c r="B51" s="120"/>
       <c r="C51" s="28" t="s">
         <v>117</v>
       </c>
       <c r="D51" s="44">
         <v>0.15</v>
       </c>
-      <c r="E51" s="44">
+      <c r="E51" s="106">
         <v>0</v>
       </c>
-      <c r="F51" s="118"/>
+      <c r="F51" s="132"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="106"/>
+      <c r="B52" s="120"/>
       <c r="C52" s="28" t="s">
         <v>118</v>
       </c>
       <c r="D52" s="44">
         <v>0.15</v>
       </c>
-      <c r="E52" s="44">
+      <c r="E52" s="106">
         <v>0</v>
       </c>
-      <c r="F52" s="118"/>
+      <c r="F52" s="132"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="106"/>
+      <c r="B53" s="120"/>
       <c r="C53" s="28" t="s">
         <v>119</v>
       </c>
       <c r="D53" s="44">
         <v>0.2</v>
       </c>
-      <c r="E53" s="44">
+      <c r="E53" s="106">
         <v>0</v>
       </c>
-      <c r="F53" s="118"/>
+      <c r="F53" s="132"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="106"/>
+      <c r="B54" s="120"/>
       <c r="C54" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D54" s="44">
         <v>0.15</v>
       </c>
-      <c r="E54" s="44">
+      <c r="E54" s="106">
         <v>0</v>
       </c>
-      <c r="F54" s="118"/>
+      <c r="F54" s="132"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="106"/>
+      <c r="B55" s="120"/>
       <c r="C55" s="28" t="s">
         <v>131</v>
       </c>
       <c r="D55" s="44">
         <v>0.2</v>
       </c>
-      <c r="E55" s="44">
+      <c r="E55" s="106">
         <v>0</v>
       </c>
-      <c r="F55" s="118"/>
+      <c r="F55" s="132"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="106"/>
+      <c r="B56" s="120"/>
       <c r="C56" s="1" t="s">
         <v>132</v>
       </c>
@@ -10813,36 +10942,36 @@
       <c r="E56" s="44">
         <v>0</v>
       </c>
-      <c r="F56" s="118"/>
+      <c r="F56" s="132"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="106"/>
+      <c r="B57" s="120"/>
       <c r="C57" s="28" t="s">
         <v>133</v>
       </c>
       <c r="D57" s="44">
         <v>0.2</v>
       </c>
-      <c r="E57" s="44">
+      <c r="E57" s="106">
         <v>0</v>
       </c>
-      <c r="F57" s="118"/>
+      <c r="F57" s="132"/>
     </row>
     <row r="58" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B58" s="106"/>
+      <c r="B58" s="120"/>
       <c r="C58" s="11" t="s">
         <v>134</v>
       </c>
       <c r="D58" s="44">
         <v>0.2</v>
       </c>
-      <c r="E58" s="44">
+      <c r="E58" s="102">
         <v>0</v>
       </c>
-      <c r="F58" s="120"/>
+      <c r="F58" s="134"/>
     </row>
     <row r="59" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B59" s="106"/>
+      <c r="B59" s="120"/>
       <c r="C59" s="58" t="s">
         <v>30</v>
       </c>
@@ -10851,7 +10980,7 @@
       <c r="F59" s="32"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="106"/>
+      <c r="B60" s="120"/>
       <c r="C60" s="7" t="s">
         <v>31</v>
       </c>
@@ -10861,13 +10990,13 @@
       <c r="E60" s="44">
         <v>0.2</v>
       </c>
-      <c r="F60" s="121">
+      <c r="F60" s="135">
         <f>SUM(E60:E62)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="106"/>
+      <c r="B61" s="120"/>
       <c r="C61" s="1" t="s">
         <v>32</v>
       </c>
@@ -10877,10 +11006,10 @@
       <c r="E61" s="44">
         <v>0.2</v>
       </c>
-      <c r="F61" s="122"/>
+      <c r="F61" s="136"/>
     </row>
     <row r="62" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B62" s="106"/>
+      <c r="B62" s="120"/>
       <c r="C62" s="11" t="s">
         <v>33</v>
       </c>
@@ -10890,10 +11019,10 @@
       <c r="E62" s="44">
         <v>0.2</v>
       </c>
-      <c r="F62" s="123"/>
+      <c r="F62" s="137"/>
     </row>
     <row r="63" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B63" s="106"/>
+      <c r="B63" s="120"/>
       <c r="C63" s="64" t="s">
         <v>34</v>
       </c>
@@ -10902,7 +11031,7 @@
       <c r="F63" s="32"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="106"/>
+      <c r="B64" s="120"/>
       <c r="C64" s="7" t="s">
         <v>62</v>
       </c>
@@ -10912,13 +11041,13 @@
       <c r="E64" s="44">
         <v>0.2</v>
       </c>
-      <c r="F64" s="121">
+      <c r="F64" s="135">
         <f>SUM(E64:E65)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B65" s="108"/>
+      <c r="B65" s="122"/>
       <c r="C65" s="11" t="s">
         <v>46</v>
       </c>
@@ -10928,10 +11057,10 @@
       <c r="E65" s="36">
         <v>0.2</v>
       </c>
-      <c r="F65" s="123"/>
+      <c r="F65" s="137"/>
     </row>
     <row r="66" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B66" s="141" t="s">
+      <c r="B66" s="155" t="s">
         <v>45</v>
       </c>
       <c r="C66" s="58" t="s">
@@ -10942,7 +11071,7 @@
       <c r="F66" s="32"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="131"/>
+      <c r="B67" s="145"/>
       <c r="C67" s="30" t="s">
         <v>143</v>
       </c>
@@ -10952,13 +11081,13 @@
       <c r="E67" s="44">
         <v>0.25</v>
       </c>
-      <c r="F67" s="117">
+      <c r="F67" s="131">
         <f>SUM(E67:E68)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B68" s="131"/>
+      <c r="B68" s="145"/>
       <c r="C68" s="29" t="s">
         <v>185</v>
       </c>
@@ -10968,10 +11097,10 @@
       <c r="E68" s="36">
         <v>0.35</v>
       </c>
-      <c r="F68" s="120"/>
+      <c r="F68" s="134"/>
     </row>
     <row r="69" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B69" s="131"/>
+      <c r="B69" s="145"/>
       <c r="C69" s="58" t="s">
         <v>100</v>
       </c>
@@ -10980,7 +11109,7 @@
       <c r="F69" s="32"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="131"/>
+      <c r="B70" s="145"/>
       <c r="C70" s="30" t="s">
         <v>145</v>
       </c>
@@ -10990,13 +11119,13 @@
       <c r="E70" s="44">
         <v>0</v>
       </c>
-      <c r="F70" s="117">
+      <c r="F70" s="131">
         <f>SUM(E70:E75)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="131"/>
+      <c r="B71" s="145"/>
       <c r="C71" s="31" t="s">
         <v>146</v>
       </c>
@@ -11006,10 +11135,10 @@
       <c r="E71" s="79">
         <v>0</v>
       </c>
-      <c r="F71" s="118"/>
+      <c r="F71" s="132"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="131"/>
+      <c r="B72" s="145"/>
       <c r="C72" s="1" t="s">
         <v>147</v>
       </c>
@@ -11019,10 +11148,10 @@
       <c r="E72" s="79">
         <v>0</v>
       </c>
-      <c r="F72" s="118"/>
+      <c r="F72" s="132"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="131"/>
+      <c r="B73" s="145"/>
       <c r="C73" s="1" t="s">
         <v>148</v>
       </c>
@@ -11032,10 +11161,10 @@
       <c r="E73" s="79">
         <v>0</v>
       </c>
-      <c r="F73" s="118"/>
+      <c r="F73" s="132"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="131"/>
+      <c r="B74" s="145"/>
       <c r="C74" s="1" t="s">
         <v>149</v>
       </c>
@@ -11045,10 +11174,10 @@
       <c r="E74" s="79">
         <v>0</v>
       </c>
-      <c r="F74" s="118"/>
+      <c r="F74" s="132"/>
     </row>
     <row r="75" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B75" s="131"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="11" t="s">
         <v>152</v>
       </c>
@@ -11058,10 +11187,10 @@
       <c r="E75" s="79">
         <v>0</v>
       </c>
-      <c r="F75" s="120"/>
+      <c r="F75" s="134"/>
     </row>
     <row r="76" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B76" s="131"/>
+      <c r="B76" s="145"/>
       <c r="C76" s="58" t="s">
         <v>102</v>
       </c>
@@ -11070,127 +11199,127 @@
       <c r="F76" s="32"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="131"/>
+      <c r="B77" s="145"/>
       <c r="C77" s="7" t="s">
         <v>144</v>
       </c>
       <c r="D77" s="44">
         <v>0.25</v>
       </c>
-      <c r="E77" s="79">
+      <c r="E77" s="106">
         <v>0</v>
       </c>
-      <c r="F77" s="117">
+      <c r="F77" s="131">
         <f>SUM(E77:E96)</f>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="131"/>
+      <c r="B78" s="145"/>
       <c r="C78" s="7" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="44">
         <v>0.7</v>
       </c>
-      <c r="E78" s="79">
+      <c r="E78" s="106">
         <v>0</v>
       </c>
-      <c r="F78" s="118"/>
+      <c r="F78" s="132"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="131"/>
+      <c r="B79" s="145"/>
       <c r="C79" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D79" s="34">
         <v>0.25</v>
       </c>
-      <c r="E79" s="79">
+      <c r="E79" s="106">
         <v>0</v>
       </c>
-      <c r="F79" s="118"/>
+      <c r="F79" s="132"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="131"/>
+      <c r="B80" s="145"/>
       <c r="C80" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D80" s="34">
         <v>0.25</v>
       </c>
-      <c r="E80" s="79">
+      <c r="E80" s="106">
         <v>0</v>
       </c>
-      <c r="F80" s="118"/>
+      <c r="F80" s="132"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="131"/>
+      <c r="B81" s="145"/>
       <c r="C81" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D81" s="34">
         <v>0.5</v>
       </c>
-      <c r="E81" s="79">
+      <c r="E81" s="106">
         <v>0</v>
       </c>
-      <c r="F81" s="118"/>
+      <c r="F81" s="132"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="131"/>
+      <c r="B82" s="145"/>
       <c r="C82" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D82" s="34">
         <v>0.25</v>
       </c>
-      <c r="E82" s="79">
+      <c r="E82" s="106">
         <v>0</v>
       </c>
-      <c r="F82" s="118"/>
+      <c r="F82" s="132"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="131"/>
+      <c r="B83" s="145"/>
       <c r="C83" s="28" t="s">
         <v>299</v>
       </c>
       <c r="D83" s="34">
         <v>0.2</v>
       </c>
-      <c r="E83" s="79">
+      <c r="E83" s="106">
         <v>0</v>
       </c>
-      <c r="F83" s="118"/>
+      <c r="F83" s="132"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="131"/>
+      <c r="B84" s="145"/>
       <c r="C84" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D84" s="34">
         <v>0.3</v>
       </c>
-      <c r="E84" s="79">
+      <c r="E84" s="106">
         <v>0</v>
       </c>
-      <c r="F84" s="118"/>
+      <c r="F84" s="132"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="131"/>
+      <c r="B85" s="145"/>
       <c r="C85" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D85" s="34">
         <v>0.25</v>
       </c>
-      <c r="E85" s="79">
+      <c r="E85" s="106">
         <v>0</v>
       </c>
-      <c r="F85" s="118"/>
+      <c r="F85" s="132"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="131"/>
+      <c r="B86" s="145"/>
       <c r="C86" s="28" t="s">
         <v>154</v>
       </c>
@@ -11200,75 +11329,75 @@
       <c r="E86" s="79">
         <v>0</v>
       </c>
-      <c r="F86" s="118"/>
+      <c r="F86" s="132"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="131"/>
+      <c r="B87" s="145"/>
       <c r="C87" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D87" s="34">
         <v>0.2</v>
       </c>
-      <c r="E87" s="79">
-        <v>0</v>
-      </c>
-      <c r="F87" s="118"/>
+      <c r="E87" s="104">
+        <v>0.2</v>
+      </c>
+      <c r="F87" s="132"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="131"/>
+      <c r="B88" s="145"/>
       <c r="C88" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D88" s="34">
         <v>0.25</v>
       </c>
-      <c r="E88" s="79">
+      <c r="E88" s="106">
         <v>0</v>
       </c>
-      <c r="F88" s="118"/>
+      <c r="F88" s="132"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="131"/>
+      <c r="B89" s="145"/>
       <c r="C89" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D89" s="34">
         <v>0.25</v>
       </c>
-      <c r="E89" s="79">
+      <c r="E89" s="106">
         <v>0</v>
       </c>
-      <c r="F89" s="118"/>
+      <c r="F89" s="132"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="131"/>
+      <c r="B90" s="145"/>
       <c r="C90" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D90" s="34">
         <v>0.2</v>
       </c>
-      <c r="E90" s="79">
-        <v>0</v>
-      </c>
-      <c r="F90" s="118"/>
+      <c r="E90" s="98">
+        <v>0.2</v>
+      </c>
+      <c r="F90" s="132"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="131"/>
+      <c r="B91" s="145"/>
       <c r="C91" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D91" s="34">
         <v>0.4</v>
       </c>
-      <c r="E91" s="79">
+      <c r="E91" s="106">
         <v>0</v>
       </c>
-      <c r="F91" s="118"/>
+      <c r="F91" s="132"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="131"/>
+      <c r="B92" s="145"/>
       <c r="C92" s="1" t="s">
         <v>160</v>
       </c>
@@ -11278,10 +11407,10 @@
       <c r="E92" s="79">
         <v>0</v>
       </c>
-      <c r="F92" s="118"/>
+      <c r="F92" s="132"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="131"/>
+      <c r="B93" s="145"/>
       <c r="C93" s="1" t="s">
         <v>161</v>
       </c>
@@ -11291,49 +11420,49 @@
       <c r="E93" s="79">
         <v>0</v>
       </c>
-      <c r="F93" s="118"/>
+      <c r="F93" s="132"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="131"/>
+      <c r="B94" s="145"/>
       <c r="C94" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D94" s="34">
         <v>0.25</v>
       </c>
-      <c r="E94" s="79">
+      <c r="E94" s="106">
         <v>0</v>
       </c>
-      <c r="F94" s="118"/>
+      <c r="F94" s="132"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="131"/>
+      <c r="B95" s="145"/>
       <c r="C95" s="11" t="s">
         <v>172</v>
       </c>
       <c r="D95" s="36">
         <v>0.2</v>
       </c>
-      <c r="E95" s="79">
-        <v>0</v>
-      </c>
-      <c r="F95" s="118"/>
+      <c r="E95" s="98">
+        <v>0.2</v>
+      </c>
+      <c r="F95" s="132"/>
     </row>
     <row r="96" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B96" s="131"/>
+      <c r="B96" s="145"/>
       <c r="C96" s="11" t="s">
         <v>163</v>
       </c>
       <c r="D96" s="36">
         <v>0.25</v>
       </c>
-      <c r="E96" s="79">
+      <c r="E96" s="106">
         <v>0</v>
       </c>
-      <c r="F96" s="120"/>
+      <c r="F96" s="134"/>
     </row>
     <row r="97" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B97" s="131"/>
+      <c r="B97" s="145"/>
       <c r="C97" s="58" t="s">
         <v>121</v>
       </c>
@@ -11342,88 +11471,88 @@
       <c r="F97" s="32"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="131"/>
+      <c r="B98" s="145"/>
       <c r="C98" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D98" s="44">
         <v>0.25</v>
       </c>
-      <c r="E98" s="79">
+      <c r="E98" s="106">
         <v>0</v>
       </c>
-      <c r="F98" s="117">
+      <c r="F98" s="131">
         <f>SUM(E98:E104)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="131"/>
+      <c r="B99" s="145"/>
       <c r="C99" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D99" s="34">
         <v>0.25</v>
       </c>
-      <c r="E99" s="79">
+      <c r="E99" s="106">
         <v>0</v>
       </c>
-      <c r="F99" s="118"/>
+      <c r="F99" s="132"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="131"/>
+      <c r="B100" s="145"/>
       <c r="C100" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D100" s="34">
         <v>0.25</v>
       </c>
-      <c r="E100" s="79">
+      <c r="E100" s="106">
         <v>0</v>
       </c>
-      <c r="F100" s="118"/>
+      <c r="F100" s="132"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="131"/>
+      <c r="B101" s="145"/>
       <c r="C101" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D101" s="34">
         <v>0.25</v>
       </c>
-      <c r="E101" s="79">
+      <c r="E101" s="106">
         <v>0</v>
       </c>
-      <c r="F101" s="118"/>
+      <c r="F101" s="132"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="131"/>
+      <c r="B102" s="145"/>
       <c r="C102" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D102" s="34">
         <v>0.25</v>
       </c>
-      <c r="E102" s="79">
+      <c r="E102" s="106">
         <v>0</v>
       </c>
-      <c r="F102" s="118"/>
+      <c r="F102" s="132"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="131"/>
+      <c r="B103" s="145"/>
       <c r="C103" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D103" s="34">
         <v>0.2</v>
       </c>
-      <c r="E103" s="79">
+      <c r="E103" s="102">
         <v>0</v>
       </c>
-      <c r="F103" s="118"/>
+      <c r="F103" s="132"/>
     </row>
     <row r="104" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B104" s="131"/>
+      <c r="B104" s="145"/>
       <c r="C104" s="11" t="s">
         <v>169</v>
       </c>
@@ -11433,10 +11562,10 @@
       <c r="E104" s="79">
         <v>0</v>
       </c>
-      <c r="F104" s="120"/>
+      <c r="F104" s="134"/>
     </row>
     <row r="105" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B105" s="131"/>
+      <c r="B105" s="145"/>
       <c r="C105" s="58" t="s">
         <v>127</v>
       </c>
@@ -11445,7 +11574,7 @@
       <c r="F105" s="32"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="131"/>
+      <c r="B106" s="145"/>
       <c r="C106" s="7" t="s">
         <v>170</v>
       </c>
@@ -11455,13 +11584,13 @@
       <c r="E106" s="79">
         <v>0</v>
       </c>
-      <c r="F106" s="117">
+      <c r="F106" s="131">
         <f>SUM(E106:E111)</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="131"/>
+      <c r="B107" s="145"/>
       <c r="C107" s="1" t="s">
         <v>171</v>
       </c>
@@ -11471,10 +11600,10 @@
       <c r="E107" s="79">
         <v>0</v>
       </c>
-      <c r="F107" s="118"/>
+      <c r="F107" s="132"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="131"/>
+      <c r="B108" s="145"/>
       <c r="C108" s="1" t="s">
         <v>173</v>
       </c>
@@ -11484,10 +11613,10 @@
       <c r="E108" s="79">
         <v>0</v>
       </c>
-      <c r="F108" s="118"/>
+      <c r="F108" s="132"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="131"/>
+      <c r="B109" s="145"/>
       <c r="C109" s="1" t="s">
         <v>174</v>
       </c>
@@ -11497,10 +11626,10 @@
       <c r="E109" s="79">
         <v>0</v>
       </c>
-      <c r="F109" s="118"/>
+      <c r="F109" s="132"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="131"/>
+      <c r="B110" s="145"/>
       <c r="C110" s="1" t="s">
         <v>175</v>
       </c>
@@ -11510,23 +11639,23 @@
       <c r="E110" s="79">
         <v>0</v>
       </c>
-      <c r="F110" s="118"/>
+      <c r="F110" s="132"/>
     </row>
     <row r="111" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B111" s="131"/>
+      <c r="B111" s="145"/>
       <c r="C111" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D111" s="48">
         <v>0.2</v>
       </c>
-      <c r="E111" s="79">
+      <c r="E111" s="106">
         <v>0</v>
       </c>
-      <c r="F111" s="120"/>
+      <c r="F111" s="134"/>
     </row>
     <row r="112" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B112" s="131"/>
+      <c r="B112" s="145"/>
       <c r="C112" s="64" t="s">
         <v>61</v>
       </c>
@@ -11535,23 +11664,23 @@
       <c r="F112" s="32"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="131"/>
+      <c r="B113" s="145"/>
       <c r="C113" s="7" t="s">
         <v>181</v>
       </c>
       <c r="D113" s="44">
         <v>0.1</v>
       </c>
-      <c r="E113" s="44">
+      <c r="E113" s="106">
         <v>0</v>
       </c>
-      <c r="F113" s="117">
+      <c r="F113" s="131">
         <f>SUM(E113:E118)</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="131"/>
+      <c r="B114" s="145"/>
       <c r="C114" s="1" t="s">
         <v>182</v>
       </c>
@@ -11561,10 +11690,10 @@
       <c r="E114" s="44">
         <v>0.1</v>
       </c>
-      <c r="F114" s="118"/>
+      <c r="F114" s="132"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="131"/>
+      <c r="B115" s="145"/>
       <c r="C115" s="1" t="s">
         <v>183</v>
       </c>
@@ -11574,10 +11703,10 @@
       <c r="E115" s="44">
         <v>0</v>
       </c>
-      <c r="F115" s="118"/>
+      <c r="F115" s="132"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="131"/>
+      <c r="B116" s="145"/>
       <c r="C116" s="1" t="s">
         <v>184</v>
       </c>
@@ -11587,10 +11716,10 @@
       <c r="E116" s="44">
         <v>0</v>
       </c>
-      <c r="F116" s="118"/>
+      <c r="F116" s="132"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="131"/>
+      <c r="B117" s="145"/>
       <c r="C117" s="1" t="s">
         <v>186</v>
       </c>
@@ -11600,10 +11729,10 @@
       <c r="E117" s="44">
         <v>0.1</v>
       </c>
-      <c r="F117" s="118"/>
+      <c r="F117" s="132"/>
     </row>
     <row r="118" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B118" s="131"/>
+      <c r="B118" s="145"/>
       <c r="C118" s="11" t="s">
         <v>187</v>
       </c>
@@ -11613,10 +11742,10 @@
       <c r="E118" s="44">
         <v>0</v>
       </c>
-      <c r="F118" s="120"/>
+      <c r="F118" s="134"/>
     </row>
     <row r="119" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B119" s="131"/>
+      <c r="B119" s="145"/>
       <c r="C119" s="58" t="s">
         <v>34</v>
       </c>
@@ -11625,7 +11754,7 @@
       <c r="F119" s="32"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="131"/>
+      <c r="B120" s="145"/>
       <c r="C120" s="30" t="s">
         <v>179</v>
       </c>
@@ -11635,13 +11764,13 @@
       <c r="E120" s="44">
         <v>0</v>
       </c>
-      <c r="F120" s="117">
+      <c r="F120" s="131">
         <f>SUM(E120:E124)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="131"/>
+      <c r="B121" s="145"/>
       <c r="C121" s="1" t="s">
         <v>180</v>
       </c>
@@ -11651,10 +11780,10 @@
       <c r="E121" s="34">
         <v>0</v>
       </c>
-      <c r="F121" s="118"/>
+      <c r="F121" s="132"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="131"/>
+      <c r="B122" s="145"/>
       <c r="C122" s="1" t="s">
         <v>35</v>
       </c>
@@ -11664,10 +11793,10 @@
       <c r="E122" s="34">
         <v>0</v>
       </c>
-      <c r="F122" s="118"/>
+      <c r="F122" s="132"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="131"/>
+      <c r="B123" s="145"/>
       <c r="C123" s="1" t="s">
         <v>188</v>
       </c>
@@ -11677,10 +11806,10 @@
       <c r="E123" s="34">
         <v>0.15</v>
       </c>
-      <c r="F123" s="118"/>
+      <c r="F123" s="132"/>
     </row>
     <row r="124" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B124" s="142"/>
+      <c r="B124" s="156"/>
       <c r="C124" s="11" t="s">
         <v>52</v>
       </c>
@@ -11690,18 +11819,18 @@
       <c r="E124" s="35">
         <v>0</v>
       </c>
-      <c r="F124" s="120"/>
+      <c r="F124" s="134"/>
     </row>
     <row r="125" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B125" s="97" t="s">
+      <c r="B125" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C125" s="139"/>
-      <c r="D125" s="139"/>
-      <c r="E125" s="140"/>
+      <c r="C125" s="153"/>
+      <c r="D125" s="153"/>
+      <c r="E125" s="154"/>
       <c r="F125" s="63">
         <f>SUM(F4:F124)</f>
-        <v>7.3500000000000005</v>
+        <v>7.95</v>
       </c>
     </row>
   </sheetData>
@@ -11726,7 +11855,8 @@
     <mergeCell ref="F106:F111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11734,8 +11864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A14CCF-DCC6-8145-A45C-85699F6AE450}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -11749,10 +11879,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -11764,7 +11894,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="144" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -11775,7 +11905,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="133"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="7" t="s">
         <v>215</v>
       </c>
@@ -11785,13 +11915,13 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="118">
+      <c r="F4" s="132">
         <f>SUM(E4:E5)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B5" s="133"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="11" t="s">
         <v>216</v>
       </c>
@@ -11801,10 +11931,10 @@
       <c r="E5" s="84">
         <v>0.15</v>
       </c>
-      <c r="F5" s="118"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B6" s="133"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="58" t="s">
         <v>30</v>
       </c>
@@ -11813,7 +11943,7 @@
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="133"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
@@ -11823,13 +11953,13 @@
       <c r="E7" s="84">
         <v>0.2</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="135">
         <f>SUM(E7:E9)</f>
-        <v>0.4</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="133"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -11839,21 +11969,23 @@
       <c r="E8" s="85">
         <v>0.2</v>
       </c>
-      <c r="F8" s="122"/>
+      <c r="F8" s="136"/>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="133"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="36">
         <v>0.2</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="123"/>
+      <c r="E9" s="99">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="137"/>
     </row>
     <row r="10" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B10" s="133"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="64" t="s">
         <v>34</v>
       </c>
@@ -11862,7 +11994,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="133"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
@@ -11872,13 +12004,13 @@
       <c r="E11" s="84">
         <v>0.2</v>
       </c>
-      <c r="F11" s="121">
+      <c r="F11" s="135">
         <f>SUM(E11:E12)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="135"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -11888,10 +12020,10 @@
       <c r="E12" s="86">
         <v>0.2</v>
       </c>
-      <c r="F12" s="123"/>
+      <c r="F12" s="137"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="129" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -11902,7 +12034,7 @@
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="116"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="30" t="s">
         <v>218</v>
       </c>
@@ -11910,13 +12042,13 @@
         <v>1.5</v>
       </c>
       <c r="E14" s="44"/>
-      <c r="F14" s="118">
+      <c r="F14" s="132">
         <f>SUM(E14:E28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="116"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="28" t="s">
         <v>219</v>
       </c>
@@ -11924,10 +12056,10 @@
         <v>0.25</v>
       </c>
       <c r="E15" s="34"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="132"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="116"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="28" t="s">
         <v>220</v>
       </c>
@@ -11935,10 +12067,10 @@
         <v>0.3</v>
       </c>
       <c r="E16" s="34"/>
-      <c r="F16" s="118"/>
+      <c r="F16" s="132"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="116"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="28" t="s">
         <v>221</v>
       </c>
@@ -11946,10 +12078,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="34"/>
-      <c r="F17" s="118"/>
+      <c r="F17" s="132"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="116"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="28" t="s">
         <v>222</v>
       </c>
@@ -11957,10 +12089,10 @@
         <v>0.2</v>
       </c>
       <c r="E18" s="34"/>
-      <c r="F18" s="118"/>
+      <c r="F18" s="132"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="116"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="28" t="s">
         <v>223</v>
       </c>
@@ -11968,10 +12100,10 @@
         <v>0.15</v>
       </c>
       <c r="E19" s="34"/>
-      <c r="F19" s="118"/>
+      <c r="F19" s="132"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="116"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="28" t="s">
         <v>327</v>
       </c>
@@ -11979,10 +12111,10 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="34"/>
-      <c r="F20" s="118"/>
+      <c r="F20" s="132"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="116"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="28" t="s">
         <v>224</v>
       </c>
@@ -11990,10 +12122,10 @@
         <v>0.3</v>
       </c>
       <c r="E21" s="34"/>
-      <c r="F21" s="118"/>
+      <c r="F21" s="132"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="116"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="28" t="s">
         <v>225</v>
       </c>
@@ -12001,10 +12133,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="118"/>
+      <c r="F22" s="132"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="116"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="28" t="s">
         <v>226</v>
       </c>
@@ -12012,10 +12144,10 @@
         <v>0.4</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="118"/>
+      <c r="F23" s="132"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="116"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="28" t="s">
         <v>227</v>
       </c>
@@ -12023,10 +12155,10 @@
         <v>0.4</v>
       </c>
       <c r="E24" s="34"/>
-      <c r="F24" s="118"/>
+      <c r="F24" s="132"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="116"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="28" t="s">
         <v>228</v>
       </c>
@@ -12034,10 +12166,10 @@
         <v>0.4</v>
       </c>
       <c r="E25" s="34"/>
-      <c r="F25" s="118"/>
+      <c r="F25" s="132"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="116"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="28" t="s">
         <v>229</v>
       </c>
@@ -12045,10 +12177,10 @@
         <v>0.25</v>
       </c>
       <c r="E26" s="34"/>
-      <c r="F26" s="118"/>
+      <c r="F26" s="132"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="116"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="28" t="s">
         <v>230</v>
       </c>
@@ -12056,10 +12188,10 @@
         <v>0.25</v>
       </c>
       <c r="E27" s="34"/>
-      <c r="F27" s="118"/>
+      <c r="F27" s="132"/>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="116"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="29" t="s">
         <v>231</v>
       </c>
@@ -12067,10 +12199,10 @@
         <v>0.25</v>
       </c>
       <c r="E28" s="36"/>
-      <c r="F28" s="118"/>
+      <c r="F28" s="132"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="116"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="58" t="s">
         <v>232</v>
       </c>
@@ -12079,7 +12211,7 @@
       <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="116"/>
+      <c r="B30" s="130"/>
       <c r="C30" s="30" t="s">
         <v>233</v>
       </c>
@@ -12087,13 +12219,13 @@
         <v>0.2</v>
       </c>
       <c r="E30" s="44"/>
-      <c r="F30" s="118">
+      <c r="F30" s="132">
         <f>SUM(E30:E33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="116"/>
+      <c r="B31" s="130"/>
       <c r="C31" s="28" t="s">
         <v>234</v>
       </c>
@@ -12101,10 +12233,10 @@
         <v>0.4</v>
       </c>
       <c r="E31" s="34"/>
-      <c r="F31" s="118"/>
+      <c r="F31" s="132"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="116"/>
+      <c r="B32" s="130"/>
       <c r="C32" s="28" t="s">
         <v>235</v>
       </c>
@@ -12112,10 +12244,10 @@
         <v>0.25</v>
       </c>
       <c r="E32" s="34"/>
-      <c r="F32" s="118"/>
+      <c r="F32" s="132"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="116"/>
+      <c r="B33" s="130"/>
       <c r="C33" s="29" t="s">
         <v>236</v>
       </c>
@@ -12123,10 +12255,10 @@
         <v>0.4</v>
       </c>
       <c r="E33" s="36"/>
-      <c r="F33" s="118"/>
+      <c r="F33" s="132"/>
     </row>
     <row r="34" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B34" s="116"/>
+      <c r="B34" s="130"/>
       <c r="C34" s="58" t="s">
         <v>34</v>
       </c>
@@ -12135,7 +12267,7 @@
       <c r="F34" s="32"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="116"/>
+      <c r="B35" s="130"/>
       <c r="C35" s="7" t="s">
         <v>35</v>
       </c>
@@ -12143,13 +12275,13 @@
         <v>0.125</v>
       </c>
       <c r="E35" s="44"/>
-      <c r="F35" s="121">
+      <c r="F35" s="135">
         <f>SUM(E35:E37)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="116"/>
+      <c r="B36" s="130"/>
       <c r="C36" s="1" t="s">
         <v>188</v>
       </c>
@@ -12159,10 +12291,10 @@
       <c r="E36" s="85">
         <v>0.15</v>
       </c>
-      <c r="F36" s="122"/>
+      <c r="F36" s="136"/>
     </row>
     <row r="37" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B37" s="119"/>
+      <c r="B37" s="133"/>
       <c r="C37" s="4" t="s">
         <v>52</v>
       </c>
@@ -12170,18 +12302,18 @@
         <v>0.3</v>
       </c>
       <c r="E37" s="35"/>
-      <c r="F37" s="138"/>
+      <c r="F37" s="152"/>
     </row>
     <row r="38" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="145"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="159"/>
       <c r="F38" s="63">
         <f>SUM(F4:F37)</f>
-        <v>1.25</v>
+        <v>1.4500000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/MT.xlsx
+++ b/MT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4351B9-FD31-444E-8668-030C7FB8C68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD09C41-C7F9-4B37-8803-81385354F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="1000" activeTab="1" xr2:uid="{556EC7CD-A7EC-924A-86C6-FEF6C985B965}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="1000" firstSheet="1" activeTab="1" xr2:uid="{556EC7CD-A7EC-924A-86C6-FEF6C985B965}"/>
   </bookViews>
   <sheets>
     <sheet name="Miscellaneous" sheetId="14" r:id="rId1"/>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="342">
   <si>
     <t>Component</t>
   </si>
@@ -2569,9 +2569,6 @@
     <t>Notification action functionality</t>
   </si>
   <si>
-    <t>ini belum only owner post</t>
-  </si>
-  <si>
     <t>ini perbaiki yg ga ada gap di phone view</t>
   </si>
   <si>
@@ -2593,7 +2590,10 @@
     <t>TAR BUAT SAVED SAMA SETTINGS</t>
   </si>
   <si>
-    <t>masih user</t>
+    <t>ini ksi query db aj du</t>
+  </si>
+  <si>
+    <t>&gt; ni ak buat untuk comment aj</t>
   </si>
 </sst>
 </file>
@@ -3264,7 +3264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3504,198 +3504,219 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3871,7 +3892,7 @@
                   <c:v>4.1000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9249999999999998</c:v>
+                  <c:v>5.4249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.2500000000000002</c:v>
@@ -3886,7 +3907,7 @@
                   <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.95</c:v>
+                  <c:v>15.349999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.9</c:v>
@@ -3895,13 +3916,13 @@
                   <c:v>1.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4500000000000002</c:v>
+                  <c:v>2.7750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.1999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2749999999999995</c:v>
+                  <c:v>5.4249999999999989</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.2750000000000004</c:v>
@@ -3988,7 +4009,7 @@
                   <c:v>4.5000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.950000000000002</c:v>
+                  <c:v>2.450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.29999999999999982</c:v>
@@ -4003,7 +4024,7 @@
                   <c:v>0.29999999999999938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.175000000000001</c:v>
+                  <c:v>7.7750000000000021</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.9250000000000025</c:v>
@@ -4012,13 +4033,13 @@
                   <c:v>10.525000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6249999999999996</c:v>
+                  <c:v>0.29999999999999938</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.774999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2999999999999989</c:v>
+                  <c:v>1.1499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.9000000000000004</c:v>
@@ -4756,13 +4777,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>25620</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9803</xdr:rowOff>
+      <xdr:rowOff>36308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>634997</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>111404</xdr:rowOff>
+      <xdr:rowOff>137909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5089,8 +5110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B167C5-1ED2-9D41-A960-D58FFC16A91F}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A7" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5318,10 +5339,10 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="16.2" thickBot="1">
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="110"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="62">
         <f>SUM(D4:D24)</f>
         <v>4.1000000000000005</v>
@@ -5340,8 +5361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626DDC4-C184-3148-8754-559C01A088BC}">
   <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5355,10 +5376,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="164"/>
+      <c r="C2" s="173"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -5370,7 +5391,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="177" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -5381,7 +5402,7 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="147"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="7" t="s">
         <v>191</v>
       </c>
@@ -5391,13 +5412,13 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="161">
+      <c r="F4" s="170">
         <f>SUM(E4:E11)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="147"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="1" t="s">
         <v>192</v>
       </c>
@@ -5407,10 +5428,10 @@
       <c r="E5" s="84">
         <v>0.15</v>
       </c>
-      <c r="F5" s="162"/>
+      <c r="F5" s="171"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="147"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="1" t="s">
         <v>193</v>
       </c>
@@ -5420,10 +5441,10 @@
       <c r="E6" s="84">
         <v>0.15</v>
       </c>
-      <c r="F6" s="162"/>
+      <c r="F6" s="171"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="147"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="28" t="s">
         <v>194</v>
       </c>
@@ -5431,10 +5452,10 @@
         <v>0.3</v>
       </c>
       <c r="E7" s="44"/>
-      <c r="F7" s="162"/>
+      <c r="F7" s="171"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="147"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="1" t="s">
         <v>115</v>
       </c>
@@ -5444,10 +5465,10 @@
       <c r="E8" s="84">
         <v>0.15</v>
       </c>
-      <c r="F8" s="162"/>
+      <c r="F8" s="171"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="147"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="1" t="s">
         <v>195</v>
       </c>
@@ -5455,10 +5476,10 @@
         <v>0.15</v>
       </c>
       <c r="E9" s="44"/>
-      <c r="F9" s="162"/>
+      <c r="F9" s="171"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="147"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="1" t="s">
         <v>207</v>
       </c>
@@ -5468,10 +5489,10 @@
       <c r="E10" s="84">
         <v>0.15</v>
       </c>
-      <c r="F10" s="162"/>
+      <c r="F10" s="171"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="147"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="29" t="s">
         <v>214</v>
       </c>
@@ -5479,10 +5500,10 @@
         <v>0.3</v>
       </c>
       <c r="E11" s="44"/>
-      <c r="F11" s="163"/>
+      <c r="F11" s="172"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="147"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="58" t="s">
         <v>30</v>
       </c>
@@ -5491,7 +5512,7 @@
       <c r="F12" s="51"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="147"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
@@ -5501,13 +5522,13 @@
       <c r="E13" s="84">
         <v>0.2</v>
       </c>
-      <c r="F13" s="165">
+      <c r="F13" s="174">
         <f>SUM(E13:E15)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="147"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
@@ -5517,10 +5538,10 @@
       <c r="E14" s="85">
         <v>0.2</v>
       </c>
-      <c r="F14" s="166"/>
+      <c r="F14" s="175"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="147"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -5530,10 +5551,10 @@
       <c r="E15" s="86">
         <v>0.2</v>
       </c>
-      <c r="F15" s="167"/>
+      <c r="F15" s="176"/>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="147"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="64" t="s">
         <v>34</v>
       </c>
@@ -5542,7 +5563,7 @@
       <c r="F16" s="51"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="147"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="7" t="s">
         <v>62</v>
       </c>
@@ -5552,13 +5573,13 @@
       <c r="E17" s="84">
         <v>0.2</v>
       </c>
-      <c r="F17" s="165">
+      <c r="F17" s="174">
         <f>SUM(E17:E18)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="149"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="11" t="s">
         <v>46</v>
       </c>
@@ -5568,10 +5589,10 @@
       <c r="E18" s="86">
         <v>0.2</v>
       </c>
-      <c r="F18" s="167"/>
+      <c r="F18" s="176"/>
     </row>
     <row r="19" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="153" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -5582,7 +5603,7 @@
       <c r="F19" s="51"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="147"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="30" t="s">
         <v>300</v>
       </c>
@@ -5590,68 +5611,68 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="44"/>
-      <c r="F20" s="161">
+      <c r="F20" s="170">
         <f>SUM(E20:E36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="147"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="28" t="s">
         <v>196</v>
       </c>
       <c r="D21" s="34">
         <v>0.25</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="162"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="171"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="147"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="28" t="s">
         <v>197</v>
       </c>
       <c r="D22" s="34">
         <v>0.25</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="162"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="171"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="147"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="28" t="s">
         <v>301</v>
       </c>
       <c r="D23" s="34">
         <v>0.4</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="162"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="171"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="147"/>
+      <c r="B24" s="156"/>
       <c r="C24" s="28" t="s">
         <v>302</v>
       </c>
       <c r="D24" s="34">
         <v>0.4</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="162"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="171"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="147"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="28" t="s">
         <v>303</v>
       </c>
       <c r="D25" s="34">
         <v>0.5</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="162"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="171"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="147"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="28" t="s">
         <v>304</v>
       </c>
@@ -5659,21 +5680,21 @@
         <v>0.5</v>
       </c>
       <c r="E26" s="34"/>
-      <c r="F26" s="162"/>
+      <c r="F26" s="171"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="147"/>
+      <c r="B27" s="156"/>
       <c r="C27" s="28" t="s">
         <v>198</v>
       </c>
       <c r="D27" s="34">
         <v>0.4</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="162"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="171"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="147"/>
+      <c r="B28" s="156"/>
       <c r="C28" s="28" t="s">
         <v>199</v>
       </c>
@@ -5681,10 +5702,10 @@
         <v>0.4</v>
       </c>
       <c r="E28" s="34"/>
-      <c r="F28" s="162"/>
+      <c r="F28" s="171"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="147"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="28" t="s">
         <v>203</v>
       </c>
@@ -5692,54 +5713,54 @@
         <v>0.3</v>
       </c>
       <c r="E29" s="34"/>
-      <c r="F29" s="162"/>
+      <c r="F29" s="171"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="147"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="28" t="s">
         <v>204</v>
       </c>
       <c r="D30" s="34">
         <v>0.3</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="162"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="147"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="28" t="s">
         <v>205</v>
       </c>
       <c r="D31" s="34">
         <v>0.25</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="162"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="171"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="147"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="28" t="s">
         <v>206</v>
       </c>
       <c r="D32" s="34">
         <v>0.5</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="162"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="171"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="147"/>
+      <c r="B33" s="156"/>
       <c r="C33" s="28" t="s">
         <v>208</v>
       </c>
       <c r="D33" s="34">
         <v>0.3</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="162"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="171"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="147"/>
+      <c r="B34" s="156"/>
       <c r="C34" s="28" t="s">
         <v>209</v>
       </c>
@@ -5747,10 +5768,10 @@
         <v>0.4</v>
       </c>
       <c r="E34" s="34"/>
-      <c r="F34" s="162"/>
+      <c r="F34" s="171"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="147"/>
+      <c r="B35" s="156"/>
       <c r="C35" s="28" t="s">
         <v>210</v>
       </c>
@@ -5758,10 +5779,10 @@
         <v>0.4</v>
       </c>
       <c r="E35" s="34"/>
-      <c r="F35" s="162"/>
+      <c r="F35" s="171"/>
     </row>
     <row r="36" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B36" s="147"/>
+      <c r="B36" s="156"/>
       <c r="C36" s="29" t="s">
         <v>211</v>
       </c>
@@ -5769,10 +5790,10 @@
         <v>0.3</v>
       </c>
       <c r="E36" s="36"/>
-      <c r="F36" s="163"/>
+      <c r="F36" s="172"/>
     </row>
     <row r="37" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B37" s="147"/>
+      <c r="B37" s="156"/>
       <c r="C37" s="64" t="s">
         <v>200</v>
       </c>
@@ -5781,7 +5802,7 @@
       <c r="F37" s="51"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="147"/>
+      <c r="B38" s="156"/>
       <c r="C38" s="30" t="s">
         <v>201</v>
       </c>
@@ -5789,13 +5810,13 @@
         <v>0.25</v>
       </c>
       <c r="E38" s="44"/>
-      <c r="F38" s="161">
+      <c r="F38" s="170">
         <f>SUM(E38:E39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B39" s="147"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="29" t="s">
         <v>202</v>
       </c>
@@ -5803,10 +5824,10 @@
         <v>0.25</v>
       </c>
       <c r="E39" s="36"/>
-      <c r="F39" s="163"/>
+      <c r="F39" s="172"/>
     </row>
     <row r="40" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B40" s="147"/>
+      <c r="B40" s="156"/>
       <c r="C40" s="58" t="s">
         <v>61</v>
       </c>
@@ -5815,7 +5836,7 @@
       <c r="F40" s="51"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="147"/>
+      <c r="B41" s="156"/>
       <c r="C41" s="30" t="s">
         <v>212</v>
       </c>
@@ -5823,13 +5844,13 @@
         <v>0.1</v>
       </c>
       <c r="E41" s="44"/>
-      <c r="F41" s="161">
+      <c r="F41" s="170">
         <f>SUM(E41:E42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B42" s="147"/>
+      <c r="B42" s="156"/>
       <c r="C42" s="29" t="s">
         <v>213</v>
       </c>
@@ -5837,10 +5858,10 @@
         <v>0.1</v>
       </c>
       <c r="E42" s="36"/>
-      <c r="F42" s="162"/>
+      <c r="F42" s="171"/>
     </row>
     <row r="43" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B43" s="147"/>
+      <c r="B43" s="156"/>
       <c r="C43" s="58" t="s">
         <v>34</v>
       </c>
@@ -5849,7 +5870,7 @@
       <c r="F43" s="51"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="147"/>
+      <c r="B44" s="156"/>
       <c r="C44" s="7" t="s">
         <v>35</v>
       </c>
@@ -5857,13 +5878,13 @@
         <v>0.125</v>
       </c>
       <c r="E44" s="44"/>
-      <c r="F44" s="165">
+      <c r="F44" s="174">
         <f>SUM(E44:E46)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="147"/>
+      <c r="B45" s="156"/>
       <c r="C45" s="1" t="s">
         <v>188</v>
       </c>
@@ -5873,10 +5894,10 @@
       <c r="E45" s="85">
         <v>0.15</v>
       </c>
-      <c r="F45" s="166"/>
+      <c r="F45" s="175"/>
     </row>
     <row r="46" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B46" s="148"/>
+      <c r="B46" s="157"/>
       <c r="C46" s="4" t="s">
         <v>52</v>
       </c>
@@ -5884,15 +5905,15 @@
         <v>0.3</v>
       </c>
       <c r="E46" s="35"/>
-      <c r="F46" s="167"/>
+      <c r="F46" s="176"/>
     </row>
     <row r="47" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B47" s="160" t="s">
+      <c r="B47" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="154"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="163"/>
       <c r="F47" s="58">
         <f>SUM(F4:F46)</f>
         <v>1.9</v>
@@ -5921,8 +5942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F8C43A-DECD-594C-BC3F-270A5E6C60A9}">
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5936,10 +5957,10 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="170"/>
+      <c r="C2" s="179"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -5951,7 +5972,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="153" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="68" t="s">
@@ -5962,7 +5983,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="168"/>
+      <c r="B4" s="177"/>
       <c r="C4" s="38" t="s">
         <v>305</v>
       </c>
@@ -5972,13 +5993,13 @@
       <c r="E4" s="47">
         <v>0.15</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="140">
         <f>SUM(E4:E5)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B5" s="168"/>
+      <c r="B5" s="177"/>
       <c r="C5" t="s">
         <v>306</v>
       </c>
@@ -5988,10 +6009,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="134"/>
+      <c r="F5" s="143"/>
     </row>
     <row r="6" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B6" s="168"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="58" t="s">
         <v>30</v>
       </c>
@@ -6000,7 +6021,7 @@
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="147"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
@@ -6010,13 +6031,13 @@
       <c r="E7" s="44">
         <v>0.2</v>
       </c>
-      <c r="F7" s="135">
+      <c r="F7" s="144">
         <f>SUM(E7:E9)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="147"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -6026,10 +6047,10 @@
       <c r="E8" s="34">
         <v>0.2</v>
       </c>
-      <c r="F8" s="136"/>
+      <c r="F8" s="145"/>
     </row>
     <row r="9" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B9" s="147"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6039,10 +6060,10 @@
       <c r="E9" s="36">
         <v>0.2</v>
       </c>
-      <c r="F9" s="137"/>
+      <c r="F9" s="146"/>
     </row>
     <row r="10" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B10" s="147"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="64" t="s">
         <v>34</v>
       </c>
@@ -6051,7 +6072,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="147"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
@@ -6061,16 +6082,16 @@
       <c r="E11" s="84">
         <v>0.2</v>
       </c>
-      <c r="F11" s="135">
+      <c r="F11" s="144">
         <f>SUM(E11:E12)</f>
         <v>0.4</v>
       </c>
       <c r="G11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B12" s="149"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -6080,10 +6101,10 @@
       <c r="E12" s="36">
         <v>0.2</v>
       </c>
-      <c r="F12" s="137"/>
+      <c r="F12" s="146"/>
     </row>
     <row r="13" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="153" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -6094,23 +6115,23 @@
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B14" s="147"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="19" t="s">
         <v>238</v>
       </c>
       <c r="D14" s="48">
         <v>0.5</v>
       </c>
-      <c r="E14" s="48">
-        <v>0</v>
+      <c r="E14" s="180">
+        <v>0.5</v>
       </c>
       <c r="F14" s="48">
         <f>SUM(E14)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B15" s="147"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="64" t="s">
         <v>61</v>
       </c>
@@ -6119,23 +6140,23 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B16" s="147"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="19" t="s">
         <v>307</v>
       </c>
       <c r="D16" s="48">
         <v>0.1</v>
       </c>
-      <c r="E16" s="48">
-        <v>0</v>
+      <c r="E16" s="180">
+        <v>0.1</v>
       </c>
       <c r="F16" s="48">
         <f>SUM(E16)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="147"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="58" t="s">
         <v>34</v>
       </c>
@@ -6144,23 +6165,23 @@
       <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="147"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="44">
         <v>0.125</v>
       </c>
-      <c r="E18" s="44">
-        <v>0</v>
-      </c>
-      <c r="F18" s="135">
+      <c r="E18" s="115">
+        <v>0.125</v>
+      </c>
+      <c r="F18" s="144">
         <f>SUM(E18:E21)</f>
-        <v>0.15</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="147"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="1" t="s">
         <v>188</v>
       </c>
@@ -6170,10 +6191,10 @@
       <c r="E19" s="85">
         <v>0.15</v>
       </c>
-      <c r="F19" s="136"/>
+      <c r="F19" s="145"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="147"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
@@ -6183,31 +6204,31 @@
       <c r="E20" s="34">
         <v>0</v>
       </c>
-      <c r="F20" s="136"/>
+      <c r="F20" s="145"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="148"/>
+      <c r="B21" s="157"/>
       <c r="C21" s="75" t="s">
         <v>179</v>
       </c>
       <c r="D21" s="35">
         <v>0.6</v>
       </c>
-      <c r="E21" s="35">
-        <v>0</v>
-      </c>
-      <c r="F21" s="152"/>
+      <c r="E21" s="181">
+        <v>0.6</v>
+      </c>
+      <c r="F21" s="161"/>
     </row>
     <row r="22" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="110"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="119"/>
       <c r="F22" s="63">
         <f>SUM(F4:F21)</f>
-        <v>1.4500000000000002</v>
+        <v>2.7750000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -6230,8 +6251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA2FF9E-EF1B-764A-B143-1E2142586A6D}">
   <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6245,10 +6266,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="118"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -6260,7 +6281,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="177" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -6271,7 +6292,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="147"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="7" t="s">
         <v>240</v>
       </c>
@@ -6281,13 +6302,13 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="140">
         <f>SUM(E4:E6)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="147"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="1" t="s">
         <v>244</v>
       </c>
@@ -6297,10 +6318,10 @@
       <c r="E5" s="84">
         <v>0.3</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B6" s="147"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="11" t="s">
         <v>241</v>
       </c>
@@ -6310,10 +6331,10 @@
       <c r="E6" s="84">
         <v>0.15</v>
       </c>
-      <c r="F6" s="134"/>
+      <c r="F6" s="143"/>
     </row>
     <row r="7" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B7" s="147"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="58" t="s">
         <v>242</v>
       </c>
@@ -6322,7 +6343,7 @@
       <c r="F7" s="32"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="147"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="7" t="s">
         <v>243</v>
       </c>
@@ -6332,13 +6353,13 @@
       <c r="E8" s="84">
         <v>0.15</v>
       </c>
-      <c r="F8" s="131">
+      <c r="F8" s="140">
         <f>SUM(E8:E9)</f>
         <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="147"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="11" t="s">
         <v>244</v>
       </c>
@@ -6348,10 +6369,10 @@
       <c r="E9" s="84">
         <v>0.3</v>
       </c>
-      <c r="F9" s="134"/>
+      <c r="F9" s="143"/>
     </row>
     <row r="10" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B10" s="147"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="58" t="s">
         <v>30</v>
       </c>
@@ -6360,7 +6381,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="147"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
@@ -6370,13 +6391,13 @@
       <c r="E11" s="84">
         <v>0.2</v>
       </c>
-      <c r="F11" s="135">
+      <c r="F11" s="144">
         <f>SUM(E11:E13)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="147"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -6386,10 +6407,10 @@
       <c r="E12" s="85">
         <v>0.2</v>
       </c>
-      <c r="F12" s="136"/>
+      <c r="F12" s="145"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="147"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
@@ -6399,10 +6420,10 @@
       <c r="E13" s="86">
         <v>0.2</v>
       </c>
-      <c r="F13" s="137"/>
+      <c r="F13" s="146"/>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="147"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="64" t="s">
         <v>34</v>
       </c>
@@ -6411,7 +6432,7 @@
       <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="147"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="7" t="s">
         <v>62</v>
       </c>
@@ -6421,13 +6442,13 @@
       <c r="E15" s="84">
         <v>0.2</v>
       </c>
-      <c r="F15" s="135">
+      <c r="F15" s="144">
         <f>SUM(E15:E16)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="149"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
@@ -6437,10 +6458,10 @@
       <c r="E16" s="86">
         <v>0.2</v>
       </c>
-      <c r="F16" s="137"/>
+      <c r="F16" s="146"/>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="153" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -6451,7 +6472,7 @@
       <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="147"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="30" t="s">
         <v>246</v>
       </c>
@@ -6459,13 +6480,13 @@
         <v>1.5</v>
       </c>
       <c r="E18" s="44"/>
-      <c r="F18" s="131">
+      <c r="F18" s="140">
         <f>SUM(E18:E20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="147"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="19" t="s">
         <v>332</v>
       </c>
@@ -6473,10 +6494,10 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="107"/>
-      <c r="F19" s="132"/>
+      <c r="F19" s="141"/>
     </row>
     <row r="20" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B20" s="147"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="29" t="s">
         <v>247</v>
       </c>
@@ -6484,10 +6505,10 @@
         <v>0.25</v>
       </c>
       <c r="E20" s="36"/>
-      <c r="F20" s="134"/>
+      <c r="F20" s="143"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="147"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="58" t="s">
         <v>61</v>
       </c>
@@ -6496,7 +6517,7 @@
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="147"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="30" t="s">
         <v>248</v>
       </c>
@@ -6504,13 +6525,13 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="44"/>
-      <c r="F22" s="131">
+      <c r="F22" s="140">
         <f>SUM(E22:E24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="147"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="28" t="s">
         <v>249</v>
       </c>
@@ -6518,10 +6539,10 @@
         <v>0.1</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="132"/>
+      <c r="F23" s="141"/>
     </row>
     <row r="24" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B24" s="147"/>
+      <c r="B24" s="156"/>
       <c r="C24" s="29" t="s">
         <v>325</v>
       </c>
@@ -6529,10 +6550,10 @@
         <v>0.1</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="134"/>
+      <c r="F24" s="143"/>
     </row>
     <row r="25" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B25" s="147"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="58" t="s">
         <v>34</v>
       </c>
@@ -6541,7 +6562,7 @@
       <c r="F25" s="32"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="147"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
@@ -6549,13 +6570,13 @@
         <v>0.125</v>
       </c>
       <c r="E26" s="44"/>
-      <c r="F26" s="135">
+      <c r="F26" s="144">
         <f>SUM(E26:E28)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="147"/>
+      <c r="B27" s="156"/>
       <c r="C27" s="1" t="s">
         <v>188</v>
       </c>
@@ -6565,10 +6586,10 @@
       <c r="E27" s="85">
         <v>0.15</v>
       </c>
-      <c r="F27" s="136"/>
+      <c r="F27" s="145"/>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="148"/>
+      <c r="B28" s="157"/>
       <c r="C28" s="4" t="s">
         <v>52</v>
       </c>
@@ -6576,15 +6597,15 @@
         <v>0.3</v>
       </c>
       <c r="E28" s="35"/>
-      <c r="F28" s="152"/>
+      <c r="F28" s="161"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="62">
         <f>SUM(F4:F28)</f>
         <v>2.1999999999999997</v>
@@ -6611,10 +6632,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D71FAE6-B451-6848-BDAA-C37A96D72161}">
-  <dimension ref="B1:F44"/>
+  <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6628,10 +6649,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="164"/>
+      <c r="C2" s="173"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -6643,7 +6664,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="153" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -6654,7 +6675,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="145"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="7" t="s">
         <v>138</v>
       </c>
@@ -6664,13 +6685,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="140">
         <f>SUM(E4:E17)</f>
-        <v>1.8499999999999996</v>
+        <v>2.1999999999999997</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="145"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="1" t="s">
         <v>250</v>
       </c>
@@ -6680,10 +6701,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="145"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="1" t="s">
         <v>251</v>
       </c>
@@ -6693,10 +6714,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="132"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="145"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="1" t="s">
         <v>137</v>
       </c>
@@ -6706,10 +6727,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="145"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="1" t="s">
         <v>252</v>
       </c>
@@ -6719,21 +6740,23 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="132"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="145"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D9" s="44">
         <v>0.15</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="132"/>
+      <c r="E9" s="115">
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="145"/>
+      <c r="B10" s="154"/>
       <c r="C10" s="28" t="s">
         <v>254</v>
       </c>
@@ -6743,10 +6766,10 @@
       <c r="E10" s="98">
         <v>0.2</v>
       </c>
-      <c r="F10" s="132"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="145"/>
+      <c r="B11" s="154"/>
       <c r="C11" s="28" t="s">
         <v>255</v>
       </c>
@@ -6756,21 +6779,23 @@
       <c r="E11" s="98">
         <v>0.2</v>
       </c>
-      <c r="F11" s="132"/>
+      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="145"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="28" t="s">
         <v>256</v>
       </c>
       <c r="D12" s="44">
         <v>0.2</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="132"/>
+      <c r="E12" s="115">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="141"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="145"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="28" t="s">
         <v>257</v>
       </c>
@@ -6780,10 +6805,10 @@
       <c r="E13" s="102">
         <v>0.2</v>
       </c>
-      <c r="F13" s="132"/>
+      <c r="F13" s="141"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="145"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="28" t="s">
         <v>258</v>
       </c>
@@ -6793,23 +6818,23 @@
       <c r="E14" s="102">
         <v>0.2</v>
       </c>
-      <c r="F14" s="132"/>
+      <c r="F14" s="141"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="145"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D15" s="44">
         <v>0.15</v>
       </c>
-      <c r="E15" s="106">
+      <c r="E15" s="115">
         <v>0</v>
       </c>
-      <c r="F15" s="132"/>
+      <c r="F15" s="141"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="145"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="1" t="s">
         <v>260</v>
       </c>
@@ -6819,10 +6844,10 @@
       <c r="E16" s="44">
         <v>0.15</v>
       </c>
-      <c r="F16" s="132"/>
-    </row>
-    <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="145"/>
+      <c r="F16" s="141"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B17" s="154"/>
       <c r="C17" s="11" t="s">
         <v>261</v>
       </c>
@@ -6832,10 +6857,10 @@
       <c r="E17" s="102">
         <v>0.15</v>
       </c>
-      <c r="F17" s="132"/>
-    </row>
-    <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="145"/>
+      <c r="F17" s="141"/>
+    </row>
+    <row r="18" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B18" s="154"/>
       <c r="C18" s="58" t="s">
         <v>30</v>
       </c>
@@ -6843,8 +6868,8 @@
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="145"/>
+    <row r="19" spans="2:7">
+      <c r="B19" s="154"/>
       <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
@@ -6854,13 +6879,13 @@
       <c r="E19" s="44">
         <v>0.2</v>
       </c>
-      <c r="F19" s="135">
+      <c r="F19" s="144">
         <f>SUM(E19:E21)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="145"/>
+    <row r="20" spans="2:7">
+      <c r="B20" s="154"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -6870,10 +6895,10 @@
       <c r="E20" s="34">
         <v>0.2</v>
       </c>
-      <c r="F20" s="136"/>
-    </row>
-    <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="145"/>
+      <c r="F20" s="145"/>
+    </row>
+    <row r="21" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B21" s="154"/>
       <c r="C21" s="11" t="s">
         <v>33</v>
       </c>
@@ -6883,10 +6908,10 @@
       <c r="E21" s="86">
         <v>0.2</v>
       </c>
-      <c r="F21" s="137"/>
-    </row>
-    <row r="22" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B22" s="145"/>
+      <c r="F21" s="146"/>
+    </row>
+    <row r="22" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B22" s="154"/>
       <c r="C22" s="64" t="s">
         <v>34</v>
       </c>
@@ -6894,8 +6919,8 @@
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="145"/>
+    <row r="23" spans="2:7">
+      <c r="B23" s="154"/>
       <c r="C23" s="7" t="s">
         <v>62</v>
       </c>
@@ -6905,13 +6930,13 @@
       <c r="E23" s="44">
         <v>0.2</v>
       </c>
-      <c r="F23" s="135">
+      <c r="F23" s="144">
         <f>SUM(E23:E24)</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B24" s="146"/>
+    <row r="24" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B24" s="155"/>
       <c r="C24" s="11" t="s">
         <v>46</v>
       </c>
@@ -6921,10 +6946,10 @@
       <c r="E24" s="36">
         <v>0.2</v>
       </c>
-      <c r="F24" s="137"/>
-    </row>
-    <row r="25" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B25" s="144" t="s">
+      <c r="F24" s="146"/>
+    </row>
+    <row r="25" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B25" s="153" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="58" t="s">
@@ -6934,8 +6959,8 @@
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="147"/>
+    <row r="26" spans="2:7">
+      <c r="B26" s="156"/>
       <c r="C26" s="30" t="s">
         <v>262</v>
       </c>
@@ -6945,13 +6970,13 @@
       <c r="E26" s="44">
         <v>0.25</v>
       </c>
-      <c r="F26" s="132">
+      <c r="F26" s="141">
         <f>SUM(E26:E33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="147"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="156"/>
       <c r="C27" s="28" t="s">
         <v>263</v>
       </c>
@@ -6961,36 +6986,39 @@
       <c r="E27" s="101">
         <v>0.25</v>
       </c>
-      <c r="F27" s="132"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="147"/>
+      <c r="F27" s="141"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="156"/>
       <c r="C28" s="28" t="s">
         <v>264</v>
       </c>
       <c r="D28" s="34">
         <v>0.25</v>
       </c>
-      <c r="E28" s="108">
-        <v>0</v>
-      </c>
-      <c r="F28" s="132"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="147"/>
+      <c r="E28" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="F28" s="141"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="156"/>
       <c r="C29" s="28" t="s">
         <v>265</v>
       </c>
       <c r="D29" s="34">
         <v>0.25</v>
       </c>
-      <c r="E29" s="82">
-        <v>0</v>
-      </c>
-      <c r="F29" s="132"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="147"/>
+      <c r="E29" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="F29" s="141"/>
+      <c r="G29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="156"/>
       <c r="C30" s="28" t="s">
         <v>266</v>
       </c>
@@ -7000,10 +7028,10 @@
       <c r="E30" s="34">
         <v>0</v>
       </c>
-      <c r="F30" s="132"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="147"/>
+      <c r="F30" s="141"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="156"/>
       <c r="C31" s="28" t="s">
         <v>267</v>
       </c>
@@ -7013,10 +7041,10 @@
       <c r="E31" s="101">
         <v>0.25</v>
       </c>
-      <c r="F31" s="132"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="147"/>
+      <c r="F31" s="141"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="156"/>
       <c r="C32" s="28" t="s">
         <v>268</v>
       </c>
@@ -7026,10 +7054,10 @@
       <c r="E32" s="101">
         <v>0.25</v>
       </c>
-      <c r="F32" s="132"/>
+      <c r="F32" s="141"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="147"/>
+      <c r="B33" s="156"/>
       <c r="C33" s="28" t="s">
         <v>269</v>
       </c>
@@ -7039,10 +7067,10 @@
       <c r="E33" s="34">
         <v>0</v>
       </c>
-      <c r="F33" s="132"/>
+      <c r="F33" s="141"/>
     </row>
     <row r="34" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B34" s="147"/>
+      <c r="B34" s="156"/>
       <c r="C34" s="58" t="s">
         <v>61</v>
       </c>
@@ -7051,7 +7079,7 @@
       <c r="F34" s="32"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="147"/>
+      <c r="B35" s="156"/>
       <c r="C35" s="30" t="s">
         <v>270</v>
       </c>
@@ -7061,13 +7089,13 @@
       <c r="E35" s="102">
         <v>0.1</v>
       </c>
-      <c r="F35" s="132">
+      <c r="F35" s="141">
         <f>SUM(E35:E40)</f>
-        <v>0.30000000000000004</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="147"/>
+      <c r="B36" s="156"/>
       <c r="C36" s="28" t="s">
         <v>271</v>
       </c>
@@ -7077,10 +7105,10 @@
       <c r="E36" s="102">
         <v>0.1</v>
       </c>
-      <c r="F36" s="132"/>
+      <c r="F36" s="141"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="147"/>
+      <c r="B37" s="156"/>
       <c r="C37" s="28" t="s">
         <v>272</v>
       </c>
@@ -7090,49 +7118,49 @@
       <c r="E37" s="102">
         <v>0.1</v>
       </c>
-      <c r="F37" s="132"/>
+      <c r="F37" s="141"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="147"/>
+      <c r="B38" s="156"/>
       <c r="C38" s="28" t="s">
         <v>273</v>
       </c>
       <c r="D38" s="44">
         <v>0.1</v>
       </c>
-      <c r="E38" s="106">
-        <v>0</v>
-      </c>
-      <c r="F38" s="132"/>
+      <c r="E38" s="115">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="141"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="147"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="28" t="s">
         <v>274</v>
       </c>
       <c r="D39" s="44">
         <v>0.1</v>
       </c>
-      <c r="E39" s="106">
-        <v>0</v>
-      </c>
-      <c r="F39" s="132"/>
+      <c r="E39" s="115">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="141"/>
     </row>
     <row r="40" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B40" s="147"/>
+      <c r="B40" s="156"/>
       <c r="C40" s="29" t="s">
         <v>275</v>
       </c>
       <c r="D40" s="44">
         <v>0.1</v>
       </c>
-      <c r="E40" s="106">
-        <v>0</v>
-      </c>
-      <c r="F40" s="132"/>
+      <c r="E40" s="115">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="141"/>
     </row>
     <row r="41" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B41" s="147"/>
+      <c r="B41" s="156"/>
       <c r="C41" s="58" t="s">
         <v>34</v>
       </c>
@@ -7141,7 +7169,7 @@
       <c r="F41" s="32"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="147"/>
+      <c r="B42" s="156"/>
       <c r="C42" s="7" t="s">
         <v>35</v>
       </c>
@@ -7151,13 +7179,13 @@
       <c r="E42" s="102">
         <v>0.125</v>
       </c>
-      <c r="F42" s="135">
+      <c r="F42" s="144">
         <f>SUM(E42:E43)</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B43" s="149"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="4" t="s">
         <v>52</v>
       </c>
@@ -7167,18 +7195,18 @@
       <c r="E43" s="35">
         <v>0</v>
       </c>
-      <c r="F43" s="152"/>
+      <c r="F43" s="161"/>
     </row>
     <row r="44" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B44" s="111" t="s">
+      <c r="B44" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="113"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="122"/>
       <c r="F44" s="70">
         <f>SUM(F4:F43)</f>
-        <v>4.2749999999999995</v>
+        <v>5.4249999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -7203,8 +7231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A679EA6-8CB7-A24A-BA70-3CC01102E2D7}">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7218,10 +7246,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="110"/>
+      <c r="C2" s="119"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -7233,7 +7261,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="153" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -7245,13 +7273,13 @@
       <c r="E3" s="44">
         <v>0.15</v>
       </c>
-      <c r="F3" s="131">
+      <c r="F3" s="140">
         <f>SUM(E3:E8)</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="147"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="1" t="s">
         <v>277</v>
       </c>
@@ -7261,10 +7289,10 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="132"/>
+      <c r="F4" s="141"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="147"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="1" t="s">
         <v>278</v>
       </c>
@@ -7274,10 +7302,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="147"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="1" t="s">
         <v>279</v>
       </c>
@@ -7287,10 +7315,10 @@
       <c r="E6" s="98">
         <v>0.15</v>
       </c>
-      <c r="F6" s="132"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="147"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="1" t="s">
         <v>280</v>
       </c>
@@ -7300,10 +7328,10 @@
       <c r="E7" s="102">
         <v>0.15</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B8" s="147"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="29" t="s">
         <v>66</v>
       </c>
@@ -7313,10 +7341,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="134"/>
+      <c r="F8" s="143"/>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="147"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="58" t="s">
         <v>30</v>
       </c>
@@ -7325,7 +7353,7 @@
       <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="147"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
@@ -7335,13 +7363,13 @@
       <c r="E10" s="44">
         <v>0.2</v>
       </c>
-      <c r="F10" s="135">
+      <c r="F10" s="144">
         <f>SUM(E10:E12)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="147"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
@@ -7351,10 +7379,10 @@
       <c r="E11" s="34">
         <v>0.2</v>
       </c>
-      <c r="F11" s="136"/>
+      <c r="F11" s="145"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="147"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
@@ -7364,10 +7392,10 @@
       <c r="E12" s="36">
         <v>0.2</v>
       </c>
-      <c r="F12" s="137"/>
+      <c r="F12" s="146"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="147"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="64" t="s">
         <v>34</v>
       </c>
@@ -7376,7 +7404,7 @@
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="147"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="7" t="s">
         <v>62</v>
       </c>
@@ -7386,13 +7414,13 @@
       <c r="E14" s="98">
         <v>0.2</v>
       </c>
-      <c r="F14" s="135">
+      <c r="F14" s="144">
         <f>SUM(E14:E15)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="149"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="11" t="s">
         <v>46</v>
       </c>
@@ -7402,10 +7430,10 @@
       <c r="E15" s="36">
         <v>0.2</v>
       </c>
-      <c r="F15" s="137"/>
+      <c r="F15" s="146"/>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="153" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -7416,7 +7444,7 @@
       <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="147"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="7" t="s">
         <v>282</v>
       </c>
@@ -7426,13 +7454,13 @@
       <c r="E17" s="102">
         <v>1</v>
       </c>
-      <c r="F17" s="131">
+      <c r="F17" s="140">
         <f>SUM(E17:E26)</f>
         <v>1.8499999999999999</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="147"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="1" t="s">
         <v>283</v>
       </c>
@@ -7442,10 +7470,10 @@
       <c r="E18" s="101">
         <v>0.25</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="141"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="147"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="1" t="s">
         <v>284</v>
       </c>
@@ -7455,23 +7483,21 @@
       <c r="E19" s="82">
         <v>0</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="141"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="147"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D20" s="34">
         <v>0.4</v>
       </c>
-      <c r="E20" s="82">
-        <v>0</v>
-      </c>
-      <c r="F20" s="132"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="141"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="147"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="1" t="s">
         <v>286</v>
       </c>
@@ -7481,23 +7507,21 @@
       <c r="E21" s="82">
         <v>0</v>
       </c>
-      <c r="F21" s="132"/>
+      <c r="F21" s="141"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="147"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="1" t="s">
         <v>287</v>
       </c>
       <c r="D22" s="34">
         <v>0.45</v>
       </c>
-      <c r="E22" s="82">
-        <v>0</v>
-      </c>
-      <c r="F22" s="132"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="141"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="147"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="1" t="s">
         <v>288</v>
       </c>
@@ -7507,10 +7531,10 @@
       <c r="E23" s="82">
         <v>0</v>
       </c>
-      <c r="F23" s="132"/>
+      <c r="F23" s="141"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="147"/>
+      <c r="B24" s="156"/>
       <c r="C24" s="1" t="s">
         <v>289</v>
       </c>
@@ -7520,10 +7544,10 @@
       <c r="E24" s="101">
         <v>0.4</v>
       </c>
-      <c r="F24" s="132"/>
+      <c r="F24" s="141"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="147"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="1" t="s">
         <v>290</v>
       </c>
@@ -7533,10 +7557,10 @@
       <c r="E25" s="101">
         <v>0.2</v>
       </c>
-      <c r="F25" s="132"/>
+      <c r="F25" s="141"/>
     </row>
     <row r="26" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B26" s="147"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="11" t="s">
         <v>331</v>
       </c>
@@ -7546,10 +7570,10 @@
       <c r="E26" s="105">
         <v>0</v>
       </c>
-      <c r="F26" s="134"/>
+      <c r="F26" s="143"/>
     </row>
     <row r="27" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B27" s="147"/>
+      <c r="B27" s="156"/>
       <c r="C27" s="58" t="s">
         <v>291</v>
       </c>
@@ -7558,7 +7582,7 @@
       <c r="F27" s="32"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="147"/>
+      <c r="B28" s="156"/>
       <c r="C28" s="7" t="s">
         <v>292</v>
       </c>
@@ -7568,13 +7592,13 @@
       <c r="E28" s="102">
         <v>0.125</v>
       </c>
-      <c r="F28" s="131">
+      <c r="F28" s="140">
         <f>SUM(E28:E29)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="147"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="11" t="s">
         <v>293</v>
       </c>
@@ -7584,10 +7608,10 @@
       <c r="E29" s="103">
         <v>0.125</v>
       </c>
-      <c r="F29" s="134"/>
+      <c r="F29" s="143"/>
     </row>
     <row r="30" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B30" s="147"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="58" t="s">
         <v>34</v>
       </c>
@@ -7596,7 +7620,7 @@
       <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="147"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="7" t="s">
         <v>35</v>
       </c>
@@ -7606,13 +7630,13 @@
       <c r="E31" s="102">
         <v>0.125</v>
       </c>
-      <c r="F31" s="135">
+      <c r="F31" s="144">
         <f>SUM(E31:E33)</f>
         <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="147"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="1" t="s">
         <v>188</v>
       </c>
@@ -7622,10 +7646,10 @@
       <c r="E32" s="85">
         <v>0.15</v>
       </c>
-      <c r="F32" s="136"/>
+      <c r="F32" s="145"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="149"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="4" t="s">
         <v>52</v>
       </c>
@@ -7635,15 +7659,15 @@
       <c r="E33" s="35">
         <v>0</v>
       </c>
-      <c r="F33" s="152"/>
+      <c r="F33" s="161"/>
     </row>
     <row r="34" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="122"/>
       <c r="F34" s="63">
         <f>SUM(F3:F33)</f>
         <v>4.2750000000000004</v>
@@ -7671,7 +7695,7 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7725,11 +7749,11 @@
       </c>
       <c r="D4" s="81">
         <f t="shared" ref="D4:D15" si="0">C4-E4</f>
-        <v>2.950000000000002</v>
+        <v>2.450000000000002</v>
       </c>
       <c r="E4" s="82">
         <f>Header!F42</f>
-        <v>4.9249999999999998</v>
+        <v>5.4249999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -7810,11 +7834,11 @@
       </c>
       <c r="D9" s="81">
         <f t="shared" si="0"/>
-        <v>15.175000000000001</v>
+        <v>7.7750000000000021</v>
       </c>
       <c r="E9" s="82">
         <f>'Home Page'!F125</f>
-        <v>7.95</v>
+        <v>15.349999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -7861,11 +7885,11 @@
       </c>
       <c r="D12" s="81">
         <f t="shared" si="0"/>
-        <v>1.6249999999999996</v>
+        <v>0.29999999999999938</v>
       </c>
       <c r="E12" s="82">
         <f>'Explore Page'!F22</f>
-        <v>1.4500000000000002</v>
+        <v>2.7750000000000004</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -7895,11 +7919,11 @@
       </c>
       <c r="D14" s="81">
         <f t="shared" si="0"/>
-        <v>2.2999999999999989</v>
+        <v>1.1499999999999995</v>
       </c>
       <c r="E14" s="82">
         <f>'User Page'!F44</f>
-        <v>4.2749999999999995</v>
+        <v>5.4249999999999989</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="16.2" thickBot="1">
@@ -7920,14 +7944,14 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="16.2" thickBot="1">
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="77">
         <f>SUM(E3:E15)</f>
-        <v>48.125000000000007</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -7974,12 +7998,11 @@
         <v>13</v>
       </c>
       <c r="E20">
-        <f>E16</f>
-        <v>48.125000000000007</v>
+        <v>51.375</v>
       </c>
       <c r="F20">
-        <f>E16-E19</f>
-        <v>2.2750000000000057</v>
+        <f>E20-E19</f>
+        <v>5.5249999999999986</v>
       </c>
     </row>
     <row r="21" spans="3:6">
@@ -7987,6 +8010,14 @@
       <c r="D21">
         <v>14</v>
       </c>
+      <c r="E21">
+        <f>E16</f>
+        <v>58.5</v>
+      </c>
+      <c r="F21">
+        <f>E21-E20</f>
+        <v>7.125</v>
+      </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" s="92"/>
@@ -8002,19 +8033,19 @@
     </row>
     <row r="24" spans="3:6">
       <c r="D24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E24">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F24">
-        <f>65-E16</f>
-        <v>16.874999999999993</v>
+        <f>E24-E16</f>
+        <v>11.5</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="F25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -8030,8 +8061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE670F-6E02-7D4A-BE09-F54A0BBCCA86}">
   <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8045,10 +8076,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="118"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -8060,7 +8091,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="128" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -8071,7 +8102,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B4" s="120"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
@@ -8081,13 +8112,13 @@
       <c r="E4" s="54">
         <v>0.15</v>
       </c>
-      <c r="F4" s="126">
+      <c r="F4" s="135">
         <f>SUM(E4:E8)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B5" s="120"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8097,10 +8128,10 @@
       <c r="E5" s="54">
         <v>0.15</v>
       </c>
-      <c r="F5" s="114"/>
+      <c r="F5" s="123"/>
     </row>
     <row r="6" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B6" s="120"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
@@ -8110,10 +8141,10 @@
       <c r="E6" s="54">
         <v>0.15</v>
       </c>
-      <c r="F6" s="114"/>
+      <c r="F6" s="123"/>
     </row>
     <row r="7" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B7" s="120"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
@@ -8123,10 +8154,10 @@
       <c r="E7" s="54">
         <v>0.15</v>
       </c>
-      <c r="F7" s="114"/>
+      <c r="F7" s="123"/>
     </row>
     <row r="8" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B8" s="120"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
@@ -8136,10 +8167,10 @@
       <c r="E8" s="54">
         <v>0.15</v>
       </c>
-      <c r="F8" s="114"/>
+      <c r="F8" s="123"/>
     </row>
     <row r="9" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B9" s="120"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="58" t="s">
         <v>29</v>
       </c>
@@ -8148,7 +8179,7 @@
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B10" s="120"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
@@ -8158,13 +8189,13 @@
       <c r="E10" s="54">
         <v>0.15</v>
       </c>
-      <c r="F10" s="114">
+      <c r="F10" s="123">
         <f>SUM(E10:E18)</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -8174,23 +8205,23 @@
       <c r="E11" s="54">
         <v>0.15</v>
       </c>
-      <c r="F11" s="114"/>
+      <c r="F11" s="123"/>
     </row>
     <row r="12" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="54">
         <v>0.15</v>
       </c>
-      <c r="E12" s="174">
-        <v>0.15</v>
-      </c>
-      <c r="F12" s="114"/>
+      <c r="E12" s="112">
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="123"/>
     </row>
     <row r="13" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B13" s="120"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -8200,10 +8231,10 @@
       <c r="E13" s="54">
         <v>0</v>
       </c>
-      <c r="F13" s="114"/>
+      <c r="F13" s="123"/>
     </row>
     <row r="14" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
@@ -8213,10 +8244,10 @@
       <c r="E14" s="54">
         <v>0.15</v>
       </c>
-      <c r="F14" s="114"/>
+      <c r="F14" s="123"/>
     </row>
     <row r="15" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="28" t="s">
         <v>295</v>
       </c>
@@ -8226,10 +8257,10 @@
       <c r="E15" s="54">
         <v>0</v>
       </c>
-      <c r="F15" s="114"/>
+      <c r="F15" s="123"/>
     </row>
     <row r="16" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B16" s="120"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
@@ -8239,10 +8270,10 @@
       <c r="E16" s="54">
         <v>0</v>
       </c>
-      <c r="F16" s="114"/>
+      <c r="F16" s="123"/>
     </row>
     <row r="17" spans="2:7" ht="16.05" customHeight="1">
-      <c r="B17" s="120"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
@@ -8252,10 +8283,10 @@
       <c r="E17" s="54">
         <v>0.15</v>
       </c>
-      <c r="F17" s="114"/>
+      <c r="F17" s="123"/>
     </row>
     <row r="18" spans="2:7" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B18" s="120"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="11" t="s">
         <v>26</v>
       </c>
@@ -8265,10 +8296,10 @@
       <c r="E18" s="54">
         <v>0.15</v>
       </c>
-      <c r="F18" s="114"/>
+      <c r="F18" s="123"/>
     </row>
     <row r="19" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B19" s="120"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="58" t="s">
         <v>30</v>
       </c>
@@ -8277,7 +8308,7 @@
       <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="120"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="7" t="s">
         <v>31</v>
       </c>
@@ -8287,13 +8318,13 @@
       <c r="E20" s="44">
         <v>0.2</v>
       </c>
-      <c r="F20" s="114">
+      <c r="F20" s="123">
         <f>SUM(E20:E22)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="120"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
@@ -8303,24 +8334,24 @@
       <c r="E21" s="34">
         <v>0.2</v>
       </c>
-      <c r="F21" s="114"/>
+      <c r="F21" s="123"/>
     </row>
     <row r="22" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B22" s="120"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="36">
         <v>0.2</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="114">
         <f>0.2/2</f>
         <v>0.1</v>
       </c>
-      <c r="F22" s="114"/>
+      <c r="F22" s="123"/>
     </row>
     <row r="23" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B23" s="120"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="64" t="s">
         <v>34</v>
       </c>
@@ -8329,7 +8360,7 @@
       <c r="F23" s="43"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="121"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="17" t="s">
         <v>62</v>
       </c>
@@ -8339,13 +8370,13 @@
       <c r="E24" s="45">
         <v>0.2</v>
       </c>
-      <c r="F24" s="115">
+      <c r="F24" s="124">
         <f>SUM(E24:E25)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B25" s="122"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -8355,10 +8386,10 @@
       <c r="E25" s="46">
         <v>0.2</v>
       </c>
-      <c r="F25" s="116"/>
+      <c r="F25" s="125"/>
     </row>
     <row r="26" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="132" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="58" t="s">
@@ -8369,7 +8400,7 @@
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="124"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="13" t="s">
         <v>36</v>
       </c>
@@ -8379,13 +8410,13 @@
       <c r="E27" s="106">
         <v>0.4</v>
       </c>
-      <c r="F27" s="114">
+      <c r="F27" s="123">
         <f>SUM(E27:E30)</f>
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="124"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
@@ -8395,10 +8426,10 @@
       <c r="E28" s="34">
         <v>0.1</v>
       </c>
-      <c r="F28" s="114"/>
+      <c r="F28" s="123"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="124"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="5" t="s">
         <v>39</v>
       </c>
@@ -8408,26 +8439,24 @@
       <c r="E29" s="34">
         <v>0.1</v>
       </c>
-      <c r="F29" s="114"/>
+      <c r="F29" s="123"/>
     </row>
     <row r="30" spans="2:7" ht="31.8" thickBot="1">
-      <c r="B30" s="124"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="72" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="36">
         <v>0.5</v>
       </c>
-      <c r="E30" s="171">
-        <v>0.25</v>
-      </c>
-      <c r="F30" s="114"/>
-      <c r="G30" s="173" t="s">
-        <v>341</v>
-      </c>
+      <c r="E30" s="109">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="123"/>
+      <c r="G30" s="111"/>
     </row>
     <row r="31" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B31" s="124"/>
+      <c r="B31" s="133"/>
       <c r="C31" s="58" t="s">
         <v>40</v>
       </c>
@@ -8436,7 +8465,7 @@
       <c r="F31" s="43"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="124"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="13" t="s">
         <v>36</v>
       </c>
@@ -8446,13 +8475,13 @@
       <c r="E32" s="106">
         <v>0.4</v>
       </c>
-      <c r="F32" s="114">
+      <c r="F32" s="123">
         <f>SUM(E32:E38)</f>
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="124"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="5" t="s">
         <v>37</v>
       </c>
@@ -8462,10 +8491,10 @@
       <c r="E33" s="34">
         <v>0</v>
       </c>
-      <c r="F33" s="114"/>
+      <c r="F33" s="123"/>
     </row>
     <row r="34" spans="2:7" ht="28.8">
-      <c r="B34" s="124"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="73" t="s">
         <v>41</v>
       </c>
@@ -8473,15 +8502,13 @@
         <v>0.5</v>
       </c>
       <c r="E34" s="108">
-        <v>0.25</v>
-      </c>
-      <c r="F34" s="114"/>
-      <c r="G34" s="172" t="s">
-        <v>341</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="123"/>
+      <c r="G34" s="110"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="124"/>
+      <c r="B35" s="133"/>
       <c r="C35" s="73" t="s">
         <v>42</v>
       </c>
@@ -8492,13 +8519,13 @@
         <f>0.3</f>
         <v>0.3</v>
       </c>
-      <c r="F35" s="114"/>
+      <c r="F35" s="123"/>
       <c r="G35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="124"/>
+      <c r="B36" s="133"/>
       <c r="C36" s="5" t="s">
         <v>43</v>
       </c>
@@ -8508,10 +8535,10 @@
       <c r="E36" s="34">
         <v>0</v>
       </c>
-      <c r="F36" s="114"/>
+      <c r="F36" s="123"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="124"/>
+      <c r="B37" s="133"/>
       <c r="C37" s="5" t="s">
         <v>97</v>
       </c>
@@ -8521,10 +8548,10 @@
       <c r="E37" s="85">
         <v>0.25</v>
       </c>
-      <c r="F37" s="114"/>
+      <c r="F37" s="123"/>
     </row>
     <row r="38" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B38" s="124"/>
+      <c r="B38" s="133"/>
       <c r="C38" s="14" t="s">
         <v>44</v>
       </c>
@@ -8534,13 +8561,13 @@
       <c r="E38" s="103">
         <v>0.2</v>
       </c>
-      <c r="F38" s="114"/>
+      <c r="F38" s="123"/>
       <c r="G38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B39" s="124"/>
+      <c r="B39" s="133"/>
       <c r="C39" s="58" t="s">
         <v>34</v>
       </c>
@@ -8549,7 +8576,7 @@
       <c r="F39" s="43"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="124"/>
+      <c r="B40" s="133"/>
       <c r="C40" s="13" t="s">
         <v>35</v>
       </c>
@@ -8559,13 +8586,13 @@
       <c r="E40" s="106">
         <v>0.125</v>
       </c>
-      <c r="F40" s="127">
+      <c r="F40" s="136">
         <f>SUM(E40:E41)</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B41" s="125"/>
+      <c r="B41" s="134"/>
       <c r="C41" s="6" t="s">
         <v>52</v>
       </c>
@@ -8575,18 +8602,18 @@
       <c r="E41" s="35">
         <v>0</v>
       </c>
-      <c r="F41" s="128"/>
+      <c r="F41" s="137"/>
     </row>
     <row r="42" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B42" s="111" t="s">
+      <c r="B42" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="113"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="122"/>
       <c r="F42" s="65">
         <f>SUM(F4:F41)</f>
-        <v>4.9249999999999998</v>
+        <v>5.4249999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8628,10 +8655,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="118"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -8643,7 +8670,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="138" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -8654,7 +8681,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B4" s="130"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="13" t="s">
         <v>47</v>
       </c>
@@ -8670,7 +8697,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B5" s="130"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="58" t="s">
         <v>30</v>
       </c>
@@ -8679,7 +8706,7 @@
       <c r="F5" s="32"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="130"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
@@ -8689,13 +8716,13 @@
       <c r="E6" s="44">
         <v>0.2</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="140">
         <f>SUM(E6:E8)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="130"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
@@ -8705,10 +8732,10 @@
       <c r="E7" s="34">
         <v>0.2</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B8" s="130"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
@@ -8718,10 +8745,10 @@
       <c r="E8" s="36">
         <v>0.2</v>
       </c>
-      <c r="F8" s="132"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="130"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="58" t="s">
         <v>34</v>
       </c>
@@ -8730,7 +8757,7 @@
       <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="130"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="18" t="s">
         <v>62</v>
       </c>
@@ -8740,13 +8767,13 @@
       <c r="E10" s="47">
         <v>0.2</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F10" s="140">
         <f>SUM(E10:E11)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="133"/>
+      <c r="B11" s="142"/>
       <c r="C11" s="19" t="s">
         <v>46</v>
       </c>
@@ -8756,10 +8783,10 @@
       <c r="E11" s="48">
         <v>0.2</v>
       </c>
-      <c r="F11" s="134"/>
+      <c r="F11" s="143"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="138" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="58" t="s">
@@ -8770,7 +8797,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="130"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="15" t="s">
         <v>48</v>
       </c>
@@ -8786,7 +8813,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="130"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="66" t="s">
         <v>34</v>
       </c>
@@ -8795,7 +8822,7 @@
       <c r="F14" s="51"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="130"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="15" t="s">
         <v>52</v>
       </c>
@@ -8811,12 +8838,12 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="62">
         <f>SUM(F4:F15)</f>
         <v>1.2500000000000002</v>
@@ -8855,10 +8882,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="110"/>
+      <c r="C2" s="119"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -8870,7 +8897,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="138" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="64" t="s">
@@ -8881,7 +8908,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="130"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="7" t="s">
         <v>56</v>
       </c>
@@ -8891,13 +8918,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="140">
         <f>SUM(E4:E10)</f>
         <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="130"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
@@ -8907,10 +8934,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="130"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
@@ -8920,10 +8947,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="132"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="130"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
@@ -8933,10 +8960,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="130"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
@@ -8946,10 +8973,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="132"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="130"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
@@ -8959,10 +8986,10 @@
       <c r="E9" s="44">
         <v>0.15</v>
       </c>
-      <c r="F9" s="132"/>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B10" s="130"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="29" t="s">
         <v>66</v>
       </c>
@@ -8972,10 +8999,10 @@
       <c r="E10" s="44">
         <v>0.15</v>
       </c>
-      <c r="F10" s="134"/>
+      <c r="F10" s="143"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="130"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="58" t="s">
         <v>30</v>
       </c>
@@ -8984,7 +9011,7 @@
       <c r="F11" s="32"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="130"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
@@ -8994,13 +9021,13 @@
       <c r="E12" s="44">
         <v>0.2</v>
       </c>
-      <c r="F12" s="135">
+      <c r="F12" s="144">
         <f>SUM(E12:E14)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="130"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
@@ -9010,10 +9037,10 @@
       <c r="E13" s="34">
         <v>0.2</v>
       </c>
-      <c r="F13" s="136"/>
+      <c r="F13" s="145"/>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="130"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="11" t="s">
         <v>33</v>
       </c>
@@ -9023,10 +9050,10 @@
       <c r="E14" s="36">
         <v>0.2</v>
       </c>
-      <c r="F14" s="137"/>
+      <c r="F14" s="146"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="130"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="64" t="s">
         <v>34</v>
       </c>
@@ -9035,7 +9062,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="130"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="7" t="s">
         <v>62</v>
       </c>
@@ -9045,13 +9072,13 @@
       <c r="E16" s="44">
         <v>0.2</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="140">
         <f>SUM(E16:E17)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="133"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="11" t="s">
         <v>46</v>
       </c>
@@ -9061,10 +9088,10 @@
       <c r="E17" s="36">
         <v>0.2</v>
       </c>
-      <c r="F17" s="134"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="138" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="58" t="s">
@@ -9075,7 +9102,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="130"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="7" t="s">
         <v>64</v>
       </c>
@@ -9085,13 +9112,13 @@
       <c r="E19" s="44">
         <v>0.125</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="140">
         <f>SUM(E19:E21)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="130"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
@@ -9101,10 +9128,10 @@
       <c r="E20" s="34">
         <v>0.125</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="141"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="130"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="11" t="s">
         <v>67</v>
       </c>
@@ -9114,10 +9141,10 @@
       <c r="E21" s="36">
         <v>0.5</v>
       </c>
-      <c r="F21" s="134"/>
+      <c r="F21" s="143"/>
     </row>
     <row r="22" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B22" s="130"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="58" t="s">
         <v>61</v>
       </c>
@@ -9126,7 +9153,7 @@
       <c r="F22" s="32"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="130"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="7" t="s">
         <v>39</v>
       </c>
@@ -9136,13 +9163,13 @@
       <c r="E23" s="44">
         <v>0.1</v>
       </c>
-      <c r="F23" s="131">
+      <c r="F23" s="140">
         <f>SUM(E23:E25)</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="130"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
@@ -9152,10 +9179,10 @@
       <c r="E24" s="34">
         <v>0.1</v>
       </c>
-      <c r="F24" s="132"/>
+      <c r="F24" s="141"/>
     </row>
     <row r="25" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B25" s="130"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="11" t="s">
         <v>71</v>
       </c>
@@ -9165,10 +9192,10 @@
       <c r="E25" s="36">
         <v>0.1</v>
       </c>
-      <c r="F25" s="134"/>
+      <c r="F25" s="143"/>
     </row>
     <row r="26" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B26" s="130"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="64" t="s">
         <v>69</v>
       </c>
@@ -9177,7 +9204,7 @@
       <c r="F26" s="32"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="130"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="37" t="s">
         <v>296</v>
       </c>
@@ -9187,13 +9214,13 @@
       <c r="E27" s="45">
         <v>1</v>
       </c>
-      <c r="F27" s="138">
+      <c r="F27" s="147">
         <f>SUM(E27:E28)</f>
         <v>1.4</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="130"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="16" t="s">
         <v>70</v>
       </c>
@@ -9203,10 +9230,10 @@
       <c r="E28" s="48">
         <v>0.4</v>
       </c>
-      <c r="F28" s="139"/>
+      <c r="F28" s="148"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="130"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="58" t="s">
         <v>34</v>
       </c>
@@ -9215,7 +9242,7 @@
       <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="130"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="7" t="s">
         <v>35</v>
       </c>
@@ -9225,13 +9252,13 @@
       <c r="E30" s="98">
         <v>0.125</v>
       </c>
-      <c r="F30" s="131">
+      <c r="F30" s="140">
         <f>SUM(E30:E32)</f>
         <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="130"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="16" t="s">
         <v>75</v>
       </c>
@@ -9241,10 +9268,10 @@
       <c r="E31" s="48">
         <v>0.15</v>
       </c>
-      <c r="F31" s="132"/>
+      <c r="F31" s="141"/>
     </row>
     <row r="32" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B32" s="133"/>
+      <c r="B32" s="142"/>
       <c r="C32" s="4" t="s">
         <v>52</v>
       </c>
@@ -9254,15 +9281,15 @@
       <c r="E32" s="35">
         <v>0</v>
       </c>
-      <c r="F32" s="134"/>
+      <c r="F32" s="143"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="122"/>
       <c r="F33" s="63">
         <f>SUM(F4:F32)</f>
         <v>4.7750000000000004</v>
@@ -9292,7 +9319,7 @@
   <dimension ref="B1:L39"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9306,10 +9333,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="143"/>
+      <c r="C2" s="152"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -9321,7 +9348,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="153" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="67" t="s">
@@ -9332,7 +9359,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="145"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="22" t="s">
         <v>54</v>
       </c>
@@ -9342,13 +9369,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="140">
         <f>SUM(E4:E13)</f>
         <v>1.4999999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="145"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="3" t="s">
         <v>73</v>
       </c>
@@ -9358,10 +9385,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="145"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
@@ -9371,10 +9398,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="132"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="145"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="3" t="s">
         <v>74</v>
       </c>
@@ -9384,10 +9411,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="145"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
@@ -9397,10 +9424,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="132"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="145"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="3" t="s">
         <v>76</v>
       </c>
@@ -9410,10 +9437,10 @@
       <c r="E9" s="44">
         <v>0.15</v>
       </c>
-      <c r="F9" s="132"/>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="145"/>
+      <c r="B10" s="154"/>
       <c r="C10" s="3" t="s">
         <v>57</v>
       </c>
@@ -9423,10 +9450,10 @@
       <c r="E10" s="44">
         <v>0.15</v>
       </c>
-      <c r="F10" s="132"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="145"/>
+      <c r="B11" s="154"/>
       <c r="C11" s="20" t="s">
         <v>66</v>
       </c>
@@ -9436,10 +9463,10 @@
       <c r="E11" s="44">
         <v>0.15</v>
       </c>
-      <c r="F11" s="132"/>
+      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="145"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="3" t="s">
         <v>77</v>
       </c>
@@ -9449,10 +9476,10 @@
       <c r="E12" s="44">
         <v>0.15</v>
       </c>
-      <c r="F12" s="132"/>
+      <c r="F12" s="141"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="145"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="23" t="s">
         <v>78</v>
       </c>
@@ -9462,10 +9489,10 @@
       <c r="E13" s="44">
         <v>0.15</v>
       </c>
-      <c r="F13" s="134"/>
+      <c r="F13" s="143"/>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="145"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="67" t="s">
         <v>30</v>
       </c>
@@ -9474,7 +9501,7 @@
       <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="145"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="22" t="s">
         <v>31</v>
       </c>
@@ -9484,13 +9511,13 @@
       <c r="E15" s="44">
         <v>0.2</v>
       </c>
-      <c r="F15" s="135">
+      <c r="F15" s="144">
         <f>SUM(E15:E17)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="145"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
@@ -9500,10 +9527,10 @@
       <c r="E16" s="44">
         <v>0.2</v>
       </c>
-      <c r="F16" s="136"/>
+      <c r="F16" s="145"/>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="145"/>
+      <c r="B17" s="154"/>
       <c r="C17" s="23" t="s">
         <v>33</v>
       </c>
@@ -9513,10 +9540,10 @@
       <c r="E17" s="44">
         <v>0.2</v>
       </c>
-      <c r="F17" s="137"/>
+      <c r="F17" s="146"/>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="145"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="68" t="s">
         <v>34</v>
       </c>
@@ -9525,7 +9552,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="145"/>
+      <c r="B19" s="154"/>
       <c r="C19" s="22" t="s">
         <v>62</v>
       </c>
@@ -9535,13 +9562,13 @@
       <c r="E19" s="44">
         <v>0.2</v>
       </c>
-      <c r="F19" s="135">
+      <c r="F19" s="144">
         <f>SUM(E19:E20)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B20" s="146"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="23" t="s">
         <v>46</v>
       </c>
@@ -9551,10 +9578,10 @@
       <c r="E20" s="44">
         <v>0.2</v>
       </c>
-      <c r="F20" s="137"/>
+      <c r="F20" s="146"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="153" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="67" t="s">
@@ -9565,7 +9592,7 @@
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="147"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="24" t="s">
         <v>64</v>
       </c>
@@ -9575,13 +9602,13 @@
       <c r="E22" s="44">
         <v>0.125</v>
       </c>
-      <c r="F22" s="131">
+      <c r="F22" s="140">
         <f>SUM(E22:E27)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="147"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="20" t="s">
         <v>79</v>
       </c>
@@ -9591,10 +9618,10 @@
       <c r="E23" s="34">
         <v>0.125</v>
       </c>
-      <c r="F23" s="132"/>
+      <c r="F23" s="141"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="147"/>
+      <c r="B24" s="156"/>
       <c r="C24" s="20" t="s">
         <v>80</v>
       </c>
@@ -9604,10 +9631,10 @@
       <c r="E24" s="34">
         <v>0.125</v>
       </c>
-      <c r="F24" s="132"/>
+      <c r="F24" s="141"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="147"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="20" t="s">
         <v>65</v>
       </c>
@@ -9617,10 +9644,10 @@
       <c r="E25" s="34">
         <v>0.125</v>
       </c>
-      <c r="F25" s="132"/>
+      <c r="F25" s="141"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="147"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="20" t="s">
         <v>81</v>
       </c>
@@ -9630,10 +9657,10 @@
       <c r="E26" s="34">
         <v>0.4</v>
       </c>
-      <c r="F26" s="132"/>
+      <c r="F26" s="141"/>
     </row>
     <row r="27" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B27" s="147"/>
+      <c r="B27" s="156"/>
       <c r="C27" s="25" t="s">
         <v>82</v>
       </c>
@@ -9643,10 +9670,10 @@
       <c r="E27" s="36">
         <v>0.4</v>
       </c>
-      <c r="F27" s="134"/>
+      <c r="F27" s="143"/>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="147"/>
+      <c r="B28" s="156"/>
       <c r="C28" s="67" t="s">
         <v>61</v>
       </c>
@@ -9655,7 +9682,7 @@
       <c r="F28" s="32"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="147"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="26" t="s">
         <v>38</v>
       </c>
@@ -9671,7 +9698,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B30" s="147"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="67" t="s">
         <v>83</v>
       </c>
@@ -9680,7 +9707,7 @@
       <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="147"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="24" t="s">
         <v>84</v>
       </c>
@@ -9690,13 +9717,13 @@
       <c r="E31" s="44">
         <v>0.25</v>
       </c>
-      <c r="F31" s="131">
+      <c r="F31" s="140">
         <f>SUM(E31:E34)</f>
         <v>1.55</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="147"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="21" t="s">
         <v>85</v>
       </c>
@@ -9706,10 +9733,10 @@
       <c r="E32" s="34">
         <v>0.5</v>
       </c>
-      <c r="F32" s="132"/>
+      <c r="F32" s="141"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="147"/>
+      <c r="B33" s="156"/>
       <c r="C33" s="21" t="s">
         <v>86</v>
       </c>
@@ -9719,10 +9746,10 @@
       <c r="E33" s="34">
         <v>0.3</v>
       </c>
-      <c r="F33" s="132"/>
+      <c r="F33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B34" s="148"/>
+      <c r="B34" s="157"/>
       <c r="C34" s="74" t="s">
         <v>87</v>
       </c>
@@ -9732,10 +9759,10 @@
       <c r="E34" s="36">
         <v>0.5</v>
       </c>
-      <c r="F34" s="134"/>
+      <c r="F34" s="143"/>
     </row>
     <row r="35" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B35" s="148"/>
+      <c r="B35" s="157"/>
       <c r="C35" s="67" t="s">
         <v>34</v>
       </c>
@@ -9744,7 +9771,7 @@
       <c r="F35" s="32"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="148"/>
+      <c r="B36" s="157"/>
       <c r="C36" s="7" t="s">
         <v>35</v>
       </c>
@@ -9754,13 +9781,13 @@
       <c r="E36" s="98">
         <v>0.125</v>
       </c>
-      <c r="F36" s="132">
+      <c r="F36" s="141">
         <f>SUM(E36:E38)</f>
         <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="148"/>
+      <c r="B37" s="157"/>
       <c r="C37" s="16" t="s">
         <v>75</v>
       </c>
@@ -9770,14 +9797,14 @@
       <c r="E37" s="93">
         <v>0.15</v>
       </c>
-      <c r="F37" s="132"/>
+      <c r="F37" s="141"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="27"/>
     </row>
     <row r="38" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B38" s="149"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="4" t="s">
         <v>52</v>
       </c>
@@ -9787,19 +9814,19 @@
       <c r="E38" s="35">
         <v>0</v>
       </c>
-      <c r="F38" s="134"/>
+      <c r="F38" s="143"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="27"/>
     </row>
     <row r="39" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B39" s="140" t="s">
+      <c r="B39" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="141"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="142"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="151"/>
       <c r="F39" s="58">
         <f>SUM(F4:F38)</f>
         <v>5.7250000000000005</v>
@@ -9831,8 +9858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA6770-F854-A643-8029-F212B5CE736F}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9846,10 +9873,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="118"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -9861,7 +9888,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="153" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -9872,7 +9899,7 @@
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="147"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="7" t="s">
         <v>54</v>
       </c>
@@ -9882,13 +9909,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="132">
+      <c r="F4" s="141">
         <f>SUM(E4:E7)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="147"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="1" t="s">
         <v>88</v>
       </c>
@@ -9898,10 +9925,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="147"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="1" t="s">
         <v>66</v>
       </c>
@@ -9911,10 +9938,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="132"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B7" s="147"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="11" t="s">
         <v>89</v>
       </c>
@@ -9924,10 +9951,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B8" s="147"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="58" t="s">
         <v>30</v>
       </c>
@@ -9936,7 +9963,7 @@
       <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="147"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
@@ -9946,13 +9973,13 @@
       <c r="E9" s="44">
         <v>0.2</v>
       </c>
-      <c r="F9" s="135">
+      <c r="F9" s="144">
         <f>SUM(E9:E11)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="147"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
@@ -9962,10 +9989,10 @@
       <c r="E10" s="84">
         <v>0.2</v>
       </c>
-      <c r="F10" s="136"/>
+      <c r="F10" s="145"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="147"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
@@ -9975,10 +10002,10 @@
       <c r="E11" s="44">
         <v>0.2</v>
       </c>
-      <c r="F11" s="137"/>
+      <c r="F11" s="146"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="147"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="64" t="s">
         <v>34</v>
       </c>
@@ -9987,7 +10014,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="147"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="7" t="s">
         <v>62</v>
       </c>
@@ -9997,13 +10024,13 @@
       <c r="E13" s="44">
         <v>0.2</v>
       </c>
-      <c r="F13" s="135">
+      <c r="F13" s="144">
         <f>SUM(E13:E14)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="149"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="11" t="s">
         <v>46</v>
       </c>
@@ -10013,10 +10040,10 @@
       <c r="E14" s="44">
         <v>0.2</v>
       </c>
-      <c r="F14" s="137"/>
+      <c r="F14" s="146"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="153" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -10027,7 +10054,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="147"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="30" t="s">
         <v>64</v>
       </c>
@@ -10037,13 +10064,13 @@
       <c r="E16" s="44">
         <v>0.125</v>
       </c>
-      <c r="F16" s="132">
+      <c r="F16" s="141">
         <f>SUM(E16:E17)</f>
         <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B17" s="147"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="29" t="s">
         <v>90</v>
       </c>
@@ -10053,16 +10080,16 @@
       <c r="E17" s="99">
         <v>0.3</v>
       </c>
-      <c r="F17" s="132"/>
+      <c r="F17" s="141"/>
       <c r="G17" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" t="s">
         <v>337</v>
       </c>
-      <c r="H17" t="s">
-        <v>338</v>
-      </c>
     </row>
     <row r="18" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B18" s="147"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="58" t="s">
         <v>91</v>
       </c>
@@ -10071,7 +10098,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="147"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="30" t="s">
         <v>94</v>
       </c>
@@ -10081,13 +10108,13 @@
       <c r="E19" s="44">
         <v>0.5</v>
       </c>
-      <c r="F19" s="132">
+      <c r="F19" s="141">
         <f>SUM(E19:E22)</f>
         <v>1.55</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="147"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="28" t="s">
         <v>92</v>
       </c>
@@ -10097,10 +10124,10 @@
       <c r="E20" s="34">
         <v>0.3</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="141"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="147"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="28" t="s">
         <v>93</v>
       </c>
@@ -10110,10 +10137,10 @@
       <c r="E21" s="34">
         <v>0.5</v>
       </c>
-      <c r="F21" s="132"/>
+      <c r="F21" s="141"/>
     </row>
     <row r="22" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B22" s="147"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="29" t="s">
         <v>95</v>
       </c>
@@ -10123,10 +10150,10 @@
       <c r="E22" s="36">
         <v>0.25</v>
       </c>
-      <c r="F22" s="132"/>
+      <c r="F22" s="141"/>
     </row>
     <row r="23" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B23" s="147"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="58" t="s">
         <v>34</v>
       </c>
@@ -10135,7 +10162,7 @@
       <c r="F23" s="32"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="147"/>
+      <c r="B24" s="156"/>
       <c r="C24" s="7" t="s">
         <v>35</v>
       </c>
@@ -10145,13 +10172,13 @@
       <c r="E24" s="98">
         <v>0.125</v>
       </c>
-      <c r="F24" s="135">
+      <c r="F24" s="144">
         <f>SUM(E24:E26)</f>
         <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="147"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="1" t="s">
         <v>75</v>
       </c>
@@ -10161,10 +10188,10 @@
       <c r="E25" s="34">
         <v>0.15</v>
       </c>
-      <c r="F25" s="136"/>
+      <c r="F25" s="145"/>
     </row>
     <row r="26" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B26" s="149"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
@@ -10174,15 +10201,15 @@
       <c r="E26" s="35">
         <v>0</v>
       </c>
-      <c r="F26" s="152"/>
+      <c r="F26" s="161"/>
     </row>
     <row r="27" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B27" s="150" t="s">
+      <c r="B27" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
       <c r="F27" s="58">
         <f>SUM(F4:F26)</f>
         <v>3.85</v>
@@ -10210,8 +10237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA52E4B4-063C-1347-8F70-DFE829911404}">
   <dimension ref="B1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -10225,10 +10252,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="110"/>
+      <c r="C2" s="119"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -10240,7 +10267,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="128" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -10251,7 +10278,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="120"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="7" t="s">
         <v>96</v>
       </c>
@@ -10261,13 +10288,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="140">
         <f>SUM(E4:E11)</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="120"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
@@ -10277,10 +10304,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="120"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="1" t="s">
         <v>137</v>
       </c>
@@ -10290,10 +10317,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="132"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="120"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="1" t="s">
         <v>138</v>
       </c>
@@ -10303,10 +10330,10 @@
       <c r="E7" s="71">
         <v>0.15</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="120"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="1" t="s">
         <v>139</v>
       </c>
@@ -10316,10 +10343,10 @@
       <c r="E8" s="71">
         <v>0.15</v>
       </c>
-      <c r="F8" s="132"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="120"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="1" t="s">
         <v>140</v>
       </c>
@@ -10329,10 +10356,10 @@
       <c r="E9" s="71">
         <v>0.15</v>
       </c>
-      <c r="F9" s="132"/>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="120"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="1" t="s">
         <v>141</v>
       </c>
@@ -10342,10 +10369,10 @@
       <c r="E10" s="71">
         <v>0.15</v>
       </c>
-      <c r="F10" s="132"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="11" t="s">
         <v>142</v>
       </c>
@@ -10355,10 +10382,10 @@
       <c r="E11" s="71">
         <v>0.15</v>
       </c>
-      <c r="F11" s="134"/>
+      <c r="F11" s="143"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="120"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="58" t="s">
         <v>100</v>
       </c>
@@ -10367,7 +10394,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="120"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="7" t="s">
         <v>101</v>
       </c>
@@ -10377,13 +10404,13 @@
       <c r="E13" s="71">
         <v>0.15</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="140">
         <f>SUM(E13:E14)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="120"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="29" t="s">
         <v>297</v>
       </c>
@@ -10393,10 +10420,10 @@
       <c r="E14" s="71">
         <v>0.15</v>
       </c>
-      <c r="F14" s="134"/>
+      <c r="F14" s="143"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="120"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="58" t="s">
         <v>102</v>
       </c>
@@ -10405,7 +10432,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="120"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="7" t="s">
         <v>103</v>
       </c>
@@ -10415,13 +10442,13 @@
       <c r="E16" s="71">
         <v>0.15</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="140">
         <f>SUM(E16:E38)</f>
-        <v>3.3</v>
+        <v>3.6999999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="120"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="30" t="s">
         <v>189</v>
       </c>
@@ -10431,23 +10458,23 @@
       <c r="E17" s="44">
         <v>0</v>
       </c>
-      <c r="F17" s="132"/>
+      <c r="F17" s="141"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="120"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="28" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="44">
         <v>0.2</v>
       </c>
-      <c r="E18" s="44">
-        <v>0</v>
-      </c>
-      <c r="F18" s="132"/>
+      <c r="E18" s="106">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="141"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="120"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="1" t="s">
         <v>105</v>
       </c>
@@ -10457,10 +10484,10 @@
       <c r="E19" s="44">
         <v>0.15</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="141"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="120"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="1" t="s">
         <v>106</v>
       </c>
@@ -10470,10 +10497,10 @@
       <c r="E20" s="44">
         <v>0.15</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="141"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="120"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="1" t="s">
         <v>107</v>
       </c>
@@ -10483,10 +10510,10 @@
       <c r="E21" s="44">
         <v>0.15</v>
       </c>
-      <c r="F21" s="132"/>
+      <c r="F21" s="141"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="120"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="28" t="s">
         <v>108</v>
       </c>
@@ -10496,10 +10523,10 @@
       <c r="E22" s="44">
         <v>0</v>
       </c>
-      <c r="F22" s="132"/>
+      <c r="F22" s="141"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="120"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
@@ -10509,10 +10536,10 @@
       <c r="E23" s="84">
         <v>0.15</v>
       </c>
-      <c r="F23" s="132"/>
+      <c r="F23" s="141"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="120"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="1" t="s">
         <v>110</v>
       </c>
@@ -10522,10 +10549,10 @@
       <c r="E24" s="71">
         <v>0.15</v>
       </c>
-      <c r="F24" s="132"/>
+      <c r="F24" s="141"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="120"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="28" t="s">
         <v>298</v>
       </c>
@@ -10535,10 +10562,10 @@
       <c r="E25" s="84">
         <v>0.15</v>
       </c>
-      <c r="F25" s="132"/>
+      <c r="F25" s="141"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="120"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="1" t="s">
         <v>111</v>
       </c>
@@ -10548,10 +10575,10 @@
       <c r="E26" s="71">
         <v>0.15</v>
       </c>
-      <c r="F26" s="132"/>
+      <c r="F26" s="141"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="120"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="1" t="s">
         <v>112</v>
       </c>
@@ -10561,10 +10588,10 @@
       <c r="E27" s="71">
         <v>0.15</v>
       </c>
-      <c r="F27" s="132"/>
+      <c r="F27" s="141"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="120"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="1" t="s">
         <v>113</v>
       </c>
@@ -10574,10 +10601,10 @@
       <c r="E28" s="71">
         <v>0.15</v>
       </c>
-      <c r="F28" s="132"/>
+      <c r="F28" s="141"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="120"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="1" t="s">
         <v>114</v>
       </c>
@@ -10587,10 +10614,10 @@
       <c r="E29" s="84">
         <v>0.15</v>
       </c>
-      <c r="F29" s="132"/>
+      <c r="F29" s="141"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="120"/>
+      <c r="B30" s="129"/>
       <c r="C30" s="1" t="s">
         <v>115</v>
       </c>
@@ -10600,10 +10627,10 @@
       <c r="E30" s="78">
         <v>0.15</v>
       </c>
-      <c r="F30" s="132"/>
+      <c r="F30" s="141"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="120"/>
+      <c r="B31" s="129"/>
       <c r="C31" s="28" t="s">
         <v>116</v>
       </c>
@@ -10613,10 +10640,10 @@
       <c r="E31" s="84">
         <v>0.3</v>
       </c>
-      <c r="F31" s="132"/>
+      <c r="F31" s="141"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="120"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="28" t="s">
         <v>117</v>
       </c>
@@ -10626,10 +10653,10 @@
       <c r="E32" s="44">
         <v>0.15</v>
       </c>
-      <c r="F32" s="132"/>
+      <c r="F32" s="141"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="120"/>
+      <c r="B33" s="129"/>
       <c r="C33" s="28" t="s">
         <v>118</v>
       </c>
@@ -10639,10 +10666,10 @@
       <c r="E33" s="84">
         <v>0.15</v>
       </c>
-      <c r="F33" s="132"/>
+      <c r="F33" s="141"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="120"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="28" t="s">
         <v>119</v>
       </c>
@@ -10652,10 +10679,10 @@
       <c r="E34" s="84">
         <v>0.2</v>
       </c>
-      <c r="F34" s="132"/>
+      <c r="F34" s="141"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="120"/>
+      <c r="B35" s="129"/>
       <c r="C35" s="28" t="s">
         <v>120</v>
       </c>
@@ -10665,10 +10692,10 @@
       <c r="E35" s="84">
         <v>0.2</v>
       </c>
-      <c r="F35" s="132"/>
+      <c r="F35" s="141"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="120"/>
+      <c r="B36" s="129"/>
       <c r="C36" s="28" t="s">
         <v>135</v>
       </c>
@@ -10676,15 +10703,13 @@
         <v>0.2</v>
       </c>
       <c r="E36" s="84">
-        <v>0.1</v>
-      </c>
-      <c r="F36" s="132"/>
-      <c r="G36" s="91" t="s">
-        <v>333</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F36" s="141"/>
+      <c r="G36" s="91"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="120"/>
+      <c r="B37" s="129"/>
       <c r="C37" s="28" t="s">
         <v>136</v>
       </c>
@@ -10692,15 +10717,13 @@
         <v>0.2</v>
       </c>
       <c r="E37" s="84">
-        <v>0.1</v>
-      </c>
-      <c r="F37" s="132"/>
-      <c r="G37" s="91" t="s">
-        <v>333</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="141"/>
+      <c r="G37" s="91"/>
     </row>
     <row r="38" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B38" s="120"/>
+      <c r="B38" s="129"/>
       <c r="C38" s="29" t="s">
         <v>176</v>
       </c>
@@ -10710,10 +10733,10 @@
       <c r="E38" s="84">
         <v>0.3</v>
       </c>
-      <c r="F38" s="134"/>
+      <c r="F38" s="143"/>
     </row>
     <row r="39" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B39" s="120"/>
+      <c r="B39" s="129"/>
       <c r="C39" s="58" t="s">
         <v>121</v>
       </c>
@@ -10722,7 +10745,7 @@
       <c r="F39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="120"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="7" t="s">
         <v>122</v>
       </c>
@@ -10732,13 +10755,13 @@
       <c r="E40" s="44">
         <v>0.15</v>
       </c>
-      <c r="F40" s="131">
+      <c r="F40" s="140">
         <f>SUM(E40:E47)</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="120"/>
+      <c r="B41" s="129"/>
       <c r="C41" s="28" t="s">
         <v>123</v>
       </c>
@@ -10748,10 +10771,10 @@
       <c r="E41" s="44">
         <v>0</v>
       </c>
-      <c r="F41" s="132"/>
+      <c r="F41" s="141"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="120"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="1" t="s">
         <v>124</v>
       </c>
@@ -10761,10 +10784,10 @@
       <c r="E42" s="44">
         <v>0.15</v>
       </c>
-      <c r="F42" s="132"/>
+      <c r="F42" s="141"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="120"/>
+      <c r="B43" s="129"/>
       <c r="C43" s="28" t="s">
         <v>117</v>
       </c>
@@ -10774,10 +10797,10 @@
       <c r="E43" s="44">
         <v>0.15</v>
       </c>
-      <c r="F43" s="132"/>
+      <c r="F43" s="141"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="120"/>
+      <c r="B44" s="129"/>
       <c r="C44" s="28" t="s">
         <v>118</v>
       </c>
@@ -10787,49 +10810,49 @@
       <c r="E44" s="44">
         <v>0.15</v>
       </c>
-      <c r="F44" s="132"/>
+      <c r="F44" s="141"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="120"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="28" t="s">
         <v>119</v>
       </c>
       <c r="D45" s="44">
         <v>0.2</v>
       </c>
-      <c r="E45" s="106">
-        <v>0</v>
-      </c>
-      <c r="F45" s="132"/>
+      <c r="E45" s="115">
+        <v>0.2</v>
+      </c>
+      <c r="F45" s="141"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="120"/>
+      <c r="B46" s="129"/>
       <c r="C46" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D46" s="44">
         <v>0.15</v>
       </c>
-      <c r="E46" s="102">
+      <c r="E46" s="113">
         <v>0</v>
       </c>
-      <c r="F46" s="132"/>
+      <c r="F46" s="141"/>
     </row>
     <row r="47" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B47" s="120"/>
+      <c r="B47" s="129"/>
       <c r="C47" s="29" t="s">
         <v>125</v>
       </c>
       <c r="D47" s="44">
         <v>0.2</v>
       </c>
-      <c r="E47" s="106">
-        <v>0</v>
-      </c>
-      <c r="F47" s="134"/>
+      <c r="E47" s="115">
+        <v>0.2</v>
+      </c>
+      <c r="F47" s="143"/>
     </row>
     <row r="48" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B48" s="120"/>
+      <c r="B48" s="129"/>
       <c r="C48" s="58" t="s">
         <v>127</v>
       </c>
@@ -10837,102 +10860,102 @@
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
     </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="120"/>
+    <row r="49" spans="2:7">
+      <c r="B49" s="129"/>
       <c r="C49" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D49" s="44">
         <v>0.15</v>
       </c>
-      <c r="E49" s="106">
-        <v>0</v>
-      </c>
-      <c r="F49" s="131">
+      <c r="E49" s="115">
+        <v>0.15</v>
+      </c>
+      <c r="F49" s="140">
         <f>SUM(E49:E58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="120"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="129"/>
       <c r="C50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D50" s="44">
         <v>0.15</v>
       </c>
-      <c r="E50" s="106">
-        <v>0</v>
-      </c>
-      <c r="F50" s="132"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="120"/>
+      <c r="E50" s="115">
+        <v>0.15</v>
+      </c>
+      <c r="F50" s="141"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="129"/>
       <c r="C51" s="28" t="s">
         <v>117</v>
       </c>
       <c r="D51" s="44">
         <v>0.15</v>
       </c>
-      <c r="E51" s="106">
-        <v>0</v>
-      </c>
-      <c r="F51" s="132"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="120"/>
+      <c r="E51" s="115">
+        <v>0.15</v>
+      </c>
+      <c r="F51" s="141"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="129"/>
       <c r="C52" s="28" t="s">
         <v>118</v>
       </c>
       <c r="D52" s="44">
         <v>0.15</v>
       </c>
-      <c r="E52" s="106">
-        <v>0</v>
-      </c>
-      <c r="F52" s="132"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="120"/>
+      <c r="E52" s="115">
+        <v>0.15</v>
+      </c>
+      <c r="F52" s="141"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="129"/>
       <c r="C53" s="28" t="s">
         <v>119</v>
       </c>
       <c r="D53" s="44">
         <v>0.2</v>
       </c>
-      <c r="E53" s="106">
-        <v>0</v>
-      </c>
-      <c r="F53" s="132"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="120"/>
+      <c r="E53" s="115">
+        <v>0.2</v>
+      </c>
+      <c r="F53" s="141"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="129"/>
       <c r="C54" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D54" s="44">
         <v>0.15</v>
       </c>
-      <c r="E54" s="106">
-        <v>0</v>
-      </c>
-      <c r="F54" s="132"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="120"/>
+      <c r="E54" s="115">
+        <v>0.15</v>
+      </c>
+      <c r="F54" s="141"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="129"/>
       <c r="C55" s="28" t="s">
         <v>131</v>
       </c>
       <c r="D55" s="44">
         <v>0.2</v>
       </c>
-      <c r="E55" s="106">
-        <v>0</v>
-      </c>
-      <c r="F55" s="132"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="120"/>
+      <c r="E55" s="115">
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="141"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="129"/>
       <c r="C56" s="1" t="s">
         <v>132</v>
       </c>
@@ -10942,23 +10965,26 @@
       <c r="E56" s="44">
         <v>0</v>
       </c>
-      <c r="F56" s="132"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="120"/>
+      <c r="F56" s="141"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="129"/>
       <c r="C57" s="28" t="s">
         <v>133</v>
       </c>
       <c r="D57" s="44">
         <v>0.2</v>
       </c>
-      <c r="E57" s="106">
-        <v>0</v>
-      </c>
-      <c r="F57" s="132"/>
-    </row>
-    <row r="58" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B58" s="120"/>
+      <c r="E57" s="115">
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="141"/>
+      <c r="G57" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B58" s="129"/>
       <c r="C58" s="11" t="s">
         <v>134</v>
       </c>
@@ -10968,10 +10994,10 @@
       <c r="E58" s="102">
         <v>0</v>
       </c>
-      <c r="F58" s="134"/>
-    </row>
-    <row r="59" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B59" s="120"/>
+      <c r="F58" s="143"/>
+    </row>
+    <row r="59" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B59" s="129"/>
       <c r="C59" s="58" t="s">
         <v>30</v>
       </c>
@@ -10979,8 +11005,8 @@
       <c r="E59" s="32"/>
       <c r="F59" s="32"/>
     </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="120"/>
+    <row r="60" spans="2:7">
+      <c r="B60" s="129"/>
       <c r="C60" s="7" t="s">
         <v>31</v>
       </c>
@@ -10990,13 +11016,13 @@
       <c r="E60" s="44">
         <v>0.2</v>
       </c>
-      <c r="F60" s="135">
+      <c r="F60" s="144">
         <f>SUM(E60:E62)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="120"/>
+    <row r="61" spans="2:7">
+      <c r="B61" s="129"/>
       <c r="C61" s="1" t="s">
         <v>32</v>
       </c>
@@ -11006,10 +11032,10 @@
       <c r="E61" s="44">
         <v>0.2</v>
       </c>
-      <c r="F61" s="136"/>
-    </row>
-    <row r="62" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B62" s="120"/>
+      <c r="F61" s="145"/>
+    </row>
+    <row r="62" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B62" s="129"/>
       <c r="C62" s="11" t="s">
         <v>33</v>
       </c>
@@ -11019,10 +11045,10 @@
       <c r="E62" s="44">
         <v>0.2</v>
       </c>
-      <c r="F62" s="137"/>
-    </row>
-    <row r="63" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B63" s="120"/>
+      <c r="F62" s="146"/>
+    </row>
+    <row r="63" spans="2:7" ht="16.2" thickBot="1">
+      <c r="B63" s="129"/>
       <c r="C63" s="64" t="s">
         <v>34</v>
       </c>
@@ -11030,8 +11056,8 @@
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
     </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="120"/>
+    <row r="64" spans="2:7">
+      <c r="B64" s="129"/>
       <c r="C64" s="7" t="s">
         <v>62</v>
       </c>
@@ -11041,13 +11067,13 @@
       <c r="E64" s="44">
         <v>0.2</v>
       </c>
-      <c r="F64" s="135">
+      <c r="F64" s="144">
         <f>SUM(E64:E65)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B65" s="122"/>
+      <c r="B65" s="131"/>
       <c r="C65" s="11" t="s">
         <v>46</v>
       </c>
@@ -11057,10 +11083,10 @@
       <c r="E65" s="36">
         <v>0.2</v>
       </c>
-      <c r="F65" s="137"/>
+      <c r="F65" s="146"/>
     </row>
     <row r="66" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B66" s="155" t="s">
+      <c r="B66" s="164" t="s">
         <v>45</v>
       </c>
       <c r="C66" s="58" t="s">
@@ -11071,7 +11097,7 @@
       <c r="F66" s="32"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="145"/>
+      <c r="B67" s="154"/>
       <c r="C67" s="30" t="s">
         <v>143</v>
       </c>
@@ -11081,13 +11107,13 @@
       <c r="E67" s="44">
         <v>0.25</v>
       </c>
-      <c r="F67" s="131">
+      <c r="F67" s="140">
         <f>SUM(E67:E68)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B68" s="145"/>
+      <c r="B68" s="154"/>
       <c r="C68" s="29" t="s">
         <v>185</v>
       </c>
@@ -11097,10 +11123,10 @@
       <c r="E68" s="36">
         <v>0.35</v>
       </c>
-      <c r="F68" s="134"/>
+      <c r="F68" s="143"/>
     </row>
     <row r="69" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B69" s="145"/>
+      <c r="B69" s="154"/>
       <c r="C69" s="58" t="s">
         <v>100</v>
       </c>
@@ -11109,7 +11135,7 @@
       <c r="F69" s="32"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="145"/>
+      <c r="B70" s="154"/>
       <c r="C70" s="30" t="s">
         <v>145</v>
       </c>
@@ -11119,13 +11145,13 @@
       <c r="E70" s="44">
         <v>0</v>
       </c>
-      <c r="F70" s="131">
+      <c r="F70" s="140">
         <f>SUM(E70:E75)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="145"/>
+      <c r="B71" s="154"/>
       <c r="C71" s="31" t="s">
         <v>146</v>
       </c>
@@ -11135,10 +11161,10 @@
       <c r="E71" s="79">
         <v>0</v>
       </c>
-      <c r="F71" s="132"/>
+      <c r="F71" s="141"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="145"/>
+      <c r="B72" s="154"/>
       <c r="C72" s="1" t="s">
         <v>147</v>
       </c>
@@ -11148,10 +11174,10 @@
       <c r="E72" s="79">
         <v>0</v>
       </c>
-      <c r="F72" s="132"/>
+      <c r="F72" s="141"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="145"/>
+      <c r="B73" s="154"/>
       <c r="C73" s="1" t="s">
         <v>148</v>
       </c>
@@ -11161,10 +11187,10 @@
       <c r="E73" s="79">
         <v>0</v>
       </c>
-      <c r="F73" s="132"/>
+      <c r="F73" s="141"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="145"/>
+      <c r="B74" s="154"/>
       <c r="C74" s="1" t="s">
         <v>149</v>
       </c>
@@ -11174,10 +11200,10 @@
       <c r="E74" s="79">
         <v>0</v>
       </c>
-      <c r="F74" s="132"/>
+      <c r="F74" s="141"/>
     </row>
     <row r="75" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B75" s="145"/>
+      <c r="B75" s="154"/>
       <c r="C75" s="11" t="s">
         <v>152</v>
       </c>
@@ -11187,10 +11213,10 @@
       <c r="E75" s="79">
         <v>0</v>
       </c>
-      <c r="F75" s="134"/>
+      <c r="F75" s="143"/>
     </row>
     <row r="76" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B76" s="145"/>
+      <c r="B76" s="154"/>
       <c r="C76" s="58" t="s">
         <v>102</v>
       </c>
@@ -11199,36 +11225,36 @@
       <c r="F76" s="32"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="145"/>
+      <c r="B77" s="154"/>
       <c r="C77" s="7" t="s">
         <v>144</v>
       </c>
       <c r="D77" s="44">
         <v>0.25</v>
       </c>
-      <c r="E77" s="106">
+      <c r="E77" s="115">
         <v>0</v>
       </c>
-      <c r="F77" s="131">
+      <c r="F77" s="140">
         <f>SUM(E77:E96)</f>
-        <v>0.60000000000000009</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="145"/>
+      <c r="B78" s="154"/>
       <c r="C78" s="7" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="44">
         <v>0.7</v>
       </c>
-      <c r="E78" s="106">
+      <c r="E78" s="115">
         <v>0</v>
       </c>
-      <c r="F78" s="132"/>
+      <c r="F78" s="141"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="145"/>
+      <c r="B79" s="154"/>
       <c r="C79" s="1" t="s">
         <v>177</v>
       </c>
@@ -11236,12 +11262,12 @@
         <v>0.25</v>
       </c>
       <c r="E79" s="106">
-        <v>0</v>
-      </c>
-      <c r="F79" s="132"/>
+        <v>0.25</v>
+      </c>
+      <c r="F79" s="141"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="145"/>
+      <c r="B80" s="154"/>
       <c r="C80" s="1" t="s">
         <v>178</v>
       </c>
@@ -11249,38 +11275,38 @@
         <v>0.25</v>
       </c>
       <c r="E80" s="106">
-        <v>0</v>
-      </c>
-      <c r="F80" s="132"/>
+        <v>0.25</v>
+      </c>
+      <c r="F80" s="141"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="145"/>
+      <c r="B81" s="154"/>
       <c r="C81" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D81" s="34">
         <v>0.5</v>
       </c>
-      <c r="E81" s="106">
+      <c r="E81" s="115">
         <v>0</v>
       </c>
-      <c r="F81" s="132"/>
+      <c r="F81" s="141"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="145"/>
+      <c r="B82" s="154"/>
       <c r="C82" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D82" s="34">
         <v>0.25</v>
       </c>
-      <c r="E82" s="106">
+      <c r="E82" s="115">
         <v>0</v>
       </c>
-      <c r="F82" s="132"/>
+      <c r="F82" s="141"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="145"/>
+      <c r="B83" s="154"/>
       <c r="C83" s="28" t="s">
         <v>299</v>
       </c>
@@ -11288,12 +11314,12 @@
         <v>0.2</v>
       </c>
       <c r="E83" s="106">
-        <v>0</v>
-      </c>
-      <c r="F83" s="132"/>
+        <v>0.2</v>
+      </c>
+      <c r="F83" s="141"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="145"/>
+      <c r="B84" s="154"/>
       <c r="C84" s="1" t="s">
         <v>153</v>
       </c>
@@ -11301,12 +11327,12 @@
         <v>0.3</v>
       </c>
       <c r="E84" s="106">
-        <v>0</v>
-      </c>
-      <c r="F84" s="132"/>
+        <v>0.3</v>
+      </c>
+      <c r="F84" s="141"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="145"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="1" t="s">
         <v>151</v>
       </c>
@@ -11314,12 +11340,12 @@
         <v>0.25</v>
       </c>
       <c r="E85" s="106">
-        <v>0</v>
-      </c>
-      <c r="F85" s="132"/>
+        <v>0.25</v>
+      </c>
+      <c r="F85" s="141"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="145"/>
+      <c r="B86" s="154"/>
       <c r="C86" s="28" t="s">
         <v>154</v>
       </c>
@@ -11329,10 +11355,10 @@
       <c r="E86" s="79">
         <v>0</v>
       </c>
-      <c r="F86" s="132"/>
+      <c r="F86" s="141"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="145"/>
+      <c r="B87" s="154"/>
       <c r="C87" s="1" t="s">
         <v>155</v>
       </c>
@@ -11342,10 +11368,10 @@
       <c r="E87" s="104">
         <v>0.2</v>
       </c>
-      <c r="F87" s="132"/>
+      <c r="F87" s="141"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="145"/>
+      <c r="B88" s="154"/>
       <c r="C88" s="1" t="s">
         <v>156</v>
       </c>
@@ -11353,12 +11379,12 @@
         <v>0.25</v>
       </c>
       <c r="E88" s="106">
-        <v>0</v>
-      </c>
-      <c r="F88" s="132"/>
+        <v>0.25</v>
+      </c>
+      <c r="F88" s="141"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="145"/>
+      <c r="B89" s="154"/>
       <c r="C89" s="1" t="s">
         <v>157</v>
       </c>
@@ -11366,12 +11392,12 @@
         <v>0.25</v>
       </c>
       <c r="E89" s="106">
-        <v>0</v>
-      </c>
-      <c r="F89" s="132"/>
+        <v>0.25</v>
+      </c>
+      <c r="F89" s="141"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="145"/>
+      <c r="B90" s="154"/>
       <c r="C90" s="1" t="s">
         <v>158</v>
       </c>
@@ -11381,10 +11407,10 @@
       <c r="E90" s="98">
         <v>0.2</v>
       </c>
-      <c r="F90" s="132"/>
+      <c r="F90" s="141"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="145"/>
+      <c r="B91" s="154"/>
       <c r="C91" s="1" t="s">
         <v>159</v>
       </c>
@@ -11392,12 +11418,12 @@
         <v>0.4</v>
       </c>
       <c r="E91" s="106">
-        <v>0</v>
-      </c>
-      <c r="F91" s="132"/>
+        <v>0.4</v>
+      </c>
+      <c r="F91" s="141"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="145"/>
+      <c r="B92" s="154"/>
       <c r="C92" s="1" t="s">
         <v>160</v>
       </c>
@@ -11407,10 +11433,10 @@
       <c r="E92" s="79">
         <v>0</v>
       </c>
-      <c r="F92" s="132"/>
+      <c r="F92" s="141"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="145"/>
+      <c r="B93" s="154"/>
       <c r="C93" s="1" t="s">
         <v>161</v>
       </c>
@@ -11420,10 +11446,10 @@
       <c r="E93" s="79">
         <v>0</v>
       </c>
-      <c r="F93" s="132"/>
+      <c r="F93" s="141"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="145"/>
+      <c r="B94" s="154"/>
       <c r="C94" s="1" t="s">
         <v>162</v>
       </c>
@@ -11431,12 +11457,12 @@
         <v>0.25</v>
       </c>
       <c r="E94" s="106">
-        <v>0</v>
-      </c>
-      <c r="F94" s="132"/>
+        <v>0.25</v>
+      </c>
+      <c r="F94" s="141"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="145"/>
+      <c r="B95" s="154"/>
       <c r="C95" s="11" t="s">
         <v>172</v>
       </c>
@@ -11446,10 +11472,10 @@
       <c r="E95" s="98">
         <v>0.2</v>
       </c>
-      <c r="F95" s="132"/>
+      <c r="F95" s="141"/>
     </row>
     <row r="96" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B96" s="145"/>
+      <c r="B96" s="154"/>
       <c r="C96" s="11" t="s">
         <v>163</v>
       </c>
@@ -11457,12 +11483,12 @@
         <v>0.25</v>
       </c>
       <c r="E96" s="106">
-        <v>0</v>
-      </c>
-      <c r="F96" s="134"/>
+        <v>0.25</v>
+      </c>
+      <c r="F96" s="143"/>
     </row>
     <row r="97" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B97" s="145"/>
+      <c r="B97" s="154"/>
       <c r="C97" s="58" t="s">
         <v>121</v>
       </c>
@@ -11471,88 +11497,88 @@
       <c r="F97" s="32"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="145"/>
+      <c r="B98" s="154"/>
       <c r="C98" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D98" s="44">
         <v>0.25</v>
       </c>
-      <c r="E98" s="106">
-        <v>0</v>
-      </c>
-      <c r="F98" s="131">
+      <c r="E98" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="F98" s="140">
         <f>SUM(E98:E104)</f>
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="145"/>
+      <c r="B99" s="154"/>
       <c r="C99" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D99" s="34">
         <v>0.25</v>
       </c>
-      <c r="E99" s="106">
-        <v>0</v>
-      </c>
-      <c r="F99" s="132"/>
+      <c r="E99" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="F99" s="141"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="145"/>
+      <c r="B100" s="154"/>
       <c r="C100" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D100" s="34">
         <v>0.25</v>
       </c>
-      <c r="E100" s="106">
-        <v>0</v>
-      </c>
-      <c r="F100" s="132"/>
+      <c r="E100" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="F100" s="141"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="145"/>
+      <c r="B101" s="154"/>
       <c r="C101" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D101" s="34">
         <v>0.25</v>
       </c>
-      <c r="E101" s="106">
-        <v>0</v>
-      </c>
-      <c r="F101" s="132"/>
+      <c r="E101" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="F101" s="141"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="145"/>
+      <c r="B102" s="154"/>
       <c r="C102" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D102" s="34">
         <v>0.25</v>
       </c>
-      <c r="E102" s="106">
-        <v>0</v>
-      </c>
-      <c r="F102" s="132"/>
+      <c r="E102" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="F102" s="141"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="145"/>
+      <c r="B103" s="154"/>
       <c r="C103" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D103" s="34">
         <v>0.2</v>
       </c>
-      <c r="E103" s="102">
-        <v>0</v>
-      </c>
-      <c r="F103" s="132"/>
+      <c r="E103" s="106">
+        <v>0.2</v>
+      </c>
+      <c r="F103" s="141"/>
     </row>
     <row r="104" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B104" s="145"/>
+      <c r="B104" s="154"/>
       <c r="C104" s="11" t="s">
         <v>169</v>
       </c>
@@ -11562,10 +11588,10 @@
       <c r="E104" s="79">
         <v>0</v>
       </c>
-      <c r="F104" s="134"/>
+      <c r="F104" s="143"/>
     </row>
     <row r="105" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B105" s="145"/>
+      <c r="B105" s="154"/>
       <c r="C105" s="58" t="s">
         <v>127</v>
       </c>
@@ -11574,62 +11600,62 @@
       <c r="F105" s="32"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="145"/>
+      <c r="B106" s="154"/>
       <c r="C106" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D106" s="44">
         <v>0.25</v>
       </c>
-      <c r="E106" s="79">
-        <v>0</v>
-      </c>
-      <c r="F106" s="131">
+      <c r="E106" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="F106" s="140">
         <f>SUM(E106:E111)</f>
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="145"/>
+      <c r="B107" s="154"/>
       <c r="C107" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D107" s="34">
         <v>0.2</v>
       </c>
-      <c r="E107" s="79">
-        <v>0</v>
-      </c>
-      <c r="F107" s="132"/>
+      <c r="E107" s="115">
+        <v>0.2</v>
+      </c>
+      <c r="F107" s="141"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="145"/>
+      <c r="B108" s="154"/>
       <c r="C108" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D108" s="34">
         <v>0.25</v>
       </c>
-      <c r="E108" s="79">
-        <v>0</v>
-      </c>
-      <c r="F108" s="132"/>
+      <c r="E108" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="F108" s="141"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="145"/>
+      <c r="B109" s="154"/>
       <c r="C109" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D109" s="34">
         <v>0.25</v>
       </c>
-      <c r="E109" s="79">
-        <v>0</v>
-      </c>
-      <c r="F109" s="132"/>
+      <c r="E109" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="F109" s="141"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="145"/>
+      <c r="B110" s="154"/>
       <c r="C110" s="1" t="s">
         <v>175</v>
       </c>
@@ -11639,23 +11665,23 @@
       <c r="E110" s="79">
         <v>0</v>
       </c>
-      <c r="F110" s="132"/>
+      <c r="F110" s="141"/>
     </row>
     <row r="111" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B111" s="145"/>
+      <c r="B111" s="154"/>
       <c r="C111" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D111" s="48">
         <v>0.2</v>
       </c>
-      <c r="E111" s="106">
-        <v>0</v>
-      </c>
-      <c r="F111" s="134"/>
+      <c r="E111" s="115">
+        <v>0.2</v>
+      </c>
+      <c r="F111" s="143"/>
     </row>
     <row r="112" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B112" s="145"/>
+      <c r="B112" s="154"/>
       <c r="C112" s="64" t="s">
         <v>61</v>
       </c>
@@ -11664,23 +11690,23 @@
       <c r="F112" s="32"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="145"/>
+      <c r="B113" s="154"/>
       <c r="C113" s="7" t="s">
         <v>181</v>
       </c>
       <c r="D113" s="44">
         <v>0.1</v>
       </c>
-      <c r="E113" s="106">
+      <c r="E113" s="115">
         <v>0</v>
       </c>
-      <c r="F113" s="131">
+      <c r="F113" s="140">
         <f>SUM(E113:E118)</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="145"/>
+      <c r="B114" s="154"/>
       <c r="C114" s="1" t="s">
         <v>182</v>
       </c>
@@ -11690,10 +11716,10 @@
       <c r="E114" s="44">
         <v>0.1</v>
       </c>
-      <c r="F114" s="132"/>
+      <c r="F114" s="141"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="145"/>
+      <c r="B115" s="154"/>
       <c r="C115" s="1" t="s">
         <v>183</v>
       </c>
@@ -11703,10 +11729,10 @@
       <c r="E115" s="44">
         <v>0</v>
       </c>
-      <c r="F115" s="132"/>
+      <c r="F115" s="141"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="145"/>
+      <c r="B116" s="154"/>
       <c r="C116" s="1" t="s">
         <v>184</v>
       </c>
@@ -11716,10 +11742,10 @@
       <c r="E116" s="44">
         <v>0</v>
       </c>
-      <c r="F116" s="132"/>
+      <c r="F116" s="141"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="145"/>
+      <c r="B117" s="154"/>
       <c r="C117" s="1" t="s">
         <v>186</v>
       </c>
@@ -11729,10 +11755,10 @@
       <c r="E117" s="44">
         <v>0.1</v>
       </c>
-      <c r="F117" s="132"/>
+      <c r="F117" s="141"/>
     </row>
     <row r="118" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B118" s="145"/>
+      <c r="B118" s="154"/>
       <c r="C118" s="11" t="s">
         <v>187</v>
       </c>
@@ -11742,10 +11768,10 @@
       <c r="E118" s="44">
         <v>0</v>
       </c>
-      <c r="F118" s="134"/>
+      <c r="F118" s="143"/>
     </row>
     <row r="119" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B119" s="145"/>
+      <c r="B119" s="154"/>
       <c r="C119" s="58" t="s">
         <v>34</v>
       </c>
@@ -11754,7 +11780,7 @@
       <c r="F119" s="32"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="145"/>
+      <c r="B120" s="154"/>
       <c r="C120" s="30" t="s">
         <v>179</v>
       </c>
@@ -11764,13 +11790,13 @@
       <c r="E120" s="44">
         <v>0</v>
       </c>
-      <c r="F120" s="131">
+      <c r="F120" s="140">
         <f>SUM(E120:E124)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="145"/>
+      <c r="B121" s="154"/>
       <c r="C121" s="1" t="s">
         <v>180</v>
       </c>
@@ -11780,10 +11806,10 @@
       <c r="E121" s="34">
         <v>0</v>
       </c>
-      <c r="F121" s="132"/>
+      <c r="F121" s="141"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="145"/>
+      <c r="B122" s="154"/>
       <c r="C122" s="1" t="s">
         <v>35</v>
       </c>
@@ -11793,10 +11819,10 @@
       <c r="E122" s="34">
         <v>0</v>
       </c>
-      <c r="F122" s="132"/>
+      <c r="F122" s="141"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="145"/>
+      <c r="B123" s="154"/>
       <c r="C123" s="1" t="s">
         <v>188</v>
       </c>
@@ -11806,10 +11832,10 @@
       <c r="E123" s="34">
         <v>0.15</v>
       </c>
-      <c r="F123" s="132"/>
+      <c r="F123" s="141"/>
     </row>
     <row r="124" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B124" s="156"/>
+      <c r="B124" s="165"/>
       <c r="C124" s="11" t="s">
         <v>52</v>
       </c>
@@ -11819,18 +11845,18 @@
       <c r="E124" s="35">
         <v>0</v>
       </c>
-      <c r="F124" s="134"/>
+      <c r="F124" s="143"/>
     </row>
     <row r="125" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B125" s="111" t="s">
+      <c r="B125" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="C125" s="153"/>
-      <c r="D125" s="153"/>
-      <c r="E125" s="154"/>
+      <c r="C125" s="162"/>
+      <c r="D125" s="162"/>
+      <c r="E125" s="163"/>
       <c r="F125" s="63">
         <f>SUM(F4:F124)</f>
-        <v>7.95</v>
+        <v>15.349999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -11864,8 +11890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A14CCF-DCC6-8145-A45C-85699F6AE450}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -11879,10 +11905,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="118"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -11894,7 +11920,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="153" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -11905,7 +11931,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="147"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="7" t="s">
         <v>215</v>
       </c>
@@ -11915,13 +11941,13 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="132">
+      <c r="F4" s="141">
         <f>SUM(E4:E5)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B5" s="147"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="11" t="s">
         <v>216</v>
       </c>
@@ -11931,10 +11957,10 @@
       <c r="E5" s="84">
         <v>0.15</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B6" s="147"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="58" t="s">
         <v>30</v>
       </c>
@@ -11943,7 +11969,7 @@
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="147"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
@@ -11953,13 +11979,13 @@
       <c r="E7" s="84">
         <v>0.2</v>
       </c>
-      <c r="F7" s="135">
+      <c r="F7" s="144">
         <f>SUM(E7:E9)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="147"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -11969,10 +11995,10 @@
       <c r="E8" s="85">
         <v>0.2</v>
       </c>
-      <c r="F8" s="136"/>
+      <c r="F8" s="145"/>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="147"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -11982,10 +12008,10 @@
       <c r="E9" s="99">
         <v>0.2</v>
       </c>
-      <c r="F9" s="137"/>
+      <c r="F9" s="146"/>
     </row>
     <row r="10" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B10" s="147"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="64" t="s">
         <v>34</v>
       </c>
@@ -11994,7 +12020,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="147"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
@@ -12004,13 +12030,13 @@
       <c r="E11" s="84">
         <v>0.2</v>
       </c>
-      <c r="F11" s="135">
+      <c r="F11" s="144">
         <f>SUM(E11:E12)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="149"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -12020,10 +12046,10 @@
       <c r="E12" s="86">
         <v>0.2</v>
       </c>
-      <c r="F12" s="137"/>
+      <c r="F12" s="146"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="138" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -12034,7 +12060,7 @@
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="130"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="30" t="s">
         <v>218</v>
       </c>
@@ -12042,13 +12068,13 @@
         <v>1.5</v>
       </c>
       <c r="E14" s="44"/>
-      <c r="F14" s="132">
+      <c r="F14" s="141">
         <f>SUM(E14:E28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="130"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="28" t="s">
         <v>219</v>
       </c>
@@ -12056,10 +12082,10 @@
         <v>0.25</v>
       </c>
       <c r="E15" s="34"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="141"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="130"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="28" t="s">
         <v>220</v>
       </c>
@@ -12067,10 +12093,10 @@
         <v>0.3</v>
       </c>
       <c r="E16" s="34"/>
-      <c r="F16" s="132"/>
+      <c r="F16" s="141"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="130"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="28" t="s">
         <v>221</v>
       </c>
@@ -12078,10 +12104,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="34"/>
-      <c r="F17" s="132"/>
+      <c r="F17" s="141"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="130"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="28" t="s">
         <v>222</v>
       </c>
@@ -12089,10 +12115,10 @@
         <v>0.2</v>
       </c>
       <c r="E18" s="34"/>
-      <c r="F18" s="132"/>
+      <c r="F18" s="141"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="130"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="28" t="s">
         <v>223</v>
       </c>
@@ -12100,10 +12126,10 @@
         <v>0.15</v>
       </c>
       <c r="E19" s="34"/>
-      <c r="F19" s="132"/>
+      <c r="F19" s="141"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="130"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="28" t="s">
         <v>327</v>
       </c>
@@ -12111,10 +12137,10 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="34"/>
-      <c r="F20" s="132"/>
+      <c r="F20" s="141"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="130"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="28" t="s">
         <v>224</v>
       </c>
@@ -12122,10 +12148,10 @@
         <v>0.3</v>
       </c>
       <c r="E21" s="34"/>
-      <c r="F21" s="132"/>
+      <c r="F21" s="141"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="130"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="28" t="s">
         <v>225</v>
       </c>
@@ -12133,10 +12159,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="132"/>
+      <c r="F22" s="141"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="130"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="28" t="s">
         <v>226</v>
       </c>
@@ -12144,10 +12170,10 @@
         <v>0.4</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="132"/>
+      <c r="F23" s="141"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="130"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="28" t="s">
         <v>227</v>
       </c>
@@ -12155,10 +12181,10 @@
         <v>0.4</v>
       </c>
       <c r="E24" s="34"/>
-      <c r="F24" s="132"/>
+      <c r="F24" s="141"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="130"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="28" t="s">
         <v>228</v>
       </c>
@@ -12166,10 +12192,10 @@
         <v>0.4</v>
       </c>
       <c r="E25" s="34"/>
-      <c r="F25" s="132"/>
+      <c r="F25" s="141"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="130"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="28" t="s">
         <v>229</v>
       </c>
@@ -12177,10 +12203,10 @@
         <v>0.25</v>
       </c>
       <c r="E26" s="34"/>
-      <c r="F26" s="132"/>
+      <c r="F26" s="141"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="130"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="28" t="s">
         <v>230</v>
       </c>
@@ -12188,10 +12214,10 @@
         <v>0.25</v>
       </c>
       <c r="E27" s="34"/>
-      <c r="F27" s="132"/>
+      <c r="F27" s="141"/>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="130"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="29" t="s">
         <v>231</v>
       </c>
@@ -12199,10 +12225,10 @@
         <v>0.25</v>
       </c>
       <c r="E28" s="36"/>
-      <c r="F28" s="132"/>
+      <c r="F28" s="141"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="130"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="58" t="s">
         <v>232</v>
       </c>
@@ -12211,7 +12237,7 @@
       <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="130"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="30" t="s">
         <v>233</v>
       </c>
@@ -12219,13 +12245,13 @@
         <v>0.2</v>
       </c>
       <c r="E30" s="44"/>
-      <c r="F30" s="132">
+      <c r="F30" s="141">
         <f>SUM(E30:E33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="130"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="28" t="s">
         <v>234</v>
       </c>
@@ -12233,10 +12259,10 @@
         <v>0.4</v>
       </c>
       <c r="E31" s="34"/>
-      <c r="F31" s="132"/>
+      <c r="F31" s="141"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="130"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="28" t="s">
         <v>235</v>
       </c>
@@ -12244,10 +12270,10 @@
         <v>0.25</v>
       </c>
       <c r="E32" s="34"/>
-      <c r="F32" s="132"/>
+      <c r="F32" s="141"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="130"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="29" t="s">
         <v>236</v>
       </c>
@@ -12255,10 +12281,10 @@
         <v>0.4</v>
       </c>
       <c r="E33" s="36"/>
-      <c r="F33" s="132"/>
+      <c r="F33" s="141"/>
     </row>
     <row r="34" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B34" s="130"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="58" t="s">
         <v>34</v>
       </c>
@@ -12267,7 +12293,7 @@
       <c r="F34" s="32"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="130"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="7" t="s">
         <v>35</v>
       </c>
@@ -12275,13 +12301,13 @@
         <v>0.125</v>
       </c>
       <c r="E35" s="44"/>
-      <c r="F35" s="135">
+      <c r="F35" s="144">
         <f>SUM(E35:E37)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="130"/>
+      <c r="B36" s="139"/>
       <c r="C36" s="1" t="s">
         <v>188</v>
       </c>
@@ -12291,10 +12317,10 @@
       <c r="E36" s="85">
         <v>0.15</v>
       </c>
-      <c r="F36" s="136"/>
+      <c r="F36" s="145"/>
     </row>
     <row r="37" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B37" s="133"/>
+      <c r="B37" s="142"/>
       <c r="C37" s="4" t="s">
         <v>52</v>
       </c>
@@ -12302,15 +12328,15 @@
         <v>0.3</v>
       </c>
       <c r="E37" s="35"/>
-      <c r="F37" s="152"/>
+      <c r="F37" s="161"/>
     </row>
     <row r="38" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B38" s="157" t="s">
+      <c r="B38" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="159"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="168"/>
       <c r="F38" s="63">
         <f>SUM(F4:F37)</f>
         <v>1.4500000000000002</v>

--- a/MT.xlsx
+++ b/MT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD09C41-C7F9-4B37-8803-81385354F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86259D1-A758-4CC4-8CB1-5E05F59C2F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="1000" firstSheet="1" activeTab="1" xr2:uid="{556EC7CD-A7EC-924A-86C6-FEF6C985B965}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="1000" firstSheet="1" activeTab="13" xr2:uid="{556EC7CD-A7EC-924A-86C6-FEF6C985B965}"/>
   </bookViews>
   <sheets>
     <sheet name="Miscellaneous" sheetId="14" r:id="rId1"/>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="343">
   <si>
     <t>Component</t>
   </si>
@@ -2594,6 +2594,9 @@
   </si>
   <si>
     <t>&gt; ni ak buat untuk comment aj</t>
+  </si>
+  <si>
+    <t>0 ,3</t>
   </si>
 </sst>
 </file>
@@ -3264,7 +3267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3527,6 +3530,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3680,6 +3707,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3692,31 +3734,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3892,40 +3913,40 @@
                   <c:v>4.1000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4249999999999998</c:v>
+                  <c:v>5.7249999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2500000000000002</c:v>
+                  <c:v>1.5500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7750000000000004</c:v>
+                  <c:v>5.0750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7250000000000005</c:v>
+                  <c:v>6.0250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.85</c:v>
+                  <c:v>4.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.349999999999998</c:v>
+                  <c:v>19.775000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4500000000000002</c:v>
+                  <c:v>1.7500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7750000000000004</c:v>
+                  <c:v>3.0750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1999999999999997</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4249999999999989</c:v>
+                  <c:v>5.7249999999999988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2750000000000004</c:v>
+                  <c:v>4.5750000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4009,40 +4030,40 @@
                   <c:v>4.5000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.450000000000002</c:v>
+                  <c:v>2.1500000000000021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29999999999999982</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999982</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29999999999999982</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29999999999999938</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7750000000000021</c:v>
+                  <c:v>3.3499999999999979</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.9250000000000025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.525000000000002</c:v>
+                  <c:v>10.225000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29999999999999938</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.774999999999999</c:v>
+                  <c:v>2.4749999999999988</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1499999999999995</c:v>
+                  <c:v>0.84999999999999964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9000000000000004</c:v>
+                  <c:v>2.6000000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5110,7 +5131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B167C5-1ED2-9D41-A960-D58FFC16A91F}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -5339,10 +5360,10 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="16.2" thickBot="1">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="119"/>
+      <c r="C25" s="127"/>
       <c r="D25" s="62">
         <f>SUM(D4:D24)</f>
         <v>4.1000000000000005</v>
@@ -5361,8 +5382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626DDC4-C184-3148-8754-559C01A088BC}">
   <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5376,10 +5397,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="173"/>
+      <c r="C2" s="177"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -5391,7 +5412,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="181" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -5402,7 +5423,7 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="156"/>
+      <c r="B4" s="164"/>
       <c r="C4" s="7" t="s">
         <v>191</v>
       </c>
@@ -5412,13 +5433,13 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="170">
+      <c r="F4" s="183">
         <f>SUM(E4:E11)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="156"/>
+      <c r="B5" s="164"/>
       <c r="C5" s="1" t="s">
         <v>192</v>
       </c>
@@ -5428,10 +5449,10 @@
       <c r="E5" s="84">
         <v>0.15</v>
       </c>
-      <c r="F5" s="171"/>
+      <c r="F5" s="184"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="156"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="1" t="s">
         <v>193</v>
       </c>
@@ -5441,10 +5462,10 @@
       <c r="E6" s="84">
         <v>0.15</v>
       </c>
-      <c r="F6" s="171"/>
+      <c r="F6" s="184"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="156"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="28" t="s">
         <v>194</v>
       </c>
@@ -5452,10 +5473,10 @@
         <v>0.3</v>
       </c>
       <c r="E7" s="44"/>
-      <c r="F7" s="171"/>
+      <c r="F7" s="184"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="156"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="1" t="s">
         <v>115</v>
       </c>
@@ -5465,10 +5486,10 @@
       <c r="E8" s="84">
         <v>0.15</v>
       </c>
-      <c r="F8" s="171"/>
+      <c r="F8" s="184"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="156"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="1" t="s">
         <v>195</v>
       </c>
@@ -5476,10 +5497,10 @@
         <v>0.15</v>
       </c>
       <c r="E9" s="44"/>
-      <c r="F9" s="171"/>
+      <c r="F9" s="184"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="156"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="1" t="s">
         <v>207</v>
       </c>
@@ -5489,10 +5510,10 @@
       <c r="E10" s="84">
         <v>0.15</v>
       </c>
-      <c r="F10" s="171"/>
+      <c r="F10" s="184"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="156"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="29" t="s">
         <v>214</v>
       </c>
@@ -5500,10 +5521,10 @@
         <v>0.3</v>
       </c>
       <c r="E11" s="44"/>
-      <c r="F11" s="172"/>
+      <c r="F11" s="185"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="156"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="58" t="s">
         <v>30</v>
       </c>
@@ -5512,7 +5533,7 @@
       <c r="F12" s="51"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="156"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
@@ -5522,13 +5543,13 @@
       <c r="E13" s="84">
         <v>0.2</v>
       </c>
-      <c r="F13" s="174">
+      <c r="F13" s="178">
         <f>SUM(E13:E15)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="156"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
@@ -5538,10 +5559,10 @@
       <c r="E14" s="85">
         <v>0.2</v>
       </c>
-      <c r="F14" s="175"/>
+      <c r="F14" s="179"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="156"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -5551,10 +5572,10 @@
       <c r="E15" s="86">
         <v>0.2</v>
       </c>
-      <c r="F15" s="176"/>
+      <c r="F15" s="180"/>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="156"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="64" t="s">
         <v>34</v>
       </c>
@@ -5563,7 +5584,7 @@
       <c r="F16" s="51"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="156"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="7" t="s">
         <v>62</v>
       </c>
@@ -5573,13 +5594,13 @@
       <c r="E17" s="84">
         <v>0.2</v>
       </c>
-      <c r="F17" s="174">
+      <c r="F17" s="178">
         <f>SUM(E17:E18)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="158"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="11" t="s">
         <v>46</v>
       </c>
@@ -5589,10 +5610,10 @@
       <c r="E18" s="86">
         <v>0.2</v>
       </c>
-      <c r="F18" s="176"/>
+      <c r="F18" s="180"/>
     </row>
     <row r="19" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B19" s="153" t="s">
+      <c r="B19" s="161" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -5603,7 +5624,7 @@
       <c r="F19" s="51"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="156"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="30" t="s">
         <v>300</v>
       </c>
@@ -5611,68 +5632,68 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="44"/>
-      <c r="F20" s="170">
+      <c r="F20" s="183">
         <f>SUM(E20:E36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="156"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="28" t="s">
         <v>196</v>
       </c>
       <c r="D21" s="34">
         <v>0.25</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="171"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="184"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="156"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="28" t="s">
         <v>197</v>
       </c>
       <c r="D22" s="34">
         <v>0.25</v>
       </c>
-      <c r="E22" s="117"/>
-      <c r="F22" s="171"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="184"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="156"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="28" t="s">
         <v>301</v>
       </c>
       <c r="D23" s="34">
         <v>0.4</v>
       </c>
-      <c r="E23" s="117"/>
-      <c r="F23" s="171"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="184"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="156"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="28" t="s">
         <v>302</v>
       </c>
       <c r="D24" s="34">
         <v>0.4</v>
       </c>
-      <c r="E24" s="117"/>
-      <c r="F24" s="171"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="184"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="156"/>
+      <c r="B25" s="164"/>
       <c r="C25" s="28" t="s">
         <v>303</v>
       </c>
       <c r="D25" s="34">
         <v>0.5</v>
       </c>
-      <c r="E25" s="117"/>
-      <c r="F25" s="171"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="184"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="156"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="28" t="s">
         <v>304</v>
       </c>
@@ -5680,10 +5701,10 @@
         <v>0.5</v>
       </c>
       <c r="E26" s="34"/>
-      <c r="F26" s="171"/>
+      <c r="F26" s="184"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="156"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="28" t="s">
         <v>198</v>
       </c>
@@ -5691,10 +5712,10 @@
         <v>0.4</v>
       </c>
       <c r="E27" s="117"/>
-      <c r="F27" s="171"/>
+      <c r="F27" s="184"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="156"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="28" t="s">
         <v>199</v>
       </c>
@@ -5702,10 +5723,10 @@
         <v>0.4</v>
       </c>
       <c r="E28" s="34"/>
-      <c r="F28" s="171"/>
+      <c r="F28" s="184"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="156"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="28" t="s">
         <v>203</v>
       </c>
@@ -5713,32 +5734,32 @@
         <v>0.3</v>
       </c>
       <c r="E29" s="34"/>
-      <c r="F29" s="171"/>
+      <c r="F29" s="184"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="156"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="28" t="s">
         <v>204</v>
       </c>
       <c r="D30" s="34">
         <v>0.3</v>
       </c>
-      <c r="E30" s="117"/>
-      <c r="F30" s="171"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="156"/>
+      <c r="B31" s="164"/>
       <c r="C31" s="28" t="s">
         <v>205</v>
       </c>
       <c r="D31" s="34">
         <v>0.25</v>
       </c>
-      <c r="E31" s="117"/>
-      <c r="F31" s="171"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="184"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="156"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="28" t="s">
         <v>206</v>
       </c>
@@ -5746,10 +5767,10 @@
         <v>0.5</v>
       </c>
       <c r="E32" s="117"/>
-      <c r="F32" s="171"/>
+      <c r="F32" s="184"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="156"/>
+      <c r="B33" s="164"/>
       <c r="C33" s="28" t="s">
         <v>208</v>
       </c>
@@ -5757,10 +5778,10 @@
         <v>0.3</v>
       </c>
       <c r="E33" s="117"/>
-      <c r="F33" s="171"/>
+      <c r="F33" s="184"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="156"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="28" t="s">
         <v>209</v>
       </c>
@@ -5768,10 +5789,10 @@
         <v>0.4</v>
       </c>
       <c r="E34" s="34"/>
-      <c r="F34" s="171"/>
+      <c r="F34" s="184"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="156"/>
+      <c r="B35" s="164"/>
       <c r="C35" s="28" t="s">
         <v>210</v>
       </c>
@@ -5779,10 +5800,10 @@
         <v>0.4</v>
       </c>
       <c r="E35" s="34"/>
-      <c r="F35" s="171"/>
+      <c r="F35" s="184"/>
     </row>
     <row r="36" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B36" s="156"/>
+      <c r="B36" s="164"/>
       <c r="C36" s="29" t="s">
         <v>211</v>
       </c>
@@ -5790,10 +5811,10 @@
         <v>0.3</v>
       </c>
       <c r="E36" s="36"/>
-      <c r="F36" s="172"/>
+      <c r="F36" s="185"/>
     </row>
     <row r="37" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B37" s="156"/>
+      <c r="B37" s="164"/>
       <c r="C37" s="64" t="s">
         <v>200</v>
       </c>
@@ -5802,7 +5823,7 @@
       <c r="F37" s="51"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="156"/>
+      <c r="B38" s="164"/>
       <c r="C38" s="30" t="s">
         <v>201</v>
       </c>
@@ -5810,13 +5831,13 @@
         <v>0.25</v>
       </c>
       <c r="E38" s="44"/>
-      <c r="F38" s="170">
+      <c r="F38" s="183">
         <f>SUM(E38:E39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B39" s="156"/>
+      <c r="B39" s="164"/>
       <c r="C39" s="29" t="s">
         <v>202</v>
       </c>
@@ -5824,10 +5845,10 @@
         <v>0.25</v>
       </c>
       <c r="E39" s="36"/>
-      <c r="F39" s="172"/>
+      <c r="F39" s="185"/>
     </row>
     <row r="40" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B40" s="156"/>
+      <c r="B40" s="164"/>
       <c r="C40" s="58" t="s">
         <v>61</v>
       </c>
@@ -5836,7 +5857,7 @@
       <c r="F40" s="51"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="156"/>
+      <c r="B41" s="164"/>
       <c r="C41" s="30" t="s">
         <v>212</v>
       </c>
@@ -5844,13 +5865,13 @@
         <v>0.1</v>
       </c>
       <c r="E41" s="44"/>
-      <c r="F41" s="170">
+      <c r="F41" s="183">
         <f>SUM(E41:E42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B42" s="156"/>
+      <c r="B42" s="164"/>
       <c r="C42" s="29" t="s">
         <v>213</v>
       </c>
@@ -5858,10 +5879,10 @@
         <v>0.1</v>
       </c>
       <c r="E42" s="36"/>
-      <c r="F42" s="171"/>
+      <c r="F42" s="184"/>
     </row>
     <row r="43" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B43" s="156"/>
+      <c r="B43" s="164"/>
       <c r="C43" s="58" t="s">
         <v>34</v>
       </c>
@@ -5870,7 +5891,7 @@
       <c r="F43" s="51"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="156"/>
+      <c r="B44" s="164"/>
       <c r="C44" s="7" t="s">
         <v>35</v>
       </c>
@@ -5878,13 +5899,13 @@
         <v>0.125</v>
       </c>
       <c r="E44" s="44"/>
-      <c r="F44" s="174">
+      <c r="F44" s="178">
         <f>SUM(E44:E46)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="156"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="1" t="s">
         <v>188</v>
       </c>
@@ -5894,26 +5915,28 @@
       <c r="E45" s="85">
         <v>0.15</v>
       </c>
-      <c r="F45" s="175"/>
+      <c r="F45" s="179"/>
     </row>
     <row r="46" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B46" s="157"/>
+      <c r="B46" s="165"/>
       <c r="C46" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D46" s="35">
         <v>0.3</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="176"/>
+      <c r="E46" s="124" t="s">
+        <v>342</v>
+      </c>
+      <c r="F46" s="180"/>
     </row>
     <row r="47" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B47" s="169" t="s">
+      <c r="B47" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="162"/>
-      <c r="D47" s="162"/>
-      <c r="E47" s="163"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="171"/>
       <c r="F47" s="58">
         <f>SUM(F4:F46)</f>
         <v>1.9</v>
@@ -5921,17 +5944,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F4:F11"/>
+    <mergeCell ref="F20:F36"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F38:F39"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="B3:B18"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="B19:B46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F4:F11"/>
-    <mergeCell ref="F20:F36"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5942,8 +5965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F8C43A-DECD-594C-BC3F-270A5E6C60A9}">
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5957,10 +5980,10 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="179"/>
+      <c r="C2" s="187"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -5972,7 +5995,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="161" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="68" t="s">
@@ -5983,7 +6006,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="177"/>
+      <c r="B4" s="181"/>
       <c r="C4" s="38" t="s">
         <v>305</v>
       </c>
@@ -5993,13 +6016,13 @@
       <c r="E4" s="47">
         <v>0.15</v>
       </c>
-      <c r="F4" s="140">
+      <c r="F4" s="148">
         <f>SUM(E4:E5)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B5" s="177"/>
+      <c r="B5" s="181"/>
       <c r="C5" t="s">
         <v>306</v>
       </c>
@@ -6009,10 +6032,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="143"/>
+      <c r="F5" s="151"/>
     </row>
     <row r="6" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B6" s="177"/>
+      <c r="B6" s="181"/>
       <c r="C6" s="58" t="s">
         <v>30</v>
       </c>
@@ -6021,7 +6044,7 @@
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="156"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
@@ -6031,13 +6054,13 @@
       <c r="E7" s="44">
         <v>0.2</v>
       </c>
-      <c r="F7" s="144">
+      <c r="F7" s="152">
         <f>SUM(E7:E9)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="156"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -6047,10 +6070,10 @@
       <c r="E8" s="34">
         <v>0.2</v>
       </c>
-      <c r="F8" s="145"/>
+      <c r="F8" s="153"/>
     </row>
     <row r="9" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B9" s="156"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6060,10 +6083,10 @@
       <c r="E9" s="36">
         <v>0.2</v>
       </c>
-      <c r="F9" s="146"/>
+      <c r="F9" s="154"/>
     </row>
     <row r="10" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B10" s="156"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="64" t="s">
         <v>34</v>
       </c>
@@ -6072,7 +6095,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="156"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
@@ -6082,7 +6105,7 @@
       <c r="E11" s="84">
         <v>0.2</v>
       </c>
-      <c r="F11" s="144">
+      <c r="F11" s="152">
         <f>SUM(E11:E12)</f>
         <v>0.4</v>
       </c>
@@ -6091,7 +6114,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B12" s="158"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -6101,10 +6124,10 @@
       <c r="E12" s="36">
         <v>0.2</v>
       </c>
-      <c r="F12" s="146"/>
+      <c r="F12" s="154"/>
     </row>
     <row r="13" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="161" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -6115,14 +6138,14 @@
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B14" s="156"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="19" t="s">
         <v>238</v>
       </c>
       <c r="D14" s="48">
         <v>0.5</v>
       </c>
-      <c r="E14" s="180">
+      <c r="E14" s="120">
         <v>0.5</v>
       </c>
       <c r="F14" s="48">
@@ -6131,7 +6154,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B15" s="156"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="64" t="s">
         <v>61</v>
       </c>
@@ -6140,14 +6163,14 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B16" s="156"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="19" t="s">
         <v>307</v>
       </c>
       <c r="D16" s="48">
         <v>0.1</v>
       </c>
-      <c r="E16" s="180">
+      <c r="E16" s="120">
         <v>0.1</v>
       </c>
       <c r="F16" s="48">
@@ -6156,7 +6179,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="156"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="58" t="s">
         <v>34</v>
       </c>
@@ -6165,7 +6188,7 @@
       <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="156"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
@@ -6175,13 +6198,13 @@
       <c r="E18" s="115">
         <v>0.125</v>
       </c>
-      <c r="F18" s="144">
+      <c r="F18" s="152">
         <f>SUM(E18:E21)</f>
-        <v>0.875</v>
+        <v>1.1749999999999998</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="156"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="1" t="s">
         <v>188</v>
       </c>
@@ -6191,44 +6214,44 @@
       <c r="E19" s="85">
         <v>0.15</v>
       </c>
-      <c r="F19" s="145"/>
+      <c r="F19" s="153"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="156"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="34">
         <v>0.3</v>
       </c>
-      <c r="E20" s="34">
-        <v>0</v>
-      </c>
-      <c r="F20" s="145"/>
+      <c r="E20" s="123">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="153"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="157"/>
+      <c r="B21" s="165"/>
       <c r="C21" s="75" t="s">
         <v>179</v>
       </c>
       <c r="D21" s="35">
         <v>0.6</v>
       </c>
-      <c r="E21" s="181">
+      <c r="E21" s="121">
         <v>0.6</v>
       </c>
-      <c r="F21" s="161"/>
+      <c r="F21" s="169"/>
     </row>
     <row r="22" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="119"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="63">
         <f>SUM(F4:F21)</f>
-        <v>2.7750000000000004</v>
+        <v>3.0750000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -6251,8 +6274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA2FF9E-EF1B-764A-B143-1E2142586A6D}">
   <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6266,10 +6289,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -6281,7 +6304,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="181" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -6292,7 +6315,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="156"/>
+      <c r="B4" s="164"/>
       <c r="C4" s="7" t="s">
         <v>240</v>
       </c>
@@ -6302,13 +6325,13 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="140">
+      <c r="F4" s="148">
         <f>SUM(E4:E6)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="156"/>
+      <c r="B5" s="164"/>
       <c r="C5" s="1" t="s">
         <v>244</v>
       </c>
@@ -6318,10 +6341,10 @@
       <c r="E5" s="84">
         <v>0.3</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B6" s="156"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="11" t="s">
         <v>241</v>
       </c>
@@ -6331,10 +6354,10 @@
       <c r="E6" s="84">
         <v>0.15</v>
       </c>
-      <c r="F6" s="143"/>
+      <c r="F6" s="151"/>
     </row>
     <row r="7" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B7" s="156"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="58" t="s">
         <v>242</v>
       </c>
@@ -6343,7 +6366,7 @@
       <c r="F7" s="32"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="156"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="7" t="s">
         <v>243</v>
       </c>
@@ -6353,13 +6376,13 @@
       <c r="E8" s="84">
         <v>0.15</v>
       </c>
-      <c r="F8" s="140">
+      <c r="F8" s="148">
         <f>SUM(E8:E9)</f>
         <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="156"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="11" t="s">
         <v>244</v>
       </c>
@@ -6369,10 +6392,10 @@
       <c r="E9" s="84">
         <v>0.3</v>
       </c>
-      <c r="F9" s="143"/>
+      <c r="F9" s="151"/>
     </row>
     <row r="10" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B10" s="156"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="58" t="s">
         <v>30</v>
       </c>
@@ -6381,7 +6404,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="156"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
@@ -6391,13 +6414,13 @@
       <c r="E11" s="84">
         <v>0.2</v>
       </c>
-      <c r="F11" s="144">
+      <c r="F11" s="152">
         <f>SUM(E11:E13)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="156"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -6407,10 +6430,10 @@
       <c r="E12" s="85">
         <v>0.2</v>
       </c>
-      <c r="F12" s="145"/>
+      <c r="F12" s="153"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="156"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
@@ -6420,10 +6443,10 @@
       <c r="E13" s="86">
         <v>0.2</v>
       </c>
-      <c r="F13" s="146"/>
+      <c r="F13" s="154"/>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="156"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="64" t="s">
         <v>34</v>
       </c>
@@ -6432,7 +6455,7 @@
       <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="156"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="7" t="s">
         <v>62</v>
       </c>
@@ -6442,13 +6465,13 @@
       <c r="E15" s="84">
         <v>0.2</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="152">
         <f>SUM(E15:E16)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="158"/>
+      <c r="B16" s="166"/>
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
@@ -6458,10 +6481,10 @@
       <c r="E16" s="86">
         <v>0.2</v>
       </c>
-      <c r="F16" s="146"/>
+      <c r="F16" s="154"/>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="161" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -6472,7 +6495,7 @@
       <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="156"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="30" t="s">
         <v>246</v>
       </c>
@@ -6480,13 +6503,13 @@
         <v>1.5</v>
       </c>
       <c r="E18" s="44"/>
-      <c r="F18" s="140">
+      <c r="F18" s="148">
         <f>SUM(E18:E20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="156"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="19" t="s">
         <v>332</v>
       </c>
@@ -6494,10 +6517,10 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="107"/>
-      <c r="F19" s="141"/>
+      <c r="F19" s="149"/>
     </row>
     <row r="20" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B20" s="156"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="29" t="s">
         <v>247</v>
       </c>
@@ -6505,10 +6528,10 @@
         <v>0.25</v>
       </c>
       <c r="E20" s="36"/>
-      <c r="F20" s="143"/>
+      <c r="F20" s="151"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="156"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="58" t="s">
         <v>61</v>
       </c>
@@ -6517,7 +6540,7 @@
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="156"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="30" t="s">
         <v>248</v>
       </c>
@@ -6525,13 +6548,13 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="44"/>
-      <c r="F22" s="140">
+      <c r="F22" s="148">
         <f>SUM(E22:E24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="156"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="28" t="s">
         <v>249</v>
       </c>
@@ -6539,10 +6562,10 @@
         <v>0.1</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="141"/>
+      <c r="F23" s="149"/>
     </row>
     <row r="24" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B24" s="156"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="29" t="s">
         <v>325</v>
       </c>
@@ -6550,10 +6573,10 @@
         <v>0.1</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="143"/>
+      <c r="F24" s="151"/>
     </row>
     <row r="25" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B25" s="156"/>
+      <c r="B25" s="164"/>
       <c r="C25" s="58" t="s">
         <v>34</v>
       </c>
@@ -6562,7 +6585,7 @@
       <c r="F25" s="32"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="156"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
@@ -6570,13 +6593,13 @@
         <v>0.125</v>
       </c>
       <c r="E26" s="44"/>
-      <c r="F26" s="144">
+      <c r="F26" s="152">
         <f>SUM(E26:E28)</f>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="156"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="1" t="s">
         <v>188</v>
       </c>
@@ -6586,44 +6609,46 @@
       <c r="E27" s="85">
         <v>0.15</v>
       </c>
-      <c r="F27" s="145"/>
+      <c r="F27" s="153"/>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="157"/>
+      <c r="B28" s="165"/>
       <c r="C28" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="35">
         <v>0.3</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="161"/>
+      <c r="E28" s="124">
+        <v>0.3</v>
+      </c>
+      <c r="F28" s="169"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="122"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="130"/>
       <c r="F29" s="62">
         <f>SUM(F4:F28)</f>
-        <v>2.1999999999999997</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F22:F24"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="B17:B28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F22:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6634,8 +6659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D71FAE6-B451-6848-BDAA-C37A96D72161}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6649,10 +6674,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="173"/>
+      <c r="C2" s="177"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -6664,7 +6689,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="161" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -6675,7 +6700,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="154"/>
+      <c r="B4" s="162"/>
       <c r="C4" s="7" t="s">
         <v>138</v>
       </c>
@@ -6685,13 +6710,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="140">
+      <c r="F4" s="148">
         <f>SUM(E4:E17)</f>
         <v>2.1999999999999997</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="154"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="1" t="s">
         <v>250</v>
       </c>
@@ -6701,10 +6726,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="154"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="1" t="s">
         <v>251</v>
       </c>
@@ -6714,10 +6739,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="141"/>
+      <c r="F6" s="149"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="154"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="1" t="s">
         <v>137</v>
       </c>
@@ -6727,10 +6752,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="141"/>
+      <c r="F7" s="149"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="154"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="1" t="s">
         <v>252</v>
       </c>
@@ -6740,10 +6765,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="141"/>
+      <c r="F8" s="149"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="154"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="1" t="s">
         <v>253</v>
       </c>
@@ -6753,10 +6778,10 @@
       <c r="E9" s="115">
         <v>0.15</v>
       </c>
-      <c r="F9" s="141"/>
+      <c r="F9" s="149"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="154"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="28" t="s">
         <v>254</v>
       </c>
@@ -6766,10 +6791,10 @@
       <c r="E10" s="98">
         <v>0.2</v>
       </c>
-      <c r="F10" s="141"/>
+      <c r="F10" s="149"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="154"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="28" t="s">
         <v>255</v>
       </c>
@@ -6779,10 +6804,10 @@
       <c r="E11" s="98">
         <v>0.2</v>
       </c>
-      <c r="F11" s="141"/>
+      <c r="F11" s="149"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="154"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="28" t="s">
         <v>256</v>
       </c>
@@ -6792,10 +6817,10 @@
       <c r="E12" s="115">
         <v>0.2</v>
       </c>
-      <c r="F12" s="141"/>
+      <c r="F12" s="149"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="154"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="28" t="s">
         <v>257</v>
       </c>
@@ -6805,10 +6830,10 @@
       <c r="E13" s="102">
         <v>0.2</v>
       </c>
-      <c r="F13" s="141"/>
+      <c r="F13" s="149"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="154"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="28" t="s">
         <v>258</v>
       </c>
@@ -6818,10 +6843,10 @@
       <c r="E14" s="102">
         <v>0.2</v>
       </c>
-      <c r="F14" s="141"/>
+      <c r="F14" s="149"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="154"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="1" t="s">
         <v>259</v>
       </c>
@@ -6831,10 +6856,10 @@
       <c r="E15" s="115">
         <v>0</v>
       </c>
-      <c r="F15" s="141"/>
+      <c r="F15" s="149"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="154"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="1" t="s">
         <v>260</v>
       </c>
@@ -6844,10 +6869,10 @@
       <c r="E16" s="44">
         <v>0.15</v>
       </c>
-      <c r="F16" s="141"/>
+      <c r="F16" s="149"/>
     </row>
     <row r="17" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B17" s="154"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="11" t="s">
         <v>261</v>
       </c>
@@ -6857,10 +6882,10 @@
       <c r="E17" s="102">
         <v>0.15</v>
       </c>
-      <c r="F17" s="141"/>
+      <c r="F17" s="149"/>
     </row>
     <row r="18" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B18" s="154"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="58" t="s">
         <v>30</v>
       </c>
@@ -6869,7 +6894,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="154"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
@@ -6879,13 +6904,13 @@
       <c r="E19" s="44">
         <v>0.2</v>
       </c>
-      <c r="F19" s="144">
+      <c r="F19" s="152">
         <f>SUM(E19:E21)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="154"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -6895,10 +6920,10 @@
       <c r="E20" s="34">
         <v>0.2</v>
       </c>
-      <c r="F20" s="145"/>
+      <c r="F20" s="153"/>
     </row>
     <row r="21" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B21" s="154"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="11" t="s">
         <v>33</v>
       </c>
@@ -6908,10 +6933,10 @@
       <c r="E21" s="86">
         <v>0.2</v>
       </c>
-      <c r="F21" s="146"/>
+      <c r="F21" s="154"/>
     </row>
     <row r="22" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B22" s="154"/>
+      <c r="B22" s="162"/>
       <c r="C22" s="64" t="s">
         <v>34</v>
       </c>
@@ -6920,7 +6945,7 @@
       <c r="F22" s="32"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="154"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="7" t="s">
         <v>62</v>
       </c>
@@ -6930,13 +6955,13 @@
       <c r="E23" s="44">
         <v>0.2</v>
       </c>
-      <c r="F23" s="144">
+      <c r="F23" s="152">
         <f>SUM(E23:E24)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B24" s="155"/>
+      <c r="B24" s="163"/>
       <c r="C24" s="11" t="s">
         <v>46</v>
       </c>
@@ -6946,10 +6971,10 @@
       <c r="E24" s="36">
         <v>0.2</v>
       </c>
-      <c r="F24" s="146"/>
+      <c r="F24" s="154"/>
     </row>
     <row r="25" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="161" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="58" t="s">
@@ -6960,7 +6985,7 @@
       <c r="F25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="156"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="30" t="s">
         <v>262</v>
       </c>
@@ -6970,13 +6995,13 @@
       <c r="E26" s="44">
         <v>0.25</v>
       </c>
-      <c r="F26" s="141">
+      <c r="F26" s="149">
         <f>SUM(E26:E33)</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="156"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="28" t="s">
         <v>263</v>
       </c>
@@ -6986,10 +7011,10 @@
       <c r="E27" s="101">
         <v>0.25</v>
       </c>
-      <c r="F27" s="141"/>
+      <c r="F27" s="149"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="156"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="28" t="s">
         <v>264</v>
       </c>
@@ -6999,10 +7024,10 @@
       <c r="E28" s="116">
         <v>0.25</v>
       </c>
-      <c r="F28" s="141"/>
+      <c r="F28" s="149"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="156"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="28" t="s">
         <v>265</v>
       </c>
@@ -7012,13 +7037,13 @@
       <c r="E29" s="116">
         <v>0.25</v>
       </c>
-      <c r="F29" s="141"/>
+      <c r="F29" s="149"/>
       <c r="G29" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="156"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="28" t="s">
         <v>266</v>
       </c>
@@ -7028,10 +7053,10 @@
       <c r="E30" s="34">
         <v>0</v>
       </c>
-      <c r="F30" s="141"/>
+      <c r="F30" s="149"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="156"/>
+      <c r="B31" s="164"/>
       <c r="C31" s="28" t="s">
         <v>267</v>
       </c>
@@ -7041,10 +7066,10 @@
       <c r="E31" s="101">
         <v>0.25</v>
       </c>
-      <c r="F31" s="141"/>
+      <c r="F31" s="149"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="156"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="28" t="s">
         <v>268</v>
       </c>
@@ -7054,10 +7079,10 @@
       <c r="E32" s="101">
         <v>0.25</v>
       </c>
-      <c r="F32" s="141"/>
+      <c r="F32" s="149"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="156"/>
+      <c r="B33" s="164"/>
       <c r="C33" s="28" t="s">
         <v>269</v>
       </c>
@@ -7067,10 +7092,10 @@
       <c r="E33" s="34">
         <v>0</v>
       </c>
-      <c r="F33" s="141"/>
+      <c r="F33" s="149"/>
     </row>
     <row r="34" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B34" s="156"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="58" t="s">
         <v>61</v>
       </c>
@@ -7079,7 +7104,7 @@
       <c r="F34" s="32"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="156"/>
+      <c r="B35" s="164"/>
       <c r="C35" s="30" t="s">
         <v>270</v>
       </c>
@@ -7089,13 +7114,13 @@
       <c r="E35" s="102">
         <v>0.1</v>
       </c>
-      <c r="F35" s="141">
+      <c r="F35" s="149">
         <f>SUM(E35:E40)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="156"/>
+      <c r="B36" s="164"/>
       <c r="C36" s="28" t="s">
         <v>271</v>
       </c>
@@ -7105,10 +7130,10 @@
       <c r="E36" s="102">
         <v>0.1</v>
       </c>
-      <c r="F36" s="141"/>
+      <c r="F36" s="149"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="156"/>
+      <c r="B37" s="164"/>
       <c r="C37" s="28" t="s">
         <v>272</v>
       </c>
@@ -7118,10 +7143,10 @@
       <c r="E37" s="102">
         <v>0.1</v>
       </c>
-      <c r="F37" s="141"/>
+      <c r="F37" s="149"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="156"/>
+      <c r="B38" s="164"/>
       <c r="C38" s="28" t="s">
         <v>273</v>
       </c>
@@ -7131,10 +7156,10 @@
       <c r="E38" s="115">
         <v>0.1</v>
       </c>
-      <c r="F38" s="141"/>
+      <c r="F38" s="149"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="156"/>
+      <c r="B39" s="164"/>
       <c r="C39" s="28" t="s">
         <v>274</v>
       </c>
@@ -7144,10 +7169,10 @@
       <c r="E39" s="115">
         <v>0.1</v>
       </c>
-      <c r="F39" s="141"/>
+      <c r="F39" s="149"/>
     </row>
     <row r="40" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B40" s="156"/>
+      <c r="B40" s="164"/>
       <c r="C40" s="29" t="s">
         <v>275</v>
       </c>
@@ -7157,10 +7182,10 @@
       <c r="E40" s="115">
         <v>0.1</v>
       </c>
-      <c r="F40" s="141"/>
+      <c r="F40" s="149"/>
     </row>
     <row r="41" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B41" s="156"/>
+      <c r="B41" s="164"/>
       <c r="C41" s="58" t="s">
         <v>34</v>
       </c>
@@ -7169,7 +7194,7 @@
       <c r="F41" s="32"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="156"/>
+      <c r="B42" s="164"/>
       <c r="C42" s="7" t="s">
         <v>35</v>
       </c>
@@ -7179,48 +7204,48 @@
       <c r="E42" s="102">
         <v>0.125</v>
       </c>
-      <c r="F42" s="144">
+      <c r="F42" s="152">
         <f>SUM(E42:E43)</f>
-        <v>0.125</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B43" s="158"/>
+      <c r="B43" s="166"/>
       <c r="C43" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="35">
         <v>0.3</v>
       </c>
-      <c r="E43" s="35">
-        <v>0</v>
-      </c>
-      <c r="F43" s="161"/>
+      <c r="E43" s="124">
+        <v>0.3</v>
+      </c>
+      <c r="F43" s="169"/>
     </row>
     <row r="44" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="122"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="130"/>
       <c r="F44" s="70">
         <f>SUM(F4:F43)</f>
-        <v>5.4249999999999989</v>
+        <v>5.7249999999999988</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B3:B24"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B25:B43"/>
     <mergeCell ref="F35:F40"/>
     <mergeCell ref="F26:F33"/>
     <mergeCell ref="F4:F17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B3:B24"/>
-    <mergeCell ref="F42:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7231,8 +7256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A679EA6-8CB7-A24A-BA70-3CC01102E2D7}">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7246,10 +7271,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="119"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -7261,7 +7286,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="161" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -7273,13 +7298,13 @@
       <c r="E3" s="44">
         <v>0.15</v>
       </c>
-      <c r="F3" s="140">
+      <c r="F3" s="148">
         <f>SUM(E3:E8)</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="156"/>
+      <c r="B4" s="164"/>
       <c r="C4" s="1" t="s">
         <v>277</v>
       </c>
@@ -7289,10 +7314,10 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="141"/>
+      <c r="F4" s="149"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="156"/>
+      <c r="B5" s="164"/>
       <c r="C5" s="1" t="s">
         <v>278</v>
       </c>
@@ -7302,10 +7327,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="156"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="1" t="s">
         <v>279</v>
       </c>
@@ -7315,10 +7340,10 @@
       <c r="E6" s="98">
         <v>0.15</v>
       </c>
-      <c r="F6" s="141"/>
+      <c r="F6" s="149"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="156"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="1" t="s">
         <v>280</v>
       </c>
@@ -7328,10 +7353,10 @@
       <c r="E7" s="102">
         <v>0.15</v>
       </c>
-      <c r="F7" s="141"/>
+      <c r="F7" s="149"/>
     </row>
     <row r="8" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B8" s="156"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="29" t="s">
         <v>66</v>
       </c>
@@ -7341,10 +7366,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="143"/>
+      <c r="F8" s="151"/>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="156"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="58" t="s">
         <v>30</v>
       </c>
@@ -7353,7 +7378,7 @@
       <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="156"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
@@ -7363,13 +7388,13 @@
       <c r="E10" s="44">
         <v>0.2</v>
       </c>
-      <c r="F10" s="144">
+      <c r="F10" s="152">
         <f>SUM(E10:E12)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="156"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
@@ -7379,10 +7404,10 @@
       <c r="E11" s="34">
         <v>0.2</v>
       </c>
-      <c r="F11" s="145"/>
+      <c r="F11" s="153"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="156"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
@@ -7392,10 +7417,10 @@
       <c r="E12" s="36">
         <v>0.2</v>
       </c>
-      <c r="F12" s="146"/>
+      <c r="F12" s="154"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="156"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="64" t="s">
         <v>34</v>
       </c>
@@ -7404,7 +7429,7 @@
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="156"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="7" t="s">
         <v>62</v>
       </c>
@@ -7414,13 +7439,13 @@
       <c r="E14" s="98">
         <v>0.2</v>
       </c>
-      <c r="F14" s="144">
+      <c r="F14" s="152">
         <f>SUM(E14:E15)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="158"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="11" t="s">
         <v>46</v>
       </c>
@@ -7430,10 +7455,10 @@
       <c r="E15" s="36">
         <v>0.2</v>
       </c>
-      <c r="F15" s="146"/>
+      <c r="F15" s="154"/>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="161" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -7444,7 +7469,7 @@
       <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="156"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="7" t="s">
         <v>282</v>
       </c>
@@ -7454,13 +7479,13 @@
       <c r="E17" s="102">
         <v>1</v>
       </c>
-      <c r="F17" s="140">
+      <c r="F17" s="148">
         <f>SUM(E17:E26)</f>
         <v>1.8499999999999999</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="156"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="1" t="s">
         <v>283</v>
       </c>
@@ -7470,10 +7495,10 @@
       <c r="E18" s="101">
         <v>0.25</v>
       </c>
-      <c r="F18" s="141"/>
+      <c r="F18" s="149"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="156"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="1" t="s">
         <v>284</v>
       </c>
@@ -7483,10 +7508,10 @@
       <c r="E19" s="82">
         <v>0</v>
       </c>
-      <c r="F19" s="141"/>
+      <c r="F19" s="149"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="156"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="1" t="s">
         <v>285</v>
       </c>
@@ -7494,10 +7519,10 @@
         <v>0.4</v>
       </c>
       <c r="E20" s="117"/>
-      <c r="F20" s="141"/>
+      <c r="F20" s="149"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="156"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="1" t="s">
         <v>286</v>
       </c>
@@ -7507,10 +7532,10 @@
       <c r="E21" s="82">
         <v>0</v>
       </c>
-      <c r="F21" s="141"/>
+      <c r="F21" s="149"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="156"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="1" t="s">
         <v>287</v>
       </c>
@@ -7518,10 +7543,10 @@
         <v>0.45</v>
       </c>
       <c r="E22" s="117"/>
-      <c r="F22" s="141"/>
+      <c r="F22" s="149"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="156"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="1" t="s">
         <v>288</v>
       </c>
@@ -7531,10 +7556,10 @@
       <c r="E23" s="82">
         <v>0</v>
       </c>
-      <c r="F23" s="141"/>
+      <c r="F23" s="149"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="156"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="1" t="s">
         <v>289</v>
       </c>
@@ -7544,10 +7569,10 @@
       <c r="E24" s="101">
         <v>0.4</v>
       </c>
-      <c r="F24" s="141"/>
+      <c r="F24" s="149"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="156"/>
+      <c r="B25" s="164"/>
       <c r="C25" s="1" t="s">
         <v>290</v>
       </c>
@@ -7557,10 +7582,10 @@
       <c r="E25" s="101">
         <v>0.2</v>
       </c>
-      <c r="F25" s="141"/>
+      <c r="F25" s="149"/>
     </row>
     <row r="26" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B26" s="156"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="11" t="s">
         <v>331</v>
       </c>
@@ -7570,10 +7595,10 @@
       <c r="E26" s="105">
         <v>0</v>
       </c>
-      <c r="F26" s="143"/>
+      <c r="F26" s="151"/>
     </row>
     <row r="27" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B27" s="156"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="58" t="s">
         <v>291</v>
       </c>
@@ -7582,7 +7607,7 @@
       <c r="F27" s="32"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="156"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="7" t="s">
         <v>292</v>
       </c>
@@ -7592,13 +7617,13 @@
       <c r="E28" s="102">
         <v>0.125</v>
       </c>
-      <c r="F28" s="140">
+      <c r="F28" s="148">
         <f>SUM(E28:E29)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="156"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="11" t="s">
         <v>293</v>
       </c>
@@ -7608,10 +7633,10 @@
       <c r="E29" s="103">
         <v>0.125</v>
       </c>
-      <c r="F29" s="143"/>
+      <c r="F29" s="151"/>
     </row>
     <row r="30" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B30" s="156"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="58" t="s">
         <v>34</v>
       </c>
@@ -7620,7 +7645,7 @@
       <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="156"/>
+      <c r="B31" s="164"/>
       <c r="C31" s="7" t="s">
         <v>35</v>
       </c>
@@ -7630,13 +7655,13 @@
       <c r="E31" s="102">
         <v>0.125</v>
       </c>
-      <c r="F31" s="144">
+      <c r="F31" s="152">
         <f>SUM(E31:E33)</f>
-        <v>0.27500000000000002</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="156"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="1" t="s">
         <v>188</v>
       </c>
@@ -7646,31 +7671,31 @@
       <c r="E32" s="85">
         <v>0.15</v>
       </c>
-      <c r="F32" s="145"/>
+      <c r="F32" s="153"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="158"/>
+      <c r="B33" s="166"/>
       <c r="C33" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D33" s="35">
         <v>0.3</v>
       </c>
-      <c r="E33" s="35">
-        <v>0</v>
-      </c>
-      <c r="F33" s="161"/>
+      <c r="E33" s="124">
+        <v>0.3</v>
+      </c>
+      <c r="F33" s="169"/>
     </row>
     <row r="34" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="122"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="130"/>
       <c r="F34" s="63">
         <f>SUM(F3:F33)</f>
-        <v>4.2750000000000004</v>
+        <v>4.5750000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -7694,8 +7719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00128C49-6FAA-DB48-828C-648B3790A9C7}">
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7749,11 +7774,11 @@
       </c>
       <c r="D4" s="81">
         <f t="shared" ref="D4:D15" si="0">C4-E4</f>
-        <v>2.450000000000002</v>
+        <v>2.1500000000000021</v>
       </c>
       <c r="E4" s="82">
         <f>Header!F42</f>
-        <v>5.4249999999999998</v>
+        <v>5.7249999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -7766,11 +7791,11 @@
       </c>
       <c r="D5" s="81">
         <f t="shared" si="0"/>
-        <v>0.29999999999999982</v>
+        <v>0</v>
       </c>
       <c r="E5" s="82">
         <f>Footer!F16</f>
-        <v>1.2500000000000002</v>
+        <v>1.5500000000000003</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -7783,11 +7808,11 @@
       </c>
       <c r="D6" s="81">
         <f t="shared" si="0"/>
-        <v>0.29999999999999982</v>
+        <v>0</v>
       </c>
       <c r="E6" s="82">
         <f>'Login Page'!F33</f>
-        <v>4.7750000000000004</v>
+        <v>5.0750000000000002</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -7800,11 +7825,11 @@
       </c>
       <c r="D7" s="81">
         <f t="shared" si="0"/>
-        <v>0.29999999999999982</v>
+        <v>0</v>
       </c>
       <c r="E7" s="82">
         <f>'Sign Up Page'!F39</f>
-        <v>5.7250000000000005</v>
+        <v>6.0250000000000004</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -7817,11 +7842,11 @@
       </c>
       <c r="D8" s="81">
         <f t="shared" si="0"/>
-        <v>0.29999999999999938</v>
+        <v>0</v>
       </c>
       <c r="E8" s="82">
         <f>'Forgot Password Page'!F27</f>
-        <v>3.85</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -7834,11 +7859,11 @@
       </c>
       <c r="D9" s="81">
         <f t="shared" si="0"/>
-        <v>7.7750000000000021</v>
+        <v>3.3499999999999979</v>
       </c>
       <c r="E9" s="82">
         <f>'Home Page'!F125</f>
-        <v>15.349999999999998</v>
+        <v>19.775000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -7868,11 +7893,11 @@
       </c>
       <c r="D11" s="81">
         <f t="shared" si="0"/>
-        <v>10.525000000000002</v>
+        <v>10.225000000000001</v>
       </c>
       <c r="E11" s="82">
         <f>'Direct Message Page'!F38</f>
-        <v>1.4500000000000002</v>
+        <v>1.7500000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -7885,11 +7910,11 @@
       </c>
       <c r="D12" s="81">
         <f t="shared" si="0"/>
-        <v>0.29999999999999938</v>
+        <v>0</v>
       </c>
       <c r="E12" s="82">
         <f>'Explore Page'!F22</f>
-        <v>2.7750000000000004</v>
+        <v>3.0750000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -7902,11 +7927,11 @@
       </c>
       <c r="D13" s="81">
         <f t="shared" si="0"/>
-        <v>2.774999999999999</v>
+        <v>2.4749999999999988</v>
       </c>
       <c r="E13" s="82">
         <f>'Activity Page'!F29</f>
-        <v>2.1999999999999997</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -7919,11 +7944,11 @@
       </c>
       <c r="D14" s="81">
         <f t="shared" si="0"/>
-        <v>1.1499999999999995</v>
+        <v>0.84999999999999964</v>
       </c>
       <c r="E14" s="82">
         <f>'User Page'!F44</f>
-        <v>5.4249999999999989</v>
+        <v>5.7249999999999988</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="16.2" thickBot="1">
@@ -7936,22 +7961,22 @@
       </c>
       <c r="D15" s="81">
         <f t="shared" si="0"/>
-        <v>2.9000000000000004</v>
+        <v>2.6000000000000005</v>
       </c>
       <c r="E15" s="83">
         <f>'Add Post Page'!F34</f>
-        <v>4.2750000000000004</v>
+        <v>4.5750000000000002</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="16.2" thickBot="1">
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="122"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="77">
         <f>SUM(E3:E15)</f>
-        <v>58.5</v>
+        <v>65.925000000000011</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -8011,7 +8036,6 @@
         <v>14</v>
       </c>
       <c r="E21">
-        <f>E16</f>
         <v>58.5</v>
       </c>
       <c r="F21">
@@ -8024,6 +8048,14 @@
       <c r="D22">
         <v>15</v>
       </c>
+      <c r="E22">
+        <f>E16</f>
+        <v>65.925000000000011</v>
+      </c>
+      <c r="F22">
+        <f>E22-E21</f>
+        <v>7.4250000000000114</v>
+      </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" s="91"/>
@@ -8040,7 +8072,7 @@
       </c>
       <c r="F24">
         <f>E24-E16</f>
-        <v>11.5</v>
+        <v>4.0749999999999886</v>
       </c>
     </row>
     <row r="25" spans="3:6">
@@ -8061,8 +8093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE670F-6E02-7D4A-BE09-F54A0BBCCA86}">
   <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8076,10 +8108,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -8091,7 +8123,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="136" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -8102,7 +8134,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B4" s="129"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
@@ -8112,13 +8144,13 @@
       <c r="E4" s="54">
         <v>0.15</v>
       </c>
-      <c r="F4" s="135">
+      <c r="F4" s="143">
         <f>SUM(E4:E8)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B5" s="129"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8128,10 +8160,10 @@
       <c r="E5" s="54">
         <v>0.15</v>
       </c>
-      <c r="F5" s="123"/>
+      <c r="F5" s="131"/>
     </row>
     <row r="6" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B6" s="129"/>
+      <c r="B6" s="137"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
@@ -8141,10 +8173,10 @@
       <c r="E6" s="54">
         <v>0.15</v>
       </c>
-      <c r="F6" s="123"/>
+      <c r="F6" s="131"/>
     </row>
     <row r="7" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B7" s="129"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
@@ -8154,10 +8186,10 @@
       <c r="E7" s="54">
         <v>0.15</v>
       </c>
-      <c r="F7" s="123"/>
+      <c r="F7" s="131"/>
     </row>
     <row r="8" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B8" s="129"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
@@ -8167,10 +8199,10 @@
       <c r="E8" s="54">
         <v>0.15</v>
       </c>
-      <c r="F8" s="123"/>
+      <c r="F8" s="131"/>
     </row>
     <row r="9" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B9" s="129"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="58" t="s">
         <v>29</v>
       </c>
@@ -8179,7 +8211,7 @@
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B10" s="129"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
@@ -8189,13 +8221,13 @@
       <c r="E10" s="54">
         <v>0.15</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F10" s="131">
         <f>SUM(E10:E18)</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B11" s="129"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -8205,10 +8237,10 @@
       <c r="E11" s="54">
         <v>0.15</v>
       </c>
-      <c r="F11" s="123"/>
+      <c r="F11" s="131"/>
     </row>
     <row r="12" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B12" s="129"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -8218,10 +8250,10 @@
       <c r="E12" s="112">
         <v>0.15</v>
       </c>
-      <c r="F12" s="123"/>
+      <c r="F12" s="131"/>
     </row>
     <row r="13" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B13" s="129"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -8231,10 +8263,10 @@
       <c r="E13" s="54">
         <v>0</v>
       </c>
-      <c r="F13" s="123"/>
+      <c r="F13" s="131"/>
     </row>
     <row r="14" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B14" s="129"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
@@ -8244,10 +8276,10 @@
       <c r="E14" s="54">
         <v>0.15</v>
       </c>
-      <c r="F14" s="123"/>
+      <c r="F14" s="131"/>
     </row>
     <row r="15" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B15" s="129"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="28" t="s">
         <v>295</v>
       </c>
@@ -8257,10 +8289,10 @@
       <c r="E15" s="54">
         <v>0</v>
       </c>
-      <c r="F15" s="123"/>
+      <c r="F15" s="131"/>
     </row>
     <row r="16" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B16" s="129"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
@@ -8270,10 +8302,10 @@
       <c r="E16" s="54">
         <v>0</v>
       </c>
-      <c r="F16" s="123"/>
+      <c r="F16" s="131"/>
     </row>
     <row r="17" spans="2:7" ht="16.05" customHeight="1">
-      <c r="B17" s="129"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
@@ -8283,10 +8315,10 @@
       <c r="E17" s="54">
         <v>0.15</v>
       </c>
-      <c r="F17" s="123"/>
+      <c r="F17" s="131"/>
     </row>
     <row r="18" spans="2:7" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B18" s="129"/>
+      <c r="B18" s="137"/>
       <c r="C18" s="11" t="s">
         <v>26</v>
       </c>
@@ -8296,10 +8328,10 @@
       <c r="E18" s="54">
         <v>0.15</v>
       </c>
-      <c r="F18" s="123"/>
+      <c r="F18" s="131"/>
     </row>
     <row r="19" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B19" s="129"/>
+      <c r="B19" s="137"/>
       <c r="C19" s="58" t="s">
         <v>30</v>
       </c>
@@ -8308,7 +8340,7 @@
       <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="129"/>
+      <c r="B20" s="137"/>
       <c r="C20" s="7" t="s">
         <v>31</v>
       </c>
@@ -8318,13 +8350,13 @@
       <c r="E20" s="44">
         <v>0.2</v>
       </c>
-      <c r="F20" s="123">
+      <c r="F20" s="131">
         <f>SUM(E20:E22)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="129"/>
+      <c r="B21" s="137"/>
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
@@ -8334,10 +8366,10 @@
       <c r="E21" s="34">
         <v>0.2</v>
       </c>
-      <c r="F21" s="123"/>
+      <c r="F21" s="131"/>
     </row>
     <row r="22" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B22" s="129"/>
+      <c r="B22" s="137"/>
       <c r="C22" s="11" t="s">
         <v>33</v>
       </c>
@@ -8348,10 +8380,10 @@
         <f>0.2/2</f>
         <v>0.1</v>
       </c>
-      <c r="F22" s="123"/>
+      <c r="F22" s="131"/>
     </row>
     <row r="23" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B23" s="129"/>
+      <c r="B23" s="137"/>
       <c r="C23" s="64" t="s">
         <v>34</v>
       </c>
@@ -8360,7 +8392,7 @@
       <c r="F23" s="43"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="130"/>
+      <c r="B24" s="138"/>
       <c r="C24" s="17" t="s">
         <v>62</v>
       </c>
@@ -8370,13 +8402,13 @@
       <c r="E24" s="45">
         <v>0.2</v>
       </c>
-      <c r="F24" s="124">
+      <c r="F24" s="132">
         <f>SUM(E24:E25)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B25" s="131"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -8386,10 +8418,10 @@
       <c r="E25" s="46">
         <v>0.2</v>
       </c>
-      <c r="F25" s="125"/>
+      <c r="F25" s="133"/>
     </row>
     <row r="26" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="140" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="58" t="s">
@@ -8400,7 +8432,7 @@
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="133"/>
+      <c r="B27" s="141"/>
       <c r="C27" s="13" t="s">
         <v>36</v>
       </c>
@@ -8410,13 +8442,13 @@
       <c r="E27" s="106">
         <v>0.4</v>
       </c>
-      <c r="F27" s="123">
+      <c r="F27" s="131">
         <f>SUM(E27:E30)</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="133"/>
+      <c r="B28" s="141"/>
       <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
@@ -8426,10 +8458,10 @@
       <c r="E28" s="34">
         <v>0.1</v>
       </c>
-      <c r="F28" s="123"/>
+      <c r="F28" s="131"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="133"/>
+      <c r="B29" s="141"/>
       <c r="C29" s="5" t="s">
         <v>39</v>
       </c>
@@ -8439,10 +8471,10 @@
       <c r="E29" s="34">
         <v>0.1</v>
       </c>
-      <c r="F29" s="123"/>
+      <c r="F29" s="131"/>
     </row>
     <row r="30" spans="2:7" ht="31.8" thickBot="1">
-      <c r="B30" s="133"/>
+      <c r="B30" s="141"/>
       <c r="C30" s="72" t="s">
         <v>41</v>
       </c>
@@ -8452,11 +8484,11 @@
       <c r="E30" s="109">
         <v>0.5</v>
       </c>
-      <c r="F30" s="123"/>
+      <c r="F30" s="131"/>
       <c r="G30" s="111"/>
     </row>
     <row r="31" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B31" s="133"/>
+      <c r="B31" s="141"/>
       <c r="C31" s="58" t="s">
         <v>40</v>
       </c>
@@ -8465,7 +8497,7 @@
       <c r="F31" s="43"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="133"/>
+      <c r="B32" s="141"/>
       <c r="C32" s="13" t="s">
         <v>36</v>
       </c>
@@ -8475,13 +8507,13 @@
       <c r="E32" s="106">
         <v>0.4</v>
       </c>
-      <c r="F32" s="123">
+      <c r="F32" s="131">
         <f>SUM(E32:E38)</f>
         <v>1.65</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="133"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="5" t="s">
         <v>37</v>
       </c>
@@ -8491,10 +8523,10 @@
       <c r="E33" s="34">
         <v>0</v>
       </c>
-      <c r="F33" s="123"/>
+      <c r="F33" s="131"/>
     </row>
     <row r="34" spans="2:7" ht="28.8">
-      <c r="B34" s="133"/>
+      <c r="B34" s="141"/>
       <c r="C34" s="73" t="s">
         <v>41</v>
       </c>
@@ -8504,11 +8536,11 @@
       <c r="E34" s="108">
         <v>0.5</v>
       </c>
-      <c r="F34" s="123"/>
+      <c r="F34" s="131"/>
       <c r="G34" s="110"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="133"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="73" t="s">
         <v>42</v>
       </c>
@@ -8519,13 +8551,13 @@
         <f>0.3</f>
         <v>0.3</v>
       </c>
-      <c r="F35" s="123"/>
+      <c r="F35" s="131"/>
       <c r="G35" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="133"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="5" t="s">
         <v>43</v>
       </c>
@@ -8535,10 +8567,10 @@
       <c r="E36" s="34">
         <v>0</v>
       </c>
-      <c r="F36" s="123"/>
+      <c r="F36" s="131"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="133"/>
+      <c r="B37" s="141"/>
       <c r="C37" s="5" t="s">
         <v>97</v>
       </c>
@@ -8548,10 +8580,10 @@
       <c r="E37" s="85">
         <v>0.25</v>
       </c>
-      <c r="F37" s="123"/>
+      <c r="F37" s="131"/>
     </row>
     <row r="38" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B38" s="133"/>
+      <c r="B38" s="141"/>
       <c r="C38" s="14" t="s">
         <v>44</v>
       </c>
@@ -8561,13 +8593,13 @@
       <c r="E38" s="103">
         <v>0.2</v>
       </c>
-      <c r="F38" s="123"/>
+      <c r="F38" s="131"/>
       <c r="G38" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B39" s="133"/>
+      <c r="B39" s="141"/>
       <c r="C39" s="58" t="s">
         <v>34</v>
       </c>
@@ -8576,7 +8608,7 @@
       <c r="F39" s="43"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="133"/>
+      <c r="B40" s="141"/>
       <c r="C40" s="13" t="s">
         <v>35</v>
       </c>
@@ -8586,34 +8618,34 @@
       <c r="E40" s="106">
         <v>0.125</v>
       </c>
-      <c r="F40" s="136">
+      <c r="F40" s="144">
         <f>SUM(E40:E41)</f>
-        <v>0.125</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B41" s="134"/>
+      <c r="B41" s="142"/>
       <c r="C41" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="35">
         <v>0.3</v>
       </c>
-      <c r="E41" s="35">
-        <v>0</v>
-      </c>
-      <c r="F41" s="137"/>
+      <c r="E41" s="124">
+        <v>0.3</v>
+      </c>
+      <c r="F41" s="145"/>
     </row>
     <row r="42" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="122"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="65">
         <f>SUM(F4:F41)</f>
-        <v>5.4249999999999998</v>
+        <v>5.7249999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -8641,7 +8673,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8655,10 +8687,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -8670,7 +8702,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="146" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -8681,7 +8713,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B4" s="139"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="13" t="s">
         <v>47</v>
       </c>
@@ -8697,7 +8729,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B5" s="139"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="58" t="s">
         <v>30</v>
       </c>
@@ -8706,7 +8738,7 @@
       <c r="F5" s="32"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="139"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
@@ -8716,13 +8748,13 @@
       <c r="E6" s="44">
         <v>0.2</v>
       </c>
-      <c r="F6" s="140">
+      <c r="F6" s="148">
         <f>SUM(E6:E8)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="139"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
@@ -8732,10 +8764,10 @@
       <c r="E7" s="34">
         <v>0.2</v>
       </c>
-      <c r="F7" s="141"/>
+      <c r="F7" s="149"/>
     </row>
     <row r="8" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B8" s="139"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
@@ -8745,10 +8777,10 @@
       <c r="E8" s="36">
         <v>0.2</v>
       </c>
-      <c r="F8" s="141"/>
+      <c r="F8" s="149"/>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="139"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="58" t="s">
         <v>34</v>
       </c>
@@ -8757,7 +8789,7 @@
       <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="139"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="18" t="s">
         <v>62</v>
       </c>
@@ -8767,13 +8799,13 @@
       <c r="E10" s="47">
         <v>0.2</v>
       </c>
-      <c r="F10" s="140">
+      <c r="F10" s="148">
         <f>SUM(E10:E11)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="142"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="19" t="s">
         <v>46</v>
       </c>
@@ -8783,10 +8815,10 @@
       <c r="E11" s="48">
         <v>0.2</v>
       </c>
-      <c r="F11" s="143"/>
+      <c r="F11" s="151"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="146" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="58" t="s">
@@ -8797,7 +8829,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="139"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="15" t="s">
         <v>48</v>
       </c>
@@ -8813,7 +8845,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="139"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="66" t="s">
         <v>34</v>
       </c>
@@ -8822,31 +8854,31 @@
       <c r="F14" s="51"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="139"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="46">
         <v>0.3</v>
       </c>
-      <c r="E15" s="46">
-        <v>0</v>
+      <c r="E15" s="125">
+        <v>0.3</v>
       </c>
       <c r="F15" s="52">
         <f>SUM(E15)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
       <c r="F16" s="62">
         <f>SUM(F4:F15)</f>
-        <v>1.2500000000000002</v>
+        <v>1.5500000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -8867,8 +8899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51390118-501D-994C-B11B-72660FCE399A}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8882,10 +8914,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="119"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -8897,7 +8929,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="146" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="64" t="s">
@@ -8908,7 +8940,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="139"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="7" t="s">
         <v>56</v>
       </c>
@@ -8918,13 +8950,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="140">
+      <c r="F4" s="148">
         <f>SUM(E4:E10)</f>
         <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="139"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
@@ -8934,10 +8966,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="139"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
@@ -8947,10 +8979,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="141"/>
+      <c r="F6" s="149"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="139"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
@@ -8960,10 +8992,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="141"/>
+      <c r="F7" s="149"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="139"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
@@ -8973,10 +9005,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="141"/>
+      <c r="F8" s="149"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="139"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
@@ -8986,10 +9018,10 @@
       <c r="E9" s="44">
         <v>0.15</v>
       </c>
-      <c r="F9" s="141"/>
+      <c r="F9" s="149"/>
     </row>
     <row r="10" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B10" s="139"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="29" t="s">
         <v>66</v>
       </c>
@@ -8999,10 +9031,10 @@
       <c r="E10" s="44">
         <v>0.15</v>
       </c>
-      <c r="F10" s="143"/>
+      <c r="F10" s="151"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="139"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="58" t="s">
         <v>30</v>
       </c>
@@ -9011,7 +9043,7 @@
       <c r="F11" s="32"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="139"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
@@ -9021,13 +9053,13 @@
       <c r="E12" s="44">
         <v>0.2</v>
       </c>
-      <c r="F12" s="144">
+      <c r="F12" s="152">
         <f>SUM(E12:E14)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="139"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
@@ -9037,10 +9069,10 @@
       <c r="E13" s="34">
         <v>0.2</v>
       </c>
-      <c r="F13" s="145"/>
+      <c r="F13" s="153"/>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="139"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="11" t="s">
         <v>33</v>
       </c>
@@ -9050,10 +9082,10 @@
       <c r="E14" s="36">
         <v>0.2</v>
       </c>
-      <c r="F14" s="146"/>
+      <c r="F14" s="154"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="139"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="64" t="s">
         <v>34</v>
       </c>
@@ -9062,7 +9094,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="139"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="7" t="s">
         <v>62</v>
       </c>
@@ -9072,13 +9104,13 @@
       <c r="E16" s="44">
         <v>0.2</v>
       </c>
-      <c r="F16" s="140">
+      <c r="F16" s="148">
         <f>SUM(E16:E17)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="142"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="11" t="s">
         <v>46</v>
       </c>
@@ -9088,10 +9120,10 @@
       <c r="E17" s="36">
         <v>0.2</v>
       </c>
-      <c r="F17" s="143"/>
+      <c r="F17" s="151"/>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="146" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="58" t="s">
@@ -9102,7 +9134,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="139"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="7" t="s">
         <v>64</v>
       </c>
@@ -9112,13 +9144,13 @@
       <c r="E19" s="44">
         <v>0.125</v>
       </c>
-      <c r="F19" s="140">
+      <c r="F19" s="148">
         <f>SUM(E19:E21)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="139"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
@@ -9128,10 +9160,10 @@
       <c r="E20" s="34">
         <v>0.125</v>
       </c>
-      <c r="F20" s="141"/>
+      <c r="F20" s="149"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="139"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="11" t="s">
         <v>67</v>
       </c>
@@ -9141,10 +9173,10 @@
       <c r="E21" s="36">
         <v>0.5</v>
       </c>
-      <c r="F21" s="143"/>
+      <c r="F21" s="151"/>
     </row>
     <row r="22" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B22" s="139"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="58" t="s">
         <v>61</v>
       </c>
@@ -9153,7 +9185,7 @@
       <c r="F22" s="32"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="139"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="7" t="s">
         <v>39</v>
       </c>
@@ -9163,13 +9195,13 @@
       <c r="E23" s="44">
         <v>0.1</v>
       </c>
-      <c r="F23" s="140">
+      <c r="F23" s="148">
         <f>SUM(E23:E25)</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="139"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
@@ -9179,10 +9211,10 @@
       <c r="E24" s="34">
         <v>0.1</v>
       </c>
-      <c r="F24" s="141"/>
+      <c r="F24" s="149"/>
     </row>
     <row r="25" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B25" s="139"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="11" t="s">
         <v>71</v>
       </c>
@@ -9192,10 +9224,10 @@
       <c r="E25" s="36">
         <v>0.1</v>
       </c>
-      <c r="F25" s="143"/>
+      <c r="F25" s="151"/>
     </row>
     <row r="26" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B26" s="139"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="64" t="s">
         <v>69</v>
       </c>
@@ -9204,7 +9236,7 @@
       <c r="F26" s="32"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="139"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="37" t="s">
         <v>296</v>
       </c>
@@ -9214,13 +9246,13 @@
       <c r="E27" s="45">
         <v>1</v>
       </c>
-      <c r="F27" s="147">
+      <c r="F27" s="155">
         <f>SUM(E27:E28)</f>
         <v>1.4</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="139"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="16" t="s">
         <v>70</v>
       </c>
@@ -9230,10 +9262,10 @@
       <c r="E28" s="48">
         <v>0.4</v>
       </c>
-      <c r="F28" s="148"/>
+      <c r="F28" s="156"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="139"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="58" t="s">
         <v>34</v>
       </c>
@@ -9242,7 +9274,7 @@
       <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="139"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="7" t="s">
         <v>35</v>
       </c>
@@ -9252,13 +9284,13 @@
       <c r="E30" s="98">
         <v>0.125</v>
       </c>
-      <c r="F30" s="140">
+      <c r="F30" s="148">
         <f>SUM(E30:E32)</f>
-        <v>0.27500000000000002</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="139"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="16" t="s">
         <v>75</v>
       </c>
@@ -9268,31 +9300,31 @@
       <c r="E31" s="48">
         <v>0.15</v>
       </c>
-      <c r="F31" s="141"/>
+      <c r="F31" s="149"/>
     </row>
     <row r="32" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B32" s="142"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="35">
         <v>0.3</v>
       </c>
-      <c r="E32" s="35">
-        <v>0</v>
-      </c>
-      <c r="F32" s="143"/>
+      <c r="E32" s="124">
+        <v>0.3</v>
+      </c>
+      <c r="F32" s="151"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="122"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="130"/>
       <c r="F33" s="63">
         <f>SUM(F4:F32)</f>
-        <v>4.7750000000000004</v>
+        <v>5.0750000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9318,8 +9350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F00672F-D187-8B44-BB8B-7B45D8D47A9A}">
   <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A20" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9333,10 +9365,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="152"/>
+      <c r="C2" s="160"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -9348,7 +9380,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="161" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="67" t="s">
@@ -9359,7 +9391,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="154"/>
+      <c r="B4" s="162"/>
       <c r="C4" s="22" t="s">
         <v>54</v>
       </c>
@@ -9369,13 +9401,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="140">
+      <c r="F4" s="148">
         <f>SUM(E4:E13)</f>
         <v>1.4999999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="154"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="3" t="s">
         <v>73</v>
       </c>
@@ -9385,10 +9417,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="154"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
@@ -9398,10 +9430,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="141"/>
+      <c r="F6" s="149"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="154"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="3" t="s">
         <v>74</v>
       </c>
@@ -9411,10 +9443,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="141"/>
+      <c r="F7" s="149"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="154"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
@@ -9424,10 +9456,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="141"/>
+      <c r="F8" s="149"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="154"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="3" t="s">
         <v>76</v>
       </c>
@@ -9437,10 +9469,10 @@
       <c r="E9" s="44">
         <v>0.15</v>
       </c>
-      <c r="F9" s="141"/>
+      <c r="F9" s="149"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="154"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="3" t="s">
         <v>57</v>
       </c>
@@ -9450,10 +9482,10 @@
       <c r="E10" s="44">
         <v>0.15</v>
       </c>
-      <c r="F10" s="141"/>
+      <c r="F10" s="149"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="154"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="20" t="s">
         <v>66</v>
       </c>
@@ -9463,10 +9495,10 @@
       <c r="E11" s="44">
         <v>0.15</v>
       </c>
-      <c r="F11" s="141"/>
+      <c r="F11" s="149"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="154"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="3" t="s">
         <v>77</v>
       </c>
@@ -9476,10 +9508,10 @@
       <c r="E12" s="44">
         <v>0.15</v>
       </c>
-      <c r="F12" s="141"/>
+      <c r="F12" s="149"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="154"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="23" t="s">
         <v>78</v>
       </c>
@@ -9489,10 +9521,10 @@
       <c r="E13" s="44">
         <v>0.15</v>
       </c>
-      <c r="F13" s="143"/>
+      <c r="F13" s="151"/>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="154"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="67" t="s">
         <v>30</v>
       </c>
@@ -9501,7 +9533,7 @@
       <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="154"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="22" t="s">
         <v>31</v>
       </c>
@@ -9511,13 +9543,13 @@
       <c r="E15" s="44">
         <v>0.2</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="152">
         <f>SUM(E15:E17)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="154"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
@@ -9527,10 +9559,10 @@
       <c r="E16" s="44">
         <v>0.2</v>
       </c>
-      <c r="F16" s="145"/>
+      <c r="F16" s="153"/>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="154"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="23" t="s">
         <v>33</v>
       </c>
@@ -9540,10 +9572,10 @@
       <c r="E17" s="44">
         <v>0.2</v>
       </c>
-      <c r="F17" s="146"/>
+      <c r="F17" s="154"/>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="154"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="68" t="s">
         <v>34</v>
       </c>
@@ -9552,7 +9584,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="154"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="22" t="s">
         <v>62</v>
       </c>
@@ -9562,13 +9594,13 @@
       <c r="E19" s="44">
         <v>0.2</v>
       </c>
-      <c r="F19" s="144">
+      <c r="F19" s="152">
         <f>SUM(E19:E20)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B20" s="155"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="23" t="s">
         <v>46</v>
       </c>
@@ -9578,10 +9610,10 @@
       <c r="E20" s="44">
         <v>0.2</v>
       </c>
-      <c r="F20" s="146"/>
+      <c r="F20" s="154"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="161" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="67" t="s">
@@ -9592,7 +9624,7 @@
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="156"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="24" t="s">
         <v>64</v>
       </c>
@@ -9602,13 +9634,13 @@
       <c r="E22" s="44">
         <v>0.125</v>
       </c>
-      <c r="F22" s="140">
+      <c r="F22" s="148">
         <f>SUM(E22:E27)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="156"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="20" t="s">
         <v>79</v>
       </c>
@@ -9618,10 +9650,10 @@
       <c r="E23" s="34">
         <v>0.125</v>
       </c>
-      <c r="F23" s="141"/>
+      <c r="F23" s="149"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="156"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="20" t="s">
         <v>80</v>
       </c>
@@ -9631,10 +9663,10 @@
       <c r="E24" s="34">
         <v>0.125</v>
       </c>
-      <c r="F24" s="141"/>
+      <c r="F24" s="149"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="156"/>
+      <c r="B25" s="164"/>
       <c r="C25" s="20" t="s">
         <v>65</v>
       </c>
@@ -9644,10 +9676,10 @@
       <c r="E25" s="34">
         <v>0.125</v>
       </c>
-      <c r="F25" s="141"/>
+      <c r="F25" s="149"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="156"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="20" t="s">
         <v>81</v>
       </c>
@@ -9657,10 +9689,10 @@
       <c r="E26" s="34">
         <v>0.4</v>
       </c>
-      <c r="F26" s="141"/>
+      <c r="F26" s="149"/>
     </row>
     <row r="27" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B27" s="156"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="25" t="s">
         <v>82</v>
       </c>
@@ -9670,10 +9702,10 @@
       <c r="E27" s="36">
         <v>0.4</v>
       </c>
-      <c r="F27" s="143"/>
+      <c r="F27" s="151"/>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="156"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="67" t="s">
         <v>61</v>
       </c>
@@ -9682,7 +9714,7 @@
       <c r="F28" s="32"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="156"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="26" t="s">
         <v>38</v>
       </c>
@@ -9698,7 +9730,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B30" s="156"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="67" t="s">
         <v>83</v>
       </c>
@@ -9707,7 +9739,7 @@
       <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="156"/>
+      <c r="B31" s="164"/>
       <c r="C31" s="24" t="s">
         <v>84</v>
       </c>
@@ -9717,13 +9749,13 @@
       <c r="E31" s="44">
         <v>0.25</v>
       </c>
-      <c r="F31" s="140">
+      <c r="F31" s="148">
         <f>SUM(E31:E34)</f>
         <v>1.55</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="156"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="21" t="s">
         <v>85</v>
       </c>
@@ -9733,10 +9765,10 @@
       <c r="E32" s="34">
         <v>0.5</v>
       </c>
-      <c r="F32" s="141"/>
+      <c r="F32" s="149"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="156"/>
+      <c r="B33" s="164"/>
       <c r="C33" s="21" t="s">
         <v>86</v>
       </c>
@@ -9746,10 +9778,10 @@
       <c r="E33" s="34">
         <v>0.3</v>
       </c>
-      <c r="F33" s="141"/>
+      <c r="F33" s="149"/>
     </row>
     <row r="34" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B34" s="157"/>
+      <c r="B34" s="165"/>
       <c r="C34" s="74" t="s">
         <v>87</v>
       </c>
@@ -9759,10 +9791,10 @@
       <c r="E34" s="36">
         <v>0.5</v>
       </c>
-      <c r="F34" s="143"/>
+      <c r="F34" s="151"/>
     </row>
     <row r="35" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B35" s="157"/>
+      <c r="B35" s="165"/>
       <c r="C35" s="67" t="s">
         <v>34</v>
       </c>
@@ -9771,7 +9803,7 @@
       <c r="F35" s="32"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="157"/>
+      <c r="B36" s="165"/>
       <c r="C36" s="7" t="s">
         <v>35</v>
       </c>
@@ -9781,13 +9813,13 @@
       <c r="E36" s="98">
         <v>0.125</v>
       </c>
-      <c r="F36" s="141">
+      <c r="F36" s="149">
         <f>SUM(E36:E38)</f>
-        <v>0.27500000000000002</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="157"/>
+      <c r="B37" s="165"/>
       <c r="C37" s="16" t="s">
         <v>75</v>
       </c>
@@ -9797,39 +9829,39 @@
       <c r="E37" s="93">
         <v>0.15</v>
       </c>
-      <c r="F37" s="141"/>
+      <c r="F37" s="149"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="27"/>
     </row>
     <row r="38" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B38" s="158"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D38" s="35">
         <v>0.3</v>
       </c>
-      <c r="E38" s="35">
-        <v>0</v>
-      </c>
-      <c r="F38" s="143"/>
+      <c r="E38" s="124">
+        <v>0.3</v>
+      </c>
+      <c r="F38" s="151"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="27"/>
     </row>
     <row r="39" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B39" s="149" t="s">
+      <c r="B39" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="151"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="159"/>
       <c r="F39" s="58">
         <f>SUM(F4:F38)</f>
-        <v>5.7250000000000005</v>
+        <v>6.0250000000000004</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -9858,8 +9890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA6770-F854-A643-8029-F212B5CE736F}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9873,10 +9905,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -9888,7 +9920,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="161" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -9899,7 +9931,7 @@
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="156"/>
+      <c r="B4" s="164"/>
       <c r="C4" s="7" t="s">
         <v>54</v>
       </c>
@@ -9909,13 +9941,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="141">
+      <c r="F4" s="149">
         <f>SUM(E4:E7)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="156"/>
+      <c r="B5" s="164"/>
       <c r="C5" s="1" t="s">
         <v>88</v>
       </c>
@@ -9925,10 +9957,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="156"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="1" t="s">
         <v>66</v>
       </c>
@@ -9938,10 +9970,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="141"/>
+      <c r="F6" s="149"/>
     </row>
     <row r="7" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B7" s="156"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="11" t="s">
         <v>89</v>
       </c>
@@ -9951,10 +9983,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="141"/>
+      <c r="F7" s="149"/>
     </row>
     <row r="8" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B8" s="156"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="58" t="s">
         <v>30</v>
       </c>
@@ -9963,7 +9995,7 @@
       <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="156"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
@@ -9973,13 +10005,13 @@
       <c r="E9" s="44">
         <v>0.2</v>
       </c>
-      <c r="F9" s="144">
+      <c r="F9" s="152">
         <f>SUM(E9:E11)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="156"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
@@ -9989,10 +10021,10 @@
       <c r="E10" s="84">
         <v>0.2</v>
       </c>
-      <c r="F10" s="145"/>
+      <c r="F10" s="153"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="156"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
@@ -10002,10 +10034,10 @@
       <c r="E11" s="44">
         <v>0.2</v>
       </c>
-      <c r="F11" s="146"/>
+      <c r="F11" s="154"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="156"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="64" t="s">
         <v>34</v>
       </c>
@@ -10014,7 +10046,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="156"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="7" t="s">
         <v>62</v>
       </c>
@@ -10024,13 +10056,13 @@
       <c r="E13" s="44">
         <v>0.2</v>
       </c>
-      <c r="F13" s="144">
+      <c r="F13" s="152">
         <f>SUM(E13:E14)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="158"/>
+      <c r="B14" s="166"/>
       <c r="C14" s="11" t="s">
         <v>46</v>
       </c>
@@ -10040,10 +10072,10 @@
       <c r="E14" s="44">
         <v>0.2</v>
       </c>
-      <c r="F14" s="146"/>
+      <c r="F14" s="154"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="161" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -10054,7 +10086,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="156"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="30" t="s">
         <v>64</v>
       </c>
@@ -10064,13 +10096,13 @@
       <c r="E16" s="44">
         <v>0.125</v>
       </c>
-      <c r="F16" s="141">
+      <c r="F16" s="149">
         <f>SUM(E16:E17)</f>
         <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B17" s="156"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="29" t="s">
         <v>90</v>
       </c>
@@ -10080,7 +10112,7 @@
       <c r="E17" s="99">
         <v>0.3</v>
       </c>
-      <c r="F17" s="141"/>
+      <c r="F17" s="149"/>
       <c r="G17" t="s">
         <v>336</v>
       </c>
@@ -10089,7 +10121,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B18" s="156"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="58" t="s">
         <v>91</v>
       </c>
@@ -10098,7 +10130,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="156"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="30" t="s">
         <v>94</v>
       </c>
@@ -10108,13 +10140,13 @@
       <c r="E19" s="44">
         <v>0.5</v>
       </c>
-      <c r="F19" s="141">
+      <c r="F19" s="149">
         <f>SUM(E19:E22)</f>
         <v>1.55</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="156"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="28" t="s">
         <v>92</v>
       </c>
@@ -10124,10 +10156,10 @@
       <c r="E20" s="34">
         <v>0.3</v>
       </c>
-      <c r="F20" s="141"/>
+      <c r="F20" s="149"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="156"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="28" t="s">
         <v>93</v>
       </c>
@@ -10137,10 +10169,10 @@
       <c r="E21" s="34">
         <v>0.5</v>
       </c>
-      <c r="F21" s="141"/>
+      <c r="F21" s="149"/>
     </row>
     <row r="22" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B22" s="156"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="29" t="s">
         <v>95</v>
       </c>
@@ -10150,10 +10182,10 @@
       <c r="E22" s="36">
         <v>0.25</v>
       </c>
-      <c r="F22" s="141"/>
+      <c r="F22" s="149"/>
     </row>
     <row r="23" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B23" s="156"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="58" t="s">
         <v>34</v>
       </c>
@@ -10162,7 +10194,7 @@
       <c r="F23" s="32"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="156"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="7" t="s">
         <v>35</v>
       </c>
@@ -10172,13 +10204,13 @@
       <c r="E24" s="98">
         <v>0.125</v>
       </c>
-      <c r="F24" s="144">
+      <c r="F24" s="152">
         <f>SUM(E24:E26)</f>
-        <v>0.27500000000000002</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="156"/>
+      <c r="B25" s="164"/>
       <c r="C25" s="1" t="s">
         <v>75</v>
       </c>
@@ -10188,31 +10220,31 @@
       <c r="E25" s="34">
         <v>0.15</v>
       </c>
-      <c r="F25" s="145"/>
+      <c r="F25" s="153"/>
     </row>
     <row r="26" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B26" s="158"/>
+      <c r="B26" s="166"/>
       <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="35">
         <v>0.3</v>
       </c>
-      <c r="E26" s="35">
-        <v>0</v>
-      </c>
-      <c r="F26" s="161"/>
+      <c r="E26" s="124">
+        <v>0.3</v>
+      </c>
+      <c r="F26" s="169"/>
     </row>
     <row r="27" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B27" s="159" t="s">
+      <c r="B27" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
       <c r="F27" s="58">
         <f>SUM(F4:F26)</f>
-        <v>3.85</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -10237,8 +10269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA52E4B4-063C-1347-8F70-DFE829911404}">
   <dimension ref="B1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77:E78"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125:E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -10252,10 +10284,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="119"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -10267,7 +10299,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="136" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -10278,7 +10310,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="129"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="7" t="s">
         <v>96</v>
       </c>
@@ -10288,13 +10320,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="140">
+      <c r="F4" s="148">
         <f>SUM(E4:E11)</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="129"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
@@ -10304,10 +10336,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="129"/>
+      <c r="B6" s="137"/>
       <c r="C6" s="1" t="s">
         <v>137</v>
       </c>
@@ -10317,10 +10349,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="141"/>
+      <c r="F6" s="149"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="129"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="1" t="s">
         <v>138</v>
       </c>
@@ -10330,10 +10362,10 @@
       <c r="E7" s="71">
         <v>0.15</v>
       </c>
-      <c r="F7" s="141"/>
+      <c r="F7" s="149"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="129"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="1" t="s">
         <v>139</v>
       </c>
@@ -10343,10 +10375,10 @@
       <c r="E8" s="71">
         <v>0.15</v>
       </c>
-      <c r="F8" s="141"/>
+      <c r="F8" s="149"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="129"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="1" t="s">
         <v>140</v>
       </c>
@@ -10356,10 +10388,10 @@
       <c r="E9" s="71">
         <v>0.15</v>
       </c>
-      <c r="F9" s="141"/>
+      <c r="F9" s="149"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="129"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="1" t="s">
         <v>141</v>
       </c>
@@ -10369,10 +10401,10 @@
       <c r="E10" s="71">
         <v>0.15</v>
       </c>
-      <c r="F10" s="141"/>
+      <c r="F10" s="149"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="129"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="11" t="s">
         <v>142</v>
       </c>
@@ -10382,10 +10414,10 @@
       <c r="E11" s="71">
         <v>0.15</v>
       </c>
-      <c r="F11" s="143"/>
+      <c r="F11" s="151"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="129"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="58" t="s">
         <v>100</v>
       </c>
@@ -10394,7 +10426,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="129"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="7" t="s">
         <v>101</v>
       </c>
@@ -10404,13 +10436,13 @@
       <c r="E13" s="71">
         <v>0.15</v>
       </c>
-      <c r="F13" s="140">
+      <c r="F13" s="148">
         <f>SUM(E13:E14)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="129"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="29" t="s">
         <v>297</v>
       </c>
@@ -10420,10 +10452,10 @@
       <c r="E14" s="71">
         <v>0.15</v>
       </c>
-      <c r="F14" s="143"/>
+      <c r="F14" s="151"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="129"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="58" t="s">
         <v>102</v>
       </c>
@@ -10432,7 +10464,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="129"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="7" t="s">
         <v>103</v>
       </c>
@@ -10442,26 +10474,26 @@
       <c r="E16" s="71">
         <v>0.15</v>
       </c>
-      <c r="F16" s="140">
+      <c r="F16" s="148">
         <f>SUM(E16:E38)</f>
-        <v>3.6999999999999997</v>
+        <v>3.9999999999999996</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="129"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="30" t="s">
         <v>189</v>
       </c>
       <c r="D17" s="44">
         <v>0.3</v>
       </c>
-      <c r="E17" s="44">
-        <v>0</v>
-      </c>
-      <c r="F17" s="141"/>
+      <c r="E17" s="122">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="149"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="129"/>
+      <c r="B18" s="137"/>
       <c r="C18" s="28" t="s">
         <v>104</v>
       </c>
@@ -10471,10 +10503,10 @@
       <c r="E18" s="106">
         <v>0.2</v>
       </c>
-      <c r="F18" s="141"/>
+      <c r="F18" s="149"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="129"/>
+      <c r="B19" s="137"/>
       <c r="C19" s="1" t="s">
         <v>105</v>
       </c>
@@ -10484,10 +10516,10 @@
       <c r="E19" s="44">
         <v>0.15</v>
       </c>
-      <c r="F19" s="141"/>
+      <c r="F19" s="149"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="129"/>
+      <c r="B20" s="137"/>
       <c r="C20" s="1" t="s">
         <v>106</v>
       </c>
@@ -10497,10 +10529,10 @@
       <c r="E20" s="44">
         <v>0.15</v>
       </c>
-      <c r="F20" s="141"/>
+      <c r="F20" s="149"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="129"/>
+      <c r="B21" s="137"/>
       <c r="C21" s="1" t="s">
         <v>107</v>
       </c>
@@ -10510,10 +10542,10 @@
       <c r="E21" s="44">
         <v>0.15</v>
       </c>
-      <c r="F21" s="141"/>
+      <c r="F21" s="149"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="129"/>
+      <c r="B22" s="137"/>
       <c r="C22" s="28" t="s">
         <v>108</v>
       </c>
@@ -10523,10 +10555,10 @@
       <c r="E22" s="44">
         <v>0</v>
       </c>
-      <c r="F22" s="141"/>
+      <c r="F22" s="149"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="129"/>
+      <c r="B23" s="137"/>
       <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
@@ -10536,10 +10568,10 @@
       <c r="E23" s="84">
         <v>0.15</v>
       </c>
-      <c r="F23" s="141"/>
+      <c r="F23" s="149"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="129"/>
+      <c r="B24" s="137"/>
       <c r="C24" s="1" t="s">
         <v>110</v>
       </c>
@@ -10549,10 +10581,10 @@
       <c r="E24" s="71">
         <v>0.15</v>
       </c>
-      <c r="F24" s="141"/>
+      <c r="F24" s="149"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="129"/>
+      <c r="B25" s="137"/>
       <c r="C25" s="28" t="s">
         <v>298</v>
       </c>
@@ -10562,10 +10594,10 @@
       <c r="E25" s="84">
         <v>0.15</v>
       </c>
-      <c r="F25" s="141"/>
+      <c r="F25" s="149"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="129"/>
+      <c r="B26" s="137"/>
       <c r="C26" s="1" t="s">
         <v>111</v>
       </c>
@@ -10575,23 +10607,23 @@
       <c r="E26" s="71">
         <v>0.15</v>
       </c>
-      <c r="F26" s="141"/>
+      <c r="F26" s="149"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="129"/>
+      <c r="B27" s="137"/>
       <c r="C27" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D27" s="44">
         <v>0.15</v>
       </c>
-      <c r="E27" s="71">
-        <v>0.15</v>
-      </c>
-      <c r="F27" s="141"/>
+      <c r="E27" s="81">
+        <v>0.15</v>
+      </c>
+      <c r="F27" s="149"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="129"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="1" t="s">
         <v>113</v>
       </c>
@@ -10601,10 +10633,10 @@
       <c r="E28" s="71">
         <v>0.15</v>
       </c>
-      <c r="F28" s="141"/>
+      <c r="F28" s="149"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="129"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="1" t="s">
         <v>114</v>
       </c>
@@ -10614,10 +10646,10 @@
       <c r="E29" s="84">
         <v>0.15</v>
       </c>
-      <c r="F29" s="141"/>
+      <c r="F29" s="149"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="129"/>
+      <c r="B30" s="137"/>
       <c r="C30" s="1" t="s">
         <v>115</v>
       </c>
@@ -10627,10 +10659,10 @@
       <c r="E30" s="78">
         <v>0.15</v>
       </c>
-      <c r="F30" s="141"/>
+      <c r="F30" s="149"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="129"/>
+      <c r="B31" s="137"/>
       <c r="C31" s="28" t="s">
         <v>116</v>
       </c>
@@ -10640,10 +10672,10 @@
       <c r="E31" s="84">
         <v>0.3</v>
       </c>
-      <c r="F31" s="141"/>
+      <c r="F31" s="149"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="129"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="28" t="s">
         <v>117</v>
       </c>
@@ -10653,10 +10685,10 @@
       <c r="E32" s="44">
         <v>0.15</v>
       </c>
-      <c r="F32" s="141"/>
+      <c r="F32" s="149"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="129"/>
+      <c r="B33" s="137"/>
       <c r="C33" s="28" t="s">
         <v>118</v>
       </c>
@@ -10666,10 +10698,10 @@
       <c r="E33" s="84">
         <v>0.15</v>
       </c>
-      <c r="F33" s="141"/>
+      <c r="F33" s="149"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="129"/>
+      <c r="B34" s="137"/>
       <c r="C34" s="28" t="s">
         <v>119</v>
       </c>
@@ -10679,10 +10711,10 @@
       <c r="E34" s="84">
         <v>0.2</v>
       </c>
-      <c r="F34" s="141"/>
+      <c r="F34" s="149"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="129"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="28" t="s">
         <v>120</v>
       </c>
@@ -10692,10 +10724,10 @@
       <c r="E35" s="84">
         <v>0.2</v>
       </c>
-      <c r="F35" s="141"/>
+      <c r="F35" s="149"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="129"/>
+      <c r="B36" s="137"/>
       <c r="C36" s="28" t="s">
         <v>135</v>
       </c>
@@ -10705,11 +10737,11 @@
       <c r="E36" s="84">
         <v>0.2</v>
       </c>
-      <c r="F36" s="141"/>
+      <c r="F36" s="149"/>
       <c r="G36" s="91"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="129"/>
+      <c r="B37" s="137"/>
       <c r="C37" s="28" t="s">
         <v>136</v>
       </c>
@@ -10719,11 +10751,11 @@
       <c r="E37" s="84">
         <v>0.2</v>
       </c>
-      <c r="F37" s="141"/>
+      <c r="F37" s="149"/>
       <c r="G37" s="91"/>
     </row>
     <row r="38" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B38" s="129"/>
+      <c r="B38" s="137"/>
       <c r="C38" s="29" t="s">
         <v>176</v>
       </c>
@@ -10733,10 +10765,10 @@
       <c r="E38" s="84">
         <v>0.3</v>
       </c>
-      <c r="F38" s="143"/>
+      <c r="F38" s="151"/>
     </row>
     <row r="39" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B39" s="129"/>
+      <c r="B39" s="137"/>
       <c r="C39" s="58" t="s">
         <v>121</v>
       </c>
@@ -10745,7 +10777,7 @@
       <c r="F39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="129"/>
+      <c r="B40" s="137"/>
       <c r="C40" s="7" t="s">
         <v>122</v>
       </c>
@@ -10755,26 +10787,26 @@
       <c r="E40" s="44">
         <v>0.15</v>
       </c>
-      <c r="F40" s="140">
+      <c r="F40" s="148">
         <f>SUM(E40:E47)</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="129"/>
+      <c r="B41" s="137"/>
       <c r="C41" s="28" t="s">
         <v>123</v>
       </c>
       <c r="D41" s="44">
         <v>0.2</v>
       </c>
-      <c r="E41" s="44">
-        <v>0</v>
-      </c>
-      <c r="F41" s="141"/>
+      <c r="E41" s="122">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="149"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="129"/>
+      <c r="B42" s="137"/>
       <c r="C42" s="1" t="s">
         <v>124</v>
       </c>
@@ -10784,10 +10816,10 @@
       <c r="E42" s="44">
         <v>0.15</v>
       </c>
-      <c r="F42" s="141"/>
+      <c r="F42" s="149"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="129"/>
+      <c r="B43" s="137"/>
       <c r="C43" s="28" t="s">
         <v>117</v>
       </c>
@@ -10797,10 +10829,10 @@
       <c r="E43" s="44">
         <v>0.15</v>
       </c>
-      <c r="F43" s="141"/>
+      <c r="F43" s="149"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="129"/>
+      <c r="B44" s="137"/>
       <c r="C44" s="28" t="s">
         <v>118</v>
       </c>
@@ -10810,10 +10842,10 @@
       <c r="E44" s="44">
         <v>0.15</v>
       </c>
-      <c r="F44" s="141"/>
+      <c r="F44" s="149"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="129"/>
+      <c r="B45" s="137"/>
       <c r="C45" s="28" t="s">
         <v>119</v>
       </c>
@@ -10823,10 +10855,10 @@
       <c r="E45" s="115">
         <v>0.2</v>
       </c>
-      <c r="F45" s="141"/>
+      <c r="F45" s="149"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="129"/>
+      <c r="B46" s="137"/>
       <c r="C46" s="1" t="s">
         <v>126</v>
       </c>
@@ -10836,10 +10868,10 @@
       <c r="E46" s="113">
         <v>0</v>
       </c>
-      <c r="F46" s="141"/>
+      <c r="F46" s="149"/>
     </row>
     <row r="47" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B47" s="129"/>
+      <c r="B47" s="137"/>
       <c r="C47" s="29" t="s">
         <v>125</v>
       </c>
@@ -10849,10 +10881,10 @@
       <c r="E47" s="115">
         <v>0.2</v>
       </c>
-      <c r="F47" s="143"/>
+      <c r="F47" s="151"/>
     </row>
     <row r="48" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B48" s="129"/>
+      <c r="B48" s="137"/>
       <c r="C48" s="58" t="s">
         <v>127</v>
       </c>
@@ -10861,7 +10893,7 @@
       <c r="F48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="129"/>
+      <c r="B49" s="137"/>
       <c r="C49" s="7" t="s">
         <v>129</v>
       </c>
@@ -10871,13 +10903,13 @@
       <c r="E49" s="115">
         <v>0.15</v>
       </c>
-      <c r="F49" s="140">
+      <c r="F49" s="148">
         <f>SUM(E49:E58)</f>
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="129"/>
+      <c r="B50" s="137"/>
       <c r="C50" s="1" t="s">
         <v>128</v>
       </c>
@@ -10887,10 +10919,10 @@
       <c r="E50" s="115">
         <v>0.15</v>
       </c>
-      <c r="F50" s="141"/>
+      <c r="F50" s="149"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="129"/>
+      <c r="B51" s="137"/>
       <c r="C51" s="28" t="s">
         <v>117</v>
       </c>
@@ -10900,10 +10932,10 @@
       <c r="E51" s="115">
         <v>0.15</v>
       </c>
-      <c r="F51" s="141"/>
+      <c r="F51" s="149"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="129"/>
+      <c r="B52" s="137"/>
       <c r="C52" s="28" t="s">
         <v>118</v>
       </c>
@@ -10913,10 +10945,10 @@
       <c r="E52" s="115">
         <v>0.15</v>
       </c>
-      <c r="F52" s="141"/>
+      <c r="F52" s="149"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="129"/>
+      <c r="B53" s="137"/>
       <c r="C53" s="28" t="s">
         <v>119</v>
       </c>
@@ -10926,10 +10958,10 @@
       <c r="E53" s="115">
         <v>0.2</v>
       </c>
-      <c r="F53" s="141"/>
+      <c r="F53" s="149"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="129"/>
+      <c r="B54" s="137"/>
       <c r="C54" s="1" t="s">
         <v>130</v>
       </c>
@@ -10939,10 +10971,10 @@
       <c r="E54" s="115">
         <v>0.15</v>
       </c>
-      <c r="F54" s="141"/>
+      <c r="F54" s="149"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="129"/>
+      <c r="B55" s="137"/>
       <c r="C55" s="28" t="s">
         <v>131</v>
       </c>
@@ -10952,10 +10984,10 @@
       <c r="E55" s="115">
         <v>0.2</v>
       </c>
-      <c r="F55" s="141"/>
+      <c r="F55" s="149"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="129"/>
+      <c r="B56" s="137"/>
       <c r="C56" s="1" t="s">
         <v>132</v>
       </c>
@@ -10965,10 +10997,10 @@
       <c r="E56" s="44">
         <v>0</v>
       </c>
-      <c r="F56" s="141"/>
+      <c r="F56" s="149"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="129"/>
+      <c r="B57" s="137"/>
       <c r="C57" s="28" t="s">
         <v>133</v>
       </c>
@@ -10978,26 +11010,26 @@
       <c r="E57" s="115">
         <v>0.2</v>
       </c>
-      <c r="F57" s="141"/>
+      <c r="F57" s="149"/>
       <c r="G57" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B58" s="129"/>
+      <c r="B58" s="137"/>
       <c r="C58" s="11" t="s">
         <v>134</v>
       </c>
       <c r="D58" s="44">
         <v>0.2</v>
       </c>
-      <c r="E58" s="102">
-        <v>0</v>
-      </c>
-      <c r="F58" s="143"/>
+      <c r="E58" s="122">
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="151"/>
     </row>
     <row r="59" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B59" s="129"/>
+      <c r="B59" s="137"/>
       <c r="C59" s="58" t="s">
         <v>30</v>
       </c>
@@ -11006,7 +11038,7 @@
       <c r="F59" s="32"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="129"/>
+      <c r="B60" s="137"/>
       <c r="C60" s="7" t="s">
         <v>31</v>
       </c>
@@ -11016,13 +11048,13 @@
       <c r="E60" s="44">
         <v>0.2</v>
       </c>
-      <c r="F60" s="144">
+      <c r="F60" s="152">
         <f>SUM(E60:E62)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="129"/>
+      <c r="B61" s="137"/>
       <c r="C61" s="1" t="s">
         <v>32</v>
       </c>
@@ -11032,10 +11064,10 @@
       <c r="E61" s="44">
         <v>0.2</v>
       </c>
-      <c r="F61" s="145"/>
+      <c r="F61" s="153"/>
     </row>
     <row r="62" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B62" s="129"/>
+      <c r="B62" s="137"/>
       <c r="C62" s="11" t="s">
         <v>33</v>
       </c>
@@ -11045,10 +11077,10 @@
       <c r="E62" s="44">
         <v>0.2</v>
       </c>
-      <c r="F62" s="146"/>
+      <c r="F62" s="154"/>
     </row>
     <row r="63" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B63" s="129"/>
+      <c r="B63" s="137"/>
       <c r="C63" s="64" t="s">
         <v>34</v>
       </c>
@@ -11057,7 +11089,7 @@
       <c r="F63" s="32"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="129"/>
+      <c r="B64" s="137"/>
       <c r="C64" s="7" t="s">
         <v>62</v>
       </c>
@@ -11067,13 +11099,13 @@
       <c r="E64" s="44">
         <v>0.2</v>
       </c>
-      <c r="F64" s="144">
+      <c r="F64" s="152">
         <f>SUM(E64:E65)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B65" s="131"/>
+      <c r="B65" s="139"/>
       <c r="C65" s="11" t="s">
         <v>46</v>
       </c>
@@ -11083,10 +11115,10 @@
       <c r="E65" s="36">
         <v>0.2</v>
       </c>
-      <c r="F65" s="146"/>
+      <c r="F65" s="154"/>
     </row>
     <row r="66" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B66" s="164" t="s">
+      <c r="B66" s="172" t="s">
         <v>45</v>
       </c>
       <c r="C66" s="58" t="s">
@@ -11097,7 +11129,7 @@
       <c r="F66" s="32"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="154"/>
+      <c r="B67" s="162"/>
       <c r="C67" s="30" t="s">
         <v>143</v>
       </c>
@@ -11107,13 +11139,13 @@
       <c r="E67" s="44">
         <v>0.25</v>
       </c>
-      <c r="F67" s="140">
+      <c r="F67" s="148">
         <f>SUM(E67:E68)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B68" s="154"/>
+      <c r="B68" s="162"/>
       <c r="C68" s="29" t="s">
         <v>185</v>
       </c>
@@ -11123,10 +11155,10 @@
       <c r="E68" s="36">
         <v>0.35</v>
       </c>
-      <c r="F68" s="143"/>
+      <c r="F68" s="151"/>
     </row>
     <row r="69" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B69" s="154"/>
+      <c r="B69" s="162"/>
       <c r="C69" s="58" t="s">
         <v>100</v>
       </c>
@@ -11135,62 +11167,62 @@
       <c r="F69" s="32"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="154"/>
+      <c r="B70" s="162"/>
       <c r="C70" s="30" t="s">
         <v>145</v>
       </c>
       <c r="D70" s="44">
         <v>0.25</v>
       </c>
-      <c r="E70" s="44">
+      <c r="E70" s="118">
         <v>0</v>
       </c>
-      <c r="F70" s="140">
+      <c r="F70" s="148">
         <f>SUM(E70:E75)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="154"/>
+      <c r="B71" s="162"/>
       <c r="C71" s="31" t="s">
         <v>146</v>
       </c>
       <c r="D71" s="34">
         <v>0.15</v>
       </c>
-      <c r="E71" s="79">
+      <c r="E71" s="118">
         <v>0</v>
       </c>
-      <c r="F71" s="141"/>
+      <c r="F71" s="149"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="154"/>
+      <c r="B72" s="162"/>
       <c r="C72" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D72" s="34">
         <v>0.25</v>
       </c>
-      <c r="E72" s="79">
+      <c r="E72" s="118">
         <v>0</v>
       </c>
-      <c r="F72" s="141"/>
+      <c r="F72" s="149"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="154"/>
+      <c r="B73" s="162"/>
       <c r="C73" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D73" s="34">
         <v>0.3</v>
       </c>
-      <c r="E73" s="79">
+      <c r="E73" s="118">
         <v>0</v>
       </c>
-      <c r="F73" s="141"/>
+      <c r="F73" s="149"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="154"/>
+      <c r="B74" s="162"/>
       <c r="C74" s="1" t="s">
         <v>149</v>
       </c>
@@ -11200,23 +11232,23 @@
       <c r="E74" s="79">
         <v>0</v>
       </c>
-      <c r="F74" s="141"/>
+      <c r="F74" s="149"/>
     </row>
     <row r="75" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B75" s="154"/>
+      <c r="B75" s="162"/>
       <c r="C75" s="11" t="s">
         <v>152</v>
       </c>
       <c r="D75" s="36">
         <v>0.25</v>
       </c>
-      <c r="E75" s="79">
+      <c r="E75" s="118">
         <v>0</v>
       </c>
-      <c r="F75" s="143"/>
+      <c r="F75" s="151"/>
     </row>
     <row r="76" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B76" s="154"/>
+      <c r="B76" s="162"/>
       <c r="C76" s="58" t="s">
         <v>102</v>
       </c>
@@ -11225,36 +11257,36 @@
       <c r="F76" s="32"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="154"/>
+      <c r="B77" s="162"/>
       <c r="C77" s="7" t="s">
         <v>144</v>
       </c>
       <c r="D77" s="44">
         <v>0.25</v>
       </c>
-      <c r="E77" s="115">
-        <v>0</v>
-      </c>
-      <c r="F77" s="140">
+      <c r="E77" s="122">
+        <v>0.25</v>
+      </c>
+      <c r="F77" s="148">
         <f>SUM(E77:E96)</f>
-        <v>3.25</v>
+        <v>5.3500000000000014</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="154"/>
+      <c r="B78" s="162"/>
       <c r="C78" s="7" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="44">
         <v>0.7</v>
       </c>
-      <c r="E78" s="115">
-        <v>0</v>
-      </c>
-      <c r="F78" s="141"/>
+      <c r="E78" s="122">
+        <v>0.7</v>
+      </c>
+      <c r="F78" s="149"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="154"/>
+      <c r="B79" s="162"/>
       <c r="C79" s="1" t="s">
         <v>177</v>
       </c>
@@ -11264,10 +11296,10 @@
       <c r="E79" s="106">
         <v>0.25</v>
       </c>
-      <c r="F79" s="141"/>
+      <c r="F79" s="149"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="154"/>
+      <c r="B80" s="162"/>
       <c r="C80" s="1" t="s">
         <v>178</v>
       </c>
@@ -11277,36 +11309,36 @@
       <c r="E80" s="106">
         <v>0.25</v>
       </c>
-      <c r="F80" s="141"/>
+      <c r="F80" s="149"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="154"/>
+      <c r="B81" s="162"/>
       <c r="C81" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D81" s="34">
         <v>0.5</v>
       </c>
-      <c r="E81" s="115">
-        <v>0</v>
-      </c>
-      <c r="F81" s="141"/>
+      <c r="E81" s="122">
+        <v>0.5</v>
+      </c>
+      <c r="F81" s="149"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="154"/>
+      <c r="B82" s="162"/>
       <c r="C82" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D82" s="34">
         <v>0.25</v>
       </c>
-      <c r="E82" s="115">
-        <v>0</v>
-      </c>
-      <c r="F82" s="141"/>
+      <c r="E82" s="122">
+        <v>0.25</v>
+      </c>
+      <c r="F82" s="149"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="154"/>
+      <c r="B83" s="162"/>
       <c r="C83" s="28" t="s">
         <v>299</v>
       </c>
@@ -11316,10 +11348,10 @@
       <c r="E83" s="106">
         <v>0.2</v>
       </c>
-      <c r="F83" s="141"/>
+      <c r="F83" s="149"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="154"/>
+      <c r="B84" s="162"/>
       <c r="C84" s="1" t="s">
         <v>153</v>
       </c>
@@ -11329,10 +11361,10 @@
       <c r="E84" s="106">
         <v>0.3</v>
       </c>
-      <c r="F84" s="141"/>
+      <c r="F84" s="149"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="154"/>
+      <c r="B85" s="162"/>
       <c r="C85" s="1" t="s">
         <v>151</v>
       </c>
@@ -11342,10 +11374,10 @@
       <c r="E85" s="106">
         <v>0.25</v>
       </c>
-      <c r="F85" s="141"/>
+      <c r="F85" s="149"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="154"/>
+      <c r="B86" s="162"/>
       <c r="C86" s="28" t="s">
         <v>154</v>
       </c>
@@ -11355,10 +11387,10 @@
       <c r="E86" s="79">
         <v>0</v>
       </c>
-      <c r="F86" s="141"/>
+      <c r="F86" s="149"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="154"/>
+      <c r="B87" s="162"/>
       <c r="C87" s="1" t="s">
         <v>155</v>
       </c>
@@ -11368,10 +11400,10 @@
       <c r="E87" s="104">
         <v>0.2</v>
       </c>
-      <c r="F87" s="141"/>
+      <c r="F87" s="149"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="154"/>
+      <c r="B88" s="162"/>
       <c r="C88" s="1" t="s">
         <v>156</v>
       </c>
@@ -11381,10 +11413,10 @@
       <c r="E88" s="106">
         <v>0.25</v>
       </c>
-      <c r="F88" s="141"/>
+      <c r="F88" s="149"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="154"/>
+      <c r="B89" s="162"/>
       <c r="C89" s="1" t="s">
         <v>157</v>
       </c>
@@ -11394,10 +11426,10 @@
       <c r="E89" s="106">
         <v>0.25</v>
       </c>
-      <c r="F89" s="141"/>
+      <c r="F89" s="149"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="154"/>
+      <c r="B90" s="162"/>
       <c r="C90" s="1" t="s">
         <v>158</v>
       </c>
@@ -11407,10 +11439,10 @@
       <c r="E90" s="98">
         <v>0.2</v>
       </c>
-      <c r="F90" s="141"/>
+      <c r="F90" s="149"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="154"/>
+      <c r="B91" s="162"/>
       <c r="C91" s="1" t="s">
         <v>159</v>
       </c>
@@ -11420,23 +11452,23 @@
       <c r="E91" s="106">
         <v>0.4</v>
       </c>
-      <c r="F91" s="141"/>
+      <c r="F91" s="149"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="154"/>
+      <c r="B92" s="162"/>
       <c r="C92" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D92" s="34">
         <v>0.4</v>
       </c>
-      <c r="E92" s="79">
-        <v>0</v>
-      </c>
-      <c r="F92" s="141"/>
+      <c r="E92" s="122">
+        <v>0.4</v>
+      </c>
+      <c r="F92" s="149"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="154"/>
+      <c r="B93" s="162"/>
       <c r="C93" s="1" t="s">
         <v>161</v>
       </c>
@@ -11446,10 +11478,10 @@
       <c r="E93" s="79">
         <v>0</v>
       </c>
-      <c r="F93" s="141"/>
+      <c r="F93" s="149"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="154"/>
+      <c r="B94" s="162"/>
       <c r="C94" s="1" t="s">
         <v>162</v>
       </c>
@@ -11459,10 +11491,10 @@
       <c r="E94" s="106">
         <v>0.25</v>
       </c>
-      <c r="F94" s="141"/>
+      <c r="F94" s="149"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="154"/>
+      <c r="B95" s="162"/>
       <c r="C95" s="11" t="s">
         <v>172</v>
       </c>
@@ -11472,10 +11504,10 @@
       <c r="E95" s="98">
         <v>0.2</v>
       </c>
-      <c r="F95" s="141"/>
+      <c r="F95" s="149"/>
     </row>
     <row r="96" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B96" s="154"/>
+      <c r="B96" s="162"/>
       <c r="C96" s="11" t="s">
         <v>163</v>
       </c>
@@ -11485,10 +11517,10 @@
       <c r="E96" s="106">
         <v>0.25</v>
       </c>
-      <c r="F96" s="143"/>
+      <c r="F96" s="151"/>
     </row>
     <row r="97" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B97" s="154"/>
+      <c r="B97" s="162"/>
       <c r="C97" s="58" t="s">
         <v>121</v>
       </c>
@@ -11497,7 +11529,7 @@
       <c r="F97" s="32"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="154"/>
+      <c r="B98" s="162"/>
       <c r="C98" s="7" t="s">
         <v>164</v>
       </c>
@@ -11507,13 +11539,13 @@
       <c r="E98" s="115">
         <v>0.25</v>
       </c>
-      <c r="F98" s="140">
+      <c r="F98" s="148">
         <f>SUM(E98:E104)</f>
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="154"/>
+      <c r="B99" s="162"/>
       <c r="C99" s="1" t="s">
         <v>165</v>
       </c>
@@ -11523,10 +11555,10 @@
       <c r="E99" s="115">
         <v>0.25</v>
       </c>
-      <c r="F99" s="141"/>
+      <c r="F99" s="149"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="154"/>
+      <c r="B100" s="162"/>
       <c r="C100" s="1" t="s">
         <v>166</v>
       </c>
@@ -11536,10 +11568,10 @@
       <c r="E100" s="115">
         <v>0.25</v>
       </c>
-      <c r="F100" s="141"/>
+      <c r="F100" s="149"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="154"/>
+      <c r="B101" s="162"/>
       <c r="C101" s="1" t="s">
         <v>167</v>
       </c>
@@ -11549,10 +11581,10 @@
       <c r="E101" s="115">
         <v>0.25</v>
       </c>
-      <c r="F101" s="141"/>
+      <c r="F101" s="149"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="154"/>
+      <c r="B102" s="162"/>
       <c r="C102" s="1" t="s">
         <v>168</v>
       </c>
@@ -11562,10 +11594,10 @@
       <c r="E102" s="115">
         <v>0.25</v>
       </c>
-      <c r="F102" s="141"/>
+      <c r="F102" s="149"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="154"/>
+      <c r="B103" s="162"/>
       <c r="C103" s="1" t="s">
         <v>172</v>
       </c>
@@ -11575,23 +11607,23 @@
       <c r="E103" s="106">
         <v>0.2</v>
       </c>
-      <c r="F103" s="141"/>
+      <c r="F103" s="149"/>
     </row>
     <row r="104" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B104" s="154"/>
+      <c r="B104" s="162"/>
       <c r="C104" s="11" t="s">
         <v>169</v>
       </c>
       <c r="D104" s="36">
         <v>0.3</v>
       </c>
-      <c r="E104" s="79">
-        <v>0</v>
-      </c>
-      <c r="F104" s="143"/>
+      <c r="E104" s="122">
+        <v>0.3</v>
+      </c>
+      <c r="F104" s="151"/>
     </row>
     <row r="105" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B105" s="154"/>
+      <c r="B105" s="162"/>
       <c r="C105" s="58" t="s">
         <v>127</v>
       </c>
@@ -11600,7 +11632,7 @@
       <c r="F105" s="32"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="154"/>
+      <c r="B106" s="162"/>
       <c r="C106" s="7" t="s">
         <v>170</v>
       </c>
@@ -11610,13 +11642,13 @@
       <c r="E106" s="115">
         <v>0.25</v>
       </c>
-      <c r="F106" s="140">
+      <c r="F106" s="148">
         <f>SUM(E106:E111)</f>
-        <v>1.1499999999999999</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="154"/>
+      <c r="B107" s="162"/>
       <c r="C107" s="1" t="s">
         <v>171</v>
       </c>
@@ -11626,10 +11658,10 @@
       <c r="E107" s="115">
         <v>0.2</v>
       </c>
-      <c r="F107" s="141"/>
+      <c r="F107" s="149"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="154"/>
+      <c r="B108" s="162"/>
       <c r="C108" s="1" t="s">
         <v>173</v>
       </c>
@@ -11639,10 +11671,10 @@
       <c r="E108" s="115">
         <v>0.25</v>
       </c>
-      <c r="F108" s="141"/>
+      <c r="F108" s="149"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="154"/>
+      <c r="B109" s="162"/>
       <c r="C109" s="1" t="s">
         <v>174</v>
       </c>
@@ -11652,23 +11684,23 @@
       <c r="E109" s="115">
         <v>0.25</v>
       </c>
-      <c r="F109" s="141"/>
+      <c r="F109" s="149"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="154"/>
+      <c r="B110" s="162"/>
       <c r="C110" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D110" s="34">
         <v>0.3</v>
       </c>
-      <c r="E110" s="79">
-        <v>0</v>
-      </c>
-      <c r="F110" s="141"/>
+      <c r="E110" s="122">
+        <v>0.3</v>
+      </c>
+      <c r="F110" s="149"/>
     </row>
     <row r="111" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B111" s="154"/>
+      <c r="B111" s="162"/>
       <c r="C111" s="16" t="s">
         <v>172</v>
       </c>
@@ -11678,10 +11710,10 @@
       <c r="E111" s="115">
         <v>0.2</v>
       </c>
-      <c r="F111" s="143"/>
+      <c r="F111" s="151"/>
     </row>
     <row r="112" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B112" s="154"/>
+      <c r="B112" s="162"/>
       <c r="C112" s="64" t="s">
         <v>61</v>
       </c>
@@ -11690,23 +11722,23 @@
       <c r="F112" s="32"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="154"/>
+      <c r="B113" s="162"/>
       <c r="C113" s="7" t="s">
         <v>181</v>
       </c>
       <c r="D113" s="44">
         <v>0.1</v>
       </c>
-      <c r="E113" s="115">
+      <c r="E113" s="122">
         <v>0</v>
       </c>
-      <c r="F113" s="140">
+      <c r="F113" s="148">
         <f>SUM(E113:E118)</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="154"/>
+      <c r="B114" s="162"/>
       <c r="C114" s="1" t="s">
         <v>182</v>
       </c>
@@ -11716,10 +11748,10 @@
       <c r="E114" s="44">
         <v>0.1</v>
       </c>
-      <c r="F114" s="141"/>
+      <c r="F114" s="149"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="154"/>
+      <c r="B115" s="162"/>
       <c r="C115" s="1" t="s">
         <v>183</v>
       </c>
@@ -11729,10 +11761,10 @@
       <c r="E115" s="44">
         <v>0</v>
       </c>
-      <c r="F115" s="141"/>
+      <c r="F115" s="149"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="154"/>
+      <c r="B116" s="162"/>
       <c r="C116" s="1" t="s">
         <v>184</v>
       </c>
@@ -11742,10 +11774,10 @@
       <c r="E116" s="44">
         <v>0</v>
       </c>
-      <c r="F116" s="141"/>
+      <c r="F116" s="149"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="154"/>
+      <c r="B117" s="162"/>
       <c r="C117" s="1" t="s">
         <v>186</v>
       </c>
@@ -11755,10 +11787,10 @@
       <c r="E117" s="44">
         <v>0.1</v>
       </c>
-      <c r="F117" s="141"/>
+      <c r="F117" s="149"/>
     </row>
     <row r="118" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B118" s="154"/>
+      <c r="B118" s="162"/>
       <c r="C118" s="11" t="s">
         <v>187</v>
       </c>
@@ -11768,10 +11800,10 @@
       <c r="E118" s="44">
         <v>0</v>
       </c>
-      <c r="F118" s="143"/>
+      <c r="F118" s="151"/>
     </row>
     <row r="119" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B119" s="154"/>
+      <c r="B119" s="162"/>
       <c r="C119" s="58" t="s">
         <v>34</v>
       </c>
@@ -11780,23 +11812,23 @@
       <c r="F119" s="32"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="154"/>
+      <c r="B120" s="162"/>
       <c r="C120" s="30" t="s">
         <v>179</v>
       </c>
       <c r="D120" s="44">
         <v>0.6</v>
       </c>
-      <c r="E120" s="44">
-        <v>0</v>
-      </c>
-      <c r="F120" s="140">
+      <c r="E120" s="122">
+        <v>0.6</v>
+      </c>
+      <c r="F120" s="148">
         <f>SUM(E120:E124)</f>
-        <v>0.15</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="154"/>
+      <c r="B121" s="162"/>
       <c r="C121" s="1" t="s">
         <v>180</v>
       </c>
@@ -11806,23 +11838,23 @@
       <c r="E121" s="34">
         <v>0</v>
       </c>
-      <c r="F121" s="141"/>
+      <c r="F121" s="149"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="154"/>
+      <c r="B122" s="162"/>
       <c r="C122" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D122" s="34">
         <v>0.125</v>
       </c>
-      <c r="E122" s="34">
-        <v>0</v>
-      </c>
-      <c r="F122" s="141"/>
+      <c r="E122" s="123">
+        <v>0.125</v>
+      </c>
+      <c r="F122" s="149"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="154"/>
+      <c r="B123" s="162"/>
       <c r="C123" s="1" t="s">
         <v>188</v>
       </c>
@@ -11832,41 +11864,35 @@
       <c r="E123" s="34">
         <v>0.15</v>
       </c>
-      <c r="F123" s="141"/>
+      <c r="F123" s="149"/>
     </row>
     <row r="124" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B124" s="165"/>
+      <c r="B124" s="173"/>
       <c r="C124" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D124" s="35">
         <v>0.3</v>
       </c>
-      <c r="E124" s="35">
-        <v>0</v>
-      </c>
-      <c r="F124" s="143"/>
+      <c r="E124" s="124">
+        <v>0.3</v>
+      </c>
+      <c r="F124" s="151"/>
     </row>
     <row r="125" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B125" s="120" t="s">
+      <c r="B125" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="C125" s="162"/>
-      <c r="D125" s="162"/>
-      <c r="E125" s="163"/>
+      <c r="C125" s="170"/>
+      <c r="D125" s="170"/>
+      <c r="E125" s="171"/>
       <c r="F125" s="63">
         <f>SUM(F4:F124)</f>
-        <v>15.349999999999998</v>
+        <v>19.775000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F77:F96"/>
-    <mergeCell ref="F98:F104"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="B3:B65"/>
     <mergeCell ref="B125:E125"/>
     <mergeCell ref="B66:B124"/>
     <mergeCell ref="F4:F11"/>
@@ -11879,6 +11905,12 @@
     <mergeCell ref="F67:F68"/>
     <mergeCell ref="F70:F75"/>
     <mergeCell ref="F106:F111"/>
+    <mergeCell ref="F77:F96"/>
+    <mergeCell ref="F98:F104"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="B3:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11890,8 +11922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A14CCF-DCC6-8145-A45C-85699F6AE450}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -11905,10 +11937,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -11920,7 +11952,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="161" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -11931,7 +11963,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="156"/>
+      <c r="B4" s="164"/>
       <c r="C4" s="7" t="s">
         <v>215</v>
       </c>
@@ -11941,13 +11973,13 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="141">
+      <c r="F4" s="149">
         <f>SUM(E4:E5)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B5" s="156"/>
+      <c r="B5" s="164"/>
       <c r="C5" s="11" t="s">
         <v>216</v>
       </c>
@@ -11957,10 +11989,10 @@
       <c r="E5" s="84">
         <v>0.15</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B6" s="156"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="58" t="s">
         <v>30</v>
       </c>
@@ -11969,7 +12001,7 @@
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="156"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
@@ -11979,13 +12011,13 @@
       <c r="E7" s="84">
         <v>0.2</v>
       </c>
-      <c r="F7" s="144">
+      <c r="F7" s="152">
         <f>SUM(E7:E9)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="156"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -11995,10 +12027,10 @@
       <c r="E8" s="85">
         <v>0.2</v>
       </c>
-      <c r="F8" s="145"/>
+      <c r="F8" s="153"/>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="156"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -12008,10 +12040,10 @@
       <c r="E9" s="99">
         <v>0.2</v>
       </c>
-      <c r="F9" s="146"/>
+      <c r="F9" s="154"/>
     </row>
     <row r="10" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B10" s="156"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="64" t="s">
         <v>34</v>
       </c>
@@ -12020,7 +12052,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="156"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
@@ -12030,13 +12062,13 @@
       <c r="E11" s="84">
         <v>0.2</v>
       </c>
-      <c r="F11" s="144">
+      <c r="F11" s="152">
         <f>SUM(E11:E12)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="158"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -12046,10 +12078,10 @@
       <c r="E12" s="86">
         <v>0.2</v>
       </c>
-      <c r="F12" s="146"/>
+      <c r="F12" s="154"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="146" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -12060,7 +12092,7 @@
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="139"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="30" t="s">
         <v>218</v>
       </c>
@@ -12068,13 +12100,13 @@
         <v>1.5</v>
       </c>
       <c r="E14" s="44"/>
-      <c r="F14" s="141">
+      <c r="F14" s="149">
         <f>SUM(E14:E28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="139"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="28" t="s">
         <v>219</v>
       </c>
@@ -12082,10 +12114,10 @@
         <v>0.25</v>
       </c>
       <c r="E15" s="34"/>
-      <c r="F15" s="141"/>
+      <c r="F15" s="149"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="139"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="28" t="s">
         <v>220</v>
       </c>
@@ -12093,10 +12125,10 @@
         <v>0.3</v>
       </c>
       <c r="E16" s="34"/>
-      <c r="F16" s="141"/>
+      <c r="F16" s="149"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="139"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="28" t="s">
         <v>221</v>
       </c>
@@ -12104,10 +12136,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="34"/>
-      <c r="F17" s="141"/>
+      <c r="F17" s="149"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="139"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="28" t="s">
         <v>222</v>
       </c>
@@ -12115,10 +12147,10 @@
         <v>0.2</v>
       </c>
       <c r="E18" s="34"/>
-      <c r="F18" s="141"/>
+      <c r="F18" s="149"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="139"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="28" t="s">
         <v>223</v>
       </c>
@@ -12126,10 +12158,10 @@
         <v>0.15</v>
       </c>
       <c r="E19" s="34"/>
-      <c r="F19" s="141"/>
+      <c r="F19" s="149"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="139"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="28" t="s">
         <v>327</v>
       </c>
@@ -12137,10 +12169,10 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="34"/>
-      <c r="F20" s="141"/>
+      <c r="F20" s="149"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="139"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="28" t="s">
         <v>224</v>
       </c>
@@ -12148,10 +12180,10 @@
         <v>0.3</v>
       </c>
       <c r="E21" s="34"/>
-      <c r="F21" s="141"/>
+      <c r="F21" s="149"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="139"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="28" t="s">
         <v>225</v>
       </c>
@@ -12159,10 +12191,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="141"/>
+      <c r="F22" s="149"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="139"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="28" t="s">
         <v>226</v>
       </c>
@@ -12170,10 +12202,10 @@
         <v>0.4</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="141"/>
+      <c r="F23" s="149"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="139"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="28" t="s">
         <v>227</v>
       </c>
@@ -12181,10 +12213,10 @@
         <v>0.4</v>
       </c>
       <c r="E24" s="34"/>
-      <c r="F24" s="141"/>
+      <c r="F24" s="149"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="139"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="28" t="s">
         <v>228</v>
       </c>
@@ -12192,10 +12224,10 @@
         <v>0.4</v>
       </c>
       <c r="E25" s="34"/>
-      <c r="F25" s="141"/>
+      <c r="F25" s="149"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="139"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="28" t="s">
         <v>229</v>
       </c>
@@ -12203,10 +12235,10 @@
         <v>0.25</v>
       </c>
       <c r="E26" s="34"/>
-      <c r="F26" s="141"/>
+      <c r="F26" s="149"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="139"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="28" t="s">
         <v>230</v>
       </c>
@@ -12214,10 +12246,10 @@
         <v>0.25</v>
       </c>
       <c r="E27" s="34"/>
-      <c r="F27" s="141"/>
+      <c r="F27" s="149"/>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="139"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="29" t="s">
         <v>231</v>
       </c>
@@ -12225,10 +12257,10 @@
         <v>0.25</v>
       </c>
       <c r="E28" s="36"/>
-      <c r="F28" s="141"/>
+      <c r="F28" s="149"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="139"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="58" t="s">
         <v>232</v>
       </c>
@@ -12237,7 +12269,7 @@
       <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="139"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="30" t="s">
         <v>233</v>
       </c>
@@ -12245,13 +12277,13 @@
         <v>0.2</v>
       </c>
       <c r="E30" s="44"/>
-      <c r="F30" s="141">
+      <c r="F30" s="149">
         <f>SUM(E30:E33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="139"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="28" t="s">
         <v>234</v>
       </c>
@@ -12259,10 +12291,10 @@
         <v>0.4</v>
       </c>
       <c r="E31" s="34"/>
-      <c r="F31" s="141"/>
+      <c r="F31" s="149"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="139"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="28" t="s">
         <v>235</v>
       </c>
@@ -12270,10 +12302,10 @@
         <v>0.25</v>
       </c>
       <c r="E32" s="34"/>
-      <c r="F32" s="141"/>
+      <c r="F32" s="149"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="139"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="29" t="s">
         <v>236</v>
       </c>
@@ -12281,10 +12313,10 @@
         <v>0.4</v>
       </c>
       <c r="E33" s="36"/>
-      <c r="F33" s="141"/>
+      <c r="F33" s="149"/>
     </row>
     <row r="34" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B34" s="139"/>
+      <c r="B34" s="147"/>
       <c r="C34" s="58" t="s">
         <v>34</v>
       </c>
@@ -12293,7 +12325,7 @@
       <c r="F34" s="32"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="139"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="7" t="s">
         <v>35</v>
       </c>
@@ -12301,13 +12333,13 @@
         <v>0.125</v>
       </c>
       <c r="E35" s="44"/>
-      <c r="F35" s="144">
+      <c r="F35" s="152">
         <f>SUM(E35:E37)</f>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="139"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="1" t="s">
         <v>188</v>
       </c>
@@ -12317,43 +12349,45 @@
       <c r="E36" s="85">
         <v>0.15</v>
       </c>
-      <c r="F36" s="145"/>
+      <c r="F36" s="153"/>
     </row>
     <row r="37" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B37" s="142"/>
+      <c r="B37" s="150"/>
       <c r="C37" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="35">
         <v>0.3</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="161"/>
+      <c r="E37" s="124">
+        <v>0.3</v>
+      </c>
+      <c r="F37" s="169"/>
     </row>
     <row r="38" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B38" s="166" t="s">
+      <c r="B38" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="168"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="176"/>
       <c r="F38" s="63">
         <f>SUM(F4:F37)</f>
-        <v>1.4500000000000002</v>
+        <v>1.7500000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="F35:F37"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B13:B37"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F14:F28"/>
     <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="F35:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MT.xlsx
+++ b/MT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86259D1-A758-4CC4-8CB1-5E05F59C2F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD66D91-DB59-4F40-AE53-78843D444D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="1000" firstSheet="1" activeTab="13" xr2:uid="{556EC7CD-A7EC-924A-86C6-FEF6C985B965}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="1000" firstSheet="1" activeTab="1" xr2:uid="{556EC7CD-A7EC-924A-86C6-FEF6C985B965}"/>
   </bookViews>
   <sheets>
     <sheet name="Miscellaneous" sheetId="14" r:id="rId1"/>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="345">
   <si>
     <t>Component</t>
   </si>
@@ -2587,9 +2587,6 @@
     <t>ini udah smua directory tar bilang SO</t>
   </si>
   <si>
-    <t>TAR BUAT SAVED SAMA SETTINGS</t>
-  </si>
-  <si>
     <t>ini ksi query db aj du</t>
   </si>
   <si>
@@ -2597,6 +2594,15 @@
   </si>
   <si>
     <t>0 ,3</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>udah fixed menunya</t>
+  </si>
+  <si>
+    <t>dah sabi ke saved sama setting</t>
   </si>
 </sst>
 </file>
@@ -3267,7 +3273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3518,9 +3524,6 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3533,25 +3536,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3910,10 +3923,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4.1000000000000005</c:v>
+                  <c:v>6.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7249999999999996</c:v>
+                  <c:v>6.1749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.5500000000000003</c:v>
@@ -3928,10 +3941,10 @@
                   <c:v>4.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.775000000000002</c:v>
+                  <c:v>20.475000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9</c:v>
+                  <c:v>1.9750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.7500000000000002</c:v>
@@ -3940,13 +3953,13 @@
                   <c:v>3.0750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5</c:v>
+                  <c:v>2.6499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7249999999999988</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5750000000000002</c:v>
+                  <c:v>4.9750000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4027,10 +4040,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4.5000000000000009</c:v>
+                  <c:v>2.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1500000000000021</c:v>
+                  <c:v>1.700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4045,10 +4058,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3499999999999979</c:v>
+                  <c:v>2.6499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9250000000000025</c:v>
+                  <c:v>7.8500000000000032</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10.225000000000001</c:v>
@@ -4057,13 +4070,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4749999999999988</c:v>
+                  <c:v>2.3249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.84999999999999964</c:v>
+                  <c:v>0.77499999999999858</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6000000000000005</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4796,15 +4809,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>36308</xdr:rowOff>
+      <xdr:colOff>231360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>634997</xdr:colOff>
+      <xdr:colOff>840737</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>137909</xdr:rowOff>
+      <xdr:rowOff>84569</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5131,8 +5144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B167C5-1ED2-9D41-A960-D58FFC16A91F}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5171,7 +5184,9 @@
       <c r="C4" s="44">
         <v>0.4</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="94">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="5" spans="2:4" ht="16.2" thickBot="1">
       <c r="B5" s="58" t="s">
@@ -5227,7 +5242,9 @@
       <c r="C10" s="36">
         <v>0.4</v>
       </c>
-      <c r="D10" s="95"/>
+      <c r="D10" s="95">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="11" spans="2:4" ht="16.2" thickBot="1">
       <c r="B11" s="58" t="s">
@@ -5252,7 +5269,9 @@
       <c r="C13" s="36">
         <v>0.4</v>
       </c>
-      <c r="D13" s="95"/>
+      <c r="D13" s="95">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="16.2" thickBot="1">
       <c r="B14" s="58" t="s">
@@ -5279,7 +5298,9 @@
       <c r="C16" s="34">
         <v>0.4</v>
       </c>
-      <c r="D16" s="96"/>
+      <c r="D16" s="96">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
@@ -5339,7 +5360,9 @@
       <c r="C22" s="57">
         <v>0.4</v>
       </c>
-      <c r="D22" s="97"/>
+      <c r="D22" s="97">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="23" spans="2:4" ht="16.2" thickBot="1">
       <c r="B23" s="58" t="s">
@@ -5356,17 +5379,17 @@
         <v>1.5</v>
       </c>
       <c r="D24" s="49">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="16.2" thickBot="1">
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="127"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="62">
         <f>SUM(D4:D24)</f>
-        <v>4.1000000000000005</v>
+        <v>6.6000000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -5382,8 +5405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626DDC4-C184-3148-8754-559C01A088BC}">
   <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:E47"/>
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E25" sqref="E21:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5397,10 +5420,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="177"/>
+      <c r="C2" s="180"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -5412,7 +5435,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="184" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -5423,7 +5446,7 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="164"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="7" t="s">
         <v>191</v>
       </c>
@@ -5433,13 +5456,13 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="183">
+      <c r="F4" s="186">
         <f>SUM(E4:E11)</f>
-        <v>0.75</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="164"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="1" t="s">
         <v>192</v>
       </c>
@@ -5449,10 +5472,10 @@
       <c r="E5" s="84">
         <v>0.15</v>
       </c>
-      <c r="F5" s="184"/>
+      <c r="F5" s="187"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="164"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="1" t="s">
         <v>193</v>
       </c>
@@ -5462,21 +5485,21 @@
       <c r="E6" s="84">
         <v>0.15</v>
       </c>
-      <c r="F6" s="184"/>
+      <c r="F6" s="187"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="164"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="28" t="s">
         <v>194</v>
       </c>
       <c r="D7" s="44">
         <v>0.3</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="184"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="187"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="164"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="1" t="s">
         <v>115</v>
       </c>
@@ -5486,21 +5509,23 @@
       <c r="E8" s="84">
         <v>0.15</v>
       </c>
-      <c r="F8" s="184"/>
+      <c r="F8" s="187"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="164"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D9" s="44">
         <v>0.15</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="184"/>
+      <c r="E9" s="94">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F9" s="187"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="164"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="1" t="s">
         <v>207</v>
       </c>
@@ -5510,10 +5535,10 @@
       <c r="E10" s="84">
         <v>0.15</v>
       </c>
-      <c r="F10" s="184"/>
+      <c r="F10" s="187"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="164"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="29" t="s">
         <v>214</v>
       </c>
@@ -5521,10 +5546,10 @@
         <v>0.3</v>
       </c>
       <c r="E11" s="44"/>
-      <c r="F11" s="185"/>
+      <c r="F11" s="188"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="164"/>
+      <c r="B12" s="167"/>
       <c r="C12" s="58" t="s">
         <v>30</v>
       </c>
@@ -5533,7 +5558,7 @@
       <c r="F12" s="51"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="164"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
@@ -5543,13 +5568,13 @@
       <c r="E13" s="84">
         <v>0.2</v>
       </c>
-      <c r="F13" s="178">
+      <c r="F13" s="181">
         <f>SUM(E13:E15)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="164"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
@@ -5559,10 +5584,10 @@
       <c r="E14" s="85">
         <v>0.2</v>
       </c>
-      <c r="F14" s="179"/>
+      <c r="F14" s="182"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="164"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -5572,10 +5597,10 @@
       <c r="E15" s="86">
         <v>0.2</v>
       </c>
-      <c r="F15" s="180"/>
+      <c r="F15" s="183"/>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="164"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="64" t="s">
         <v>34</v>
       </c>
@@ -5584,7 +5609,7 @@
       <c r="F16" s="51"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="164"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="7" t="s">
         <v>62</v>
       </c>
@@ -5594,13 +5619,13 @@
       <c r="E17" s="84">
         <v>0.2</v>
       </c>
-      <c r="F17" s="178">
+      <c r="F17" s="181">
         <f>SUM(E17:E18)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="166"/>
+      <c r="B18" s="169"/>
       <c r="C18" s="11" t="s">
         <v>46</v>
       </c>
@@ -5610,10 +5635,10 @@
       <c r="E18" s="86">
         <v>0.2</v>
       </c>
-      <c r="F18" s="180"/>
+      <c r="F18" s="183"/>
     </row>
     <row r="19" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="164" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -5624,7 +5649,7 @@
       <c r="F19" s="51"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="164"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="30" t="s">
         <v>300</v>
       </c>
@@ -5632,68 +5657,68 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="44"/>
-      <c r="F20" s="183">
+      <c r="F20" s="186">
         <f>SUM(E20:E36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="164"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="28" t="s">
         <v>196</v>
       </c>
       <c r="D21" s="34">
         <v>0.25</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="184"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="187"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="164"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="28" t="s">
         <v>197</v>
       </c>
       <c r="D22" s="34">
         <v>0.25</v>
       </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="184"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="187"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="164"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="28" t="s">
         <v>301</v>
       </c>
       <c r="D23" s="34">
         <v>0.4</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="184"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="187"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="164"/>
+      <c r="B24" s="167"/>
       <c r="C24" s="28" t="s">
         <v>302</v>
       </c>
       <c r="D24" s="34">
         <v>0.4</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="184"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="187"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="164"/>
+      <c r="B25" s="167"/>
       <c r="C25" s="28" t="s">
         <v>303</v>
       </c>
       <c r="D25" s="34">
         <v>0.5</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="184"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="187"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="164"/>
+      <c r="B26" s="167"/>
       <c r="C26" s="28" t="s">
         <v>304</v>
       </c>
@@ -5701,21 +5726,21 @@
         <v>0.5</v>
       </c>
       <c r="E26" s="34"/>
-      <c r="F26" s="184"/>
+      <c r="F26" s="187"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="164"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="28" t="s">
         <v>198</v>
       </c>
       <c r="D27" s="34">
         <v>0.4</v>
       </c>
-      <c r="E27" s="117"/>
-      <c r="F27" s="184"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="187"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="164"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="28" t="s">
         <v>199</v>
       </c>
@@ -5723,10 +5748,10 @@
         <v>0.4</v>
       </c>
       <c r="E28" s="34"/>
-      <c r="F28" s="184"/>
+      <c r="F28" s="187"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="164"/>
+      <c r="B29" s="167"/>
       <c r="C29" s="28" t="s">
         <v>203</v>
       </c>
@@ -5734,54 +5759,54 @@
         <v>0.3</v>
       </c>
       <c r="E29" s="34"/>
-      <c r="F29" s="184"/>
+      <c r="F29" s="187"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="164"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="28" t="s">
         <v>204</v>
       </c>
       <c r="D30" s="34">
         <v>0.3</v>
       </c>
-      <c r="E30" s="119"/>
-      <c r="F30" s="184"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="187"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="164"/>
+      <c r="B31" s="167"/>
       <c r="C31" s="28" t="s">
         <v>205</v>
       </c>
       <c r="D31" s="34">
         <v>0.25</v>
       </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="184"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="187"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="164"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="28" t="s">
         <v>206</v>
       </c>
       <c r="D32" s="34">
         <v>0.5</v>
       </c>
-      <c r="E32" s="117"/>
-      <c r="F32" s="184"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="187"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="164"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="28" t="s">
         <v>208</v>
       </c>
       <c r="D33" s="34">
         <v>0.3</v>
       </c>
-      <c r="E33" s="117"/>
-      <c r="F33" s="184"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="187"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="164"/>
+      <c r="B34" s="167"/>
       <c r="C34" s="28" t="s">
         <v>209</v>
       </c>
@@ -5789,10 +5814,10 @@
         <v>0.4</v>
       </c>
       <c r="E34" s="34"/>
-      <c r="F34" s="184"/>
+      <c r="F34" s="187"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="164"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="28" t="s">
         <v>210</v>
       </c>
@@ -5800,21 +5825,21 @@
         <v>0.4</v>
       </c>
       <c r="E35" s="34"/>
-      <c r="F35" s="184"/>
+      <c r="F35" s="187"/>
     </row>
     <row r="36" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B36" s="164"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="29" t="s">
         <v>211</v>
       </c>
       <c r="D36" s="36">
         <v>0.3</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="185"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="188"/>
     </row>
     <row r="37" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B37" s="164"/>
+      <c r="B37" s="167"/>
       <c r="C37" s="64" t="s">
         <v>200</v>
       </c>
@@ -5823,32 +5848,32 @@
       <c r="F37" s="51"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="164"/>
+      <c r="B38" s="167"/>
       <c r="C38" s="30" t="s">
         <v>201</v>
       </c>
       <c r="D38" s="44">
         <v>0.25</v>
       </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="183">
+      <c r="E38" s="94"/>
+      <c r="F38" s="186">
         <f>SUM(E38:E39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B39" s="164"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="29" t="s">
         <v>202</v>
       </c>
       <c r="D39" s="36">
         <v>0.25</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="185"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="188"/>
     </row>
     <row r="40" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B40" s="164"/>
+      <c r="B40" s="167"/>
       <c r="C40" s="58" t="s">
         <v>61</v>
       </c>
@@ -5857,32 +5882,32 @@
       <c r="F40" s="51"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="164"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="30" t="s">
         <v>212</v>
       </c>
       <c r="D41" s="44">
         <v>0.1</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="183">
+      <c r="E41" s="94"/>
+      <c r="F41" s="186">
         <f>SUM(E41:E42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B42" s="164"/>
+      <c r="B42" s="167"/>
       <c r="C42" s="29" t="s">
         <v>213</v>
       </c>
       <c r="D42" s="36">
         <v>0.1</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="184"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="187"/>
     </row>
     <row r="43" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B43" s="164"/>
+      <c r="B43" s="167"/>
       <c r="C43" s="58" t="s">
         <v>34</v>
       </c>
@@ -5891,21 +5916,21 @@
       <c r="F43" s="51"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="164"/>
+      <c r="B44" s="167"/>
       <c r="C44" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="44">
         <v>0.125</v>
       </c>
-      <c r="E44" s="44"/>
-      <c r="F44" s="178">
+      <c r="E44" s="94"/>
+      <c r="F44" s="181">
         <f>SUM(E44:E46)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="164"/>
+      <c r="B45" s="167"/>
       <c r="C45" s="1" t="s">
         <v>188</v>
       </c>
@@ -5915,31 +5940,31 @@
       <c r="E45" s="85">
         <v>0.15</v>
       </c>
-      <c r="F45" s="179"/>
+      <c r="F45" s="182"/>
     </row>
     <row r="46" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B46" s="165"/>
+      <c r="B46" s="168"/>
       <c r="C46" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D46" s="35">
         <v>0.3</v>
       </c>
-      <c r="E46" s="124" t="s">
-        <v>342</v>
-      </c>
-      <c r="F46" s="180"/>
+      <c r="E46" s="122" t="s">
+        <v>341</v>
+      </c>
+      <c r="F46" s="183"/>
     </row>
     <row r="47" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B47" s="182" t="s">
+      <c r="B47" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="171"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="173"/>
+      <c r="E47" s="174"/>
       <c r="F47" s="58">
         <f>SUM(F4:F46)</f>
-        <v>1.9</v>
+        <v>1.9750000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5965,8 +5990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F8C43A-DECD-594C-BC3F-270A5E6C60A9}">
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5980,10 +6005,10 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="187"/>
+      <c r="C2" s="190"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -5995,7 +6020,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="164" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="68" t="s">
@@ -6006,7 +6031,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="181"/>
+      <c r="B4" s="184"/>
       <c r="C4" s="38" t="s">
         <v>305</v>
       </c>
@@ -6016,13 +6041,13 @@
       <c r="E4" s="47">
         <v>0.15</v>
       </c>
-      <c r="F4" s="148">
+      <c r="F4" s="151">
         <f>SUM(E4:E5)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B5" s="181"/>
+      <c r="B5" s="184"/>
       <c r="C5" t="s">
         <v>306</v>
       </c>
@@ -6032,10 +6057,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="151"/>
+      <c r="F5" s="154"/>
     </row>
     <row r="6" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B6" s="181"/>
+      <c r="B6" s="184"/>
       <c r="C6" s="58" t="s">
         <v>30</v>
       </c>
@@ -6044,7 +6069,7 @@
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="164"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
@@ -6054,13 +6079,13 @@
       <c r="E7" s="44">
         <v>0.2</v>
       </c>
-      <c r="F7" s="152">
+      <c r="F7" s="155">
         <f>SUM(E7:E9)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="164"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -6070,10 +6095,10 @@
       <c r="E8" s="34">
         <v>0.2</v>
       </c>
-      <c r="F8" s="153"/>
+      <c r="F8" s="156"/>
     </row>
     <row r="9" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B9" s="164"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6083,10 +6108,10 @@
       <c r="E9" s="36">
         <v>0.2</v>
       </c>
-      <c r="F9" s="154"/>
+      <c r="F9" s="157"/>
     </row>
     <row r="10" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B10" s="164"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="64" t="s">
         <v>34</v>
       </c>
@@ -6095,7 +6120,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="164"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
@@ -6105,7 +6130,7 @@
       <c r="E11" s="84">
         <v>0.2</v>
       </c>
-      <c r="F11" s="152">
+      <c r="F11" s="155">
         <f>SUM(E11:E12)</f>
         <v>0.4</v>
       </c>
@@ -6114,7 +6139,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B12" s="166"/>
+      <c r="B12" s="169"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -6124,10 +6149,10 @@
       <c r="E12" s="36">
         <v>0.2</v>
       </c>
-      <c r="F12" s="154"/>
+      <c r="F12" s="157"/>
     </row>
     <row r="13" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="164" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -6138,14 +6163,14 @@
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B14" s="164"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="19" t="s">
         <v>238</v>
       </c>
       <c r="D14" s="48">
         <v>0.5</v>
       </c>
-      <c r="E14" s="120">
+      <c r="E14" s="118">
         <v>0.5</v>
       </c>
       <c r="F14" s="48">
@@ -6154,7 +6179,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B15" s="164"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="64" t="s">
         <v>61</v>
       </c>
@@ -6163,14 +6188,14 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B16" s="164"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="19" t="s">
         <v>307</v>
       </c>
       <c r="D16" s="48">
         <v>0.1</v>
       </c>
-      <c r="E16" s="120">
+      <c r="E16" s="118">
         <v>0.1</v>
       </c>
       <c r="F16" s="48">
@@ -6179,7 +6204,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="164"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="58" t="s">
         <v>34</v>
       </c>
@@ -6188,23 +6213,23 @@
       <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="164"/>
+      <c r="B18" s="167"/>
       <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="44">
         <v>0.125</v>
       </c>
-      <c r="E18" s="115">
+      <c r="E18" s="114">
         <v>0.125</v>
       </c>
-      <c r="F18" s="152">
+      <c r="F18" s="155">
         <f>SUM(E18:E21)</f>
         <v>1.1749999999999998</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="164"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="1" t="s">
         <v>188</v>
       </c>
@@ -6214,41 +6239,41 @@
       <c r="E19" s="85">
         <v>0.15</v>
       </c>
-      <c r="F19" s="153"/>
+      <c r="F19" s="156"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="164"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="34">
         <v>0.3</v>
       </c>
-      <c r="E20" s="123">
+      <c r="E20" s="121">
         <v>0.3</v>
       </c>
-      <c r="F20" s="153"/>
+      <c r="F20" s="156"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="165"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="75" t="s">
         <v>179</v>
       </c>
       <c r="D21" s="35">
         <v>0.6</v>
       </c>
-      <c r="E21" s="121">
+      <c r="E21" s="119">
         <v>0.6</v>
       </c>
-      <c r="F21" s="169"/>
+      <c r="F21" s="172"/>
     </row>
     <row r="22" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="127"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="130"/>
       <c r="F22" s="63">
         <f>SUM(F4:F21)</f>
         <v>3.0750000000000002</v>
@@ -6272,10 +6297,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA2FF9E-EF1B-764A-B143-1E2142586A6D}">
-  <dimension ref="B1:F29"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E29"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6289,10 +6314,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="135"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -6304,7 +6329,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="184" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -6315,7 +6340,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="164"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="7" t="s">
         <v>240</v>
       </c>
@@ -6325,13 +6350,13 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="148">
+      <c r="F4" s="151">
         <f>SUM(E4:E6)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="164"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="1" t="s">
         <v>244</v>
       </c>
@@ -6341,10 +6366,10 @@
       <c r="E5" s="84">
         <v>0.3</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="152"/>
     </row>
     <row r="6" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B6" s="164"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="11" t="s">
         <v>241</v>
       </c>
@@ -6354,10 +6379,10 @@
       <c r="E6" s="84">
         <v>0.15</v>
       </c>
-      <c r="F6" s="151"/>
+      <c r="F6" s="154"/>
     </row>
     <row r="7" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B7" s="164"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="58" t="s">
         <v>242</v>
       </c>
@@ -6366,7 +6391,7 @@
       <c r="F7" s="32"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="164"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="7" t="s">
         <v>243</v>
       </c>
@@ -6376,13 +6401,13 @@
       <c r="E8" s="84">
         <v>0.15</v>
       </c>
-      <c r="F8" s="148">
+      <c r="F8" s="151">
         <f>SUM(E8:E9)</f>
         <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="164"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="11" t="s">
         <v>244</v>
       </c>
@@ -6392,10 +6417,10 @@
       <c r="E9" s="84">
         <v>0.3</v>
       </c>
-      <c r="F9" s="151"/>
+      <c r="F9" s="154"/>
     </row>
     <row r="10" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B10" s="164"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="58" t="s">
         <v>30</v>
       </c>
@@ -6404,7 +6429,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="164"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
@@ -6414,13 +6439,13 @@
       <c r="E11" s="84">
         <v>0.2</v>
       </c>
-      <c r="F11" s="152">
+      <c r="F11" s="155">
         <f>SUM(E11:E13)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="164"/>
+      <c r="B12" s="167"/>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -6430,10 +6455,10 @@
       <c r="E12" s="85">
         <v>0.2</v>
       </c>
-      <c r="F12" s="153"/>
+      <c r="F12" s="156"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="164"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
@@ -6443,10 +6468,10 @@
       <c r="E13" s="86">
         <v>0.2</v>
       </c>
-      <c r="F13" s="154"/>
+      <c r="F13" s="157"/>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="164"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="64" t="s">
         <v>34</v>
       </c>
@@ -6455,7 +6480,7 @@
       <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="164"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="7" t="s">
         <v>62</v>
       </c>
@@ -6465,13 +6490,13 @@
       <c r="E15" s="84">
         <v>0.2</v>
       </c>
-      <c r="F15" s="152">
+      <c r="F15" s="155">
         <f>SUM(E15:E16)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="166"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
@@ -6481,10 +6506,10 @@
       <c r="E16" s="86">
         <v>0.2</v>
       </c>
-      <c r="F16" s="154"/>
-    </row>
-    <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="161" t="s">
+      <c r="F16" s="157"/>
+    </row>
+    <row r="17" spans="2:10" ht="16.2" thickBot="1">
+      <c r="B17" s="164" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -6494,8 +6519,8 @@
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="164"/>
+    <row r="18" spans="2:10">
+      <c r="B18" s="167"/>
       <c r="C18" s="30" t="s">
         <v>246</v>
       </c>
@@ -6503,13 +6528,13 @@
         <v>1.5</v>
       </c>
       <c r="E18" s="44"/>
-      <c r="F18" s="148">
+      <c r="F18" s="151">
         <f>SUM(E18:E20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="164"/>
+    <row r="19" spans="2:10">
+      <c r="B19" s="167"/>
       <c r="C19" s="19" t="s">
         <v>332</v>
       </c>
@@ -6517,10 +6542,10 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="107"/>
-      <c r="F19" s="149"/>
-    </row>
-    <row r="20" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B20" s="164"/>
+      <c r="F19" s="152"/>
+    </row>
+    <row r="20" spans="2:10" ht="16.2" thickBot="1">
+      <c r="B20" s="167"/>
       <c r="C20" s="29" t="s">
         <v>247</v>
       </c>
@@ -6528,55 +6553,64 @@
         <v>0.25</v>
       </c>
       <c r="E20" s="36"/>
-      <c r="F20" s="151"/>
-    </row>
-    <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="164"/>
+      <c r="F20" s="154"/>
+    </row>
+    <row r="21" spans="2:10" ht="16.2" thickBot="1">
+      <c r="B21" s="167"/>
       <c r="C21" s="58" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="164"/>
+      <c r="J21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="167"/>
       <c r="C22" s="30" t="s">
         <v>248</v>
       </c>
       <c r="D22" s="44">
         <v>0.1</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="148">
+      <c r="E22" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="151">
         <f>SUM(E22:E24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="164"/>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="167"/>
       <c r="C23" s="28" t="s">
         <v>249</v>
       </c>
       <c r="D23" s="34">
         <v>0.1</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="149"/>
-    </row>
-    <row r="24" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B24" s="164"/>
+      <c r="E23" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="152"/>
+    </row>
+    <row r="24" spans="2:10" ht="16.2" thickBot="1">
+      <c r="B24" s="167"/>
       <c r="C24" s="29" t="s">
         <v>325</v>
       </c>
       <c r="D24" s="36">
         <v>0.1</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="151"/>
-    </row>
-    <row r="25" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B25" s="164"/>
+      <c r="E24" s="95">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="154"/>
+    </row>
+    <row r="25" spans="2:10" ht="16.2" thickBot="1">
+      <c r="B25" s="167"/>
       <c r="C25" s="58" t="s">
         <v>34</v>
       </c>
@@ -6584,8 +6618,8 @@
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="164"/>
+    <row r="26" spans="2:10">
+      <c r="B26" s="167"/>
       <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
@@ -6593,13 +6627,13 @@
         <v>0.125</v>
       </c>
       <c r="E26" s="44"/>
-      <c r="F26" s="152">
+      <c r="F26" s="155">
         <f>SUM(E26:E28)</f>
         <v>0.44999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="164"/>
+    <row r="27" spans="2:10">
+      <c r="B27" s="167"/>
       <c r="C27" s="1" t="s">
         <v>188</v>
       </c>
@@ -6609,31 +6643,31 @@
       <c r="E27" s="85">
         <v>0.15</v>
       </c>
-      <c r="F27" s="153"/>
-    </row>
-    <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="165"/>
+      <c r="F27" s="156"/>
+    </row>
+    <row r="28" spans="2:10" ht="16.2" thickBot="1">
+      <c r="B28" s="168"/>
       <c r="C28" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="35">
         <v>0.3</v>
       </c>
-      <c r="E28" s="124">
+      <c r="E28" s="122">
         <v>0.3</v>
       </c>
-      <c r="F28" s="169"/>
-    </row>
-    <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="128" t="s">
+      <c r="F28" s="172"/>
+    </row>
+    <row r="29" spans="2:10" ht="16.2" thickBot="1">
+      <c r="B29" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="130"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
       <c r="F29" s="62">
         <f>SUM(F4:F28)</f>
-        <v>2.5</v>
+        <v>2.6499999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -6659,8 +6693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D71FAE6-B451-6848-BDAA-C37A96D72161}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:E44"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6674,10 +6708,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="177"/>
+      <c r="C2" s="180"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -6689,7 +6723,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="164" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -6700,7 +6734,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="162"/>
+      <c r="B4" s="165"/>
       <c r="C4" s="7" t="s">
         <v>138</v>
       </c>
@@ -6710,13 +6744,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="148">
+      <c r="F4" s="151">
         <f>SUM(E4:E17)</f>
-        <v>2.1999999999999997</v>
+        <v>2.2749999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="162"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="1" t="s">
         <v>250</v>
       </c>
@@ -6726,10 +6760,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="152"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="162"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="1" t="s">
         <v>251</v>
       </c>
@@ -6739,10 +6773,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="149"/>
+      <c r="F6" s="152"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="162"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="1" t="s">
         <v>137</v>
       </c>
@@ -6752,10 +6786,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="152"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="162"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="1" t="s">
         <v>252</v>
       </c>
@@ -6765,23 +6799,23 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="149"/>
+      <c r="F8" s="152"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="162"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D9" s="44">
         <v>0.15</v>
       </c>
-      <c r="E9" s="115">
-        <v>0.15</v>
-      </c>
-      <c r="F9" s="149"/>
+      <c r="E9" s="114">
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="152"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="162"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="28" t="s">
         <v>254</v>
       </c>
@@ -6791,10 +6825,10 @@
       <c r="E10" s="98">
         <v>0.2</v>
       </c>
-      <c r="F10" s="149"/>
+      <c r="F10" s="152"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="162"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="28" t="s">
         <v>255</v>
       </c>
@@ -6804,23 +6838,23 @@
       <c r="E11" s="98">
         <v>0.2</v>
       </c>
-      <c r="F11" s="149"/>
+      <c r="F11" s="152"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="162"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="28" t="s">
         <v>256</v>
       </c>
       <c r="D12" s="44">
         <v>0.2</v>
       </c>
-      <c r="E12" s="115">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="149"/>
+      <c r="E12" s="114">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="152"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="162"/>
+      <c r="B13" s="165"/>
       <c r="C13" s="28" t="s">
         <v>257</v>
       </c>
@@ -6830,10 +6864,10 @@
       <c r="E13" s="102">
         <v>0.2</v>
       </c>
-      <c r="F13" s="149"/>
+      <c r="F13" s="152"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="162"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="28" t="s">
         <v>258</v>
       </c>
@@ -6843,23 +6877,23 @@
       <c r="E14" s="102">
         <v>0.2</v>
       </c>
-      <c r="F14" s="149"/>
+      <c r="F14" s="152"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="162"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D15" s="44">
         <v>0.15</v>
       </c>
-      <c r="E15" s="115">
-        <v>0</v>
-      </c>
-      <c r="F15" s="149"/>
+      <c r="E15" s="94">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F15" s="152"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="162"/>
+      <c r="B16" s="165"/>
       <c r="C16" s="1" t="s">
         <v>260</v>
       </c>
@@ -6869,10 +6903,10 @@
       <c r="E16" s="44">
         <v>0.15</v>
       </c>
-      <c r="F16" s="149"/>
+      <c r="F16" s="152"/>
     </row>
     <row r="17" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B17" s="162"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="11" t="s">
         <v>261</v>
       </c>
@@ -6882,10 +6916,10 @@
       <c r="E17" s="102">
         <v>0.15</v>
       </c>
-      <c r="F17" s="149"/>
+      <c r="F17" s="152"/>
     </row>
     <row r="18" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B18" s="162"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="58" t="s">
         <v>30</v>
       </c>
@@ -6894,7 +6928,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="162"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
@@ -6904,13 +6938,13 @@
       <c r="E19" s="44">
         <v>0.2</v>
       </c>
-      <c r="F19" s="152">
+      <c r="F19" s="155">
         <f>SUM(E19:E21)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="162"/>
+      <c r="B20" s="165"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -6920,10 +6954,10 @@
       <c r="E20" s="34">
         <v>0.2</v>
       </c>
-      <c r="F20" s="153"/>
+      <c r="F20" s="156"/>
     </row>
     <row r="21" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B21" s="162"/>
+      <c r="B21" s="165"/>
       <c r="C21" s="11" t="s">
         <v>33</v>
       </c>
@@ -6933,10 +6967,10 @@
       <c r="E21" s="86">
         <v>0.2</v>
       </c>
-      <c r="F21" s="154"/>
+      <c r="F21" s="157"/>
     </row>
     <row r="22" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B22" s="162"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="64" t="s">
         <v>34</v>
       </c>
@@ -6945,7 +6979,7 @@
       <c r="F22" s="32"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="162"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="7" t="s">
         <v>62</v>
       </c>
@@ -6955,13 +6989,13 @@
       <c r="E23" s="44">
         <v>0.2</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="155">
         <f>SUM(E23:E24)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B24" s="163"/>
+      <c r="B24" s="166"/>
       <c r="C24" s="11" t="s">
         <v>46</v>
       </c>
@@ -6971,10 +7005,10 @@
       <c r="E24" s="36">
         <v>0.2</v>
       </c>
-      <c r="F24" s="154"/>
+      <c r="F24" s="157"/>
     </row>
     <row r="25" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B25" s="161" t="s">
+      <c r="B25" s="164" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="58" t="s">
@@ -6985,7 +7019,7 @@
       <c r="F25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="164"/>
+      <c r="B26" s="167"/>
       <c r="C26" s="30" t="s">
         <v>262</v>
       </c>
@@ -6995,13 +7029,13 @@
       <c r="E26" s="44">
         <v>0.25</v>
       </c>
-      <c r="F26" s="149">
+      <c r="F26" s="152">
         <f>SUM(E26:E33)</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="164"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="28" t="s">
         <v>263</v>
       </c>
@@ -7011,52 +7045,52 @@
       <c r="E27" s="101">
         <v>0.25</v>
       </c>
-      <c r="F27" s="149"/>
+      <c r="F27" s="152"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="164"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="28" t="s">
         <v>264</v>
       </c>
       <c r="D28" s="34">
         <v>0.25</v>
       </c>
-      <c r="E28" s="116">
+      <c r="E28" s="115">
         <v>0.25</v>
       </c>
-      <c r="F28" s="149"/>
+      <c r="F28" s="152"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="164"/>
+      <c r="B29" s="167"/>
       <c r="C29" s="28" t="s">
         <v>265</v>
       </c>
       <c r="D29" s="34">
         <v>0.25</v>
       </c>
-      <c r="E29" s="116">
+      <c r="E29" s="115">
         <v>0.25</v>
       </c>
-      <c r="F29" s="149"/>
+      <c r="F29" s="152"/>
       <c r="G29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="164"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="28" t="s">
         <v>266</v>
       </c>
       <c r="D30" s="34">
         <v>0.3</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="96">
         <v>0</v>
       </c>
-      <c r="F30" s="149"/>
+      <c r="F30" s="152"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="164"/>
+      <c r="B31" s="167"/>
       <c r="C31" s="28" t="s">
         <v>267</v>
       </c>
@@ -7066,10 +7100,10 @@
       <c r="E31" s="101">
         <v>0.25</v>
       </c>
-      <c r="F31" s="149"/>
+      <c r="F31" s="152"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="164"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="28" t="s">
         <v>268</v>
       </c>
@@ -7079,10 +7113,10 @@
       <c r="E32" s="101">
         <v>0.25</v>
       </c>
-      <c r="F32" s="149"/>
+      <c r="F32" s="152"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="164"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="28" t="s">
         <v>269</v>
       </c>
@@ -7092,10 +7126,10 @@
       <c r="E33" s="34">
         <v>0</v>
       </c>
-      <c r="F33" s="149"/>
+      <c r="F33" s="152"/>
     </row>
     <row r="34" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B34" s="164"/>
+      <c r="B34" s="167"/>
       <c r="C34" s="58" t="s">
         <v>61</v>
       </c>
@@ -7104,7 +7138,7 @@
       <c r="F34" s="32"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="164"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="30" t="s">
         <v>270</v>
       </c>
@@ -7114,13 +7148,13 @@
       <c r="E35" s="102">
         <v>0.1</v>
       </c>
-      <c r="F35" s="149">
+      <c r="F35" s="152">
         <f>SUM(E35:E40)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="164"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="28" t="s">
         <v>271</v>
       </c>
@@ -7130,10 +7164,10 @@
       <c r="E36" s="102">
         <v>0.1</v>
       </c>
-      <c r="F36" s="149"/>
+      <c r="F36" s="152"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="164"/>
+      <c r="B37" s="167"/>
       <c r="C37" s="28" t="s">
         <v>272</v>
       </c>
@@ -7143,49 +7177,49 @@
       <c r="E37" s="102">
         <v>0.1</v>
       </c>
-      <c r="F37" s="149"/>
+      <c r="F37" s="152"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="164"/>
+      <c r="B38" s="167"/>
       <c r="C38" s="28" t="s">
         <v>273</v>
       </c>
       <c r="D38" s="44">
         <v>0.1</v>
       </c>
-      <c r="E38" s="115">
+      <c r="E38" s="114">
         <v>0.1</v>
       </c>
-      <c r="F38" s="149"/>
+      <c r="F38" s="152"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="164"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="28" t="s">
         <v>274</v>
       </c>
       <c r="D39" s="44">
         <v>0.1</v>
       </c>
-      <c r="E39" s="115">
+      <c r="E39" s="114">
         <v>0.1</v>
       </c>
-      <c r="F39" s="149"/>
+      <c r="F39" s="152"/>
     </row>
     <row r="40" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B40" s="164"/>
+      <c r="B40" s="167"/>
       <c r="C40" s="29" t="s">
         <v>275</v>
       </c>
       <c r="D40" s="44">
         <v>0.1</v>
       </c>
-      <c r="E40" s="115">
+      <c r="E40" s="114">
         <v>0.1</v>
       </c>
-      <c r="F40" s="149"/>
+      <c r="F40" s="152"/>
     </row>
     <row r="41" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B41" s="164"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="58" t="s">
         <v>34</v>
       </c>
@@ -7194,7 +7228,7 @@
       <c r="F41" s="32"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="164"/>
+      <c r="B42" s="167"/>
       <c r="C42" s="7" t="s">
         <v>35</v>
       </c>
@@ -7204,34 +7238,34 @@
       <c r="E42" s="102">
         <v>0.125</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="155">
         <f>SUM(E42:E43)</f>
         <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B43" s="166"/>
+      <c r="B43" s="169"/>
       <c r="C43" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="35">
         <v>0.3</v>
       </c>
-      <c r="E43" s="124">
+      <c r="E43" s="122">
         <v>0.3</v>
       </c>
-      <c r="F43" s="169"/>
+      <c r="F43" s="172"/>
     </row>
     <row r="44" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B44" s="128" t="s">
+      <c r="B44" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="129"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="130"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="133"/>
       <c r="F44" s="70">
         <f>SUM(F4:F43)</f>
-        <v>5.7249999999999988</v>
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>
@@ -7256,8 +7290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A679EA6-8CB7-A24A-BA70-3CC01102E2D7}">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7271,10 +7305,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -7286,7 +7320,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="164" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -7298,13 +7332,13 @@
       <c r="E3" s="44">
         <v>0.15</v>
       </c>
-      <c r="F3" s="148">
+      <c r="F3" s="151">
         <f>SUM(E3:E8)</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="164"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="1" t="s">
         <v>277</v>
       </c>
@@ -7314,10 +7348,10 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="149"/>
+      <c r="F4" s="152"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="164"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="1" t="s">
         <v>278</v>
       </c>
@@ -7327,10 +7361,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="152"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="164"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="1" t="s">
         <v>279</v>
       </c>
@@ -7340,10 +7374,10 @@
       <c r="E6" s="98">
         <v>0.15</v>
       </c>
-      <c r="F6" s="149"/>
+      <c r="F6" s="152"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="164"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="1" t="s">
         <v>280</v>
       </c>
@@ -7353,10 +7387,10 @@
       <c r="E7" s="102">
         <v>0.15</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="152"/>
     </row>
     <row r="8" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B8" s="164"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="29" t="s">
         <v>66</v>
       </c>
@@ -7366,10 +7400,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="151"/>
+      <c r="F8" s="154"/>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="164"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="58" t="s">
         <v>30</v>
       </c>
@@ -7378,7 +7412,7 @@
       <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="164"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
@@ -7388,13 +7422,13 @@
       <c r="E10" s="44">
         <v>0.2</v>
       </c>
-      <c r="F10" s="152">
+      <c r="F10" s="155">
         <f>SUM(E10:E12)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="164"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
@@ -7404,10 +7438,10 @@
       <c r="E11" s="34">
         <v>0.2</v>
       </c>
-      <c r="F11" s="153"/>
+      <c r="F11" s="156"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="164"/>
+      <c r="B12" s="167"/>
       <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
@@ -7417,10 +7451,10 @@
       <c r="E12" s="36">
         <v>0.2</v>
       </c>
-      <c r="F12" s="154"/>
+      <c r="F12" s="157"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="164"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="64" t="s">
         <v>34</v>
       </c>
@@ -7429,7 +7463,7 @@
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="164"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="7" t="s">
         <v>62</v>
       </c>
@@ -7439,13 +7473,13 @@
       <c r="E14" s="98">
         <v>0.2</v>
       </c>
-      <c r="F14" s="152">
+      <c r="F14" s="155">
         <f>SUM(E14:E15)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="166"/>
+      <c r="B15" s="169"/>
       <c r="C15" s="11" t="s">
         <v>46</v>
       </c>
@@ -7455,10 +7489,10 @@
       <c r="E15" s="36">
         <v>0.2</v>
       </c>
-      <c r="F15" s="154"/>
+      <c r="F15" s="157"/>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="164" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -7469,7 +7503,7 @@
       <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="164"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="7" t="s">
         <v>282</v>
       </c>
@@ -7479,13 +7513,13 @@
       <c r="E17" s="102">
         <v>1</v>
       </c>
-      <c r="F17" s="148">
+      <c r="F17" s="151">
         <f>SUM(E17:E26)</f>
-        <v>1.8499999999999999</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="164"/>
+      <c r="B18" s="167"/>
       <c r="C18" s="1" t="s">
         <v>283</v>
       </c>
@@ -7495,34 +7529,36 @@
       <c r="E18" s="101">
         <v>0.25</v>
       </c>
-      <c r="F18" s="149"/>
+      <c r="F18" s="152"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="164"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="1" t="s">
         <v>284</v>
       </c>
       <c r="D19" s="34">
         <v>0.4</v>
       </c>
-      <c r="E19" s="82">
-        <v>0</v>
-      </c>
-      <c r="F19" s="149"/>
+      <c r="E19" s="96">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="152"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="164"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D20" s="34">
         <v>0.4</v>
       </c>
-      <c r="E20" s="117"/>
-      <c r="F20" s="149"/>
+      <c r="E20" s="82">
+        <v>0</v>
+      </c>
+      <c r="F20" s="152"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="164"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="1" t="s">
         <v>286</v>
       </c>
@@ -7532,21 +7568,23 @@
       <c r="E21" s="82">
         <v>0</v>
       </c>
-      <c r="F21" s="149"/>
+      <c r="F21" s="152"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="164"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="1" t="s">
         <v>287</v>
       </c>
       <c r="D22" s="34">
         <v>0.45</v>
       </c>
-      <c r="E22" s="117"/>
-      <c r="F22" s="149"/>
+      <c r="E22" s="82">
+        <v>0</v>
+      </c>
+      <c r="F22" s="152"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="164"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="1" t="s">
         <v>288</v>
       </c>
@@ -7556,10 +7594,10 @@
       <c r="E23" s="82">
         <v>0</v>
       </c>
-      <c r="F23" s="149"/>
+      <c r="F23" s="152"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="164"/>
+      <c r="B24" s="167"/>
       <c r="C24" s="1" t="s">
         <v>289</v>
       </c>
@@ -7569,10 +7607,10 @@
       <c r="E24" s="101">
         <v>0.4</v>
       </c>
-      <c r="F24" s="149"/>
+      <c r="F24" s="152"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="164"/>
+      <c r="B25" s="167"/>
       <c r="C25" s="1" t="s">
         <v>290</v>
       </c>
@@ -7582,10 +7620,10 @@
       <c r="E25" s="101">
         <v>0.2</v>
       </c>
-      <c r="F25" s="149"/>
+      <c r="F25" s="152"/>
     </row>
     <row r="26" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B26" s="164"/>
+      <c r="B26" s="167"/>
       <c r="C26" s="11" t="s">
         <v>331</v>
       </c>
@@ -7595,10 +7633,10 @@
       <c r="E26" s="105">
         <v>0</v>
       </c>
-      <c r="F26" s="151"/>
+      <c r="F26" s="154"/>
     </row>
     <row r="27" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B27" s="164"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="58" t="s">
         <v>291</v>
       </c>
@@ -7607,7 +7645,7 @@
       <c r="F27" s="32"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="164"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="7" t="s">
         <v>292</v>
       </c>
@@ -7617,13 +7655,13 @@
       <c r="E28" s="102">
         <v>0.125</v>
       </c>
-      <c r="F28" s="148">
+      <c r="F28" s="151">
         <f>SUM(E28:E29)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="164"/>
+      <c r="B29" s="167"/>
       <c r="C29" s="11" t="s">
         <v>293</v>
       </c>
@@ -7633,10 +7671,10 @@
       <c r="E29" s="103">
         <v>0.125</v>
       </c>
-      <c r="F29" s="151"/>
+      <c r="F29" s="154"/>
     </row>
     <row r="30" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B30" s="164"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="58" t="s">
         <v>34</v>
       </c>
@@ -7645,7 +7683,7 @@
       <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="164"/>
+      <c r="B31" s="167"/>
       <c r="C31" s="7" t="s">
         <v>35</v>
       </c>
@@ -7655,13 +7693,13 @@
       <c r="E31" s="102">
         <v>0.125</v>
       </c>
-      <c r="F31" s="152">
+      <c r="F31" s="155">
         <f>SUM(E31:E33)</f>
         <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="164"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="1" t="s">
         <v>188</v>
       </c>
@@ -7671,31 +7709,31 @@
       <c r="E32" s="85">
         <v>0.15</v>
       </c>
-      <c r="F32" s="153"/>
+      <c r="F32" s="156"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="166"/>
+      <c r="B33" s="169"/>
       <c r="C33" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D33" s="35">
         <v>0.3</v>
       </c>
-      <c r="E33" s="124">
+      <c r="E33" s="122">
         <v>0.3</v>
       </c>
-      <c r="F33" s="169"/>
+      <c r="F33" s="172"/>
     </row>
     <row r="34" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="130"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="133"/>
       <c r="F34" s="63">
         <f>SUM(F3:F33)</f>
-        <v>4.5750000000000002</v>
+        <v>4.9750000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -7719,8 +7757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00128C49-6FAA-DB48-828C-648B3790A9C7}">
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7732,8 +7770,8 @@
     <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="16.2" thickBot="1"/>
-    <row r="2" spans="2:5" ht="16.2" thickBot="1">
+    <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
+    <row r="2" spans="2:6" ht="16.2" thickBot="1">
       <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
@@ -7747,7 +7785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:6">
       <c r="B3" s="30" t="s">
         <v>4</v>
       </c>
@@ -7757,14 +7795,14 @@
       </c>
       <c r="D3" s="81">
         <f>C3-E3</f>
-        <v>4.5000000000000009</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="E3" s="81">
         <f>Miscellaneous!D25</f>
-        <v>4.1000000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>6.6000000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -7774,14 +7812,15 @@
       </c>
       <c r="D4" s="81">
         <f t="shared" ref="D4:D15" si="0">C4-E4</f>
-        <v>2.1500000000000021</v>
+        <v>1.700000000000002</v>
       </c>
       <c r="E4" s="82">
         <f>Header!F42</f>
-        <v>5.7249999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="F4" s="91"/>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -7798,7 +7837,7 @@
         <v>1.5500000000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -7815,7 +7854,7 @@
         <v>5.0750000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -7832,7 +7871,7 @@
         <v>6.0250000000000004</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -7849,7 +7888,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -7859,14 +7898,15 @@
       </c>
       <c r="D9" s="81">
         <f t="shared" si="0"/>
-        <v>3.3499999999999979</v>
+        <v>2.6499999999999986</v>
       </c>
       <c r="E9" s="82">
         <f>'Home Page'!F125</f>
-        <v>19.775000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>20.475000000000001</v>
+      </c>
+      <c r="F9" s="91"/>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -7876,14 +7916,15 @@
       </c>
       <c r="D10" s="81">
         <f t="shared" si="0"/>
-        <v>7.9250000000000025</v>
+        <v>7.8500000000000032</v>
       </c>
       <c r="E10" s="82">
         <f>'Story Page'!F47</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="F10" s="91"/>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -7899,8 +7940,9 @@
         <f>'Direct Message Page'!F38</f>
         <v>1.7500000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="F11" s="91"/>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7917,7 +7959,7 @@
         <v>3.0750000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -7927,14 +7969,14 @@
       </c>
       <c r="D13" s="81">
         <f t="shared" si="0"/>
-        <v>2.4749999999999988</v>
+        <v>2.3249999999999993</v>
       </c>
       <c r="E13" s="82">
         <f>'Activity Page'!F29</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>2.6499999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -7944,14 +7986,15 @@
       </c>
       <c r="D14" s="81">
         <f t="shared" si="0"/>
-        <v>0.84999999999999964</v>
+        <v>0.77499999999999858</v>
       </c>
       <c r="E14" s="82">
         <f>'User Page'!F44</f>
-        <v>5.7249999999999988</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="16.2" thickBot="1">
+        <v>5.8</v>
+      </c>
+      <c r="F14" s="91"/>
+    </row>
+    <row r="15" spans="2:6" ht="16.2" thickBot="1">
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -7961,22 +8004,22 @@
       </c>
       <c r="D15" s="81">
         <f t="shared" si="0"/>
-        <v>2.6000000000000005</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E15" s="83">
         <f>'Add Post Page'!F34</f>
-        <v>4.5750000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="16.2" thickBot="1">
-      <c r="B16" s="128" t="s">
+        <v>4.9750000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B16" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="130"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="133"/>
       <c r="E16" s="77">
         <f>SUM(E3:E15)</f>
-        <v>65.925000000000011</v>
+        <v>70.275000000000006</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -8000,7 +8043,7 @@
         <v>40.549999999999997</v>
       </c>
       <c r="F18">
-        <f>E18-E17</f>
+        <f t="shared" ref="F18:F23" si="1">E18-E17</f>
         <v>2.0999999999999943</v>
       </c>
     </row>
@@ -8013,7 +8056,7 @@
         <v>45.85</v>
       </c>
       <c r="F19">
-        <f>E19-E18</f>
+        <f t="shared" si="1"/>
         <v>5.3000000000000043</v>
       </c>
     </row>
@@ -8026,7 +8069,7 @@
         <v>51.375</v>
       </c>
       <c r="F20">
-        <f>E20-E19</f>
+        <f t="shared" si="1"/>
         <v>5.5249999999999986</v>
       </c>
     </row>
@@ -8039,7 +8082,7 @@
         <v>58.5</v>
       </c>
       <c r="F21">
-        <f>E21-E20</f>
+        <f t="shared" si="1"/>
         <v>7.125</v>
       </c>
     </row>
@@ -8049,12 +8092,11 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <f>E16</f>
-        <v>65.925000000000011</v>
+        <v>66</v>
       </c>
       <c r="F22">
-        <f>E22-E21</f>
-        <v>7.4250000000000114</v>
+        <f t="shared" si="1"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="23" spans="3:6">
@@ -8062,6 +8104,14 @@
       <c r="D23">
         <v>16</v>
       </c>
+      <c r="E23">
+        <f>E16</f>
+        <v>70.275000000000006</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>4.2750000000000057</v>
+      </c>
     </row>
     <row r="24" spans="3:6">
       <c r="D24" t="s">
@@ -8072,7 +8122,7 @@
       </c>
       <c r="F24">
         <f>E24-E16</f>
-        <v>4.0749999999999886</v>
+        <v>-0.27500000000000568</v>
       </c>
     </row>
     <row r="25" spans="3:6">
@@ -8093,8 +8143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE670F-6E02-7D4A-BE09-F54A0BBCCA86}">
   <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:E42"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8108,10 +8158,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="135"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -8123,7 +8173,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="139" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -8134,7 +8184,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B4" s="137"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
@@ -8144,13 +8194,13 @@
       <c r="E4" s="54">
         <v>0.15</v>
       </c>
-      <c r="F4" s="143">
+      <c r="F4" s="146">
         <f>SUM(E4:E8)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B5" s="137"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8160,10 +8210,10 @@
       <c r="E5" s="54">
         <v>0.15</v>
       </c>
-      <c r="F5" s="131"/>
+      <c r="F5" s="134"/>
     </row>
     <row r="6" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B6" s="137"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
@@ -8173,10 +8223,10 @@
       <c r="E6" s="54">
         <v>0.15</v>
       </c>
-      <c r="F6" s="131"/>
+      <c r="F6" s="134"/>
     </row>
     <row r="7" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B7" s="137"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
@@ -8186,10 +8236,10 @@
       <c r="E7" s="54">
         <v>0.15</v>
       </c>
-      <c r="F7" s="131"/>
+      <c r="F7" s="134"/>
     </row>
     <row r="8" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B8" s="137"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
@@ -8199,10 +8249,10 @@
       <c r="E8" s="54">
         <v>0.15</v>
       </c>
-      <c r="F8" s="131"/>
+      <c r="F8" s="134"/>
     </row>
     <row r="9" spans="2:6" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B9" s="137"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="58" t="s">
         <v>29</v>
       </c>
@@ -8211,7 +8261,7 @@
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B10" s="137"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
@@ -8221,13 +8271,13 @@
       <c r="E10" s="54">
         <v>0.15</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F10" s="134">
         <f>SUM(E10:E18)</f>
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B11" s="137"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -8237,10 +8287,10 @@
       <c r="E11" s="54">
         <v>0.15</v>
       </c>
-      <c r="F11" s="131"/>
+      <c r="F11" s="134"/>
     </row>
     <row r="12" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B12" s="137"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -8250,23 +8300,23 @@
       <c r="E12" s="112">
         <v>0.15</v>
       </c>
-      <c r="F12" s="131"/>
+      <c r="F12" s="134"/>
     </row>
     <row r="13" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B13" s="137"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="54">
         <v>0.15</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="125">
         <v>0</v>
       </c>
-      <c r="F13" s="131"/>
+      <c r="F13" s="134"/>
     </row>
     <row r="14" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B14" s="137"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
@@ -8276,36 +8326,36 @@
       <c r="E14" s="54">
         <v>0.15</v>
       </c>
-      <c r="F14" s="131"/>
+      <c r="F14" s="134"/>
     </row>
     <row r="15" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B15" s="137"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="28" t="s">
         <v>295</v>
       </c>
       <c r="D15" s="54">
         <v>0.15</v>
       </c>
-      <c r="E15" s="54">
-        <v>0</v>
-      </c>
-      <c r="F15" s="131"/>
+      <c r="E15" s="125">
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="134"/>
     </row>
     <row r="16" spans="2:6" ht="16.05" customHeight="1">
-      <c r="B16" s="137"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="54">
         <v>0.15</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="125">
         <v>0</v>
       </c>
-      <c r="F16" s="131"/>
+      <c r="F16" s="134"/>
     </row>
     <row r="17" spans="2:7" ht="16.05" customHeight="1">
-      <c r="B17" s="137"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
@@ -8315,10 +8365,10 @@
       <c r="E17" s="54">
         <v>0.15</v>
       </c>
-      <c r="F17" s="131"/>
+      <c r="F17" s="134"/>
     </row>
     <row r="18" spans="2:7" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B18" s="137"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="11" t="s">
         <v>26</v>
       </c>
@@ -8328,10 +8378,10 @@
       <c r="E18" s="54">
         <v>0.15</v>
       </c>
-      <c r="F18" s="131"/>
+      <c r="F18" s="134"/>
     </row>
     <row r="19" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B19" s="137"/>
+      <c r="B19" s="140"/>
       <c r="C19" s="58" t="s">
         <v>30</v>
       </c>
@@ -8340,7 +8390,7 @@
       <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="137"/>
+      <c r="B20" s="140"/>
       <c r="C20" s="7" t="s">
         <v>31</v>
       </c>
@@ -8350,13 +8400,13 @@
       <c r="E20" s="44">
         <v>0.2</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="134">
         <f>SUM(E20:E22)</f>
-        <v>0.5</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="137"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
@@ -8366,24 +8416,27 @@
       <c r="E21" s="34">
         <v>0.2</v>
       </c>
-      <c r="F21" s="131"/>
+      <c r="F21" s="134"/>
     </row>
     <row r="22" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B22" s="137"/>
+      <c r="B22" s="140"/>
       <c r="C22" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="36">
         <v>0.2</v>
       </c>
-      <c r="E22" s="114">
-        <f>0.2/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="131"/>
+      <c r="E22" s="95">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="134"/>
+      <c r="G22" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B23" s="137"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="64" t="s">
         <v>34</v>
       </c>
@@ -8392,7 +8445,7 @@
       <c r="F23" s="43"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="138"/>
+      <c r="B24" s="141"/>
       <c r="C24" s="17" t="s">
         <v>62</v>
       </c>
@@ -8402,13 +8455,13 @@
       <c r="E24" s="45">
         <v>0.2</v>
       </c>
-      <c r="F24" s="132">
+      <c r="F24" s="135">
         <f>SUM(E24:E25)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B25" s="139"/>
+      <c r="B25" s="142"/>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -8418,10 +8471,10 @@
       <c r="E25" s="46">
         <v>0.2</v>
       </c>
-      <c r="F25" s="133"/>
+      <c r="F25" s="136"/>
     </row>
     <row r="26" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="143" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="58" t="s">
@@ -8432,7 +8485,7 @@
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="141"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="13" t="s">
         <v>36</v>
       </c>
@@ -8442,13 +8495,13 @@
       <c r="E27" s="106">
         <v>0.4</v>
       </c>
-      <c r="F27" s="131">
+      <c r="F27" s="134">
         <f>SUM(E27:E30)</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="141"/>
+      <c r="B28" s="144"/>
       <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
@@ -8458,10 +8511,10 @@
       <c r="E28" s="34">
         <v>0.1</v>
       </c>
-      <c r="F28" s="131"/>
+      <c r="F28" s="134"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="141"/>
+      <c r="B29" s="144"/>
       <c r="C29" s="5" t="s">
         <v>39</v>
       </c>
@@ -8471,10 +8524,10 @@
       <c r="E29" s="34">
         <v>0.1</v>
       </c>
-      <c r="F29" s="131"/>
+      <c r="F29" s="134"/>
     </row>
     <row r="30" spans="2:7" ht="31.8" thickBot="1">
-      <c r="B30" s="141"/>
+      <c r="B30" s="144"/>
       <c r="C30" s="72" t="s">
         <v>41</v>
       </c>
@@ -8484,11 +8537,11 @@
       <c r="E30" s="109">
         <v>0.5</v>
       </c>
-      <c r="F30" s="131"/>
+      <c r="F30" s="134"/>
       <c r="G30" s="111"/>
     </row>
     <row r="31" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B31" s="141"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="58" t="s">
         <v>40</v>
       </c>
@@ -8497,7 +8550,7 @@
       <c r="F31" s="43"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="141"/>
+      <c r="B32" s="144"/>
       <c r="C32" s="13" t="s">
         <v>36</v>
       </c>
@@ -8507,26 +8560,26 @@
       <c r="E32" s="106">
         <v>0.4</v>
       </c>
-      <c r="F32" s="131">
+      <c r="F32" s="134">
         <f>SUM(E32:E38)</f>
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="141"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="34">
         <v>0.4</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="96">
         <v>0</v>
       </c>
-      <c r="F33" s="131"/>
+      <c r="F33" s="134"/>
     </row>
     <row r="34" spans="2:7" ht="28.8">
-      <c r="B34" s="141"/>
+      <c r="B34" s="144"/>
       <c r="C34" s="73" t="s">
         <v>41</v>
       </c>
@@ -8536,11 +8589,11 @@
       <c r="E34" s="108">
         <v>0.5</v>
       </c>
-      <c r="F34" s="131"/>
+      <c r="F34" s="134"/>
       <c r="G34" s="110"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="141"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="73" t="s">
         <v>42</v>
       </c>
@@ -8551,13 +8604,13 @@
         <f>0.3</f>
         <v>0.3</v>
       </c>
-      <c r="F35" s="131"/>
+      <c r="F35" s="134"/>
       <c r="G35" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="141"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="5" t="s">
         <v>43</v>
       </c>
@@ -8567,10 +8620,10 @@
       <c r="E36" s="34">
         <v>0</v>
       </c>
-      <c r="F36" s="131"/>
+      <c r="F36" s="134"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="141"/>
+      <c r="B37" s="144"/>
       <c r="C37" s="5" t="s">
         <v>97</v>
       </c>
@@ -8580,26 +8633,26 @@
       <c r="E37" s="85">
         <v>0.25</v>
       </c>
-      <c r="F37" s="131"/>
+      <c r="F37" s="134"/>
     </row>
     <row r="38" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B38" s="141"/>
+      <c r="B38" s="144"/>
       <c r="C38" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="36">
         <v>0.4</v>
       </c>
-      <c r="E38" s="103">
-        <v>0.2</v>
-      </c>
-      <c r="F38" s="131"/>
+      <c r="E38" s="95">
+        <v>0.4</v>
+      </c>
+      <c r="F38" s="134"/>
       <c r="G38" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B39" s="141"/>
+      <c r="B39" s="144"/>
       <c r="C39" s="58" t="s">
         <v>34</v>
       </c>
@@ -8608,7 +8661,7 @@
       <c r="F39" s="43"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="141"/>
+      <c r="B40" s="144"/>
       <c r="C40" s="13" t="s">
         <v>35</v>
       </c>
@@ -8618,34 +8671,34 @@
       <c r="E40" s="106">
         <v>0.125</v>
       </c>
-      <c r="F40" s="144">
+      <c r="F40" s="147">
         <f>SUM(E40:E41)</f>
         <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B41" s="142"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="35">
         <v>0.3</v>
       </c>
-      <c r="E41" s="124">
+      <c r="E41" s="122">
         <v>0.3</v>
       </c>
-      <c r="F41" s="145"/>
+      <c r="F41" s="148"/>
     </row>
     <row r="42" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B42" s="128" t="s">
+      <c r="B42" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="129"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="130"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="133"/>
       <c r="F42" s="65">
         <f>SUM(F4:F41)</f>
-        <v>5.7249999999999996</v>
+        <v>6.1749999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +8740,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="135"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -8702,7 +8755,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="149" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -8713,7 +8766,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B4" s="147"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="13" t="s">
         <v>47</v>
       </c>
@@ -8729,7 +8782,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B5" s="147"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="58" t="s">
         <v>30</v>
       </c>
@@ -8738,7 +8791,7 @@
       <c r="F5" s="32"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="147"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
@@ -8748,13 +8801,13 @@
       <c r="E6" s="44">
         <v>0.2</v>
       </c>
-      <c r="F6" s="148">
+      <c r="F6" s="151">
         <f>SUM(E6:E8)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="147"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
@@ -8764,10 +8817,10 @@
       <c r="E7" s="34">
         <v>0.2</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="152"/>
     </row>
     <row r="8" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B8" s="147"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
@@ -8777,10 +8830,10 @@
       <c r="E8" s="36">
         <v>0.2</v>
       </c>
-      <c r="F8" s="149"/>
+      <c r="F8" s="152"/>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="147"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="58" t="s">
         <v>34</v>
       </c>
@@ -8789,7 +8842,7 @@
       <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="147"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="18" t="s">
         <v>62</v>
       </c>
@@ -8799,13 +8852,13 @@
       <c r="E10" s="47">
         <v>0.2</v>
       </c>
-      <c r="F10" s="148">
+      <c r="F10" s="151">
         <f>SUM(E10:E11)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="150"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="19" t="s">
         <v>46</v>
       </c>
@@ -8815,10 +8868,10 @@
       <c r="E11" s="48">
         <v>0.2</v>
       </c>
-      <c r="F11" s="151"/>
+      <c r="F11" s="154"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="149" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="58" t="s">
@@ -8829,7 +8882,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="147"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="15" t="s">
         <v>48</v>
       </c>
@@ -8845,7 +8898,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="147"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="66" t="s">
         <v>34</v>
       </c>
@@ -8854,14 +8907,14 @@
       <c r="F14" s="51"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="147"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="46">
         <v>0.3</v>
       </c>
-      <c r="E15" s="125">
+      <c r="E15" s="123">
         <v>0.3</v>
       </c>
       <c r="F15" s="52">
@@ -8870,12 +8923,12 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
       <c r="F16" s="62">
         <f>SUM(F4:F15)</f>
         <v>1.5500000000000003</v>
@@ -8899,7 +8952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51390118-501D-994C-B11B-72660FCE399A}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:E33"/>
     </sheetView>
   </sheetViews>
@@ -8914,10 +8967,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -8929,7 +8982,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="149" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="64" t="s">
@@ -8940,7 +8993,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="147"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="7" t="s">
         <v>56</v>
       </c>
@@ -8950,13 +9003,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="148">
+      <c r="F4" s="151">
         <f>SUM(E4:E10)</f>
         <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="147"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
@@ -8966,10 +9019,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="152"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="147"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
@@ -8979,10 +9032,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="149"/>
+      <c r="F6" s="152"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="147"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
@@ -8992,10 +9045,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="152"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="147"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
@@ -9005,10 +9058,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="149"/>
+      <c r="F8" s="152"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="147"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
@@ -9018,10 +9071,10 @@
       <c r="E9" s="44">
         <v>0.15</v>
       </c>
-      <c r="F9" s="149"/>
+      <c r="F9" s="152"/>
     </row>
     <row r="10" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B10" s="147"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="29" t="s">
         <v>66</v>
       </c>
@@ -9031,10 +9084,10 @@
       <c r="E10" s="44">
         <v>0.15</v>
       </c>
-      <c r="F10" s="151"/>
+      <c r="F10" s="154"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="147"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="58" t="s">
         <v>30</v>
       </c>
@@ -9043,7 +9096,7 @@
       <c r="F11" s="32"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="147"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
@@ -9053,13 +9106,13 @@
       <c r="E12" s="44">
         <v>0.2</v>
       </c>
-      <c r="F12" s="152">
+      <c r="F12" s="155">
         <f>SUM(E12:E14)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="147"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
@@ -9069,10 +9122,10 @@
       <c r="E13" s="34">
         <v>0.2</v>
       </c>
-      <c r="F13" s="153"/>
+      <c r="F13" s="156"/>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="147"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="11" t="s">
         <v>33</v>
       </c>
@@ -9082,10 +9135,10 @@
       <c r="E14" s="36">
         <v>0.2</v>
       </c>
-      <c r="F14" s="154"/>
+      <c r="F14" s="157"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="147"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="64" t="s">
         <v>34</v>
       </c>
@@ -9094,7 +9147,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="147"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="7" t="s">
         <v>62</v>
       </c>
@@ -9104,13 +9157,13 @@
       <c r="E16" s="44">
         <v>0.2</v>
       </c>
-      <c r="F16" s="148">
+      <c r="F16" s="151">
         <f>SUM(E16:E17)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="150"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="11" t="s">
         <v>46</v>
       </c>
@@ -9120,10 +9173,10 @@
       <c r="E17" s="36">
         <v>0.2</v>
       </c>
-      <c r="F17" s="151"/>
+      <c r="F17" s="154"/>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="149" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="58" t="s">
@@ -9134,7 +9187,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="147"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="7" t="s">
         <v>64</v>
       </c>
@@ -9144,13 +9197,13 @@
       <c r="E19" s="44">
         <v>0.125</v>
       </c>
-      <c r="F19" s="148">
+      <c r="F19" s="151">
         <f>SUM(E19:E21)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="147"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
@@ -9160,10 +9213,10 @@
       <c r="E20" s="34">
         <v>0.125</v>
       </c>
-      <c r="F20" s="149"/>
+      <c r="F20" s="152"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="147"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="11" t="s">
         <v>67</v>
       </c>
@@ -9173,10 +9226,10 @@
       <c r="E21" s="36">
         <v>0.5</v>
       </c>
-      <c r="F21" s="151"/>
+      <c r="F21" s="154"/>
     </row>
     <row r="22" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B22" s="147"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="58" t="s">
         <v>61</v>
       </c>
@@ -9185,7 +9238,7 @@
       <c r="F22" s="32"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="147"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="7" t="s">
         <v>39</v>
       </c>
@@ -9195,13 +9248,13 @@
       <c r="E23" s="44">
         <v>0.1</v>
       </c>
-      <c r="F23" s="148">
+      <c r="F23" s="151">
         <f>SUM(E23:E25)</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="147"/>
+      <c r="B24" s="150"/>
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
@@ -9211,10 +9264,10 @@
       <c r="E24" s="34">
         <v>0.1</v>
       </c>
-      <c r="F24" s="149"/>
+      <c r="F24" s="152"/>
     </row>
     <row r="25" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B25" s="147"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="11" t="s">
         <v>71</v>
       </c>
@@ -9224,10 +9277,10 @@
       <c r="E25" s="36">
         <v>0.1</v>
       </c>
-      <c r="F25" s="151"/>
+      <c r="F25" s="154"/>
     </row>
     <row r="26" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B26" s="147"/>
+      <c r="B26" s="150"/>
       <c r="C26" s="64" t="s">
         <v>69</v>
       </c>
@@ -9236,7 +9289,7 @@
       <c r="F26" s="32"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="147"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="37" t="s">
         <v>296</v>
       </c>
@@ -9246,13 +9299,13 @@
       <c r="E27" s="45">
         <v>1</v>
       </c>
-      <c r="F27" s="155">
+      <c r="F27" s="158">
         <f>SUM(E27:E28)</f>
         <v>1.4</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="147"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="16" t="s">
         <v>70</v>
       </c>
@@ -9262,10 +9315,10 @@
       <c r="E28" s="48">
         <v>0.4</v>
       </c>
-      <c r="F28" s="156"/>
+      <c r="F28" s="159"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="147"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="58" t="s">
         <v>34</v>
       </c>
@@ -9274,7 +9327,7 @@
       <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="147"/>
+      <c r="B30" s="150"/>
       <c r="C30" s="7" t="s">
         <v>35</v>
       </c>
@@ -9284,13 +9337,13 @@
       <c r="E30" s="98">
         <v>0.125</v>
       </c>
-      <c r="F30" s="148">
+      <c r="F30" s="151">
         <f>SUM(E30:E32)</f>
         <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="147"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="16" t="s">
         <v>75</v>
       </c>
@@ -9300,28 +9353,28 @@
       <c r="E31" s="48">
         <v>0.15</v>
       </c>
-      <c r="F31" s="149"/>
+      <c r="F31" s="152"/>
     </row>
     <row r="32" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B32" s="150"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="35">
         <v>0.3</v>
       </c>
-      <c r="E32" s="124">
+      <c r="E32" s="122">
         <v>0.3</v>
       </c>
-      <c r="F32" s="151"/>
+      <c r="F32" s="154"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="128" t="s">
+      <c r="B33" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="130"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="133"/>
       <c r="F33" s="63">
         <f>SUM(F4:F32)</f>
         <v>5.0750000000000002</v>
@@ -9350,8 +9403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F00672F-D187-8B44-BB8B-7B45D8D47A9A}">
   <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:E39"/>
+    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9365,10 +9418,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="160"/>
+      <c r="C2" s="163"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -9380,7 +9433,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="164" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="67" t="s">
@@ -9391,7 +9444,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="162"/>
+      <c r="B4" s="165"/>
       <c r="C4" s="22" t="s">
         <v>54</v>
       </c>
@@ -9401,13 +9454,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="148">
+      <c r="F4" s="151">
         <f>SUM(E4:E13)</f>
         <v>1.4999999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="162"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="3" t="s">
         <v>73</v>
       </c>
@@ -9417,10 +9470,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="152"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="162"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
@@ -9430,10 +9483,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="149"/>
+      <c r="F6" s="152"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="162"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="3" t="s">
         <v>74</v>
       </c>
@@ -9443,10 +9496,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="152"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="162"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
@@ -9456,10 +9509,10 @@
       <c r="E8" s="44">
         <v>0.15</v>
       </c>
-      <c r="F8" s="149"/>
+      <c r="F8" s="152"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="162"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="3" t="s">
         <v>76</v>
       </c>
@@ -9469,10 +9522,10 @@
       <c r="E9" s="44">
         <v>0.15</v>
       </c>
-      <c r="F9" s="149"/>
+      <c r="F9" s="152"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="162"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="3" t="s">
         <v>57</v>
       </c>
@@ -9482,10 +9535,10 @@
       <c r="E10" s="44">
         <v>0.15</v>
       </c>
-      <c r="F10" s="149"/>
+      <c r="F10" s="152"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="162"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="20" t="s">
         <v>66</v>
       </c>
@@ -9495,10 +9548,10 @@
       <c r="E11" s="44">
         <v>0.15</v>
       </c>
-      <c r="F11" s="149"/>
+      <c r="F11" s="152"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="162"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="3" t="s">
         <v>77</v>
       </c>
@@ -9508,10 +9561,10 @@
       <c r="E12" s="44">
         <v>0.15</v>
       </c>
-      <c r="F12" s="149"/>
+      <c r="F12" s="152"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="162"/>
+      <c r="B13" s="165"/>
       <c r="C13" s="23" t="s">
         <v>78</v>
       </c>
@@ -9521,10 +9574,10 @@
       <c r="E13" s="44">
         <v>0.15</v>
       </c>
-      <c r="F13" s="151"/>
+      <c r="F13" s="154"/>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="162"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="67" t="s">
         <v>30</v>
       </c>
@@ -9533,7 +9586,7 @@
       <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="162"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="22" t="s">
         <v>31</v>
       </c>
@@ -9543,13 +9596,13 @@
       <c r="E15" s="44">
         <v>0.2</v>
       </c>
-      <c r="F15" s="152">
+      <c r="F15" s="155">
         <f>SUM(E15:E17)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="162"/>
+      <c r="B16" s="165"/>
       <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
@@ -9559,10 +9612,10 @@
       <c r="E16" s="44">
         <v>0.2</v>
       </c>
-      <c r="F16" s="153"/>
+      <c r="F16" s="156"/>
     </row>
     <row r="17" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B17" s="162"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="23" t="s">
         <v>33</v>
       </c>
@@ -9572,10 +9625,10 @@
       <c r="E17" s="44">
         <v>0.2</v>
       </c>
-      <c r="F17" s="154"/>
+      <c r="F17" s="157"/>
     </row>
     <row r="18" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B18" s="162"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="68" t="s">
         <v>34</v>
       </c>
@@ -9584,7 +9637,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="162"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="22" t="s">
         <v>62</v>
       </c>
@@ -9594,13 +9647,13 @@
       <c r="E19" s="44">
         <v>0.2</v>
       </c>
-      <c r="F19" s="152">
+      <c r="F19" s="155">
         <f>SUM(E19:E20)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B20" s="163"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="23" t="s">
         <v>46</v>
       </c>
@@ -9610,10 +9663,10 @@
       <c r="E20" s="44">
         <v>0.2</v>
       </c>
-      <c r="F20" s="154"/>
+      <c r="F20" s="157"/>
     </row>
     <row r="21" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="164" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="67" t="s">
@@ -9624,7 +9677,7 @@
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="164"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="24" t="s">
         <v>64</v>
       </c>
@@ -9634,13 +9687,13 @@
       <c r="E22" s="44">
         <v>0.125</v>
       </c>
-      <c r="F22" s="148">
+      <c r="F22" s="151">
         <f>SUM(E22:E27)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="164"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="20" t="s">
         <v>79</v>
       </c>
@@ -9650,10 +9703,10 @@
       <c r="E23" s="34">
         <v>0.125</v>
       </c>
-      <c r="F23" s="149"/>
+      <c r="F23" s="152"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="164"/>
+      <c r="B24" s="167"/>
       <c r="C24" s="20" t="s">
         <v>80</v>
       </c>
@@ -9663,10 +9716,10 @@
       <c r="E24" s="34">
         <v>0.125</v>
       </c>
-      <c r="F24" s="149"/>
+      <c r="F24" s="152"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="164"/>
+      <c r="B25" s="167"/>
       <c r="C25" s="20" t="s">
         <v>65</v>
       </c>
@@ -9676,10 +9729,10 @@
       <c r="E25" s="34">
         <v>0.125</v>
       </c>
-      <c r="F25" s="149"/>
+      <c r="F25" s="152"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="164"/>
+      <c r="B26" s="167"/>
       <c r="C26" s="20" t="s">
         <v>81</v>
       </c>
@@ -9689,10 +9742,10 @@
       <c r="E26" s="34">
         <v>0.4</v>
       </c>
-      <c r="F26" s="149"/>
+      <c r="F26" s="152"/>
     </row>
     <row r="27" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B27" s="164"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="25" t="s">
         <v>82</v>
       </c>
@@ -9702,10 +9755,10 @@
       <c r="E27" s="36">
         <v>0.4</v>
       </c>
-      <c r="F27" s="151"/>
+      <c r="F27" s="154"/>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="164"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="67" t="s">
         <v>61</v>
       </c>
@@ -9714,7 +9767,7 @@
       <c r="F28" s="32"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="164"/>
+      <c r="B29" s="167"/>
       <c r="C29" s="26" t="s">
         <v>38</v>
       </c>
@@ -9730,7 +9783,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B30" s="164"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="67" t="s">
         <v>83</v>
       </c>
@@ -9739,7 +9792,7 @@
       <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="164"/>
+      <c r="B31" s="167"/>
       <c r="C31" s="24" t="s">
         <v>84</v>
       </c>
@@ -9749,13 +9802,13 @@
       <c r="E31" s="44">
         <v>0.25</v>
       </c>
-      <c r="F31" s="148">
+      <c r="F31" s="151">
         <f>SUM(E31:E34)</f>
         <v>1.55</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="164"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="21" t="s">
         <v>85</v>
       </c>
@@ -9765,10 +9818,10 @@
       <c r="E32" s="34">
         <v>0.5</v>
       </c>
-      <c r="F32" s="149"/>
+      <c r="F32" s="152"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="164"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="21" t="s">
         <v>86</v>
       </c>
@@ -9778,10 +9831,10 @@
       <c r="E33" s="34">
         <v>0.3</v>
       </c>
-      <c r="F33" s="149"/>
+      <c r="F33" s="152"/>
     </row>
     <row r="34" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B34" s="165"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="74" t="s">
         <v>87</v>
       </c>
@@ -9791,10 +9844,10 @@
       <c r="E34" s="36">
         <v>0.5</v>
       </c>
-      <c r="F34" s="151"/>
+      <c r="F34" s="154"/>
     </row>
     <row r="35" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B35" s="165"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="67" t="s">
         <v>34</v>
       </c>
@@ -9803,7 +9856,7 @@
       <c r="F35" s="32"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="165"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="7" t="s">
         <v>35</v>
       </c>
@@ -9813,13 +9866,13 @@
       <c r="E36" s="98">
         <v>0.125</v>
       </c>
-      <c r="F36" s="149">
+      <c r="F36" s="152">
         <f>SUM(E36:E38)</f>
         <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="165"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="16" t="s">
         <v>75</v>
       </c>
@@ -9829,36 +9882,36 @@
       <c r="E37" s="93">
         <v>0.15</v>
       </c>
-      <c r="F37" s="149"/>
+      <c r="F37" s="152"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="27"/>
     </row>
     <row r="38" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B38" s="166"/>
+      <c r="B38" s="169"/>
       <c r="C38" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D38" s="35">
         <v>0.3</v>
       </c>
-      <c r="E38" s="124">
+      <c r="E38" s="122">
         <v>0.3</v>
       </c>
-      <c r="F38" s="151"/>
+      <c r="F38" s="154"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="27"/>
     </row>
     <row r="39" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B39" s="157" t="s">
+      <c r="B39" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="159"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="162"/>
       <c r="F39" s="58">
         <f>SUM(F4:F38)</f>
         <v>6.0250000000000004</v>
@@ -9890,8 +9943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA6770-F854-A643-8029-F212B5CE736F}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:E27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9905,10 +9958,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="135"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -9920,7 +9973,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="164" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -9931,7 +9984,7 @@
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="164"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="7" t="s">
         <v>54</v>
       </c>
@@ -9941,13 +9994,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="149">
+      <c r="F4" s="152">
         <f>SUM(E4:E7)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="164"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="1" t="s">
         <v>88</v>
       </c>
@@ -9957,10 +10010,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="152"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="164"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="1" t="s">
         <v>66</v>
       </c>
@@ -9970,10 +10023,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="149"/>
+      <c r="F6" s="152"/>
     </row>
     <row r="7" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B7" s="164"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="11" t="s">
         <v>89</v>
       </c>
@@ -9983,10 +10036,10 @@
       <c r="E7" s="44">
         <v>0.15</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="152"/>
     </row>
     <row r="8" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B8" s="164"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="58" t="s">
         <v>30</v>
       </c>
@@ -9995,7 +10048,7 @@
       <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="164"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
@@ -10005,13 +10058,13 @@
       <c r="E9" s="44">
         <v>0.2</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="155">
         <f>SUM(E9:E11)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="164"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
@@ -10021,10 +10074,10 @@
       <c r="E10" s="84">
         <v>0.2</v>
       </c>
-      <c r="F10" s="153"/>
+      <c r="F10" s="156"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="164"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
@@ -10034,10 +10087,10 @@
       <c r="E11" s="44">
         <v>0.2</v>
       </c>
-      <c r="F11" s="154"/>
+      <c r="F11" s="157"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="164"/>
+      <c r="B12" s="167"/>
       <c r="C12" s="64" t="s">
         <v>34</v>
       </c>
@@ -10046,7 +10099,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="164"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="7" t="s">
         <v>62</v>
       </c>
@@ -10056,13 +10109,13 @@
       <c r="E13" s="44">
         <v>0.2</v>
       </c>
-      <c r="F13" s="152">
+      <c r="F13" s="155">
         <f>SUM(E13:E14)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="166"/>
+      <c r="B14" s="169"/>
       <c r="C14" s="11" t="s">
         <v>46</v>
       </c>
@@ -10072,10 +10125,10 @@
       <c r="E14" s="44">
         <v>0.2</v>
       </c>
-      <c r="F14" s="154"/>
+      <c r="F14" s="157"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="164" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -10086,7 +10139,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="164"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="30" t="s">
         <v>64</v>
       </c>
@@ -10096,13 +10149,13 @@
       <c r="E16" s="44">
         <v>0.125</v>
       </c>
-      <c r="F16" s="149">
+      <c r="F16" s="152">
         <f>SUM(E16:E17)</f>
         <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B17" s="164"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="29" t="s">
         <v>90</v>
       </c>
@@ -10112,7 +10165,7 @@
       <c r="E17" s="99">
         <v>0.3</v>
       </c>
-      <c r="F17" s="149"/>
+      <c r="F17" s="152"/>
       <c r="G17" t="s">
         <v>336</v>
       </c>
@@ -10121,7 +10174,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B18" s="164"/>
+      <c r="B18" s="167"/>
       <c r="C18" s="58" t="s">
         <v>91</v>
       </c>
@@ -10130,7 +10183,7 @@
       <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="164"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="30" t="s">
         <v>94</v>
       </c>
@@ -10140,13 +10193,13 @@
       <c r="E19" s="44">
         <v>0.5</v>
       </c>
-      <c r="F19" s="149">
+      <c r="F19" s="152">
         <f>SUM(E19:E22)</f>
         <v>1.55</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="164"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="28" t="s">
         <v>92</v>
       </c>
@@ -10156,10 +10209,10 @@
       <c r="E20" s="34">
         <v>0.3</v>
       </c>
-      <c r="F20" s="149"/>
+      <c r="F20" s="152"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="164"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="28" t="s">
         <v>93</v>
       </c>
@@ -10169,10 +10222,10 @@
       <c r="E21" s="34">
         <v>0.5</v>
       </c>
-      <c r="F21" s="149"/>
+      <c r="F21" s="152"/>
     </row>
     <row r="22" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B22" s="164"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="29" t="s">
         <v>95</v>
       </c>
@@ -10182,10 +10235,10 @@
       <c r="E22" s="36">
         <v>0.25</v>
       </c>
-      <c r="F22" s="149"/>
+      <c r="F22" s="152"/>
     </row>
     <row r="23" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B23" s="164"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="58" t="s">
         <v>34</v>
       </c>
@@ -10194,7 +10247,7 @@
       <c r="F23" s="32"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="164"/>
+      <c r="B24" s="167"/>
       <c r="C24" s="7" t="s">
         <v>35</v>
       </c>
@@ -10204,13 +10257,13 @@
       <c r="E24" s="98">
         <v>0.125</v>
       </c>
-      <c r="F24" s="152">
+      <c r="F24" s="155">
         <f>SUM(E24:E26)</f>
         <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="164"/>
+      <c r="B25" s="167"/>
       <c r="C25" s="1" t="s">
         <v>75</v>
       </c>
@@ -10220,28 +10273,28 @@
       <c r="E25" s="34">
         <v>0.15</v>
       </c>
-      <c r="F25" s="153"/>
+      <c r="F25" s="156"/>
     </row>
     <row r="26" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B26" s="166"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="35">
         <v>0.3</v>
       </c>
-      <c r="E26" s="124">
+      <c r="E26" s="122">
         <v>0.3</v>
       </c>
-      <c r="F26" s="169"/>
+      <c r="F26" s="172"/>
     </row>
     <row r="27" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="170" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
       <c r="F27" s="58">
         <f>SUM(F4:F26)</f>
         <v>4.1500000000000004</v>
@@ -10269,8 +10322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA52E4B4-063C-1347-8F70-DFE829911404}">
   <dimension ref="B1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125:E125"/>
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -10284,10 +10337,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -10299,7 +10352,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="139" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -10310,7 +10363,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="137"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="7" t="s">
         <v>96</v>
       </c>
@@ -10320,13 +10373,13 @@
       <c r="E4" s="44">
         <v>0.15</v>
       </c>
-      <c r="F4" s="148">
+      <c r="F4" s="151">
         <f>SUM(E4:E11)</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="137"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
@@ -10336,10 +10389,10 @@
       <c r="E5" s="44">
         <v>0.15</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="152"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="137"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="1" t="s">
         <v>137</v>
       </c>
@@ -10349,10 +10402,10 @@
       <c r="E6" s="44">
         <v>0.15</v>
       </c>
-      <c r="F6" s="149"/>
+      <c r="F6" s="152"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="137"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="1" t="s">
         <v>138</v>
       </c>
@@ -10362,10 +10415,10 @@
       <c r="E7" s="71">
         <v>0.15</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="152"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="137"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="1" t="s">
         <v>139</v>
       </c>
@@ -10375,10 +10428,10 @@
       <c r="E8" s="71">
         <v>0.15</v>
       </c>
-      <c r="F8" s="149"/>
+      <c r="F8" s="152"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="137"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="1" t="s">
         <v>140</v>
       </c>
@@ -10388,10 +10441,10 @@
       <c r="E9" s="71">
         <v>0.15</v>
       </c>
-      <c r="F9" s="149"/>
+      <c r="F9" s="152"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="137"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="1" t="s">
         <v>141</v>
       </c>
@@ -10401,10 +10454,10 @@
       <c r="E10" s="71">
         <v>0.15</v>
       </c>
-      <c r="F10" s="149"/>
+      <c r="F10" s="152"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B11" s="137"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="11" t="s">
         <v>142</v>
       </c>
@@ -10414,10 +10467,10 @@
       <c r="E11" s="71">
         <v>0.15</v>
       </c>
-      <c r="F11" s="151"/>
+      <c r="F11" s="154"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="137"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="58" t="s">
         <v>100</v>
       </c>
@@ -10426,7 +10479,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="137"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="7" t="s">
         <v>101</v>
       </c>
@@ -10436,13 +10489,13 @@
       <c r="E13" s="71">
         <v>0.15</v>
       </c>
-      <c r="F13" s="148">
+      <c r="F13" s="151">
         <f>SUM(E13:E14)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B14" s="137"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="29" t="s">
         <v>297</v>
       </c>
@@ -10452,10 +10505,10 @@
       <c r="E14" s="71">
         <v>0.15</v>
       </c>
-      <c r="F14" s="151"/>
+      <c r="F14" s="154"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B15" s="137"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="58" t="s">
         <v>102</v>
       </c>
@@ -10464,7 +10517,7 @@
       <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="137"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="7" t="s">
         <v>103</v>
       </c>
@@ -10474,26 +10527,26 @@
       <c r="E16" s="71">
         <v>0.15</v>
       </c>
-      <c r="F16" s="148">
+      <c r="F16" s="151">
         <f>SUM(E16:E38)</f>
         <v>3.9999999999999996</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="137"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="30" t="s">
         <v>189</v>
       </c>
       <c r="D17" s="44">
         <v>0.3</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="120">
         <v>0.3</v>
       </c>
-      <c r="F17" s="149"/>
+      <c r="F17" s="152"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="137"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="28" t="s">
         <v>104</v>
       </c>
@@ -10503,10 +10556,10 @@
       <c r="E18" s="106">
         <v>0.2</v>
       </c>
-      <c r="F18" s="149"/>
+      <c r="F18" s="152"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="137"/>
+      <c r="B19" s="140"/>
       <c r="C19" s="1" t="s">
         <v>105</v>
       </c>
@@ -10516,10 +10569,10 @@
       <c r="E19" s="44">
         <v>0.15</v>
       </c>
-      <c r="F19" s="149"/>
+      <c r="F19" s="152"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="137"/>
+      <c r="B20" s="140"/>
       <c r="C20" s="1" t="s">
         <v>106</v>
       </c>
@@ -10529,10 +10582,10 @@
       <c r="E20" s="44">
         <v>0.15</v>
       </c>
-      <c r="F20" s="149"/>
+      <c r="F20" s="152"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="137"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="1" t="s">
         <v>107</v>
       </c>
@@ -10542,10 +10595,10 @@
       <c r="E21" s="44">
         <v>0.15</v>
       </c>
-      <c r="F21" s="149"/>
+      <c r="F21" s="152"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="137"/>
+      <c r="B22" s="140"/>
       <c r="C22" s="28" t="s">
         <v>108</v>
       </c>
@@ -10555,10 +10608,10 @@
       <c r="E22" s="44">
         <v>0</v>
       </c>
-      <c r="F22" s="149"/>
+      <c r="F22" s="152"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="137"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
@@ -10568,10 +10621,10 @@
       <c r="E23" s="84">
         <v>0.15</v>
       </c>
-      <c r="F23" s="149"/>
+      <c r="F23" s="152"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="137"/>
+      <c r="B24" s="140"/>
       <c r="C24" s="1" t="s">
         <v>110</v>
       </c>
@@ -10581,10 +10634,10 @@
       <c r="E24" s="71">
         <v>0.15</v>
       </c>
-      <c r="F24" s="149"/>
+      <c r="F24" s="152"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="137"/>
+      <c r="B25" s="140"/>
       <c r="C25" s="28" t="s">
         <v>298</v>
       </c>
@@ -10594,10 +10647,10 @@
       <c r="E25" s="84">
         <v>0.15</v>
       </c>
-      <c r="F25" s="149"/>
+      <c r="F25" s="152"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="137"/>
+      <c r="B26" s="140"/>
       <c r="C26" s="1" t="s">
         <v>111</v>
       </c>
@@ -10607,10 +10660,10 @@
       <c r="E26" s="71">
         <v>0.15</v>
       </c>
-      <c r="F26" s="149"/>
+      <c r="F26" s="152"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="137"/>
+      <c r="B27" s="140"/>
       <c r="C27" s="1" t="s">
         <v>112</v>
       </c>
@@ -10620,10 +10673,10 @@
       <c r="E27" s="81">
         <v>0.15</v>
       </c>
-      <c r="F27" s="149"/>
+      <c r="F27" s="152"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="137"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="1" t="s">
         <v>113</v>
       </c>
@@ -10633,10 +10686,10 @@
       <c r="E28" s="71">
         <v>0.15</v>
       </c>
-      <c r="F28" s="149"/>
+      <c r="F28" s="152"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="137"/>
+      <c r="B29" s="140"/>
       <c r="C29" s="1" t="s">
         <v>114</v>
       </c>
@@ -10646,10 +10699,10 @@
       <c r="E29" s="84">
         <v>0.15</v>
       </c>
-      <c r="F29" s="149"/>
+      <c r="F29" s="152"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="137"/>
+      <c r="B30" s="140"/>
       <c r="C30" s="1" t="s">
         <v>115</v>
       </c>
@@ -10659,10 +10712,10 @@
       <c r="E30" s="78">
         <v>0.15</v>
       </c>
-      <c r="F30" s="149"/>
+      <c r="F30" s="152"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="137"/>
+      <c r="B31" s="140"/>
       <c r="C31" s="28" t="s">
         <v>116</v>
       </c>
@@ -10672,10 +10725,10 @@
       <c r="E31" s="84">
         <v>0.3</v>
       </c>
-      <c r="F31" s="149"/>
+      <c r="F31" s="152"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="137"/>
+      <c r="B32" s="140"/>
       <c r="C32" s="28" t="s">
         <v>117</v>
       </c>
@@ -10685,10 +10738,10 @@
       <c r="E32" s="44">
         <v>0.15</v>
       </c>
-      <c r="F32" s="149"/>
+      <c r="F32" s="152"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="137"/>
+      <c r="B33" s="140"/>
       <c r="C33" s="28" t="s">
         <v>118</v>
       </c>
@@ -10698,10 +10751,10 @@
       <c r="E33" s="84">
         <v>0.15</v>
       </c>
-      <c r="F33" s="149"/>
+      <c r="F33" s="152"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="137"/>
+      <c r="B34" s="140"/>
       <c r="C34" s="28" t="s">
         <v>119</v>
       </c>
@@ -10711,10 +10764,10 @@
       <c r="E34" s="84">
         <v>0.2</v>
       </c>
-      <c r="F34" s="149"/>
+      <c r="F34" s="152"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="137"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="28" t="s">
         <v>120</v>
       </c>
@@ -10724,10 +10777,10 @@
       <c r="E35" s="84">
         <v>0.2</v>
       </c>
-      <c r="F35" s="149"/>
+      <c r="F35" s="152"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="137"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="28" t="s">
         <v>135</v>
       </c>
@@ -10737,11 +10790,11 @@
       <c r="E36" s="84">
         <v>0.2</v>
       </c>
-      <c r="F36" s="149"/>
-      <c r="G36" s="91"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="124"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="137"/>
+      <c r="B37" s="140"/>
       <c r="C37" s="28" t="s">
         <v>136</v>
       </c>
@@ -10751,11 +10804,11 @@
       <c r="E37" s="84">
         <v>0.2</v>
       </c>
-      <c r="F37" s="149"/>
-      <c r="G37" s="91"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="124"/>
     </row>
     <row r="38" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B38" s="137"/>
+      <c r="B38" s="140"/>
       <c r="C38" s="29" t="s">
         <v>176</v>
       </c>
@@ -10765,10 +10818,10 @@
       <c r="E38" s="84">
         <v>0.3</v>
       </c>
-      <c r="F38" s="151"/>
+      <c r="F38" s="154"/>
     </row>
     <row r="39" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B39" s="137"/>
+      <c r="B39" s="140"/>
       <c r="C39" s="58" t="s">
         <v>121</v>
       </c>
@@ -10777,7 +10830,7 @@
       <c r="F39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="137"/>
+      <c r="B40" s="140"/>
       <c r="C40" s="7" t="s">
         <v>122</v>
       </c>
@@ -10787,26 +10840,26 @@
       <c r="E40" s="44">
         <v>0.15</v>
       </c>
-      <c r="F40" s="148">
+      <c r="F40" s="151">
         <f>SUM(E40:E47)</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="137"/>
+      <c r="B41" s="140"/>
       <c r="C41" s="28" t="s">
         <v>123</v>
       </c>
       <c r="D41" s="44">
         <v>0.2</v>
       </c>
-      <c r="E41" s="122">
-        <v>0.2</v>
-      </c>
-      <c r="F41" s="149"/>
+      <c r="E41" s="120">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="152"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="137"/>
+      <c r="B42" s="140"/>
       <c r="C42" s="1" t="s">
         <v>124</v>
       </c>
@@ -10816,10 +10869,10 @@
       <c r="E42" s="44">
         <v>0.15</v>
       </c>
-      <c r="F42" s="149"/>
+      <c r="F42" s="152"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="137"/>
+      <c r="B43" s="140"/>
       <c r="C43" s="28" t="s">
         <v>117</v>
       </c>
@@ -10829,10 +10882,10 @@
       <c r="E43" s="44">
         <v>0.15</v>
       </c>
-      <c r="F43" s="149"/>
+      <c r="F43" s="152"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="137"/>
+      <c r="B44" s="140"/>
       <c r="C44" s="28" t="s">
         <v>118</v>
       </c>
@@ -10842,23 +10895,23 @@
       <c r="E44" s="44">
         <v>0.15</v>
       </c>
-      <c r="F44" s="149"/>
+      <c r="F44" s="152"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="137"/>
+      <c r="B45" s="140"/>
       <c r="C45" s="28" t="s">
         <v>119</v>
       </c>
       <c r="D45" s="44">
         <v>0.2</v>
       </c>
-      <c r="E45" s="115">
-        <v>0.2</v>
-      </c>
-      <c r="F45" s="149"/>
+      <c r="E45" s="114">
+        <v>0.2</v>
+      </c>
+      <c r="F45" s="152"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="137"/>
+      <c r="B46" s="140"/>
       <c r="C46" s="1" t="s">
         <v>126</v>
       </c>
@@ -10868,23 +10921,23 @@
       <c r="E46" s="113">
         <v>0</v>
       </c>
-      <c r="F46" s="149"/>
+      <c r="F46" s="152"/>
     </row>
     <row r="47" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B47" s="137"/>
+      <c r="B47" s="140"/>
       <c r="C47" s="29" t="s">
         <v>125</v>
       </c>
       <c r="D47" s="44">
         <v>0.2</v>
       </c>
-      <c r="E47" s="115">
-        <v>0.2</v>
-      </c>
-      <c r="F47" s="151"/>
+      <c r="E47" s="114">
+        <v>0.2</v>
+      </c>
+      <c r="F47" s="154"/>
     </row>
     <row r="48" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B48" s="137"/>
+      <c r="B48" s="140"/>
       <c r="C48" s="58" t="s">
         <v>127</v>
       </c>
@@ -10893,101 +10946,101 @@
       <c r="F48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="137"/>
+      <c r="B49" s="140"/>
       <c r="C49" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D49" s="44">
         <v>0.15</v>
       </c>
-      <c r="E49" s="115">
-        <v>0.15</v>
-      </c>
-      <c r="F49" s="148">
+      <c r="E49" s="114">
+        <v>0.15</v>
+      </c>
+      <c r="F49" s="151">
         <f>SUM(E49:E58)</f>
         <v>1.55</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="137"/>
+      <c r="B50" s="140"/>
       <c r="C50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D50" s="44">
         <v>0.15</v>
       </c>
-      <c r="E50" s="115">
-        <v>0.15</v>
-      </c>
-      <c r="F50" s="149"/>
+      <c r="E50" s="114">
+        <v>0.15</v>
+      </c>
+      <c r="F50" s="152"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="137"/>
+      <c r="B51" s="140"/>
       <c r="C51" s="28" t="s">
         <v>117</v>
       </c>
       <c r="D51" s="44">
         <v>0.15</v>
       </c>
-      <c r="E51" s="115">
-        <v>0.15</v>
-      </c>
-      <c r="F51" s="149"/>
+      <c r="E51" s="114">
+        <v>0.15</v>
+      </c>
+      <c r="F51" s="152"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="137"/>
+      <c r="B52" s="140"/>
       <c r="C52" s="28" t="s">
         <v>118</v>
       </c>
       <c r="D52" s="44">
         <v>0.15</v>
       </c>
-      <c r="E52" s="115">
-        <v>0.15</v>
-      </c>
-      <c r="F52" s="149"/>
+      <c r="E52" s="114">
+        <v>0.15</v>
+      </c>
+      <c r="F52" s="152"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="137"/>
+      <c r="B53" s="140"/>
       <c r="C53" s="28" t="s">
         <v>119</v>
       </c>
       <c r="D53" s="44">
         <v>0.2</v>
       </c>
-      <c r="E53" s="115">
-        <v>0.2</v>
-      </c>
-      <c r="F53" s="149"/>
+      <c r="E53" s="114">
+        <v>0.2</v>
+      </c>
+      <c r="F53" s="152"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="137"/>
+      <c r="B54" s="140"/>
       <c r="C54" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D54" s="44">
         <v>0.15</v>
       </c>
-      <c r="E54" s="115">
-        <v>0.15</v>
-      </c>
-      <c r="F54" s="149"/>
+      <c r="E54" s="114">
+        <v>0.15</v>
+      </c>
+      <c r="F54" s="152"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="137"/>
+      <c r="B55" s="140"/>
       <c r="C55" s="28" t="s">
         <v>131</v>
       </c>
       <c r="D55" s="44">
         <v>0.2</v>
       </c>
-      <c r="E55" s="115">
-        <v>0.2</v>
-      </c>
-      <c r="F55" s="149"/>
+      <c r="E55" s="114">
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="152"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="137"/>
+      <c r="B56" s="140"/>
       <c r="C56" s="1" t="s">
         <v>132</v>
       </c>
@@ -10997,39 +11050,39 @@
       <c r="E56" s="44">
         <v>0</v>
       </c>
-      <c r="F56" s="149"/>
+      <c r="F56" s="152"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="137"/>
+      <c r="B57" s="140"/>
       <c r="C57" s="28" t="s">
         <v>133</v>
       </c>
       <c r="D57" s="44">
         <v>0.2</v>
       </c>
-      <c r="E57" s="115">
-        <v>0.2</v>
-      </c>
-      <c r="F57" s="149"/>
+      <c r="E57" s="114">
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="152"/>
       <c r="G57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B58" s="137"/>
+      <c r="B58" s="140"/>
       <c r="C58" s="11" t="s">
         <v>134</v>
       </c>
       <c r="D58" s="44">
         <v>0.2</v>
       </c>
-      <c r="E58" s="122">
-        <v>0.2</v>
-      </c>
-      <c r="F58" s="151"/>
+      <c r="E58" s="120">
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="154"/>
     </row>
     <row r="59" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B59" s="137"/>
+      <c r="B59" s="140"/>
       <c r="C59" s="58" t="s">
         <v>30</v>
       </c>
@@ -11038,7 +11091,7 @@
       <c r="F59" s="32"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="137"/>
+      <c r="B60" s="140"/>
       <c r="C60" s="7" t="s">
         <v>31</v>
       </c>
@@ -11048,13 +11101,13 @@
       <c r="E60" s="44">
         <v>0.2</v>
       </c>
-      <c r="F60" s="152">
+      <c r="F60" s="155">
         <f>SUM(E60:E62)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="137"/>
+      <c r="B61" s="140"/>
       <c r="C61" s="1" t="s">
         <v>32</v>
       </c>
@@ -11064,10 +11117,10 @@
       <c r="E61" s="44">
         <v>0.2</v>
       </c>
-      <c r="F61" s="153"/>
+      <c r="F61" s="156"/>
     </row>
     <row r="62" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B62" s="137"/>
+      <c r="B62" s="140"/>
       <c r="C62" s="11" t="s">
         <v>33</v>
       </c>
@@ -11077,10 +11130,10 @@
       <c r="E62" s="44">
         <v>0.2</v>
       </c>
-      <c r="F62" s="154"/>
+      <c r="F62" s="157"/>
     </row>
     <row r="63" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B63" s="137"/>
+      <c r="B63" s="140"/>
       <c r="C63" s="64" t="s">
         <v>34</v>
       </c>
@@ -11089,7 +11142,7 @@
       <c r="F63" s="32"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="137"/>
+      <c r="B64" s="140"/>
       <c r="C64" s="7" t="s">
         <v>62</v>
       </c>
@@ -11099,13 +11152,13 @@
       <c r="E64" s="44">
         <v>0.2</v>
       </c>
-      <c r="F64" s="152">
+      <c r="F64" s="155">
         <f>SUM(E64:E65)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B65" s="139"/>
+      <c r="B65" s="142"/>
       <c r="C65" s="11" t="s">
         <v>46</v>
       </c>
@@ -11115,10 +11168,10 @@
       <c r="E65" s="36">
         <v>0.2</v>
       </c>
-      <c r="F65" s="154"/>
+      <c r="F65" s="157"/>
     </row>
     <row r="66" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B66" s="172" t="s">
+      <c r="B66" s="175" t="s">
         <v>45</v>
       </c>
       <c r="C66" s="58" t="s">
@@ -11129,7 +11182,7 @@
       <c r="F66" s="32"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="162"/>
+      <c r="B67" s="165"/>
       <c r="C67" s="30" t="s">
         <v>143</v>
       </c>
@@ -11139,13 +11192,13 @@
       <c r="E67" s="44">
         <v>0.25</v>
       </c>
-      <c r="F67" s="148">
+      <c r="F67" s="151">
         <f>SUM(E67:E68)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B68" s="162"/>
+      <c r="B68" s="165"/>
       <c r="C68" s="29" t="s">
         <v>185</v>
       </c>
@@ -11155,10 +11208,10 @@
       <c r="E68" s="36">
         <v>0.35</v>
       </c>
-      <c r="F68" s="151"/>
+      <c r="F68" s="154"/>
     </row>
     <row r="69" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B69" s="162"/>
+      <c r="B69" s="165"/>
       <c r="C69" s="58" t="s">
         <v>100</v>
       </c>
@@ -11167,62 +11220,62 @@
       <c r="F69" s="32"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="162"/>
+      <c r="B70" s="165"/>
       <c r="C70" s="30" t="s">
         <v>145</v>
       </c>
       <c r="D70" s="44">
         <v>0.25</v>
       </c>
-      <c r="E70" s="118">
+      <c r="E70" s="117">
         <v>0</v>
       </c>
-      <c r="F70" s="148">
+      <c r="F70" s="151">
         <f>SUM(E70:E75)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="162"/>
+      <c r="B71" s="165"/>
       <c r="C71" s="31" t="s">
         <v>146</v>
       </c>
       <c r="D71" s="34">
         <v>0.15</v>
       </c>
-      <c r="E71" s="118">
+      <c r="E71" s="117">
         <v>0</v>
       </c>
-      <c r="F71" s="149"/>
+      <c r="F71" s="152"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="162"/>
+      <c r="B72" s="165"/>
       <c r="C72" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D72" s="34">
         <v>0.25</v>
       </c>
-      <c r="E72" s="118">
+      <c r="E72" s="117">
         <v>0</v>
       </c>
-      <c r="F72" s="149"/>
+      <c r="F72" s="152"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="162"/>
+      <c r="B73" s="165"/>
       <c r="C73" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D73" s="34">
         <v>0.3</v>
       </c>
-      <c r="E73" s="118">
+      <c r="E73" s="117">
         <v>0</v>
       </c>
-      <c r="F73" s="149"/>
+      <c r="F73" s="152"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="162"/>
+      <c r="B74" s="165"/>
       <c r="C74" s="1" t="s">
         <v>149</v>
       </c>
@@ -11232,23 +11285,23 @@
       <c r="E74" s="79">
         <v>0</v>
       </c>
-      <c r="F74" s="149"/>
+      <c r="F74" s="152"/>
     </row>
     <row r="75" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B75" s="162"/>
+      <c r="B75" s="165"/>
       <c r="C75" s="11" t="s">
         <v>152</v>
       </c>
       <c r="D75" s="36">
         <v>0.25</v>
       </c>
-      <c r="E75" s="118">
+      <c r="E75" s="117">
         <v>0</v>
       </c>
-      <c r="F75" s="151"/>
+      <c r="F75" s="154"/>
     </row>
     <row r="76" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B76" s="162"/>
+      <c r="B76" s="165"/>
       <c r="C76" s="58" t="s">
         <v>102</v>
       </c>
@@ -11257,36 +11310,36 @@
       <c r="F76" s="32"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="162"/>
+      <c r="B77" s="165"/>
       <c r="C77" s="7" t="s">
         <v>144</v>
       </c>
       <c r="D77" s="44">
         <v>0.25</v>
       </c>
-      <c r="E77" s="122">
+      <c r="E77" s="120">
         <v>0.25</v>
       </c>
-      <c r="F77" s="148">
+      <c r="F77" s="151">
         <f>SUM(E77:E96)</f>
         <v>5.3500000000000014</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="162"/>
+      <c r="B78" s="165"/>
       <c r="C78" s="7" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="44">
         <v>0.7</v>
       </c>
-      <c r="E78" s="122">
+      <c r="E78" s="120">
         <v>0.7</v>
       </c>
-      <c r="F78" s="149"/>
+      <c r="F78" s="152"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="162"/>
+      <c r="B79" s="165"/>
       <c r="C79" s="1" t="s">
         <v>177</v>
       </c>
@@ -11296,10 +11349,10 @@
       <c r="E79" s="106">
         <v>0.25</v>
       </c>
-      <c r="F79" s="149"/>
+      <c r="F79" s="152"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="162"/>
+      <c r="B80" s="165"/>
       <c r="C80" s="1" t="s">
         <v>178</v>
       </c>
@@ -11309,36 +11362,36 @@
       <c r="E80" s="106">
         <v>0.25</v>
       </c>
-      <c r="F80" s="149"/>
+      <c r="F80" s="152"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="162"/>
+      <c r="B81" s="165"/>
       <c r="C81" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D81" s="34">
         <v>0.5</v>
       </c>
-      <c r="E81" s="122">
+      <c r="E81" s="120">
         <v>0.5</v>
       </c>
-      <c r="F81" s="149"/>
+      <c r="F81" s="152"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="162"/>
+      <c r="B82" s="165"/>
       <c r="C82" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D82" s="34">
         <v>0.25</v>
       </c>
-      <c r="E82" s="122">
+      <c r="E82" s="120">
         <v>0.25</v>
       </c>
-      <c r="F82" s="149"/>
+      <c r="F82" s="152"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="162"/>
+      <c r="B83" s="165"/>
       <c r="C83" s="28" t="s">
         <v>299</v>
       </c>
@@ -11348,10 +11401,10 @@
       <c r="E83" s="106">
         <v>0.2</v>
       </c>
-      <c r="F83" s="149"/>
+      <c r="F83" s="152"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="162"/>
+      <c r="B84" s="165"/>
       <c r="C84" s="1" t="s">
         <v>153</v>
       </c>
@@ -11361,10 +11414,10 @@
       <c r="E84" s="106">
         <v>0.3</v>
       </c>
-      <c r="F84" s="149"/>
+      <c r="F84" s="152"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="162"/>
+      <c r="B85" s="165"/>
       <c r="C85" s="1" t="s">
         <v>151</v>
       </c>
@@ -11374,10 +11427,10 @@
       <c r="E85" s="106">
         <v>0.25</v>
       </c>
-      <c r="F85" s="149"/>
+      <c r="F85" s="152"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="162"/>
+      <c r="B86" s="165"/>
       <c r="C86" s="28" t="s">
         <v>154</v>
       </c>
@@ -11387,10 +11440,10 @@
       <c r="E86" s="79">
         <v>0</v>
       </c>
-      <c r="F86" s="149"/>
+      <c r="F86" s="152"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="162"/>
+      <c r="B87" s="165"/>
       <c r="C87" s="1" t="s">
         <v>155</v>
       </c>
@@ -11400,10 +11453,10 @@
       <c r="E87" s="104">
         <v>0.2</v>
       </c>
-      <c r="F87" s="149"/>
+      <c r="F87" s="152"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="162"/>
+      <c r="B88" s="165"/>
       <c r="C88" s="1" t="s">
         <v>156</v>
       </c>
@@ -11413,10 +11466,10 @@
       <c r="E88" s="106">
         <v>0.25</v>
       </c>
-      <c r="F88" s="149"/>
+      <c r="F88" s="152"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="162"/>
+      <c r="B89" s="165"/>
       <c r="C89" s="1" t="s">
         <v>157</v>
       </c>
@@ -11426,10 +11479,10 @@
       <c r="E89" s="106">
         <v>0.25</v>
       </c>
-      <c r="F89" s="149"/>
+      <c r="F89" s="152"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="162"/>
+      <c r="B90" s="165"/>
       <c r="C90" s="1" t="s">
         <v>158</v>
       </c>
@@ -11439,10 +11492,10 @@
       <c r="E90" s="98">
         <v>0.2</v>
       </c>
-      <c r="F90" s="149"/>
+      <c r="F90" s="152"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="162"/>
+      <c r="B91" s="165"/>
       <c r="C91" s="1" t="s">
         <v>159</v>
       </c>
@@ -11452,23 +11505,23 @@
       <c r="E91" s="106">
         <v>0.4</v>
       </c>
-      <c r="F91" s="149"/>
+      <c r="F91" s="152"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="162"/>
+      <c r="B92" s="165"/>
       <c r="C92" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D92" s="34">
         <v>0.4</v>
       </c>
-      <c r="E92" s="122">
+      <c r="E92" s="120">
         <v>0.4</v>
       </c>
-      <c r="F92" s="149"/>
+      <c r="F92" s="152"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="162"/>
+      <c r="B93" s="165"/>
       <c r="C93" s="1" t="s">
         <v>161</v>
       </c>
@@ -11478,10 +11531,10 @@
       <c r="E93" s="79">
         <v>0</v>
       </c>
-      <c r="F93" s="149"/>
+      <c r="F93" s="152"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="162"/>
+      <c r="B94" s="165"/>
       <c r="C94" s="1" t="s">
         <v>162</v>
       </c>
@@ -11491,10 +11544,10 @@
       <c r="E94" s="106">
         <v>0.25</v>
       </c>
-      <c r="F94" s="149"/>
+      <c r="F94" s="152"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="162"/>
+      <c r="B95" s="165"/>
       <c r="C95" s="11" t="s">
         <v>172</v>
       </c>
@@ -11504,10 +11557,10 @@
       <c r="E95" s="98">
         <v>0.2</v>
       </c>
-      <c r="F95" s="149"/>
+      <c r="F95" s="152"/>
     </row>
     <row r="96" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B96" s="162"/>
+      <c r="B96" s="165"/>
       <c r="C96" s="11" t="s">
         <v>163</v>
       </c>
@@ -11517,10 +11570,10 @@
       <c r="E96" s="106">
         <v>0.25</v>
       </c>
-      <c r="F96" s="151"/>
+      <c r="F96" s="154"/>
     </row>
     <row r="97" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B97" s="162"/>
+      <c r="B97" s="165"/>
       <c r="C97" s="58" t="s">
         <v>121</v>
       </c>
@@ -11529,75 +11582,75 @@
       <c r="F97" s="32"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="162"/>
+      <c r="B98" s="165"/>
       <c r="C98" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D98" s="44">
         <v>0.25</v>
       </c>
-      <c r="E98" s="115">
+      <c r="E98" s="114">
         <v>0.25</v>
       </c>
-      <c r="F98" s="148">
+      <c r="F98" s="151">
         <f>SUM(E98:E104)</f>
         <v>1.75</v>
       </c>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="162"/>
+      <c r="B99" s="165"/>
       <c r="C99" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D99" s="34">
         <v>0.25</v>
       </c>
-      <c r="E99" s="115">
+      <c r="E99" s="114">
         <v>0.25</v>
       </c>
-      <c r="F99" s="149"/>
+      <c r="F99" s="152"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="162"/>
+      <c r="B100" s="165"/>
       <c r="C100" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D100" s="34">
         <v>0.25</v>
       </c>
-      <c r="E100" s="115">
+      <c r="E100" s="114">
         <v>0.25</v>
       </c>
-      <c r="F100" s="149"/>
+      <c r="F100" s="152"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="162"/>
+      <c r="B101" s="165"/>
       <c r="C101" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D101" s="34">
         <v>0.25</v>
       </c>
-      <c r="E101" s="115">
+      <c r="E101" s="114">
         <v>0.25</v>
       </c>
-      <c r="F101" s="149"/>
+      <c r="F101" s="152"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="162"/>
+      <c r="B102" s="165"/>
       <c r="C102" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D102" s="34">
         <v>0.25</v>
       </c>
-      <c r="E102" s="115">
+      <c r="E102" s="114">
         <v>0.25</v>
       </c>
-      <c r="F102" s="149"/>
+      <c r="F102" s="152"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="162"/>
+      <c r="B103" s="165"/>
       <c r="C103" s="1" t="s">
         <v>172</v>
       </c>
@@ -11607,23 +11660,23 @@
       <c r="E103" s="106">
         <v>0.2</v>
       </c>
-      <c r="F103" s="149"/>
+      <c r="F103" s="152"/>
     </row>
     <row r="104" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B104" s="162"/>
+      <c r="B104" s="165"/>
       <c r="C104" s="11" t="s">
         <v>169</v>
       </c>
       <c r="D104" s="36">
         <v>0.3</v>
       </c>
-      <c r="E104" s="122">
+      <c r="E104" s="120">
         <v>0.3</v>
       </c>
-      <c r="F104" s="151"/>
+      <c r="F104" s="154"/>
     </row>
     <row r="105" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B105" s="162"/>
+      <c r="B105" s="165"/>
       <c r="C105" s="58" t="s">
         <v>127</v>
       </c>
@@ -11632,88 +11685,88 @@
       <c r="F105" s="32"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="162"/>
+      <c r="B106" s="165"/>
       <c r="C106" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D106" s="44">
         <v>0.25</v>
       </c>
-      <c r="E106" s="115">
+      <c r="E106" s="114">
         <v>0.25</v>
       </c>
-      <c r="F106" s="148">
+      <c r="F106" s="151">
         <f>SUM(E106:E111)</f>
         <v>1.45</v>
       </c>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="162"/>
+      <c r="B107" s="165"/>
       <c r="C107" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D107" s="34">
         <v>0.2</v>
       </c>
-      <c r="E107" s="115">
-        <v>0.2</v>
-      </c>
-      <c r="F107" s="149"/>
+      <c r="E107" s="114">
+        <v>0.2</v>
+      </c>
+      <c r="F107" s="152"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="162"/>
+      <c r="B108" s="165"/>
       <c r="C108" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D108" s="34">
         <v>0.25</v>
       </c>
-      <c r="E108" s="115">
+      <c r="E108" s="114">
         <v>0.25</v>
       </c>
-      <c r="F108" s="149"/>
+      <c r="F108" s="152"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="162"/>
+      <c r="B109" s="165"/>
       <c r="C109" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D109" s="34">
         <v>0.25</v>
       </c>
-      <c r="E109" s="115">
+      <c r="E109" s="114">
         <v>0.25</v>
       </c>
-      <c r="F109" s="149"/>
+      <c r="F109" s="152"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="162"/>
+      <c r="B110" s="165"/>
       <c r="C110" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D110" s="34">
         <v>0.3</v>
       </c>
-      <c r="E110" s="122">
+      <c r="E110" s="120">
         <v>0.3</v>
       </c>
-      <c r="F110" s="149"/>
+      <c r="F110" s="152"/>
     </row>
     <row r="111" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B111" s="162"/>
+      <c r="B111" s="165"/>
       <c r="C111" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D111" s="48">
         <v>0.2</v>
       </c>
-      <c r="E111" s="115">
-        <v>0.2</v>
-      </c>
-      <c r="F111" s="151"/>
+      <c r="E111" s="114">
+        <v>0.2</v>
+      </c>
+      <c r="F111" s="154"/>
     </row>
     <row r="112" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B112" s="162"/>
+      <c r="B112" s="165"/>
       <c r="C112" s="64" t="s">
         <v>61</v>
       </c>
@@ -11722,23 +11775,23 @@
       <c r="F112" s="32"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="162"/>
+      <c r="B113" s="165"/>
       <c r="C113" s="7" t="s">
         <v>181</v>
       </c>
       <c r="D113" s="44">
         <v>0.1</v>
       </c>
-      <c r="E113" s="122">
-        <v>0</v>
-      </c>
-      <c r="F113" s="148">
+      <c r="E113" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="F113" s="151">
         <f>SUM(E113:E118)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="162"/>
+      <c r="B114" s="165"/>
       <c r="C114" s="1" t="s">
         <v>182</v>
       </c>
@@ -11748,10 +11801,10 @@
       <c r="E114" s="44">
         <v>0.1</v>
       </c>
-      <c r="F114" s="149"/>
+      <c r="F114" s="152"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="162"/>
+      <c r="B115" s="165"/>
       <c r="C115" s="1" t="s">
         <v>183</v>
       </c>
@@ -11761,10 +11814,10 @@
       <c r="E115" s="44">
         <v>0</v>
       </c>
-      <c r="F115" s="149"/>
+      <c r="F115" s="152"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="162"/>
+      <c r="B116" s="165"/>
       <c r="C116" s="1" t="s">
         <v>184</v>
       </c>
@@ -11774,10 +11827,10 @@
       <c r="E116" s="44">
         <v>0</v>
       </c>
-      <c r="F116" s="149"/>
+      <c r="F116" s="152"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="162"/>
+      <c r="B117" s="165"/>
       <c r="C117" s="1" t="s">
         <v>186</v>
       </c>
@@ -11787,23 +11840,23 @@
       <c r="E117" s="44">
         <v>0.1</v>
       </c>
-      <c r="F117" s="149"/>
+      <c r="F117" s="152"/>
     </row>
     <row r="118" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B118" s="162"/>
+      <c r="B118" s="165"/>
       <c r="C118" s="11" t="s">
         <v>187</v>
       </c>
       <c r="D118" s="44">
         <v>0.1</v>
       </c>
-      <c r="E118" s="44">
-        <v>0</v>
-      </c>
-      <c r="F118" s="151"/>
+      <c r="E118" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="F118" s="154"/>
     </row>
     <row r="119" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B119" s="162"/>
+      <c r="B119" s="165"/>
       <c r="C119" s="58" t="s">
         <v>34</v>
       </c>
@@ -11812,49 +11865,49 @@
       <c r="F119" s="32"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="162"/>
+      <c r="B120" s="165"/>
       <c r="C120" s="30" t="s">
         <v>179</v>
       </c>
       <c r="D120" s="44">
         <v>0.6</v>
       </c>
-      <c r="E120" s="122">
+      <c r="E120" s="120">
         <v>0.6</v>
       </c>
-      <c r="F120" s="148">
+      <c r="F120" s="151">
         <f>SUM(E120:E124)</f>
-        <v>1.175</v>
+        <v>1.675</v>
       </c>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="162"/>
+      <c r="B121" s="165"/>
       <c r="C121" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D121" s="34">
         <v>0.5</v>
       </c>
-      <c r="E121" s="34">
-        <v>0</v>
-      </c>
-      <c r="F121" s="149"/>
+      <c r="E121" s="96">
+        <v>0.5</v>
+      </c>
+      <c r="F121" s="152"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="162"/>
+      <c r="B122" s="165"/>
       <c r="C122" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D122" s="34">
         <v>0.125</v>
       </c>
-      <c r="E122" s="123">
+      <c r="E122" s="121">
         <v>0.125</v>
       </c>
-      <c r="F122" s="149"/>
+      <c r="F122" s="152"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="162"/>
+      <c r="B123" s="165"/>
       <c r="C123" s="1" t="s">
         <v>188</v>
       </c>
@@ -11864,31 +11917,31 @@
       <c r="E123" s="34">
         <v>0.15</v>
       </c>
-      <c r="F123" s="149"/>
+      <c r="F123" s="152"/>
     </row>
     <row r="124" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B124" s="173"/>
+      <c r="B124" s="176"/>
       <c r="C124" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D124" s="35">
         <v>0.3</v>
       </c>
-      <c r="E124" s="124">
+      <c r="E124" s="122">
         <v>0.3</v>
       </c>
-      <c r="F124" s="151"/>
+      <c r="F124" s="154"/>
     </row>
     <row r="125" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B125" s="128" t="s">
+      <c r="B125" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="C125" s="170"/>
-      <c r="D125" s="170"/>
-      <c r="E125" s="171"/>
+      <c r="C125" s="173"/>
+      <c r="D125" s="173"/>
+      <c r="E125" s="174"/>
       <c r="F125" s="63">
         <f>SUM(F4:F124)</f>
-        <v>19.775000000000002</v>
+        <v>20.475000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11922,8 +11975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A14CCF-DCC6-8145-A45C-85699F6AE450}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:E38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -11937,10 +11990,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="135"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
@@ -11952,7 +12005,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="164" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -11963,7 +12016,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="164"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="7" t="s">
         <v>215</v>
       </c>
@@ -11973,13 +12026,13 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="149">
+      <c r="F4" s="152">
         <f>SUM(E4:E5)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B5" s="164"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="11" t="s">
         <v>216</v>
       </c>
@@ -11989,10 +12042,10 @@
       <c r="E5" s="84">
         <v>0.15</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="152"/>
     </row>
     <row r="6" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B6" s="164"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="58" t="s">
         <v>30</v>
       </c>
@@ -12001,7 +12054,7 @@
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="164"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
@@ -12011,13 +12064,13 @@
       <c r="E7" s="84">
         <v>0.2</v>
       </c>
-      <c r="F7" s="152">
+      <c r="F7" s="155">
         <f>SUM(E7:E9)</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="164"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -12027,10 +12080,10 @@
       <c r="E8" s="85">
         <v>0.2</v>
       </c>
-      <c r="F8" s="153"/>
+      <c r="F8" s="156"/>
     </row>
     <row r="9" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B9" s="164"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -12040,10 +12093,10 @@
       <c r="E9" s="99">
         <v>0.2</v>
       </c>
-      <c r="F9" s="154"/>
+      <c r="F9" s="157"/>
     </row>
     <row r="10" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B10" s="164"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="64" t="s">
         <v>34</v>
       </c>
@@ -12052,7 +12105,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="164"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
@@ -12062,13 +12115,13 @@
       <c r="E11" s="84">
         <v>0.2</v>
       </c>
-      <c r="F11" s="152">
+      <c r="F11" s="155">
         <f>SUM(E11:E12)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B12" s="166"/>
+      <c r="B12" s="169"/>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
@@ -12078,10 +12131,10 @@
       <c r="E12" s="86">
         <v>0.2</v>
       </c>
-      <c r="F12" s="154"/>
+      <c r="F12" s="157"/>
     </row>
     <row r="13" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="149" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -12092,7 +12145,7 @@
       <c r="F13" s="32"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="147"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="30" t="s">
         <v>218</v>
       </c>
@@ -12100,24 +12153,24 @@
         <v>1.5</v>
       </c>
       <c r="E14" s="44"/>
-      <c r="F14" s="149">
+      <c r="F14" s="152">
         <f>SUM(E14:E28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="147"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="28" t="s">
         <v>219</v>
       </c>
       <c r="D15" s="34">
         <v>0.25</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="149"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="152"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="147"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="28" t="s">
         <v>220</v>
       </c>
@@ -12125,10 +12178,10 @@
         <v>0.3</v>
       </c>
       <c r="E16" s="34"/>
-      <c r="F16" s="149"/>
+      <c r="F16" s="152"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="147"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="28" t="s">
         <v>221</v>
       </c>
@@ -12136,10 +12189,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="34"/>
-      <c r="F17" s="149"/>
+      <c r="F17" s="152"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="147"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="28" t="s">
         <v>222</v>
       </c>
@@ -12147,32 +12200,32 @@
         <v>0.2</v>
       </c>
       <c r="E18" s="34"/>
-      <c r="F18" s="149"/>
+      <c r="F18" s="152"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="147"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="28" t="s">
         <v>223</v>
       </c>
       <c r="D19" s="34">
         <v>0.15</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="149"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="152"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="147"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="28" t="s">
         <v>327</v>
       </c>
       <c r="D20" s="34">
         <v>0.2</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="149"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="152"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="147"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="28" t="s">
         <v>224</v>
       </c>
@@ -12180,10 +12233,10 @@
         <v>0.3</v>
       </c>
       <c r="E21" s="34"/>
-      <c r="F21" s="149"/>
+      <c r="F21" s="152"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="147"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="28" t="s">
         <v>225</v>
       </c>
@@ -12191,10 +12244,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="149"/>
+      <c r="F22" s="152"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="147"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="28" t="s">
         <v>226</v>
       </c>
@@ -12202,10 +12255,10 @@
         <v>0.4</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="149"/>
+      <c r="F23" s="152"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="147"/>
+      <c r="B24" s="150"/>
       <c r="C24" s="28" t="s">
         <v>227</v>
       </c>
@@ -12213,10 +12266,10 @@
         <v>0.4</v>
       </c>
       <c r="E24" s="34"/>
-      <c r="F24" s="149"/>
+      <c r="F24" s="152"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="147"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="28" t="s">
         <v>228</v>
       </c>
@@ -12224,43 +12277,43 @@
         <v>0.4</v>
       </c>
       <c r="E25" s="34"/>
-      <c r="F25" s="149"/>
+      <c r="F25" s="152"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="147"/>
+      <c r="B26" s="150"/>
       <c r="C26" s="28" t="s">
         <v>229</v>
       </c>
       <c r="D26" s="34">
         <v>0.25</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="149"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="152"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="147"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="28" t="s">
         <v>230</v>
       </c>
       <c r="D27" s="34">
         <v>0.25</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="149"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="152"/>
     </row>
     <row r="28" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B28" s="147"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="29" t="s">
         <v>231</v>
       </c>
       <c r="D28" s="36">
         <v>0.25</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="149"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="152"/>
     </row>
     <row r="29" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B29" s="147"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="58" t="s">
         <v>232</v>
       </c>
@@ -12269,43 +12322,43 @@
       <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="147"/>
+      <c r="B30" s="150"/>
       <c r="C30" s="30" t="s">
         <v>233</v>
       </c>
       <c r="D30" s="44">
         <v>0.2</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="149">
+      <c r="E30" s="126"/>
+      <c r="F30" s="152">
         <f>SUM(E30:E33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="147"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="28" t="s">
         <v>234</v>
       </c>
       <c r="D31" s="34">
         <v>0.4</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="149"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="152"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="147"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="28" t="s">
         <v>235</v>
       </c>
       <c r="D32" s="34">
         <v>0.25</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="149"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="152"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B33" s="147"/>
+      <c r="B33" s="150"/>
       <c r="C33" s="29" t="s">
         <v>236</v>
       </c>
@@ -12313,10 +12366,10 @@
         <v>0.4</v>
       </c>
       <c r="E33" s="36"/>
-      <c r="F33" s="149"/>
+      <c r="F33" s="152"/>
     </row>
     <row r="34" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B34" s="147"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="58" t="s">
         <v>34</v>
       </c>
@@ -12325,7 +12378,7 @@
       <c r="F34" s="32"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="147"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="7" t="s">
         <v>35</v>
       </c>
@@ -12333,13 +12386,13 @@
         <v>0.125</v>
       </c>
       <c r="E35" s="44"/>
-      <c r="F35" s="152">
+      <c r="F35" s="155">
         <f>SUM(E35:E37)</f>
         <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="147"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="1" t="s">
         <v>188</v>
       </c>
@@ -12349,28 +12402,28 @@
       <c r="E36" s="85">
         <v>0.15</v>
       </c>
-      <c r="F36" s="153"/>
+      <c r="F36" s="156"/>
     </row>
     <row r="37" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B37" s="150"/>
+      <c r="B37" s="153"/>
       <c r="C37" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="35">
         <v>0.3</v>
       </c>
-      <c r="E37" s="124">
+      <c r="E37" s="122">
         <v>0.3</v>
       </c>
-      <c r="F37" s="169"/>
+      <c r="F37" s="172"/>
     </row>
     <row r="38" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="175"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="176"/>
+      <c r="C38" s="178"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="179"/>
       <c r="F38" s="63">
         <f>SUM(F4:F37)</f>
         <v>1.7500000000000002</v>

--- a/MT.xlsx
+++ b/MT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD66D91-DB59-4F40-AE53-78843D444D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC6E021-202D-48BE-9163-3ECD287C7CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="1000" firstSheet="1" activeTab="1" xr2:uid="{556EC7CD-A7EC-924A-86C6-FEF6C985B965}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="1000" activeTab="1" xr2:uid="{556EC7CD-A7EC-924A-86C6-FEF6C985B965}"/>
   </bookViews>
   <sheets>
     <sheet name="Miscellaneous" sheetId="14" r:id="rId1"/>
@@ -3944,7 +3944,7 @@
                   <c:v>20.475000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9750000000000001</c:v>
+                  <c:v>2.5749999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.7500000000000002</c:v>
@@ -4061,7 +4061,7 @@
                   <c:v>2.6499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8500000000000032</c:v>
+                  <c:v>7.2500000000000036</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10.225000000000001</c:v>
@@ -5144,8 +5144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B167C5-1ED2-9D41-A960-D58FFC16A91F}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A16" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5405,8 +5405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626DDC4-C184-3148-8754-559C01A088BC}">
   <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E25" sqref="E21:E25"/>
+    <sheetView topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="F4" s="186">
         <f>SUM(E4:E11)</f>
-        <v>0.82499999999999996</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -5495,7 +5495,9 @@
       <c r="D7" s="44">
         <v>0.3</v>
       </c>
-      <c r="E7" s="94"/>
+      <c r="E7" s="94">
+        <v>0.3</v>
+      </c>
       <c r="F7" s="187"/>
     </row>
     <row r="8" spans="2:6">
@@ -5659,7 +5661,7 @@
       <c r="E20" s="44"/>
       <c r="F20" s="186">
         <f>SUM(E20:E36)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -5791,7 +5793,9 @@
       <c r="D32" s="34">
         <v>0.5</v>
       </c>
-      <c r="E32" s="96"/>
+      <c r="E32" s="96">
+        <v>0.25</v>
+      </c>
       <c r="F32" s="187"/>
     </row>
     <row r="33" spans="2:6">
@@ -5892,7 +5896,7 @@
       <c r="E41" s="94"/>
       <c r="F41" s="186">
         <f>SUM(E41:E42)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="16.2" thickBot="1">
@@ -5903,7 +5907,9 @@
       <c r="D42" s="36">
         <v>0.1</v>
       </c>
-      <c r="E42" s="95"/>
+      <c r="E42" s="95">
+        <v>0.05</v>
+      </c>
       <c r="F42" s="187"/>
     </row>
     <row r="43" spans="2:6" ht="16.2" thickBot="1">
@@ -5964,7 +5970,7 @@
       <c r="E47" s="174"/>
       <c r="F47" s="58">
         <f>SUM(F4:F46)</f>
-        <v>1.9750000000000001</v>
+        <v>2.5749999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6693,8 +6699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D71FAE6-B451-6848-BDAA-C37A96D72161}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7758,7 +7764,7 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7916,11 +7922,11 @@
       </c>
       <c r="D10" s="81">
         <f t="shared" si="0"/>
-        <v>7.8500000000000032</v>
+        <v>7.2500000000000036</v>
       </c>
       <c r="E10" s="82">
         <f>'Story Page'!F47</f>
-        <v>1.9750000000000001</v>
+        <v>2.5749999999999997</v>
       </c>
       <c r="F10" s="91"/>
     </row>
@@ -8019,7 +8025,7 @@
       <c r="D16" s="133"/>
       <c r="E16" s="77">
         <f>SUM(E3:E15)</f>
-        <v>70.275000000000006</v>
+        <v>70.875</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -8106,11 +8112,11 @@
       </c>
       <c r="E23">
         <f>E16</f>
-        <v>70.275000000000006</v>
+        <v>70.875</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>4.2750000000000057</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="24" spans="3:6">
@@ -8122,7 +8128,7 @@
       </c>
       <c r="F24">
         <f>E24-E16</f>
-        <v>-0.27500000000000568</v>
+        <v>-0.875</v>
       </c>
     </row>
     <row r="25" spans="3:6">

--- a/MT.xlsx
+++ b/MT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC6E021-202D-48BE-9163-3ECD287C7CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA6ED6-4DEF-4CA3-8508-B4112CC85DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="1000" activeTab="1" xr2:uid="{556EC7CD-A7EC-924A-86C6-FEF6C985B965}"/>
   </bookViews>
@@ -3720,6 +3720,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3733,18 +3745,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3926,7 +3926,7 @@
                   <c:v>6.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1749999999999998</c:v>
+                  <c:v>6.6749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.5500000000000003</c:v>
@@ -3947,7 +3947,7 @@
                   <c:v>2.5749999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7500000000000002</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.0750000000000002</c:v>
@@ -4043,7 +4043,7 @@
                   <c:v>2.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.700000000000002</c:v>
+                  <c:v>1.200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4064,7 +4064,7 @@
                   <c:v>7.2500000000000036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.225000000000001</c:v>
+                  <c:v>9.8500000000000014</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -5405,8 +5405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626DDC4-C184-3148-8754-559C01A088BC}">
   <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5423,7 +5423,7 @@
       <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="180"/>
+      <c r="C2" s="184"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -5435,7 +5435,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="188" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -5456,7 +5456,7 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="186">
+      <c r="F4" s="181">
         <f>SUM(E4:E11)</f>
         <v>1.125</v>
       </c>
@@ -5472,7 +5472,7 @@
       <c r="E5" s="84">
         <v>0.15</v>
       </c>
-      <c r="F5" s="187"/>
+      <c r="F5" s="182"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="167"/>
@@ -5485,7 +5485,7 @@
       <c r="E6" s="84">
         <v>0.15</v>
       </c>
-      <c r="F6" s="187"/>
+      <c r="F6" s="182"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="167"/>
@@ -5498,7 +5498,7 @@
       <c r="E7" s="94">
         <v>0.3</v>
       </c>
-      <c r="F7" s="187"/>
+      <c r="F7" s="182"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="167"/>
@@ -5511,7 +5511,7 @@
       <c r="E8" s="84">
         <v>0.15</v>
       </c>
-      <c r="F8" s="187"/>
+      <c r="F8" s="182"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="167"/>
@@ -5524,7 +5524,7 @@
       <c r="E9" s="94">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F9" s="187"/>
+      <c r="F9" s="182"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="167"/>
@@ -5537,7 +5537,7 @@
       <c r="E10" s="84">
         <v>0.15</v>
       </c>
-      <c r="F10" s="187"/>
+      <c r="F10" s="182"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
       <c r="B11" s="167"/>
@@ -5548,7 +5548,7 @@
         <v>0.3</v>
       </c>
       <c r="E11" s="44"/>
-      <c r="F11" s="188"/>
+      <c r="F11" s="183"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
       <c r="B12" s="167"/>
@@ -5570,7 +5570,7 @@
       <c r="E13" s="84">
         <v>0.2</v>
       </c>
-      <c r="F13" s="181">
+      <c r="F13" s="185">
         <f>SUM(E13:E15)</f>
         <v>0.60000000000000009</v>
       </c>
@@ -5586,7 +5586,7 @@
       <c r="E14" s="85">
         <v>0.2</v>
       </c>
-      <c r="F14" s="182"/>
+      <c r="F14" s="186"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
       <c r="B15" s="167"/>
@@ -5599,7 +5599,7 @@
       <c r="E15" s="86">
         <v>0.2</v>
       </c>
-      <c r="F15" s="183"/>
+      <c r="F15" s="187"/>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
       <c r="B16" s="167"/>
@@ -5621,7 +5621,7 @@
       <c r="E17" s="84">
         <v>0.2</v>
       </c>
-      <c r="F17" s="181">
+      <c r="F17" s="185">
         <f>SUM(E17:E18)</f>
         <v>0.4</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="E18" s="86">
         <v>0.2</v>
       </c>
-      <c r="F18" s="183"/>
+      <c r="F18" s="187"/>
     </row>
     <row r="19" spans="2:6" ht="16.2" thickBot="1">
       <c r="B19" s="164" t="s">
@@ -5659,7 +5659,7 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="44"/>
-      <c r="F20" s="186">
+      <c r="F20" s="181">
         <f>SUM(E20:E36)</f>
         <v>0.25</v>
       </c>
@@ -5672,8 +5672,8 @@
       <c r="D21" s="34">
         <v>0.25</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="187"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="182"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="167"/>
@@ -5683,8 +5683,8 @@
       <c r="D22" s="34">
         <v>0.25</v>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="187"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="182"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="167"/>
@@ -5694,8 +5694,8 @@
       <c r="D23" s="34">
         <v>0.4</v>
       </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="187"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="182"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="167"/>
@@ -5705,8 +5705,8 @@
       <c r="D24" s="34">
         <v>0.4</v>
       </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="187"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="182"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="167"/>
@@ -5716,8 +5716,8 @@
       <c r="D25" s="34">
         <v>0.5</v>
       </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="187"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="182"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="167"/>
@@ -5728,7 +5728,7 @@
         <v>0.5</v>
       </c>
       <c r="E26" s="34"/>
-      <c r="F26" s="187"/>
+      <c r="F26" s="182"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="167"/>
@@ -5739,7 +5739,7 @@
         <v>0.4</v>
       </c>
       <c r="E27" s="116"/>
-      <c r="F27" s="187"/>
+      <c r="F27" s="182"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="167"/>
@@ -5750,7 +5750,7 @@
         <v>0.4</v>
       </c>
       <c r="E28" s="34"/>
-      <c r="F28" s="187"/>
+      <c r="F28" s="182"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="167"/>
@@ -5761,7 +5761,7 @@
         <v>0.3</v>
       </c>
       <c r="E29" s="34"/>
-      <c r="F29" s="187"/>
+      <c r="F29" s="182"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="167"/>
@@ -5771,8 +5771,8 @@
       <c r="D30" s="34">
         <v>0.3</v>
       </c>
-      <c r="E30" s="96"/>
-      <c r="F30" s="187"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="182"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="167"/>
@@ -5782,8 +5782,8 @@
       <c r="D31" s="34">
         <v>0.25</v>
       </c>
-      <c r="E31" s="96"/>
-      <c r="F31" s="187"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="182"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="167"/>
@@ -5796,7 +5796,7 @@
       <c r="E32" s="96">
         <v>0.25</v>
       </c>
-      <c r="F32" s="187"/>
+      <c r="F32" s="182"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="167"/>
@@ -5806,8 +5806,8 @@
       <c r="D33" s="34">
         <v>0.3</v>
       </c>
-      <c r="E33" s="96"/>
-      <c r="F33" s="187"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="182"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="167"/>
@@ -5818,7 +5818,7 @@
         <v>0.4</v>
       </c>
       <c r="E34" s="34"/>
-      <c r="F34" s="187"/>
+      <c r="F34" s="182"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="167"/>
@@ -5829,7 +5829,7 @@
         <v>0.4</v>
       </c>
       <c r="E35" s="34"/>
-      <c r="F35" s="187"/>
+      <c r="F35" s="182"/>
     </row>
     <row r="36" spans="2:6" ht="16.2" thickBot="1">
       <c r="B36" s="167"/>
@@ -5839,8 +5839,8 @@
       <c r="D36" s="36">
         <v>0.3</v>
       </c>
-      <c r="E36" s="95"/>
-      <c r="F36" s="188"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="183"/>
     </row>
     <row r="37" spans="2:6" ht="16.2" thickBot="1">
       <c r="B37" s="167"/>
@@ -5859,8 +5859,8 @@
       <c r="D38" s="44">
         <v>0.25</v>
       </c>
-      <c r="E38" s="94"/>
-      <c r="F38" s="186">
+      <c r="E38" s="81"/>
+      <c r="F38" s="181">
         <f>SUM(E38:E39)</f>
         <v>0</v>
       </c>
@@ -5873,8 +5873,8 @@
       <c r="D39" s="36">
         <v>0.25</v>
       </c>
-      <c r="E39" s="95"/>
-      <c r="F39" s="188"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="183"/>
     </row>
     <row r="40" spans="2:6" ht="16.2" thickBot="1">
       <c r="B40" s="167"/>
@@ -5894,7 +5894,7 @@
         <v>0.1</v>
       </c>
       <c r="E41" s="94"/>
-      <c r="F41" s="186">
+      <c r="F41" s="181">
         <f>SUM(E41:E42)</f>
         <v>0.05</v>
       </c>
@@ -5910,7 +5910,7 @@
       <c r="E42" s="95">
         <v>0.05</v>
       </c>
-      <c r="F42" s="187"/>
+      <c r="F42" s="182"/>
     </row>
     <row r="43" spans="2:6" ht="16.2" thickBot="1">
       <c r="B43" s="167"/>
@@ -5930,7 +5930,7 @@
         <v>0.125</v>
       </c>
       <c r="E44" s="94"/>
-      <c r="F44" s="181">
+      <c r="F44" s="185">
         <f>SUM(E44:E46)</f>
         <v>0.15</v>
       </c>
@@ -5946,7 +5946,7 @@
       <c r="E45" s="85">
         <v>0.15</v>
       </c>
-      <c r="F45" s="182"/>
+      <c r="F45" s="186"/>
     </row>
     <row r="46" spans="2:6" ht="16.2" thickBot="1">
       <c r="B46" s="168"/>
@@ -5959,10 +5959,10 @@
       <c r="E46" s="122" t="s">
         <v>341</v>
       </c>
-      <c r="F46" s="183"/>
+      <c r="F46" s="187"/>
     </row>
     <row r="47" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B47" s="185" t="s">
+      <c r="B47" s="180" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="173"/>
@@ -5975,17 +5975,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F4:F11"/>
-    <mergeCell ref="F20:F36"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F38:F39"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="B3:B18"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="B19:B46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F4:F11"/>
+    <mergeCell ref="F20:F36"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5997,7 +5997,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6037,7 +6037,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="184"/>
+      <c r="B4" s="188"/>
       <c r="C4" s="38" t="s">
         <v>305</v>
       </c>
@@ -6053,7 +6053,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B5" s="184"/>
+      <c r="B5" s="188"/>
       <c r="C5" t="s">
         <v>306</v>
       </c>
@@ -6066,7 +6066,7 @@
       <c r="F5" s="154"/>
     </row>
     <row r="6" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B6" s="184"/>
+      <c r="B6" s="188"/>
       <c r="C6" s="58" t="s">
         <v>30</v>
       </c>
@@ -6305,8 +6305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA2FF9E-EF1B-764A-B143-1E2142586A6D}">
   <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6335,7 +6335,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="188" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -6581,7 +6581,7 @@
       <c r="D22" s="44">
         <v>0.1</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="94">
         <v>0.05</v>
       </c>
       <c r="F22" s="151">
@@ -6597,7 +6597,7 @@
       <c r="D23" s="34">
         <v>0.1</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="96">
         <v>0.05</v>
       </c>
       <c r="F23" s="152"/>
@@ -6678,17 +6678,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F22:F24"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="B17:B28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F22:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6699,8 +6699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D71FAE6-B451-6848-BDAA-C37A96D72161}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6717,7 +6717,7 @@
       <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="180"/>
+      <c r="C2" s="184"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -7276,16 +7276,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B25:B43"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="F4:F17"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="B3:B24"/>
     <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B25:B43"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="F26:F33"/>
-    <mergeCell ref="F4:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7296,8 +7296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A679EA6-8CB7-A24A-BA70-3CC01102E2D7}">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7764,7 +7764,7 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7818,11 +7818,11 @@
       </c>
       <c r="D4" s="81">
         <f t="shared" ref="D4:D15" si="0">C4-E4</f>
-        <v>1.700000000000002</v>
+        <v>1.200000000000002</v>
       </c>
       <c r="E4" s="82">
         <f>Header!F42</f>
-        <v>6.1749999999999998</v>
+        <v>6.6749999999999998</v>
       </c>
       <c r="F4" s="91"/>
     </row>
@@ -7940,11 +7940,11 @@
       </c>
       <c r="D11" s="81">
         <f t="shared" si="0"/>
-        <v>10.225000000000001</v>
+        <v>9.8500000000000014</v>
       </c>
       <c r="E11" s="82">
         <f>'Direct Message Page'!F38</f>
-        <v>1.7500000000000002</v>
+        <v>2.125</v>
       </c>
       <c r="F11" s="91"/>
     </row>
@@ -8025,7 +8025,7 @@
       <c r="D16" s="133"/>
       <c r="E16" s="77">
         <f>SUM(E3:E15)</f>
-        <v>70.875</v>
+        <v>71.75</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -8112,11 +8112,11 @@
       </c>
       <c r="E23">
         <f>E16</f>
-        <v>70.875</v>
+        <v>71.75</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>4.875</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="24" spans="3:6">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="F24">
         <f>E24-E16</f>
-        <v>-0.875</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="25" spans="3:6">
@@ -8149,8 +8149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE670F-6E02-7D4A-BE09-F54A0BBCCA86}">
   <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="F10" s="134">
         <f>SUM(E10:E18)</f>
-        <v>1.05</v>
+        <v>1.3499999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="16.05" customHeight="1">
@@ -8317,7 +8317,7 @@
         <v>0.15</v>
       </c>
       <c r="E13" s="125">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F13" s="134"/>
     </row>
@@ -8356,7 +8356,7 @@
         <v>0.15</v>
       </c>
       <c r="E16" s="125">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F16" s="134"/>
     </row>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="F32" s="134">
         <f>SUM(E32:E38)</f>
-        <v>1.85</v>
+        <v>2.0500000000000003</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -8580,7 +8580,7 @@
         <v>0.4</v>
       </c>
       <c r="E33" s="96">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F33" s="134"/>
     </row>
@@ -8704,7 +8704,7 @@
       <c r="E42" s="133"/>
       <c r="F42" s="65">
         <f>SUM(F4:F41)</f>
-        <v>6.1749999999999998</v>
+        <v>6.6749999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8958,7 +8958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51390118-501D-994C-B11B-72660FCE399A}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:E33"/>
     </sheetView>
   </sheetViews>
@@ -9409,8 +9409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F00672F-D187-8B44-BB8B-7B45D8D47A9A}">
   <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9949,8 +9949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA6770-F854-A643-8029-F212B5CE736F}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -10329,7 +10329,7 @@
   <dimension ref="B1:G125"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -11952,6 +11952,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="B3:B65"/>
     <mergeCell ref="B125:E125"/>
     <mergeCell ref="B66:B124"/>
     <mergeCell ref="F4:F11"/>
@@ -11966,10 +11970,6 @@
     <mergeCell ref="F106:F111"/>
     <mergeCell ref="F77:F96"/>
     <mergeCell ref="F98:F104"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="B3:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11981,8 +11981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A14CCF-DCC6-8145-A45C-85699F6AE450}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -12338,7 +12338,7 @@
       <c r="E30" s="126"/>
       <c r="F30" s="152">
         <f>SUM(E30:E33)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -12360,7 +12360,9 @@
       <c r="D32" s="34">
         <v>0.25</v>
       </c>
-      <c r="E32" s="127"/>
+      <c r="E32" s="96">
+        <v>0.25</v>
+      </c>
       <c r="F32" s="152"/>
     </row>
     <row r="33" spans="2:6" ht="16.2" thickBot="1">
@@ -12391,10 +12393,12 @@
       <c r="D35" s="44">
         <v>0.125</v>
       </c>
-      <c r="E35" s="44"/>
+      <c r="E35" s="94">
+        <v>0.125</v>
+      </c>
       <c r="F35" s="155">
         <f>SUM(E35:E37)</f>
-        <v>0.44999999999999996</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -12432,21 +12436,21 @@
       <c r="E38" s="179"/>
       <c r="F38" s="63">
         <f>SUM(F4:F37)</f>
-        <v>1.7500000000000002</v>
+        <v>2.125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B13:B37"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F14:F28"/>
+    <mergeCell ref="F30:F33"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="F35:F37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B13:B37"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F14:F28"/>
-    <mergeCell ref="F30:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MT.xlsx
+++ b/MT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA6ED6-4DEF-4CA3-8508-B4112CC85DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC388E08-C4D0-45E5-9088-2E1AA1C3D117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="1000" activeTab="1" xr2:uid="{556EC7CD-A7EC-924A-86C6-FEF6C985B965}"/>
   </bookViews>
@@ -3720,6 +3720,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3730,21 +3745,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3923,10 +3923,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>6.6000000000000005</c:v>
+                  <c:v>7.1000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6749999999999998</c:v>
+                  <c:v>6.8749999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.5500000000000003</c:v>
@@ -3944,10 +3944,10 @@
                   <c:v>20.475000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5749999999999997</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.125</c:v>
+                  <c:v>2.3250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.0750000000000002</c:v>
@@ -3956,7 +3956,7 @@
                   <c:v>2.6499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8</c:v>
+                  <c:v>5.8749999999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.9750000000000005</c:v>
@@ -4040,10 +4040,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.0000000000000009</c:v>
+                  <c:v>1.5000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.200000000000002</c:v>
+                  <c:v>1.0000000000000027</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4061,10 +4061,10 @@
                   <c:v>2.6499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2500000000000036</c:v>
+                  <c:v>6.9250000000000025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.8500000000000014</c:v>
+                  <c:v>9.6500000000000021</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -4073,7 +4073,7 @@
                   <c:v>2.3249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.77499999999999858</c:v>
+                  <c:v>0.69999999999999929</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.2000000000000002</c:v>
@@ -5145,7 +5145,7 @@
   <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5379,7 +5379,7 @@
         <v>1.5</v>
       </c>
       <c r="D24" s="49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="16.2" thickBot="1">
@@ -5389,7 +5389,7 @@
       <c r="C25" s="130"/>
       <c r="D25" s="62">
         <f>SUM(D4:D24)</f>
-        <v>6.6000000000000005</v>
+        <v>7.1000000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -5405,8 +5405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626DDC4-C184-3148-8754-559C01A088BC}">
   <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5423,7 +5423,7 @@
       <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184"/>
+      <c r="C2" s="180"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -5435,7 +5435,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="184" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -5456,9 +5456,9 @@
       <c r="E4" s="84">
         <v>0.15</v>
       </c>
-      <c r="F4" s="181">
+      <c r="F4" s="186">
         <f>SUM(E4:E11)</f>
-        <v>1.125</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -5472,7 +5472,7 @@
       <c r="E5" s="84">
         <v>0.15</v>
       </c>
-      <c r="F5" s="182"/>
+      <c r="F5" s="187"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="167"/>
@@ -5485,7 +5485,7 @@
       <c r="E6" s="84">
         <v>0.15</v>
       </c>
-      <c r="F6" s="182"/>
+      <c r="F6" s="187"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="167"/>
@@ -5498,7 +5498,7 @@
       <c r="E7" s="94">
         <v>0.3</v>
       </c>
-      <c r="F7" s="182"/>
+      <c r="F7" s="187"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="167"/>
@@ -5511,7 +5511,7 @@
       <c r="E8" s="84">
         <v>0.15</v>
       </c>
-      <c r="F8" s="182"/>
+      <c r="F8" s="187"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="167"/>
@@ -5522,9 +5522,9 @@
         <v>0.15</v>
       </c>
       <c r="E9" s="94">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F9" s="182"/>
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="187"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="167"/>
@@ -5537,7 +5537,7 @@
       <c r="E10" s="84">
         <v>0.15</v>
       </c>
-      <c r="F10" s="182"/>
+      <c r="F10" s="187"/>
     </row>
     <row r="11" spans="2:6" ht="16.2" thickBot="1">
       <c r="B11" s="167"/>
@@ -5548,7 +5548,7 @@
         <v>0.3</v>
       </c>
       <c r="E11" s="44"/>
-      <c r="F11" s="183"/>
+      <c r="F11" s="188"/>
     </row>
     <row r="12" spans="2:6" ht="16.2" thickBot="1">
       <c r="B12" s="167"/>
@@ -5570,7 +5570,7 @@
       <c r="E13" s="84">
         <v>0.2</v>
       </c>
-      <c r="F13" s="185">
+      <c r="F13" s="181">
         <f>SUM(E13:E15)</f>
         <v>0.60000000000000009</v>
       </c>
@@ -5586,7 +5586,7 @@
       <c r="E14" s="85">
         <v>0.2</v>
       </c>
-      <c r="F14" s="186"/>
+      <c r="F14" s="182"/>
     </row>
     <row r="15" spans="2:6" ht="16.2" thickBot="1">
       <c r="B15" s="167"/>
@@ -5599,7 +5599,7 @@
       <c r="E15" s="86">
         <v>0.2</v>
       </c>
-      <c r="F15" s="187"/>
+      <c r="F15" s="183"/>
     </row>
     <row r="16" spans="2:6" ht="16.2" thickBot="1">
       <c r="B16" s="167"/>
@@ -5621,7 +5621,7 @@
       <c r="E17" s="84">
         <v>0.2</v>
       </c>
-      <c r="F17" s="185">
+      <c r="F17" s="181">
         <f>SUM(E17:E18)</f>
         <v>0.4</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="E18" s="86">
         <v>0.2</v>
       </c>
-      <c r="F18" s="187"/>
+      <c r="F18" s="183"/>
     </row>
     <row r="19" spans="2:6" ht="16.2" thickBot="1">
       <c r="B19" s="164" t="s">
@@ -5659,9 +5659,9 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="44"/>
-      <c r="F20" s="181">
+      <c r="F20" s="186">
         <f>SUM(E20:E36)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -5673,7 +5673,7 @@
         <v>0.25</v>
       </c>
       <c r="E21" s="82"/>
-      <c r="F21" s="182"/>
+      <c r="F21" s="187"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="167"/>
@@ -5684,7 +5684,7 @@
         <v>0.25</v>
       </c>
       <c r="E22" s="82"/>
-      <c r="F22" s="182"/>
+      <c r="F22" s="187"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="167"/>
@@ -5695,7 +5695,7 @@
         <v>0.4</v>
       </c>
       <c r="E23" s="82"/>
-      <c r="F23" s="182"/>
+      <c r="F23" s="187"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="167"/>
@@ -5706,7 +5706,7 @@
         <v>0.4</v>
       </c>
       <c r="E24" s="82"/>
-      <c r="F24" s="182"/>
+      <c r="F24" s="187"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="167"/>
@@ -5717,7 +5717,7 @@
         <v>0.5</v>
       </c>
       <c r="E25" s="82"/>
-      <c r="F25" s="182"/>
+      <c r="F25" s="187"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="167"/>
@@ -5728,7 +5728,7 @@
         <v>0.5</v>
       </c>
       <c r="E26" s="34"/>
-      <c r="F26" s="182"/>
+      <c r="F26" s="187"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="167"/>
@@ -5739,7 +5739,7 @@
         <v>0.4</v>
       </c>
       <c r="E27" s="116"/>
-      <c r="F27" s="182"/>
+      <c r="F27" s="187"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="167"/>
@@ -5750,7 +5750,7 @@
         <v>0.4</v>
       </c>
       <c r="E28" s="34"/>
-      <c r="F28" s="182"/>
+      <c r="F28" s="187"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="167"/>
@@ -5761,7 +5761,7 @@
         <v>0.3</v>
       </c>
       <c r="E29" s="34"/>
-      <c r="F29" s="182"/>
+      <c r="F29" s="187"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="167"/>
@@ -5772,7 +5772,7 @@
         <v>0.3</v>
       </c>
       <c r="E30" s="82"/>
-      <c r="F30" s="182"/>
+      <c r="F30" s="187"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="167"/>
@@ -5783,7 +5783,7 @@
         <v>0.25</v>
       </c>
       <c r="E31" s="82"/>
-      <c r="F31" s="182"/>
+      <c r="F31" s="187"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="167"/>
@@ -5794,9 +5794,9 @@
         <v>0.5</v>
       </c>
       <c r="E32" s="96">
-        <v>0.25</v>
-      </c>
-      <c r="F32" s="182"/>
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="187"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="167"/>
@@ -5807,7 +5807,7 @@
         <v>0.3</v>
       </c>
       <c r="E33" s="82"/>
-      <c r="F33" s="182"/>
+      <c r="F33" s="187"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="167"/>
@@ -5818,7 +5818,7 @@
         <v>0.4</v>
       </c>
       <c r="E34" s="34"/>
-      <c r="F34" s="182"/>
+      <c r="F34" s="187"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="167"/>
@@ -5829,7 +5829,7 @@
         <v>0.4</v>
       </c>
       <c r="E35" s="34"/>
-      <c r="F35" s="182"/>
+      <c r="F35" s="187"/>
     </row>
     <row r="36" spans="2:6" ht="16.2" thickBot="1">
       <c r="B36" s="167"/>
@@ -5840,7 +5840,7 @@
         <v>0.3</v>
       </c>
       <c r="E36" s="105"/>
-      <c r="F36" s="183"/>
+      <c r="F36" s="188"/>
     </row>
     <row r="37" spans="2:6" ht="16.2" thickBot="1">
       <c r="B37" s="167"/>
@@ -5860,7 +5860,7 @@
         <v>0.25</v>
       </c>
       <c r="E38" s="81"/>
-      <c r="F38" s="181">
+      <c r="F38" s="186">
         <f>SUM(E38:E39)</f>
         <v>0</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>0.25</v>
       </c>
       <c r="E39" s="105"/>
-      <c r="F39" s="183"/>
+      <c r="F39" s="188"/>
     </row>
     <row r="40" spans="2:6" ht="16.2" thickBot="1">
       <c r="B40" s="167"/>
@@ -5894,7 +5894,7 @@
         <v>0.1</v>
       </c>
       <c r="E41" s="94"/>
-      <c r="F41" s="181">
+      <c r="F41" s="186">
         <f>SUM(E41:E42)</f>
         <v>0.05</v>
       </c>
@@ -5910,7 +5910,7 @@
       <c r="E42" s="95">
         <v>0.05</v>
       </c>
-      <c r="F42" s="182"/>
+      <c r="F42" s="187"/>
     </row>
     <row r="43" spans="2:6" ht="16.2" thickBot="1">
       <c r="B43" s="167"/>
@@ -5930,7 +5930,7 @@
         <v>0.125</v>
       </c>
       <c r="E44" s="94"/>
-      <c r="F44" s="185">
+      <c r="F44" s="181">
         <f>SUM(E44:E46)</f>
         <v>0.15</v>
       </c>
@@ -5946,7 +5946,7 @@
       <c r="E45" s="85">
         <v>0.15</v>
       </c>
-      <c r="F45" s="186"/>
+      <c r="F45" s="182"/>
     </row>
     <row r="46" spans="2:6" ht="16.2" thickBot="1">
       <c r="B46" s="168"/>
@@ -5959,10 +5959,10 @@
       <c r="E46" s="122" t="s">
         <v>341</v>
       </c>
-      <c r="F46" s="187"/>
+      <c r="F46" s="183"/>
     </row>
     <row r="47" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B47" s="180" t="s">
+      <c r="B47" s="185" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="173"/>
@@ -5970,22 +5970,22 @@
       <c r="E47" s="174"/>
       <c r="F47" s="58">
         <f>SUM(F4:F46)</f>
-        <v>2.5749999999999997</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F4:F11"/>
+    <mergeCell ref="F20:F36"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F38:F39"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="B3:B18"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="B19:B46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F4:F11"/>
-    <mergeCell ref="F20:F36"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5996,7 +5996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F8C43A-DECD-594C-BC3F-270A5E6C60A9}">
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -6037,7 +6037,7 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="188"/>
+      <c r="B4" s="184"/>
       <c r="C4" s="38" t="s">
         <v>305</v>
       </c>
@@ -6053,7 +6053,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B5" s="188"/>
+      <c r="B5" s="184"/>
       <c r="C5" t="s">
         <v>306</v>
       </c>
@@ -6066,7 +6066,7 @@
       <c r="F5" s="154"/>
     </row>
     <row r="6" spans="2:7" ht="16.2" thickBot="1">
-      <c r="B6" s="188"/>
+      <c r="B6" s="184"/>
       <c r="C6" s="58" t="s">
         <v>30</v>
       </c>
@@ -6305,8 +6305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA2FF9E-EF1B-764A-B143-1E2142586A6D}">
   <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6335,7 +6335,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="184" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -6582,6 +6582,7 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="94">
+        <f>D22/2</f>
         <v>0.05</v>
       </c>
       <c r="F22" s="151">
@@ -6597,7 +6598,8 @@
       <c r="D23" s="34">
         <v>0.1</v>
       </c>
-      <c r="E23" s="96">
+      <c r="E23" s="94">
+        <f t="shared" ref="E23:E24" si="0">D23/2</f>
         <v>0.05</v>
       </c>
       <c r="F23" s="152"/>
@@ -6610,7 +6612,8 @@
       <c r="D24" s="36">
         <v>0.1</v>
       </c>
-      <c r="E24" s="95">
+      <c r="E24" s="94">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="F24" s="154"/>
@@ -6678,17 +6681,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F22:F24"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="B17:B28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F22:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6699,8 +6702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D71FAE6-B451-6848-BDAA-C37A96D72161}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:F43"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6717,7 +6720,7 @@
       <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184"/>
+      <c r="C2" s="180"/>
       <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
@@ -6752,7 +6755,7 @@
       </c>
       <c r="F4" s="151">
         <f>SUM(E4:E17)</f>
-        <v>2.2749999999999999</v>
+        <v>2.3499999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -6894,7 +6897,7 @@
         <v>0.15</v>
       </c>
       <c r="E15" s="94">
-        <v>7.4999999999999997E-2</v>
+        <v>0.15</v>
       </c>
       <c r="F15" s="152"/>
     </row>
@@ -7271,21 +7274,21 @@
       <c r="E44" s="133"/>
       <c r="F44" s="70">
         <f>SUM(F4:F43)</f>
-        <v>5.8</v>
+        <v>5.8749999999999991</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B3:B24"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B25:B43"/>
     <mergeCell ref="F35:F40"/>
     <mergeCell ref="F26:F33"/>
     <mergeCell ref="F4:F17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B3:B24"/>
-    <mergeCell ref="F42:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7296,8 +7299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A679EA6-8CB7-A24A-BA70-3CC01102E2D7}">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7764,7 +7767,7 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7801,11 +7804,11 @@
       </c>
       <c r="D3" s="81">
         <f>C3-E3</f>
-        <v>2.0000000000000009</v>
+        <v>1.5000000000000009</v>
       </c>
       <c r="E3" s="81">
         <f>Miscellaneous!D25</f>
-        <v>6.6000000000000005</v>
+        <v>7.1000000000000005</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -7818,11 +7821,11 @@
       </c>
       <c r="D4" s="81">
         <f t="shared" ref="D4:D15" si="0">C4-E4</f>
-        <v>1.200000000000002</v>
+        <v>1.0000000000000027</v>
       </c>
       <c r="E4" s="82">
         <f>Header!F42</f>
-        <v>6.6749999999999998</v>
+        <v>6.8749999999999991</v>
       </c>
       <c r="F4" s="91"/>
     </row>
@@ -7922,11 +7925,11 @@
       </c>
       <c r="D10" s="81">
         <f t="shared" si="0"/>
-        <v>7.2500000000000036</v>
+        <v>6.9250000000000025</v>
       </c>
       <c r="E10" s="82">
         <f>'Story Page'!F47</f>
-        <v>2.5749999999999997</v>
+        <v>2.9</v>
       </c>
       <c r="F10" s="91"/>
     </row>
@@ -7940,11 +7943,11 @@
       </c>
       <c r="D11" s="81">
         <f t="shared" si="0"/>
-        <v>9.8500000000000014</v>
+        <v>9.6500000000000021</v>
       </c>
       <c r="E11" s="82">
         <f>'Direct Message Page'!F38</f>
-        <v>2.125</v>
+        <v>2.3250000000000002</v>
       </c>
       <c r="F11" s="91"/>
     </row>
@@ -7992,11 +7995,11 @@
       </c>
       <c r="D14" s="81">
         <f t="shared" si="0"/>
-        <v>0.77499999999999858</v>
+        <v>0.69999999999999929</v>
       </c>
       <c r="E14" s="82">
         <f>'User Page'!F44</f>
-        <v>5.8</v>
+        <v>5.8749999999999991</v>
       </c>
       <c r="F14" s="91"/>
     </row>
@@ -8025,7 +8028,7 @@
       <c r="D16" s="133"/>
       <c r="E16" s="77">
         <f>SUM(E3:E15)</f>
-        <v>71.75</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -8112,11 +8115,11 @@
       </c>
       <c r="E23">
         <f>E16</f>
-        <v>71.75</v>
+        <v>73.05</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>5.75</v>
+        <v>7.0499999999999972</v>
       </c>
     </row>
     <row r="24" spans="3:6">
@@ -8128,7 +8131,7 @@
       </c>
       <c r="F24">
         <f>E24-E16</f>
-        <v>-1.75</v>
+        <v>-3.0499999999999972</v>
       </c>
     </row>
     <row r="25" spans="3:6">
@@ -8149,8 +8152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE670F-6E02-7D4A-BE09-F54A0BBCCA86}">
   <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8568,7 +8571,7 @@
       </c>
       <c r="F32" s="134">
         <f>SUM(E32:E38)</f>
-        <v>2.0500000000000003</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -8580,7 +8583,7 @@
         <v>0.4</v>
       </c>
       <c r="E33" s="96">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F33" s="134"/>
     </row>
@@ -8704,7 +8707,7 @@
       <c r="E42" s="133"/>
       <c r="F42" s="65">
         <f>SUM(F4:F41)</f>
-        <v>6.6749999999999998</v>
+        <v>6.8749999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -8958,7 +8961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51390118-501D-994C-B11B-72660FCE399A}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:E33"/>
     </sheetView>
   </sheetViews>
@@ -9409,7 +9412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F00672F-D187-8B44-BB8B-7B45D8D47A9A}">
   <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="125" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -10328,7 +10331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA52E4B4-063C-1347-8F70-DFE829911404}">
   <dimension ref="B1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
@@ -11952,6 +11955,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F77:F96"/>
+    <mergeCell ref="F98:F104"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F60:F62"/>
     <mergeCell ref="F64:F65"/>
@@ -11968,8 +11973,6 @@
     <mergeCell ref="F67:F68"/>
     <mergeCell ref="F70:F75"/>
     <mergeCell ref="F106:F111"/>
-    <mergeCell ref="F77:F96"/>
-    <mergeCell ref="F98:F104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11982,7 +11985,7 @@
   <dimension ref="B1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -12338,7 +12341,7 @@
       <c r="E30" s="126"/>
       <c r="F30" s="152">
         <f>SUM(E30:E33)</f>
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -12349,7 +12352,9 @@
       <c r="D31" s="34">
         <v>0.4</v>
       </c>
-      <c r="E31" s="127"/>
+      <c r="E31" s="96">
+        <v>0.2</v>
+      </c>
       <c r="F31" s="152"/>
     </row>
     <row r="32" spans="2:6">
@@ -12436,21 +12441,21 @@
       <c r="E38" s="179"/>
       <c r="F38" s="63">
         <f>SUM(F4:F37)</f>
-        <v>2.125</v>
+        <v>2.3250000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="F35:F37"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B13:B37"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F14:F28"/>
     <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="F35:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
